--- a/Outputs/Gas Transfer Velocity/M5025_Humedad del aire.xlsx
+++ b/Outputs/Gas Transfer Velocity/M5025_Humedad del aire.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1143">
   <si>
     <t>Reporte de Datos Hidrometerológicos</t>
   </si>
@@ -2184,6 +2184,1266 @@
   </si>
   <si>
     <t>2019-07-30 11:00:00</t>
+  </si>
+  <si>
+    <t>2019-07-30 12:00:00</t>
+  </si>
+  <si>
+    <t>2019-07-30 13:00:00</t>
+  </si>
+  <si>
+    <t>2019-07-30 14:00:00</t>
+  </si>
+  <si>
+    <t>2019-07-30 15:00:00</t>
+  </si>
+  <si>
+    <t>2019-07-30 16:00:00</t>
+  </si>
+  <si>
+    <t>2019-07-30 17:00:00</t>
+  </si>
+  <si>
+    <t>2019-07-30 18:00:00</t>
+  </si>
+  <si>
+    <t>2019-07-30 19:00:00</t>
+  </si>
+  <si>
+    <t>2019-07-30 20:00:00</t>
+  </si>
+  <si>
+    <t>2019-07-30 21:00:00</t>
+  </si>
+  <si>
+    <t>2019-07-30 22:00:00</t>
+  </si>
+  <si>
+    <t>2019-07-30 23:00:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 00:00:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 01:00:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 02:00:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 03:00:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 04:00:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 05:00:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 06:00:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 07:00:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 08:00:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 09:00:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:00:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 11:00:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 12:00:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:00:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:00:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 15:00:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 16:00:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 17:00:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 18:00:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 19:00:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 20:00:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 21:00:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 22:00:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 23:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-01 00:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-01 01:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-01 02:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-01 03:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-01 04:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-01 05:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-01 06:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-01 07:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-01 08:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-01 09:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-01 10:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-01 11:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-01 12:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-01 13:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-01 14:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-01 15:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-01 16:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-01 17:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-01 18:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-01 19:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-01 20:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-01 21:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-01 22:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-01 23:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 00:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 01:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 02:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 03:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 04:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 05:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 06:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 07:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 08:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 09:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 11:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 12:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 15:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 16:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 17:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 18:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 19:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 20:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 21:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 22:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 23:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-03 00:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-03 01:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-03 02:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-03 03:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-03 04:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-03 05:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-03 06:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-03 07:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-03 08:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-03 09:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-03 10:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-03 11:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-03 12:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-03 13:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-03 14:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-03 15:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-03 16:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-03 17:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-03 18:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-03 19:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-03 20:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-03 21:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-03 22:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-03 23:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-04 00:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-04 01:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-04 02:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-04 03:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-04 04:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-04 05:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-04 06:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-04 07:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-04 08:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-04 09:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-04 10:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-04 11:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-04 12:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-04 13:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-04 14:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-04 15:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-04 16:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-04 17:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-04 18:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-04 19:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-04 20:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-04 21:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-04 22:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-04 23:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-05 00:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-05 01:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-05 02:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-05 03:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-05 04:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-05 05:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-05 06:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-05 07:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-05 08:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-05 09:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-05 10:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-05 11:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-05 12:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-05 13:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-05 14:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-05 15:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-05 16:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-05 17:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-05 18:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-05 19:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-05 20:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-05 21:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-05 22:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-05 23:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-06 00:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-06 01:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-06 02:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-06 03:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-06 04:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-06 05:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-06 06:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-06 07:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-06 08:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-06 09:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-06 10:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-06 11:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-06 12:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-06 13:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-06 14:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-06 15:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-06 16:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-06 17:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-06 18:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-06 19:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-06 20:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-06 21:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-06 22:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-06 23:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-07 00:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-07 01:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-07 02:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-07 03:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-07 04:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-07 05:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-07 06:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-07 07:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-07 08:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-07 09:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-07 10:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-07 11:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-07 12:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-07 13:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-07 14:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-07 15:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-07 16:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-07 17:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-07 18:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-07 19:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-07 20:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-07 21:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-07 22:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-07 23:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-08 00:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-08 01:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-08 02:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-08 03:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-08 04:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-08 05:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-08 06:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-08 07:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-08 08:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-08 09:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-08 10:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-08 11:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-08 12:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-08 13:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-08 14:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-08 15:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-08 16:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-08 17:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-08 18:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-08 19:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-08 20:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-08 21:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-08 22:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-08 23:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-09 00:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-09 01:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-09 02:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-09 03:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-09 04:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-09 05:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-09 06:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-09 07:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-09 08:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-09 09:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-09 10:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-09 11:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-09 12:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-09 13:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-09 14:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-09 15:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-09 16:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-09 17:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-09 18:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-09 19:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-09 20:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-09 21:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-09 22:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-09 23:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-10 00:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-10 01:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-10 02:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-10 03:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-10 04:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-10 05:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-10 06:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-10 07:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-10 08:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-10 09:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-10 10:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-10 11:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-10 12:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-10 13:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-10 14:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-10 15:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-10 16:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-10 17:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-10 18:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-10 19:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-10 20:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-10 21:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-10 22:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-10 23:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-11 00:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-11 01:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-11 02:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-11 03:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-11 04:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-11 05:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-11 06:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-11 07:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-11 08:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-11 09:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-11 10:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-11 11:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-11 12:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-11 13:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-11 14:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-11 15:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-11 16:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-11 17:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-11 18:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-11 19:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-11 20:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-11 21:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-11 22:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-11 23:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-12 00:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-12 01:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-12 02:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-12 03:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-12 04:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-12 05:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-12 06:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-12 07:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-12 08:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-12 09:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-12 10:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-12 11:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-12 12:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-12 13:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-12 14:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-12 15:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-12 16:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-12 17:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-12 18:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-12 19:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-12 20:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-12 21:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-12 22:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-12 23:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-13 00:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-13 01:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-13 02:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-13 03:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-13 04:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-13 05:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-13 06:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-13 07:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-13 08:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-13 09:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-13 10:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-13 11:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-13 12:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-13 13:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-13 14:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-13 15:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-13 16:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-13 17:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-13 18:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-13 19:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-13 20:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-13 21:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-13 22:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-13 23:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-14 00:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-14 01:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-14 02:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-14 03:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-14 04:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-14 05:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-14 06:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-14 07:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-14 08:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-14 09:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-14 10:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-14 11:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-14 12:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-14 13:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-14 14:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-14 15:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-14 16:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-14 17:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-14 18:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-14 19:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-14 20:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-14 21:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-14 22:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-14 23:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-15 00:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-15 01:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-15 02:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-15 03:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-15 04:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-15 05:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-15 06:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-15 07:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-15 08:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-15 09:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-15 10:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-15 11:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-15 12:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-15 13:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-15 14:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-15 15:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-15 16:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-15 17:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-15 18:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-15 19:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-15 20:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-15 21:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-15 22:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-15 23:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-16 00:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-16 01:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-16 02:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-16 03:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-16 04:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-16 05:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-16 06:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-16 07:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-16 08:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-16 09:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-16 10:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-16 11:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-16 12:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-16 13:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-16 14:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-16 15:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-16 16:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-16 17:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-16 18:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-16 19:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-16 20:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-16 21:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-16 22:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-16 23:00:00</t>
   </si>
 </sst>
 </file>
@@ -2279,12 +3539,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>Sheet!$A$10:$A$718</f>
+              <f>Sheet!$A$10:$A$1138</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>Sheet!$B$10:$B$717</f>
+              <f>Sheet!$B$10:$B$1137</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -2315,12 +3575,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>Sheet!$A$10:$A$718</f>
+              <f>Sheet!$A$10:$A$1138</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>Sheet!$C$10:$C$717</f>
+              <f>Sheet!$C$10:$C$1137</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -2351,12 +3611,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>Sheet!$A$10:$A$718</f>
+              <f>Sheet!$A$10:$A$1138</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>Sheet!$D$10:$D$717</f>
+              <f>Sheet!$D$10:$D$1137</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -2762,7 +4022,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G717"/>
+  <dimension ref="A1:G1137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16976,7 +18236,7 @@
         <v>722</v>
       </c>
       <c r="B717" t="n">
-        <v>77.25511111111111</v>
+        <v>77.54241666666667</v>
       </c>
       <c r="C717" t="n">
         <v>80.627</v>
@@ -16989,6 +18249,8406 @@
       </c>
       <c r="F717" t="n">
         <v>74.90600000000001</v>
+      </c>
+    </row>
+    <row r="718" spans="1:7">
+      <c r="A718" t="s">
+        <v>723</v>
+      </c>
+      <c r="B718" t="n">
+        <v>73.38116666666667</v>
+      </c>
+      <c r="C718" t="n">
+        <v>79.41200000000001</v>
+      </c>
+      <c r="D718" t="n">
+        <v>66.602</v>
+      </c>
+      <c r="E718" t="n">
+        <v>76.301</v>
+      </c>
+      <c r="F718" t="n">
+        <v>69.733</v>
+      </c>
+    </row>
+    <row r="719" spans="1:7">
+      <c r="A719" t="s">
+        <v>724</v>
+      </c>
+      <c r="B719" t="n">
+        <v>78.65808333333334</v>
+      </c>
+      <c r="C719" t="n">
+        <v>86.187</v>
+      </c>
+      <c r="D719" t="n">
+        <v>72.057</v>
+      </c>
+      <c r="E719" t="n">
+        <v>85.292</v>
+      </c>
+      <c r="F719" t="n">
+        <v>74.965</v>
+      </c>
+    </row>
+    <row r="720" spans="1:7">
+      <c r="A720" t="s">
+        <v>725</v>
+      </c>
+      <c r="B720" t="n">
+        <v>93.65191666666666</v>
+      </c>
+      <c r="C720" t="n">
+        <v>98.435</v>
+      </c>
+      <c r="D720" t="n">
+        <v>86.501</v>
+      </c>
+      <c r="E720" t="n">
+        <v>98.22</v>
+      </c>
+      <c r="F720" t="n">
+        <v>87.34699999999999</v>
+      </c>
+    </row>
+    <row r="721" spans="1:7">
+      <c r="A721" t="s">
+        <v>726</v>
+      </c>
+      <c r="B721" t="n">
+        <v>98.49525</v>
+      </c>
+      <c r="C721" t="n">
+        <v>98.816</v>
+      </c>
+      <c r="D721" t="n">
+        <v>97.946</v>
+      </c>
+      <c r="E721" t="n">
+        <v>98.66500000000001</v>
+      </c>
+      <c r="F721" t="n">
+        <v>98.15300000000001</v>
+      </c>
+    </row>
+    <row r="722" spans="1:7">
+      <c r="A722" t="s">
+        <v>727</v>
+      </c>
+      <c r="B722" t="n">
+        <v>99.06058333333333</v>
+      </c>
+      <c r="C722" t="n">
+        <v>99.324</v>
+      </c>
+      <c r="D722" t="n">
+        <v>98.747</v>
+      </c>
+      <c r="E722" t="n">
+        <v>99.265</v>
+      </c>
+      <c r="F722" t="n">
+        <v>98.81399999999999</v>
+      </c>
+    </row>
+    <row r="723" spans="1:7">
+      <c r="A723" t="s">
+        <v>728</v>
+      </c>
+      <c r="B723" t="n">
+        <v>99.37991666666667</v>
+      </c>
+      <c r="C723" t="n">
+        <v>99.51000000000001</v>
+      </c>
+      <c r="D723" t="n">
+        <v>99.242</v>
+      </c>
+      <c r="E723" t="n">
+        <v>99.45099999999999</v>
+      </c>
+      <c r="F723" t="n">
+        <v>99.28100000000001</v>
+      </c>
+    </row>
+    <row r="724" spans="1:7">
+      <c r="A724" t="s">
+        <v>729</v>
+      </c>
+      <c r="B724" t="n">
+        <v>99.39216666666667</v>
+      </c>
+      <c r="C724" t="n">
+        <v>99.54600000000001</v>
+      </c>
+      <c r="D724" t="n">
+        <v>99.18899999999999</v>
+      </c>
+      <c r="E724" t="n">
+        <v>99.483</v>
+      </c>
+      <c r="F724" t="n">
+        <v>99.259</v>
+      </c>
+    </row>
+    <row r="725" spans="1:7">
+      <c r="A725" t="s">
+        <v>730</v>
+      </c>
+      <c r="B725" t="n">
+        <v>98.72450000000001</v>
+      </c>
+      <c r="C725" t="n">
+        <v>99.321</v>
+      </c>
+      <c r="D725" t="n">
+        <v>98.226</v>
+      </c>
+      <c r="E725" t="n">
+        <v>99.214</v>
+      </c>
+      <c r="F725" t="n">
+        <v>98.289</v>
+      </c>
+    </row>
+    <row r="726" spans="1:7">
+      <c r="A726" t="s">
+        <v>731</v>
+      </c>
+      <c r="B726" t="n">
+        <v>98.23408333333333</v>
+      </c>
+      <c r="C726" t="n">
+        <v>98.598</v>
+      </c>
+      <c r="D726" t="n">
+        <v>97.565</v>
+      </c>
+      <c r="E726" t="n">
+        <v>98.503</v>
+      </c>
+      <c r="F726" t="n">
+        <v>97.753</v>
+      </c>
+    </row>
+    <row r="727" spans="1:7">
+      <c r="A727" t="s">
+        <v>732</v>
+      </c>
+      <c r="B727" t="n">
+        <v>96.17891666666667</v>
+      </c>
+      <c r="C727" t="n">
+        <v>97.76300000000001</v>
+      </c>
+      <c r="D727" t="n">
+        <v>95.199</v>
+      </c>
+      <c r="E727" t="n">
+        <v>97.46899999999999</v>
+      </c>
+      <c r="F727" t="n">
+        <v>95.526</v>
+      </c>
+    </row>
+    <row r="728" spans="1:7">
+      <c r="A728" t="s">
+        <v>733</v>
+      </c>
+      <c r="B728" t="n">
+        <v>94.65891666666667</v>
+      </c>
+      <c r="C728" t="n">
+        <v>96.72499999999999</v>
+      </c>
+      <c r="D728" t="n">
+        <v>92.73</v>
+      </c>
+      <c r="E728" t="n">
+        <v>96.47</v>
+      </c>
+      <c r="F728" t="n">
+        <v>92.90300000000001</v>
+      </c>
+    </row>
+    <row r="729" spans="1:7">
+      <c r="A729" t="s">
+        <v>734</v>
+      </c>
+      <c r="B729" t="n">
+        <v>92.26900000000001</v>
+      </c>
+      <c r="C729" t="n">
+        <v>94.58799999999999</v>
+      </c>
+      <c r="D729" t="n">
+        <v>90.854</v>
+      </c>
+      <c r="E729" t="n">
+        <v>94.19</v>
+      </c>
+      <c r="F729" t="n">
+        <v>91.173</v>
+      </c>
+    </row>
+    <row r="730" spans="1:7">
+      <c r="A730" t="s">
+        <v>735</v>
+      </c>
+      <c r="B730" t="n">
+        <v>96.05233333333334</v>
+      </c>
+      <c r="C730" t="n">
+        <v>98.194</v>
+      </c>
+      <c r="D730" t="n">
+        <v>92.712</v>
+      </c>
+      <c r="E730" t="n">
+        <v>98.081</v>
+      </c>
+      <c r="F730" t="n">
+        <v>92.842</v>
+      </c>
+    </row>
+    <row r="731" spans="1:7">
+      <c r="A731" t="s">
+        <v>736</v>
+      </c>
+      <c r="B731" t="n">
+        <v>98.5065</v>
+      </c>
+      <c r="C731" t="n">
+        <v>98.98399999999999</v>
+      </c>
+      <c r="D731" t="n">
+        <v>97.501</v>
+      </c>
+      <c r="E731" t="n">
+        <v>98.935</v>
+      </c>
+      <c r="F731" t="n">
+        <v>97.973</v>
+      </c>
+    </row>
+    <row r="732" spans="1:7">
+      <c r="A732" t="s">
+        <v>737</v>
+      </c>
+      <c r="B732" t="n">
+        <v>95.68075</v>
+      </c>
+      <c r="C732" t="n">
+        <v>97.943</v>
+      </c>
+      <c r="D732" t="n">
+        <v>93.125</v>
+      </c>
+      <c r="E732" t="n">
+        <v>97.751</v>
+      </c>
+      <c r="F732" t="n">
+        <v>93.852</v>
+      </c>
+    </row>
+    <row r="733" spans="1:7">
+      <c r="A733" t="s">
+        <v>738</v>
+      </c>
+      <c r="B733" t="n">
+        <v>97.91366666666667</v>
+      </c>
+      <c r="C733" t="n">
+        <v>98.49299999999999</v>
+      </c>
+      <c r="D733" t="n">
+        <v>96.97499999999999</v>
+      </c>
+      <c r="E733" t="n">
+        <v>98.407</v>
+      </c>
+      <c r="F733" t="n">
+        <v>97.18000000000001</v>
+      </c>
+    </row>
+    <row r="734" spans="1:7">
+      <c r="A734" t="s">
+        <v>739</v>
+      </c>
+      <c r="B734" t="n">
+        <v>97.83466666666666</v>
+      </c>
+      <c r="C734" t="n">
+        <v>98.404</v>
+      </c>
+      <c r="D734" t="n">
+        <v>97.072</v>
+      </c>
+      <c r="E734" t="n">
+        <v>98.09699999999999</v>
+      </c>
+      <c r="F734" t="n">
+        <v>97.544</v>
+      </c>
+    </row>
+    <row r="735" spans="1:7">
+      <c r="A735" t="s">
+        <v>740</v>
+      </c>
+      <c r="B735" t="n">
+        <v>96.75266666666667</v>
+      </c>
+      <c r="C735" t="n">
+        <v>98.503</v>
+      </c>
+      <c r="D735" t="n">
+        <v>93.583</v>
+      </c>
+      <c r="E735" t="n">
+        <v>98.429</v>
+      </c>
+      <c r="F735" t="n">
+        <v>94.253</v>
+      </c>
+    </row>
+    <row r="736" spans="1:7">
+      <c r="A736" t="s">
+        <v>741</v>
+      </c>
+      <c r="B736" t="n">
+        <v>98.03616666666667</v>
+      </c>
+      <c r="C736" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="D736" t="n">
+        <v>95.018</v>
+      </c>
+      <c r="E736" t="n">
+        <v>99.139</v>
+      </c>
+      <c r="F736" t="n">
+        <v>95.63500000000001</v>
+      </c>
+    </row>
+    <row r="737" spans="1:7">
+      <c r="A737" t="s">
+        <v>742</v>
+      </c>
+      <c r="B737" t="n">
+        <v>98.86041666666667</v>
+      </c>
+      <c r="C737" t="n">
+        <v>99.29000000000001</v>
+      </c>
+      <c r="D737" t="n">
+        <v>97.392</v>
+      </c>
+      <c r="E737" t="n">
+        <v>99.25</v>
+      </c>
+      <c r="F737" t="n">
+        <v>97.693</v>
+      </c>
+    </row>
+    <row r="738" spans="1:7">
+      <c r="A738" t="s">
+        <v>743</v>
+      </c>
+      <c r="B738" t="n">
+        <v>98.5265</v>
+      </c>
+      <c r="C738" t="n">
+        <v>99.17400000000001</v>
+      </c>
+      <c r="D738" t="n">
+        <v>97.321</v>
+      </c>
+      <c r="E738" t="n">
+        <v>99.123</v>
+      </c>
+      <c r="F738" t="n">
+        <v>97.452</v>
+      </c>
+    </row>
+    <row r="739" spans="1:7">
+      <c r="A739" t="s">
+        <v>744</v>
+      </c>
+      <c r="B739" t="n">
+        <v>99.25291666666666</v>
+      </c>
+      <c r="C739" t="n">
+        <v>99.45399999999999</v>
+      </c>
+      <c r="D739" t="n">
+        <v>99.081</v>
+      </c>
+      <c r="E739" t="n">
+        <v>99.374</v>
+      </c>
+      <c r="F739" t="n">
+        <v>99.116</v>
+      </c>
+    </row>
+    <row r="740" spans="1:7">
+      <c r="A740" t="s">
+        <v>745</v>
+      </c>
+      <c r="B740" t="n">
+        <v>99.37824999999999</v>
+      </c>
+      <c r="C740" t="n">
+        <v>99.52500000000001</v>
+      </c>
+      <c r="D740" t="n">
+        <v>99.208</v>
+      </c>
+      <c r="E740" t="n">
+        <v>99.48099999999999</v>
+      </c>
+      <c r="F740" t="n">
+        <v>99.27200000000001</v>
+      </c>
+    </row>
+    <row r="741" spans="1:7">
+      <c r="A741" t="s">
+        <v>746</v>
+      </c>
+      <c r="B741" t="n">
+        <v>99.39166666666667</v>
+      </c>
+      <c r="C741" t="n">
+        <v>99.592</v>
+      </c>
+      <c r="D741" t="n">
+        <v>99.21299999999999</v>
+      </c>
+      <c r="E741" t="n">
+        <v>99.462</v>
+      </c>
+      <c r="F741" t="n">
+        <v>99.313</v>
+      </c>
+    </row>
+    <row r="742" spans="1:7">
+      <c r="A742" t="s">
+        <v>747</v>
+      </c>
+      <c r="B742" t="n">
+        <v>99.49166666666666</v>
+      </c>
+      <c r="C742" t="n">
+        <v>99.625</v>
+      </c>
+      <c r="D742" t="n">
+        <v>99.34099999999999</v>
+      </c>
+      <c r="E742" t="n">
+        <v>99.568</v>
+      </c>
+      <c r="F742" t="n">
+        <v>99.419</v>
+      </c>
+    </row>
+    <row r="743" spans="1:7">
+      <c r="A743" t="s">
+        <v>748</v>
+      </c>
+      <c r="B743" t="n">
+        <v>99.58683333333333</v>
+      </c>
+      <c r="C743" t="n">
+        <v>99.684</v>
+      </c>
+      <c r="D743" t="n">
+        <v>99.474</v>
+      </c>
+      <c r="E743" t="n">
+        <v>99.614</v>
+      </c>
+      <c r="F743" t="n">
+        <v>99.55500000000001</v>
+      </c>
+    </row>
+    <row r="744" spans="1:7">
+      <c r="A744" t="s">
+        <v>749</v>
+      </c>
+      <c r="B744" t="n">
+        <v>96.44566666666667</v>
+      </c>
+      <c r="C744" t="n">
+        <v>99.711</v>
+      </c>
+      <c r="D744" t="n">
+        <v>88.80500000000001</v>
+      </c>
+      <c r="E744" t="n">
+        <v>99.60599999999999</v>
+      </c>
+      <c r="F744" t="n">
+        <v>90.68300000000001</v>
+      </c>
+    </row>
+    <row r="745" spans="1:7">
+      <c r="A745" t="s">
+        <v>750</v>
+      </c>
+      <c r="B745" t="n">
+        <v>88.47791666666667</v>
+      </c>
+      <c r="C745" t="n">
+        <v>92.634</v>
+      </c>
+      <c r="D745" t="n">
+        <v>84.791</v>
+      </c>
+      <c r="E745" t="n">
+        <v>91.399</v>
+      </c>
+      <c r="F745" t="n">
+        <v>86.226</v>
+      </c>
+    </row>
+    <row r="746" spans="1:7">
+      <c r="A746" t="s">
+        <v>751</v>
+      </c>
+      <c r="B746" t="n">
+        <v>89.2495</v>
+      </c>
+      <c r="C746" t="n">
+        <v>91.61199999999999</v>
+      </c>
+      <c r="D746" t="n">
+        <v>85.23399999999999</v>
+      </c>
+      <c r="E746" t="n">
+        <v>91.036</v>
+      </c>
+      <c r="F746" t="n">
+        <v>87.157</v>
+      </c>
+    </row>
+    <row r="747" spans="1:7">
+      <c r="A747" t="s">
+        <v>752</v>
+      </c>
+      <c r="B747" t="n">
+        <v>91.12633333333333</v>
+      </c>
+      <c r="C747" t="n">
+        <v>93.14400000000001</v>
+      </c>
+      <c r="D747" t="n">
+        <v>88.946</v>
+      </c>
+      <c r="E747" t="n">
+        <v>92.738</v>
+      </c>
+      <c r="F747" t="n">
+        <v>89.973</v>
+      </c>
+    </row>
+    <row r="748" spans="1:7">
+      <c r="A748" t="s">
+        <v>753</v>
+      </c>
+      <c r="B748" t="n">
+        <v>94.37441666666666</v>
+      </c>
+      <c r="C748" t="n">
+        <v>95.73999999999999</v>
+      </c>
+      <c r="D748" t="n">
+        <v>92.256</v>
+      </c>
+      <c r="E748" t="n">
+        <v>95.377</v>
+      </c>
+      <c r="F748" t="n">
+        <v>93.07299999999999</v>
+      </c>
+    </row>
+    <row r="749" spans="1:7">
+      <c r="A749" t="s">
+        <v>754</v>
+      </c>
+      <c r="B749" t="n">
+        <v>93.67341666666667</v>
+      </c>
+      <c r="C749" t="n">
+        <v>95.995</v>
+      </c>
+      <c r="D749" t="n">
+        <v>91.348</v>
+      </c>
+      <c r="E749" t="n">
+        <v>95.467</v>
+      </c>
+      <c r="F749" t="n">
+        <v>91.614</v>
+      </c>
+    </row>
+    <row r="750" spans="1:7">
+      <c r="A750" t="s">
+        <v>755</v>
+      </c>
+      <c r="B750" t="n">
+        <v>92.58341666666666</v>
+      </c>
+      <c r="C750" t="n">
+        <v>93.47199999999999</v>
+      </c>
+      <c r="D750" t="n">
+        <v>91.301</v>
+      </c>
+      <c r="E750" t="n">
+        <v>93.194</v>
+      </c>
+      <c r="F750" t="n">
+        <v>91.51900000000001</v>
+      </c>
+    </row>
+    <row r="751" spans="1:7">
+      <c r="A751" t="s">
+        <v>756</v>
+      </c>
+      <c r="B751" t="n">
+        <v>92.17874999999999</v>
+      </c>
+      <c r="C751" t="n">
+        <v>93.916</v>
+      </c>
+      <c r="D751" t="n">
+        <v>90.331</v>
+      </c>
+      <c r="E751" t="n">
+        <v>93.607</v>
+      </c>
+      <c r="F751" t="n">
+        <v>90.667</v>
+      </c>
+    </row>
+    <row r="752" spans="1:7">
+      <c r="A752" t="s">
+        <v>757</v>
+      </c>
+      <c r="B752" t="n">
+        <v>92.55391666666667</v>
+      </c>
+      <c r="C752" t="n">
+        <v>93.91500000000001</v>
+      </c>
+      <c r="D752" t="n">
+        <v>90.974</v>
+      </c>
+      <c r="E752" t="n">
+        <v>93.48999999999999</v>
+      </c>
+      <c r="F752" t="n">
+        <v>91.387</v>
+      </c>
+    </row>
+    <row r="753" spans="1:7">
+      <c r="A753" t="s">
+        <v>758</v>
+      </c>
+      <c r="B753" t="n">
+        <v>93.20325</v>
+      </c>
+      <c r="C753" t="n">
+        <v>94.81699999999999</v>
+      </c>
+      <c r="D753" t="n">
+        <v>91.217</v>
+      </c>
+      <c r="E753" t="n">
+        <v>94.095</v>
+      </c>
+      <c r="F753" t="n">
+        <v>92.381</v>
+      </c>
+    </row>
+    <row r="754" spans="1:7">
+      <c r="A754" t="s">
+        <v>759</v>
+      </c>
+      <c r="B754" t="n">
+        <v>95.63641666666666</v>
+      </c>
+      <c r="C754" t="n">
+        <v>96.723</v>
+      </c>
+      <c r="D754" t="n">
+        <v>93.43600000000001</v>
+      </c>
+      <c r="E754" t="n">
+        <v>96.36499999999999</v>
+      </c>
+      <c r="F754" t="n">
+        <v>93.812</v>
+      </c>
+    </row>
+    <row r="755" spans="1:7">
+      <c r="A755" t="s">
+        <v>760</v>
+      </c>
+      <c r="B755" t="n">
+        <v>94.99341666666666</v>
+      </c>
+      <c r="C755" t="n">
+        <v>97.084</v>
+      </c>
+      <c r="D755" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="E755" t="n">
+        <v>96.627</v>
+      </c>
+      <c r="F755" t="n">
+        <v>92.614</v>
+      </c>
+    </row>
+    <row r="756" spans="1:7">
+      <c r="A756" t="s">
+        <v>761</v>
+      </c>
+      <c r="B756" t="n">
+        <v>91.46708333333333</v>
+      </c>
+      <c r="C756" t="n">
+        <v>93.499</v>
+      </c>
+      <c r="D756" t="n">
+        <v>90.02</v>
+      </c>
+      <c r="E756" t="n">
+        <v>93.258</v>
+      </c>
+      <c r="F756" t="n">
+        <v>90.19199999999999</v>
+      </c>
+    </row>
+    <row r="757" spans="1:7">
+      <c r="A757" t="s">
+        <v>762</v>
+      </c>
+      <c r="B757" t="n">
+        <v>92.13225</v>
+      </c>
+      <c r="C757" t="n">
+        <v>93.357</v>
+      </c>
+      <c r="D757" t="n">
+        <v>90.864</v>
+      </c>
+      <c r="E757" t="n">
+        <v>93.26300000000001</v>
+      </c>
+      <c r="F757" t="n">
+        <v>91.167</v>
+      </c>
+    </row>
+    <row r="758" spans="1:7">
+      <c r="A758" t="s">
+        <v>763</v>
+      </c>
+      <c r="B758" t="n">
+        <v>91.46174999999999</v>
+      </c>
+      <c r="C758" t="n">
+        <v>93.402</v>
+      </c>
+      <c r="D758" t="n">
+        <v>87.187</v>
+      </c>
+      <c r="E758" t="n">
+        <v>93.261</v>
+      </c>
+      <c r="F758" t="n">
+        <v>88.271</v>
+      </c>
+    </row>
+    <row r="759" spans="1:7">
+      <c r="A759" t="s">
+        <v>764</v>
+      </c>
+      <c r="B759" t="n">
+        <v>85.04658333333333</v>
+      </c>
+      <c r="C759" t="n">
+        <v>89.88200000000001</v>
+      </c>
+      <c r="D759" t="n">
+        <v>76.187</v>
+      </c>
+      <c r="E759" t="n">
+        <v>89.209</v>
+      </c>
+      <c r="F759" t="n">
+        <v>78.396</v>
+      </c>
+    </row>
+    <row r="760" spans="1:7">
+      <c r="A760" t="s">
+        <v>765</v>
+      </c>
+      <c r="B760" t="n">
+        <v>79.77808333333333</v>
+      </c>
+      <c r="C760" t="n">
+        <v>88.623</v>
+      </c>
+      <c r="D760" t="n">
+        <v>73.462</v>
+      </c>
+      <c r="E760" t="n">
+        <v>87.55500000000001</v>
+      </c>
+      <c r="F760" t="n">
+        <v>74.79000000000001</v>
+      </c>
+    </row>
+    <row r="761" spans="1:7">
+      <c r="A761" t="s">
+        <v>766</v>
+      </c>
+      <c r="B761" t="n">
+        <v>86.149</v>
+      </c>
+      <c r="C761" t="n">
+        <v>89.65600000000001</v>
+      </c>
+      <c r="D761" t="n">
+        <v>82.806</v>
+      </c>
+      <c r="E761" t="n">
+        <v>88.598</v>
+      </c>
+      <c r="F761" t="n">
+        <v>84.036</v>
+      </c>
+    </row>
+    <row r="762" spans="1:7">
+      <c r="A762" t="s">
+        <v>767</v>
+      </c>
+      <c r="B762" t="n">
+        <v>83.07875</v>
+      </c>
+      <c r="C762" t="n">
+        <v>86.45</v>
+      </c>
+      <c r="D762" t="n">
+        <v>79.202</v>
+      </c>
+      <c r="E762" t="n">
+        <v>84.81100000000001</v>
+      </c>
+      <c r="F762" t="n">
+        <v>80.65900000000001</v>
+      </c>
+    </row>
+    <row r="763" spans="1:7">
+      <c r="A763" t="s">
+        <v>768</v>
+      </c>
+      <c r="B763" t="n">
+        <v>80.402</v>
+      </c>
+      <c r="C763" t="n">
+        <v>83.063</v>
+      </c>
+      <c r="D763" t="n">
+        <v>77.229</v>
+      </c>
+      <c r="E763" t="n">
+        <v>81.816</v>
+      </c>
+      <c r="F763" t="n">
+        <v>78.497</v>
+      </c>
+    </row>
+    <row r="764" spans="1:7">
+      <c r="A764" t="s">
+        <v>769</v>
+      </c>
+      <c r="B764" t="n">
+        <v>77.38391666666666</v>
+      </c>
+      <c r="C764" t="n">
+        <v>80.71299999999999</v>
+      </c>
+      <c r="D764" t="n">
+        <v>73.887</v>
+      </c>
+      <c r="E764" t="n">
+        <v>79.194</v>
+      </c>
+      <c r="F764" t="n">
+        <v>75.56399999999999</v>
+      </c>
+    </row>
+    <row r="765" spans="1:7">
+      <c r="A765" t="s">
+        <v>770</v>
+      </c>
+      <c r="B765" t="n">
+        <v>81.24066666666667</v>
+      </c>
+      <c r="C765" t="n">
+        <v>86.318</v>
+      </c>
+      <c r="D765" t="n">
+        <v>74.792</v>
+      </c>
+      <c r="E765" t="n">
+        <v>85.42</v>
+      </c>
+      <c r="F765" t="n">
+        <v>76.523</v>
+      </c>
+    </row>
+    <row r="766" spans="1:7">
+      <c r="A766" t="s">
+        <v>771</v>
+      </c>
+      <c r="B766" t="n">
+        <v>86.21575</v>
+      </c>
+      <c r="C766" t="n">
+        <v>89.081</v>
+      </c>
+      <c r="D766" t="n">
+        <v>81.83199999999999</v>
+      </c>
+      <c r="E766" t="n">
+        <v>87.786</v>
+      </c>
+      <c r="F766" t="n">
+        <v>83.414</v>
+      </c>
+    </row>
+    <row r="767" spans="1:7">
+      <c r="A767" t="s">
+        <v>772</v>
+      </c>
+      <c r="B767" t="n">
+        <v>83.68141666666666</v>
+      </c>
+      <c r="C767" t="n">
+        <v>88.672</v>
+      </c>
+      <c r="D767" t="n">
+        <v>77.211</v>
+      </c>
+      <c r="E767" t="n">
+        <v>87.32599999999999</v>
+      </c>
+      <c r="F767" t="n">
+        <v>79.551</v>
+      </c>
+    </row>
+    <row r="768" spans="1:7">
+      <c r="A768" t="s">
+        <v>773</v>
+      </c>
+      <c r="B768" t="n">
+        <v>90.03666666666666</v>
+      </c>
+      <c r="C768" t="n">
+        <v>95.23999999999999</v>
+      </c>
+      <c r="D768" t="n">
+        <v>81.05500000000001</v>
+      </c>
+      <c r="E768" t="n">
+        <v>94.66800000000001</v>
+      </c>
+      <c r="F768" t="n">
+        <v>82.699</v>
+      </c>
+    </row>
+    <row r="769" spans="1:7">
+      <c r="A769" t="s">
+        <v>774</v>
+      </c>
+      <c r="B769" t="n">
+        <v>89.70008333333334</v>
+      </c>
+      <c r="C769" t="n">
+        <v>93.637</v>
+      </c>
+      <c r="D769" t="n">
+        <v>82.964</v>
+      </c>
+      <c r="E769" t="n">
+        <v>91.813</v>
+      </c>
+      <c r="F769" t="n">
+        <v>87.657</v>
+      </c>
+    </row>
+    <row r="770" spans="1:7">
+      <c r="A770" t="s">
+        <v>775</v>
+      </c>
+      <c r="B770" t="n">
+        <v>85.1305</v>
+      </c>
+      <c r="C770" t="n">
+        <v>88.86499999999999</v>
+      </c>
+      <c r="D770" t="n">
+        <v>78.44499999999999</v>
+      </c>
+      <c r="E770" t="n">
+        <v>88.17400000000001</v>
+      </c>
+      <c r="F770" t="n">
+        <v>81.79000000000001</v>
+      </c>
+    </row>
+    <row r="771" spans="1:7">
+      <c r="A771" t="s">
+        <v>776</v>
+      </c>
+      <c r="B771" t="n">
+        <v>94.58225</v>
+      </c>
+      <c r="C771" t="n">
+        <v>97.696</v>
+      </c>
+      <c r="D771" t="n">
+        <v>85.432</v>
+      </c>
+      <c r="E771" t="n">
+        <v>97.533</v>
+      </c>
+      <c r="F771" t="n">
+        <v>87.554</v>
+      </c>
+    </row>
+    <row r="772" spans="1:7">
+      <c r="A772" t="s">
+        <v>777</v>
+      </c>
+      <c r="B772" t="n">
+        <v>97.27175</v>
+      </c>
+      <c r="C772" t="n">
+        <v>97.92700000000001</v>
+      </c>
+      <c r="D772" t="n">
+        <v>96.492</v>
+      </c>
+      <c r="E772" t="n">
+        <v>97.79000000000001</v>
+      </c>
+      <c r="F772" t="n">
+        <v>96.639</v>
+      </c>
+    </row>
+    <row r="773" spans="1:7">
+      <c r="A773" t="s">
+        <v>778</v>
+      </c>
+      <c r="B773" t="n">
+        <v>98.32675</v>
+      </c>
+      <c r="C773" t="n">
+        <v>99.131</v>
+      </c>
+      <c r="D773" t="n">
+        <v>96.709</v>
+      </c>
+      <c r="E773" t="n">
+        <v>99.07299999999999</v>
+      </c>
+      <c r="F773" t="n">
+        <v>96.86499999999999</v>
+      </c>
+    </row>
+    <row r="774" spans="1:7">
+      <c r="A774" t="s">
+        <v>779</v>
+      </c>
+      <c r="B774" t="n">
+        <v>95.90091666666666</v>
+      </c>
+      <c r="C774" t="n">
+        <v>99.02800000000001</v>
+      </c>
+      <c r="D774" t="n">
+        <v>93.075</v>
+      </c>
+      <c r="E774" t="n">
+        <v>98.874</v>
+      </c>
+      <c r="F774" t="n">
+        <v>93.48999999999999</v>
+      </c>
+    </row>
+    <row r="775" spans="1:7">
+      <c r="A775" t="s">
+        <v>780</v>
+      </c>
+      <c r="B775" t="n">
+        <v>95.04416666666667</v>
+      </c>
+      <c r="C775" t="n">
+        <v>96.428</v>
+      </c>
+      <c r="D775" t="n">
+        <v>93.521</v>
+      </c>
+      <c r="E775" t="n">
+        <v>96.25</v>
+      </c>
+      <c r="F775" t="n">
+        <v>93.80800000000001</v>
+      </c>
+    </row>
+    <row r="776" spans="1:7">
+      <c r="A776" t="s">
+        <v>781</v>
+      </c>
+      <c r="B776" t="n">
+        <v>94.46433333333333</v>
+      </c>
+      <c r="C776" t="n">
+        <v>96.166</v>
+      </c>
+      <c r="D776" t="n">
+        <v>91.995</v>
+      </c>
+      <c r="E776" t="n">
+        <v>96.014</v>
+      </c>
+      <c r="F776" t="n">
+        <v>92.818</v>
+      </c>
+    </row>
+    <row r="777" spans="1:7">
+      <c r="A777" t="s">
+        <v>782</v>
+      </c>
+      <c r="B777" t="n">
+        <v>94.874</v>
+      </c>
+      <c r="C777" t="n">
+        <v>95.58</v>
+      </c>
+      <c r="D777" t="n">
+        <v>93.95</v>
+      </c>
+      <c r="E777" t="n">
+        <v>95.44199999999999</v>
+      </c>
+      <c r="F777" t="n">
+        <v>94.157</v>
+      </c>
+    </row>
+    <row r="778" spans="1:7">
+      <c r="A778" t="s">
+        <v>783</v>
+      </c>
+      <c r="B778" t="n">
+        <v>95.848</v>
+      </c>
+      <c r="C778" t="n">
+        <v>96.694</v>
+      </c>
+      <c r="D778" t="n">
+        <v>94.429</v>
+      </c>
+      <c r="E778" t="n">
+        <v>96.511</v>
+      </c>
+      <c r="F778" t="n">
+        <v>94.598</v>
+      </c>
+    </row>
+    <row r="779" spans="1:7">
+      <c r="A779" t="s">
+        <v>784</v>
+      </c>
+      <c r="B779" t="n">
+        <v>96.88175</v>
+      </c>
+      <c r="C779" t="n">
+        <v>97.422</v>
+      </c>
+      <c r="D779" t="n">
+        <v>96.38800000000001</v>
+      </c>
+      <c r="E779" t="n">
+        <v>97.33499999999999</v>
+      </c>
+      <c r="F779" t="n">
+        <v>96.504</v>
+      </c>
+    </row>
+    <row r="780" spans="1:7">
+      <c r="A780" t="s">
+        <v>785</v>
+      </c>
+      <c r="B780" t="n">
+        <v>96.53491666666666</v>
+      </c>
+      <c r="C780" t="n">
+        <v>98.105</v>
+      </c>
+      <c r="D780" t="n">
+        <v>95.081</v>
+      </c>
+      <c r="E780" t="n">
+        <v>98.02200000000001</v>
+      </c>
+      <c r="F780" t="n">
+        <v>95.40900000000001</v>
+      </c>
+    </row>
+    <row r="781" spans="1:7">
+      <c r="A781" t="s">
+        <v>786</v>
+      </c>
+      <c r="B781" t="n">
+        <v>98.90308333333333</v>
+      </c>
+      <c r="C781" t="n">
+        <v>99.32599999999999</v>
+      </c>
+      <c r="D781" t="n">
+        <v>98.039</v>
+      </c>
+      <c r="E781" t="n">
+        <v>99.26900000000001</v>
+      </c>
+      <c r="F781" t="n">
+        <v>98.20699999999999</v>
+      </c>
+    </row>
+    <row r="782" spans="1:7">
+      <c r="A782" t="s">
+        <v>787</v>
+      </c>
+      <c r="B782" t="n">
+        <v>99.28941666666667</v>
+      </c>
+      <c r="C782" t="n">
+        <v>99.44499999999999</v>
+      </c>
+      <c r="D782" t="n">
+        <v>98.959</v>
+      </c>
+      <c r="E782" t="n">
+        <v>99.392</v>
+      </c>
+      <c r="F782" t="n">
+        <v>99.05800000000001</v>
+      </c>
+    </row>
+    <row r="783" spans="1:7">
+      <c r="A783" t="s">
+        <v>788</v>
+      </c>
+      <c r="B783" t="n">
+        <v>98.81591666666667</v>
+      </c>
+      <c r="C783" t="n">
+        <v>99.15900000000001</v>
+      </c>
+      <c r="D783" t="n">
+        <v>98.259</v>
+      </c>
+      <c r="E783" t="n">
+        <v>99.086</v>
+      </c>
+      <c r="F783" t="n">
+        <v>98.511</v>
+      </c>
+    </row>
+    <row r="784" spans="1:7">
+      <c r="A784" t="s">
+        <v>789</v>
+      </c>
+      <c r="B784" t="n">
+        <v>95.64283333333333</v>
+      </c>
+      <c r="C784" t="n">
+        <v>98.404</v>
+      </c>
+      <c r="D784" t="n">
+        <v>93.556</v>
+      </c>
+      <c r="E784" t="n">
+        <v>98.273</v>
+      </c>
+      <c r="F784" t="n">
+        <v>93.84099999999999</v>
+      </c>
+    </row>
+    <row r="785" spans="1:7">
+      <c r="A785" t="s">
+        <v>790</v>
+      </c>
+      <c r="B785" t="n">
+        <v>96.22841666666666</v>
+      </c>
+      <c r="C785" t="n">
+        <v>97.929</v>
+      </c>
+      <c r="D785" t="n">
+        <v>94.42700000000001</v>
+      </c>
+      <c r="E785" t="n">
+        <v>97.682</v>
+      </c>
+      <c r="F785" t="n">
+        <v>94.79000000000001</v>
+      </c>
+    </row>
+    <row r="786" spans="1:7">
+      <c r="A786" t="s">
+        <v>791</v>
+      </c>
+      <c r="B786" t="n">
+        <v>95.15725</v>
+      </c>
+      <c r="C786" t="n">
+        <v>96.398</v>
+      </c>
+      <c r="D786" t="n">
+        <v>92.587</v>
+      </c>
+      <c r="E786" t="n">
+        <v>95.96599999999999</v>
+      </c>
+      <c r="F786" t="n">
+        <v>93.739</v>
+      </c>
+    </row>
+    <row r="787" spans="1:7">
+      <c r="A787" t="s">
+        <v>792</v>
+      </c>
+      <c r="B787" t="n">
+        <v>92.4165</v>
+      </c>
+      <c r="C787" t="n">
+        <v>96.267</v>
+      </c>
+      <c r="D787" t="n">
+        <v>87.188</v>
+      </c>
+      <c r="E787" t="n">
+        <v>95.438</v>
+      </c>
+      <c r="F787" t="n">
+        <v>88.095</v>
+      </c>
+    </row>
+    <row r="788" spans="1:7">
+      <c r="A788" t="s">
+        <v>793</v>
+      </c>
+      <c r="B788" t="n">
+        <v>89.17141666666667</v>
+      </c>
+      <c r="C788" t="n">
+        <v>91.139</v>
+      </c>
+      <c r="D788" t="n">
+        <v>86.833</v>
+      </c>
+      <c r="E788" t="n">
+        <v>90.36</v>
+      </c>
+      <c r="F788" t="n">
+        <v>87.16</v>
+      </c>
+    </row>
+    <row r="789" spans="1:7">
+      <c r="A789" t="s">
+        <v>794</v>
+      </c>
+      <c r="B789" t="n">
+        <v>84.99025</v>
+      </c>
+      <c r="C789" t="n">
+        <v>90.22</v>
+      </c>
+      <c r="D789" t="n">
+        <v>78.574</v>
+      </c>
+      <c r="E789" t="n">
+        <v>88.10599999999999</v>
+      </c>
+      <c r="F789" t="n">
+        <v>81.121</v>
+      </c>
+    </row>
+    <row r="790" spans="1:7">
+      <c r="A790" t="s">
+        <v>795</v>
+      </c>
+      <c r="B790" t="n">
+        <v>89.15166666666667</v>
+      </c>
+      <c r="C790" t="n">
+        <v>94.06399999999999</v>
+      </c>
+      <c r="D790" t="n">
+        <v>83.77</v>
+      </c>
+      <c r="E790" t="n">
+        <v>93.506</v>
+      </c>
+      <c r="F790" t="n">
+        <v>85.09</v>
+      </c>
+    </row>
+    <row r="791" spans="1:7">
+      <c r="A791" t="s">
+        <v>796</v>
+      </c>
+      <c r="B791" t="n">
+        <v>84.68608333333333</v>
+      </c>
+      <c r="C791" t="n">
+        <v>89.78400000000001</v>
+      </c>
+      <c r="D791" t="n">
+        <v>80.711</v>
+      </c>
+      <c r="E791" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="F791" t="n">
+        <v>82.66500000000001</v>
+      </c>
+    </row>
+    <row r="792" spans="1:7">
+      <c r="A792" t="s">
+        <v>797</v>
+      </c>
+      <c r="B792" t="n">
+        <v>94.77500000000001</v>
+      </c>
+      <c r="C792" t="n">
+        <v>97.93000000000001</v>
+      </c>
+      <c r="D792" t="n">
+        <v>90.36799999999999</v>
+      </c>
+      <c r="E792" t="n">
+        <v>97.361</v>
+      </c>
+      <c r="F792" t="n">
+        <v>91.128</v>
+      </c>
+    </row>
+    <row r="793" spans="1:7">
+      <c r="A793" t="s">
+        <v>798</v>
+      </c>
+      <c r="B793" t="n">
+        <v>94.53116666666666</v>
+      </c>
+      <c r="C793" t="n">
+        <v>96.53100000000001</v>
+      </c>
+      <c r="D793" t="n">
+        <v>92.64700000000001</v>
+      </c>
+      <c r="E793" t="n">
+        <v>95.706</v>
+      </c>
+      <c r="F793" t="n">
+        <v>93.479</v>
+      </c>
+    </row>
+    <row r="794" spans="1:7">
+      <c r="A794" t="s">
+        <v>799</v>
+      </c>
+      <c r="B794" t="n">
+        <v>94.62591666666667</v>
+      </c>
+      <c r="C794" t="n">
+        <v>96.152</v>
+      </c>
+      <c r="D794" t="n">
+        <v>92.354</v>
+      </c>
+      <c r="E794" t="n">
+        <v>95.812</v>
+      </c>
+      <c r="F794" t="n">
+        <v>93.048</v>
+      </c>
+    </row>
+    <row r="795" spans="1:7">
+      <c r="A795" t="s">
+        <v>800</v>
+      </c>
+      <c r="B795" t="n">
+        <v>98.07358333333333</v>
+      </c>
+      <c r="C795" t="n">
+        <v>99.08499999999999</v>
+      </c>
+      <c r="D795" t="n">
+        <v>96.15300000000001</v>
+      </c>
+      <c r="E795" t="n">
+        <v>99.02500000000001</v>
+      </c>
+      <c r="F795" t="n">
+        <v>96.42</v>
+      </c>
+    </row>
+    <row r="796" spans="1:7">
+      <c r="A796" t="s">
+        <v>801</v>
+      </c>
+      <c r="B796" t="n">
+        <v>99.14566666666667</v>
+      </c>
+      <c r="C796" t="n">
+        <v>99.327</v>
+      </c>
+      <c r="D796" t="n">
+        <v>98.96899999999999</v>
+      </c>
+      <c r="E796" t="n">
+        <v>99.25700000000001</v>
+      </c>
+      <c r="F796" t="n">
+        <v>99.033</v>
+      </c>
+    </row>
+    <row r="797" spans="1:7">
+      <c r="A797" t="s">
+        <v>802</v>
+      </c>
+      <c r="B797" t="n">
+        <v>99.01933333333334</v>
+      </c>
+      <c r="C797" t="n">
+        <v>99.232</v>
+      </c>
+      <c r="D797" t="n">
+        <v>98.736</v>
+      </c>
+      <c r="E797" t="n">
+        <v>99.206</v>
+      </c>
+      <c r="F797" t="n">
+        <v>98.79000000000001</v>
+      </c>
+    </row>
+    <row r="798" spans="1:7">
+      <c r="A798" t="s">
+        <v>803</v>
+      </c>
+      <c r="B798" t="n">
+        <v>99.28858333333334</v>
+      </c>
+      <c r="C798" t="n">
+        <v>99.42400000000001</v>
+      </c>
+      <c r="D798" t="n">
+        <v>99.11799999999999</v>
+      </c>
+      <c r="E798" t="n">
+        <v>99.36499999999999</v>
+      </c>
+      <c r="F798" t="n">
+        <v>99.178</v>
+      </c>
+    </row>
+    <row r="799" spans="1:7">
+      <c r="A799" t="s">
+        <v>804</v>
+      </c>
+      <c r="B799" t="n">
+        <v>99.49075000000001</v>
+      </c>
+      <c r="C799" t="n">
+        <v>99.575</v>
+      </c>
+      <c r="D799" t="n">
+        <v>99.355</v>
+      </c>
+      <c r="E799" t="n">
+        <v>99.54000000000001</v>
+      </c>
+      <c r="F799" t="n">
+        <v>99.40900000000001</v>
+      </c>
+    </row>
+    <row r="800" spans="1:7">
+      <c r="A800" t="s">
+        <v>805</v>
+      </c>
+      <c r="B800" t="n">
+        <v>99.58183333333334</v>
+      </c>
+      <c r="C800" t="n">
+        <v>99.691</v>
+      </c>
+      <c r="D800" t="n">
+        <v>99.51000000000001</v>
+      </c>
+      <c r="E800" t="n">
+        <v>99.628</v>
+      </c>
+      <c r="F800" t="n">
+        <v>99.54000000000001</v>
+      </c>
+    </row>
+    <row r="801" spans="1:7">
+      <c r="A801" t="s">
+        <v>806</v>
+      </c>
+      <c r="B801" t="n">
+        <v>99.64258333333333</v>
+      </c>
+      <c r="C801" t="n">
+        <v>99.739</v>
+      </c>
+      <c r="D801" t="n">
+        <v>99.539</v>
+      </c>
+      <c r="E801" t="n">
+        <v>99.684</v>
+      </c>
+      <c r="F801" t="n">
+        <v>99.595</v>
+      </c>
+    </row>
+    <row r="802" spans="1:7">
+      <c r="A802" t="s">
+        <v>807</v>
+      </c>
+      <c r="B802" t="n">
+        <v>99.70066666666666</v>
+      </c>
+      <c r="C802" t="n">
+        <v>99.776</v>
+      </c>
+      <c r="D802" t="n">
+        <v>99.605</v>
+      </c>
+      <c r="E802" t="n">
+        <v>99.71899999999999</v>
+      </c>
+      <c r="F802" t="n">
+        <v>99.68300000000001</v>
+      </c>
+    </row>
+    <row r="803" spans="1:7">
+      <c r="A803" t="s">
+        <v>808</v>
+      </c>
+      <c r="B803" t="n">
+        <v>99.59266666666667</v>
+      </c>
+      <c r="C803" t="n">
+        <v>99.74299999999999</v>
+      </c>
+      <c r="D803" t="n">
+        <v>99.325</v>
+      </c>
+      <c r="E803" t="n">
+        <v>99.69499999999999</v>
+      </c>
+      <c r="F803" t="n">
+        <v>99.408</v>
+      </c>
+    </row>
+    <row r="804" spans="1:7">
+      <c r="A804" t="s">
+        <v>809</v>
+      </c>
+      <c r="B804" t="n">
+        <v>99.05183333333333</v>
+      </c>
+      <c r="C804" t="n">
+        <v>99.56100000000001</v>
+      </c>
+      <c r="D804" t="n">
+        <v>98.07899999999999</v>
+      </c>
+      <c r="E804" t="n">
+        <v>99.498</v>
+      </c>
+      <c r="F804" t="n">
+        <v>98.422</v>
+      </c>
+    </row>
+    <row r="805" spans="1:7">
+      <c r="A805" t="s">
+        <v>810</v>
+      </c>
+      <c r="B805" t="n">
+        <v>99.128</v>
+      </c>
+      <c r="C805" t="n">
+        <v>99.49299999999999</v>
+      </c>
+      <c r="D805" t="n">
+        <v>98.458</v>
+      </c>
+      <c r="E805" t="n">
+        <v>99.461</v>
+      </c>
+      <c r="F805" t="n">
+        <v>98.556</v>
+      </c>
+    </row>
+    <row r="806" spans="1:7">
+      <c r="A806" t="s">
+        <v>811</v>
+      </c>
+      <c r="B806" t="n">
+        <v>99.22266666666667</v>
+      </c>
+      <c r="C806" t="n">
+        <v>99.542</v>
+      </c>
+      <c r="D806" t="n">
+        <v>98.867</v>
+      </c>
+      <c r="E806" t="n">
+        <v>99.48999999999999</v>
+      </c>
+      <c r="F806" t="n">
+        <v>98.92100000000001</v>
+      </c>
+    </row>
+    <row r="807" spans="1:7">
+      <c r="A807" t="s">
+        <v>812</v>
+      </c>
+      <c r="B807" t="n">
+        <v>99.45225000000001</v>
+      </c>
+      <c r="C807" t="n">
+        <v>99.59099999999999</v>
+      </c>
+      <c r="D807" t="n">
+        <v>99.22499999999999</v>
+      </c>
+      <c r="E807" t="n">
+        <v>99.554</v>
+      </c>
+      <c r="F807" t="n">
+        <v>99.29300000000001</v>
+      </c>
+    </row>
+    <row r="808" spans="1:7">
+      <c r="A808" t="s">
+        <v>813</v>
+      </c>
+      <c r="B808" t="n">
+        <v>99.64125</v>
+      </c>
+      <c r="C808" t="n">
+        <v>99.752</v>
+      </c>
+      <c r="D808" t="n">
+        <v>99.508</v>
+      </c>
+      <c r="E808" t="n">
+        <v>99.702</v>
+      </c>
+      <c r="F808" t="n">
+        <v>99.56399999999999</v>
+      </c>
+    </row>
+    <row r="809" spans="1:7">
+      <c r="A809" t="s">
+        <v>814</v>
+      </c>
+      <c r="B809" t="n">
+        <v>99.71916666666667</v>
+      </c>
+      <c r="C809" t="n">
+        <v>99.79000000000001</v>
+      </c>
+      <c r="D809" t="n">
+        <v>99.64</v>
+      </c>
+      <c r="E809" t="n">
+        <v>99.738</v>
+      </c>
+      <c r="F809" t="n">
+        <v>99.68600000000001</v>
+      </c>
+    </row>
+    <row r="810" spans="1:7">
+      <c r="A810" t="s">
+        <v>815</v>
+      </c>
+      <c r="B810" t="n">
+        <v>99.66833333333334</v>
+      </c>
+      <c r="C810" t="n">
+        <v>99.77200000000001</v>
+      </c>
+      <c r="D810" t="n">
+        <v>99.54600000000001</v>
+      </c>
+      <c r="E810" t="n">
+        <v>99.72</v>
+      </c>
+      <c r="F810" t="n">
+        <v>99.61199999999999</v>
+      </c>
+    </row>
+    <row r="811" spans="1:7">
+      <c r="A811" t="s">
+        <v>816</v>
+      </c>
+      <c r="B811" t="n">
+        <v>99.48258333333334</v>
+      </c>
+      <c r="C811" t="n">
+        <v>99.752</v>
+      </c>
+      <c r="D811" t="n">
+        <v>98.967</v>
+      </c>
+      <c r="E811" t="n">
+        <v>99.687</v>
+      </c>
+      <c r="F811" t="n">
+        <v>99.15000000000001</v>
+      </c>
+    </row>
+    <row r="812" spans="1:7">
+      <c r="A812" t="s">
+        <v>817</v>
+      </c>
+      <c r="B812" t="n">
+        <v>99.01566666666666</v>
+      </c>
+      <c r="C812" t="n">
+        <v>99.396</v>
+      </c>
+      <c r="D812" t="n">
+        <v>98.46899999999999</v>
+      </c>
+      <c r="E812" t="n">
+        <v>99.26600000000001</v>
+      </c>
+      <c r="F812" t="n">
+        <v>98.684</v>
+      </c>
+    </row>
+    <row r="813" spans="1:7">
+      <c r="A813" t="s">
+        <v>818</v>
+      </c>
+      <c r="B813" t="n">
+        <v>99.44974999999999</v>
+      </c>
+      <c r="C813" t="n">
+        <v>99.593</v>
+      </c>
+      <c r="D813" t="n">
+        <v>99.22499999999999</v>
+      </c>
+      <c r="E813" t="n">
+        <v>99.532</v>
+      </c>
+      <c r="F813" t="n">
+        <v>99.294</v>
+      </c>
+    </row>
+    <row r="814" spans="1:7">
+      <c r="A814" t="s">
+        <v>819</v>
+      </c>
+      <c r="B814" t="n">
+        <v>99.48858333333334</v>
+      </c>
+      <c r="C814" t="n">
+        <v>99.68600000000001</v>
+      </c>
+      <c r="D814" t="n">
+        <v>99.13</v>
+      </c>
+      <c r="E814" t="n">
+        <v>99.565</v>
+      </c>
+      <c r="F814" t="n">
+        <v>99.215</v>
+      </c>
+    </row>
+    <row r="815" spans="1:7">
+      <c r="A815" t="s">
+        <v>820</v>
+      </c>
+      <c r="B815" t="n">
+        <v>99.26958333333333</v>
+      </c>
+      <c r="C815" t="n">
+        <v>99.428</v>
+      </c>
+      <c r="D815" t="n">
+        <v>99.117</v>
+      </c>
+      <c r="E815" t="n">
+        <v>99.345</v>
+      </c>
+      <c r="F815" t="n">
+        <v>99.197</v>
+      </c>
+    </row>
+    <row r="816" spans="1:7">
+      <c r="A816" t="s">
+        <v>821</v>
+      </c>
+      <c r="B816" t="n">
+        <v>99.05158333333333</v>
+      </c>
+      <c r="C816" t="n">
+        <v>99.527</v>
+      </c>
+      <c r="D816" t="n">
+        <v>96.66</v>
+      </c>
+      <c r="E816" t="n">
+        <v>99.437</v>
+      </c>
+      <c r="F816" t="n">
+        <v>97.167</v>
+      </c>
+    </row>
+    <row r="817" spans="1:7">
+      <c r="A817" t="s">
+        <v>822</v>
+      </c>
+      <c r="B817" t="n">
+        <v>89.43983333333334</v>
+      </c>
+      <c r="C817" t="n">
+        <v>96.72799999999999</v>
+      </c>
+      <c r="D817" t="n">
+        <v>80.679</v>
+      </c>
+      <c r="E817" t="n">
+        <v>95.33</v>
+      </c>
+      <c r="F817" t="n">
+        <v>83.488</v>
+      </c>
+    </row>
+    <row r="818" spans="1:7">
+      <c r="A818" t="s">
+        <v>823</v>
+      </c>
+      <c r="B818" t="n">
+        <v>86.61858333333333</v>
+      </c>
+      <c r="C818" t="n">
+        <v>90.279</v>
+      </c>
+      <c r="D818" t="n">
+        <v>80.419</v>
+      </c>
+      <c r="E818" t="n">
+        <v>89.008</v>
+      </c>
+      <c r="F818" t="n">
+        <v>82.848</v>
+      </c>
+    </row>
+    <row r="819" spans="1:7">
+      <c r="A819" t="s">
+        <v>824</v>
+      </c>
+      <c r="B819" t="n">
+        <v>89.31333333333333</v>
+      </c>
+      <c r="C819" t="n">
+        <v>92.22199999999999</v>
+      </c>
+      <c r="D819" t="n">
+        <v>85.511</v>
+      </c>
+      <c r="E819" t="n">
+        <v>91.30500000000001</v>
+      </c>
+      <c r="F819" t="n">
+        <v>86.858</v>
+      </c>
+    </row>
+    <row r="820" spans="1:7">
+      <c r="A820" t="s">
+        <v>825</v>
+      </c>
+      <c r="B820" t="n">
+        <v>96.188</v>
+      </c>
+      <c r="C820" t="n">
+        <v>98.93000000000001</v>
+      </c>
+      <c r="D820" t="n">
+        <v>92.33499999999999</v>
+      </c>
+      <c r="E820" t="n">
+        <v>98.901</v>
+      </c>
+      <c r="F820" t="n">
+        <v>93.017</v>
+      </c>
+    </row>
+    <row r="821" spans="1:7">
+      <c r="A821" t="s">
+        <v>826</v>
+      </c>
+      <c r="B821" t="n">
+        <v>99.15600000000001</v>
+      </c>
+      <c r="C821" t="n">
+        <v>99.345</v>
+      </c>
+      <c r="D821" t="n">
+        <v>98.944</v>
+      </c>
+      <c r="E821" t="n">
+        <v>99.282</v>
+      </c>
+      <c r="F821" t="n">
+        <v>98.996</v>
+      </c>
+    </row>
+    <row r="822" spans="1:7">
+      <c r="A822" t="s">
+        <v>827</v>
+      </c>
+      <c r="B822" t="n">
+        <v>99.45025</v>
+      </c>
+      <c r="C822" t="n">
+        <v>99.616</v>
+      </c>
+      <c r="D822" t="n">
+        <v>99.28</v>
+      </c>
+      <c r="E822" t="n">
+        <v>99.54600000000001</v>
+      </c>
+      <c r="F822" t="n">
+        <v>99.32899999999999</v>
+      </c>
+    </row>
+    <row r="823" spans="1:7">
+      <c r="A823" t="s">
+        <v>828</v>
+      </c>
+      <c r="B823" t="n">
+        <v>99.602</v>
+      </c>
+      <c r="C823" t="n">
+        <v>99.68899999999999</v>
+      </c>
+      <c r="D823" t="n">
+        <v>99.50700000000001</v>
+      </c>
+      <c r="E823" t="n">
+        <v>99.636</v>
+      </c>
+      <c r="F823" t="n">
+        <v>99.53700000000001</v>
+      </c>
+    </row>
+    <row r="824" spans="1:7">
+      <c r="A824" t="s">
+        <v>829</v>
+      </c>
+      <c r="B824" t="n">
+        <v>99.66425</v>
+      </c>
+      <c r="C824" t="n">
+        <v>99.751</v>
+      </c>
+      <c r="D824" t="n">
+        <v>99.575</v>
+      </c>
+      <c r="E824" t="n">
+        <v>99.691</v>
+      </c>
+      <c r="F824" t="n">
+        <v>99.63</v>
+      </c>
+    </row>
+    <row r="825" spans="1:7">
+      <c r="A825" t="s">
+        <v>830</v>
+      </c>
+      <c r="B825" t="n">
+        <v>99.69008333333333</v>
+      </c>
+      <c r="C825" t="n">
+        <v>99.783</v>
+      </c>
+      <c r="D825" t="n">
+        <v>99.57299999999999</v>
+      </c>
+      <c r="E825" t="n">
+        <v>99.73099999999999</v>
+      </c>
+      <c r="F825" t="n">
+        <v>99.66</v>
+      </c>
+    </row>
+    <row r="826" spans="1:7">
+      <c r="A826" t="s">
+        <v>831</v>
+      </c>
+      <c r="B826" t="n">
+        <v>99.72208333333333</v>
+      </c>
+      <c r="C826" t="n">
+        <v>99.789</v>
+      </c>
+      <c r="D826" t="n">
+        <v>99.64</v>
+      </c>
+      <c r="E826" t="n">
+        <v>99.741</v>
+      </c>
+      <c r="F826" t="n">
+        <v>99.69799999999999</v>
+      </c>
+    </row>
+    <row r="827" spans="1:7">
+      <c r="A827" t="s">
+        <v>832</v>
+      </c>
+      <c r="B827" t="n">
+        <v>99.70008333333334</v>
+      </c>
+      <c r="C827" t="n">
+        <v>99.789</v>
+      </c>
+      <c r="D827" t="n">
+        <v>99.60599999999999</v>
+      </c>
+      <c r="E827" t="n">
+        <v>99.736</v>
+      </c>
+      <c r="F827" t="n">
+        <v>99.68300000000001</v>
+      </c>
+    </row>
+    <row r="828" spans="1:7">
+      <c r="A828" t="s">
+        <v>833</v>
+      </c>
+      <c r="B828" t="n">
+        <v>99.73208333333334</v>
+      </c>
+      <c r="C828" t="n">
+        <v>99.791</v>
+      </c>
+      <c r="D828" t="n">
+        <v>99.65300000000001</v>
+      </c>
+      <c r="E828" t="n">
+        <v>99.76600000000001</v>
+      </c>
+      <c r="F828" t="n">
+        <v>99.703</v>
+      </c>
+    </row>
+    <row r="829" spans="1:7">
+      <c r="A829" t="s">
+        <v>834</v>
+      </c>
+      <c r="B829" t="n">
+        <v>99.76808333333334</v>
+      </c>
+      <c r="C829" t="n">
+        <v>99.79000000000001</v>
+      </c>
+      <c r="D829" t="n">
+        <v>99.706</v>
+      </c>
+      <c r="E829" t="n">
+        <v>99.782</v>
+      </c>
+      <c r="F829" t="n">
+        <v>99.735</v>
+      </c>
+    </row>
+    <row r="830" spans="1:7">
+      <c r="A830" t="s">
+        <v>835</v>
+      </c>
+      <c r="B830" t="n">
+        <v>99.77441666666667</v>
+      </c>
+      <c r="C830" t="n">
+        <v>99.791</v>
+      </c>
+      <c r="D830" t="n">
+        <v>99.708</v>
+      </c>
+      <c r="E830" t="n">
+        <v>99.78100000000001</v>
+      </c>
+      <c r="F830" t="n">
+        <v>99.764</v>
+      </c>
+    </row>
+    <row r="831" spans="1:7">
+      <c r="A831" t="s">
+        <v>836</v>
+      </c>
+      <c r="B831" t="n">
+        <v>99.76000000000001</v>
+      </c>
+      <c r="C831" t="n">
+        <v>99.79000000000001</v>
+      </c>
+      <c r="D831" t="n">
+        <v>99.652</v>
+      </c>
+      <c r="E831" t="n">
+        <v>99.782</v>
+      </c>
+      <c r="F831" t="n">
+        <v>99.715</v>
+      </c>
+    </row>
+    <row r="832" spans="1:7">
+      <c r="A832" t="s">
+        <v>837</v>
+      </c>
+      <c r="B832" t="n">
+        <v>99.77866666666667</v>
+      </c>
+      <c r="C832" t="n">
+        <v>99.791</v>
+      </c>
+      <c r="D832" t="n">
+        <v>99.73399999999999</v>
+      </c>
+      <c r="E832" t="n">
+        <v>99.783</v>
+      </c>
+      <c r="F832" t="n">
+        <v>99.771</v>
+      </c>
+    </row>
+    <row r="833" spans="1:7">
+      <c r="A833" t="s">
+        <v>838</v>
+      </c>
+      <c r="B833" t="n">
+        <v>99.73958333333333</v>
+      </c>
+      <c r="C833" t="n">
+        <v>99.791</v>
+      </c>
+      <c r="D833" t="n">
+        <v>99.60299999999999</v>
+      </c>
+      <c r="E833" t="n">
+        <v>99.779</v>
+      </c>
+      <c r="F833" t="n">
+        <v>99.643</v>
+      </c>
+    </row>
+    <row r="834" spans="1:7">
+      <c r="A834" t="s">
+        <v>839</v>
+      </c>
+      <c r="B834" t="n">
+        <v>99.62791666666666</v>
+      </c>
+      <c r="C834" t="n">
+        <v>99.78700000000001</v>
+      </c>
+      <c r="D834" t="n">
+        <v>99.50700000000001</v>
+      </c>
+      <c r="E834" t="n">
+        <v>99.747</v>
+      </c>
+      <c r="F834" t="n">
+        <v>99.562</v>
+      </c>
+    </row>
+    <row r="835" spans="1:7">
+      <c r="A835" t="s">
+        <v>840</v>
+      </c>
+      <c r="B835" t="n">
+        <v>99.62908333333333</v>
+      </c>
+      <c r="C835" t="n">
+        <v>99.724</v>
+      </c>
+      <c r="D835" t="n">
+        <v>99.47799999999999</v>
+      </c>
+      <c r="E835" t="n">
+        <v>99.67700000000001</v>
+      </c>
+      <c r="F835" t="n">
+        <v>99.55200000000001</v>
+      </c>
+    </row>
+    <row r="836" spans="1:7">
+      <c r="A836" t="s">
+        <v>841</v>
+      </c>
+      <c r="B836" t="n">
+        <v>99.73283333333333</v>
+      </c>
+      <c r="C836" t="n">
+        <v>99.791</v>
+      </c>
+      <c r="D836" t="n">
+        <v>99.611</v>
+      </c>
+      <c r="E836" t="n">
+        <v>99.764</v>
+      </c>
+      <c r="F836" t="n">
+        <v>99.658</v>
+      </c>
+    </row>
+    <row r="837" spans="1:7">
+      <c r="A837" t="s">
+        <v>842</v>
+      </c>
+      <c r="B837" t="n">
+        <v>99.49666666666667</v>
+      </c>
+      <c r="C837" t="n">
+        <v>99.789</v>
+      </c>
+      <c r="D837" t="n">
+        <v>99.03</v>
+      </c>
+      <c r="E837" t="n">
+        <v>99.755</v>
+      </c>
+      <c r="F837" t="n">
+        <v>99.151</v>
+      </c>
+    </row>
+    <row r="838" spans="1:7">
+      <c r="A838" t="s">
+        <v>843</v>
+      </c>
+      <c r="B838" t="n">
+        <v>99.17633333333333</v>
+      </c>
+      <c r="C838" t="n">
+        <v>99.527</v>
+      </c>
+      <c r="D838" t="n">
+        <v>98.72</v>
+      </c>
+      <c r="E838" t="n">
+        <v>99.339</v>
+      </c>
+      <c r="F838" t="n">
+        <v>98.913</v>
+      </c>
+    </row>
+    <row r="839" spans="1:7">
+      <c r="A839" t="s">
+        <v>844</v>
+      </c>
+      <c r="B839" t="n">
+        <v>98.30791666666667</v>
+      </c>
+      <c r="C839" t="n">
+        <v>99.324</v>
+      </c>
+      <c r="D839" t="n">
+        <v>97.274</v>
+      </c>
+      <c r="E839" t="n">
+        <v>99.09699999999999</v>
+      </c>
+      <c r="F839" t="n">
+        <v>97.51000000000001</v>
+      </c>
+    </row>
+    <row r="840" spans="1:7">
+      <c r="A840" t="s">
+        <v>845</v>
+      </c>
+      <c r="B840" t="n">
+        <v>96.99566666666666</v>
+      </c>
+      <c r="C840" t="n">
+        <v>98.241</v>
+      </c>
+      <c r="D840" t="n">
+        <v>95.428</v>
+      </c>
+      <c r="E840" t="n">
+        <v>98.047</v>
+      </c>
+      <c r="F840" t="n">
+        <v>95.884</v>
+      </c>
+    </row>
+    <row r="841" spans="1:7">
+      <c r="A841" t="s">
+        <v>846</v>
+      </c>
+      <c r="B841" t="n">
+        <v>99.07058333333333</v>
+      </c>
+      <c r="C841" t="n">
+        <v>99.458</v>
+      </c>
+      <c r="D841" t="n">
+        <v>98.297</v>
+      </c>
+      <c r="E841" t="n">
+        <v>99.38500000000001</v>
+      </c>
+      <c r="F841" t="n">
+        <v>98.465</v>
+      </c>
+    </row>
+    <row r="842" spans="1:7">
+      <c r="A842" t="s">
+        <v>847</v>
+      </c>
+      <c r="B842" t="n">
+        <v>99.52516666666666</v>
+      </c>
+      <c r="C842" t="n">
+        <v>99.688</v>
+      </c>
+      <c r="D842" t="n">
+        <v>99.392</v>
+      </c>
+      <c r="E842" t="n">
+        <v>99.60299999999999</v>
+      </c>
+      <c r="F842" t="n">
+        <v>99.429</v>
+      </c>
+    </row>
+    <row r="843" spans="1:7">
+      <c r="A843" t="s">
+        <v>848</v>
+      </c>
+      <c r="B843" t="n">
+        <v>99.65225</v>
+      </c>
+      <c r="C843" t="n">
+        <v>99.73699999999999</v>
+      </c>
+      <c r="D843" t="n">
+        <v>99.553</v>
+      </c>
+      <c r="E843" t="n">
+        <v>99.69499999999999</v>
+      </c>
+      <c r="F843" t="n">
+        <v>99.60899999999999</v>
+      </c>
+    </row>
+    <row r="844" spans="1:7">
+      <c r="A844" t="s">
+        <v>849</v>
+      </c>
+      <c r="B844" t="n">
+        <v>99.74316666666667</v>
+      </c>
+      <c r="C844" t="n">
+        <v>99.79300000000001</v>
+      </c>
+      <c r="D844" t="n">
+        <v>99.67</v>
+      </c>
+      <c r="E844" t="n">
+        <v>99.771</v>
+      </c>
+      <c r="F844" t="n">
+        <v>99.708</v>
+      </c>
+    </row>
+    <row r="845" spans="1:7">
+      <c r="A845" t="s">
+        <v>850</v>
+      </c>
+      <c r="B845" t="n">
+        <v>99.77733333333333</v>
+      </c>
+      <c r="C845" t="n">
+        <v>99.803</v>
+      </c>
+      <c r="D845" t="n">
+        <v>99.732</v>
+      </c>
+      <c r="E845" t="n">
+        <v>99.783</v>
+      </c>
+      <c r="F845" t="n">
+        <v>99.774</v>
+      </c>
+    </row>
+    <row r="846" spans="1:7">
+      <c r="A846" t="s">
+        <v>851</v>
+      </c>
+      <c r="B846" t="n">
+        <v>99.77683333333333</v>
+      </c>
+      <c r="C846" t="n">
+        <v>99.788</v>
+      </c>
+      <c r="D846" t="n">
+        <v>99.765</v>
+      </c>
+      <c r="E846" t="n">
+        <v>99.78100000000001</v>
+      </c>
+      <c r="F846" t="n">
+        <v>99.773</v>
+      </c>
+    </row>
+    <row r="847" spans="1:7">
+      <c r="A847" t="s">
+        <v>852</v>
+      </c>
+      <c r="B847" t="n">
+        <v>99.77733333333333</v>
+      </c>
+      <c r="C847" t="n">
+        <v>99.804</v>
+      </c>
+      <c r="D847" t="n">
+        <v>99.764</v>
+      </c>
+      <c r="E847" t="n">
+        <v>99.78</v>
+      </c>
+      <c r="F847" t="n">
+        <v>99.773</v>
+      </c>
+    </row>
+    <row r="848" spans="1:7">
+      <c r="A848" t="s">
+        <v>853</v>
+      </c>
+      <c r="B848" t="n">
+        <v>99.77733333333333</v>
+      </c>
+      <c r="C848" t="n">
+        <v>99.788</v>
+      </c>
+      <c r="D848" t="n">
+        <v>99.764</v>
+      </c>
+      <c r="E848" t="n">
+        <v>99.78</v>
+      </c>
+      <c r="F848" t="n">
+        <v>99.774</v>
+      </c>
+    </row>
+    <row r="849" spans="1:7">
+      <c r="A849" t="s">
+        <v>854</v>
+      </c>
+      <c r="B849" t="n">
+        <v>99.77758333333334</v>
+      </c>
+      <c r="C849" t="n">
+        <v>99.788</v>
+      </c>
+      <c r="D849" t="n">
+        <v>99.764</v>
+      </c>
+      <c r="E849" t="n">
+        <v>99.779</v>
+      </c>
+      <c r="F849" t="n">
+        <v>99.77500000000001</v>
+      </c>
+    </row>
+    <row r="850" spans="1:7">
+      <c r="A850" t="s">
+        <v>855</v>
+      </c>
+      <c r="B850" t="n">
+        <v>99.77675000000001</v>
+      </c>
+      <c r="C850" t="n">
+        <v>99.788</v>
+      </c>
+      <c r="D850" t="n">
+        <v>99.764</v>
+      </c>
+      <c r="E850" t="n">
+        <v>99.779</v>
+      </c>
+      <c r="F850" t="n">
+        <v>99.774</v>
+      </c>
+    </row>
+    <row r="851" spans="1:7">
+      <c r="A851" t="s">
+        <v>856</v>
+      </c>
+      <c r="B851" t="n">
+        <v>99.77691666666666</v>
+      </c>
+      <c r="C851" t="n">
+        <v>99.788</v>
+      </c>
+      <c r="D851" t="n">
+        <v>99.764</v>
+      </c>
+      <c r="E851" t="n">
+        <v>99.779</v>
+      </c>
+      <c r="F851" t="n">
+        <v>99.774</v>
+      </c>
+    </row>
+    <row r="852" spans="1:7">
+      <c r="A852" t="s">
+        <v>857</v>
+      </c>
+      <c r="B852" t="n">
+        <v>99.77641666666666</v>
+      </c>
+      <c r="C852" t="n">
+        <v>99.788</v>
+      </c>
+      <c r="D852" t="n">
+        <v>99.764</v>
+      </c>
+      <c r="E852" t="n">
+        <v>99.779</v>
+      </c>
+      <c r="F852" t="n">
+        <v>99.773</v>
+      </c>
+    </row>
+    <row r="853" spans="1:7">
+      <c r="A853" t="s">
+        <v>858</v>
+      </c>
+      <c r="B853" t="n">
+        <v>99.77725</v>
+      </c>
+      <c r="C853" t="n">
+        <v>99.788</v>
+      </c>
+      <c r="D853" t="n">
+        <v>99.764</v>
+      </c>
+      <c r="E853" t="n">
+        <v>99.78100000000001</v>
+      </c>
+      <c r="F853" t="n">
+        <v>99.774</v>
+      </c>
+    </row>
+    <row r="854" spans="1:7">
+      <c r="A854" t="s">
+        <v>859</v>
+      </c>
+      <c r="B854" t="n">
+        <v>99.7765</v>
+      </c>
+      <c r="C854" t="n">
+        <v>99.78700000000001</v>
+      </c>
+      <c r="D854" t="n">
+        <v>99.764</v>
+      </c>
+      <c r="E854" t="n">
+        <v>99.78</v>
+      </c>
+      <c r="F854" t="n">
+        <v>99.774</v>
+      </c>
+    </row>
+    <row r="855" spans="1:7">
+      <c r="A855" t="s">
+        <v>860</v>
+      </c>
+      <c r="B855" t="n">
+        <v>99.77633333333333</v>
+      </c>
+      <c r="C855" t="n">
+        <v>99.78700000000001</v>
+      </c>
+      <c r="D855" t="n">
+        <v>99.764</v>
+      </c>
+      <c r="E855" t="n">
+        <v>99.78</v>
+      </c>
+      <c r="F855" t="n">
+        <v>99.774</v>
+      </c>
+    </row>
+    <row r="856" spans="1:7">
+      <c r="A856" t="s">
+        <v>861</v>
+      </c>
+      <c r="B856" t="n">
+        <v>99.77341666666666</v>
+      </c>
+      <c r="C856" t="n">
+        <v>99.79000000000001</v>
+      </c>
+      <c r="D856" t="n">
+        <v>99.673</v>
+      </c>
+      <c r="E856" t="n">
+        <v>99.78100000000001</v>
+      </c>
+      <c r="F856" t="n">
+        <v>99.735</v>
+      </c>
+    </row>
+    <row r="857" spans="1:7">
+      <c r="A857" t="s">
+        <v>862</v>
+      </c>
+      <c r="B857" t="n">
+        <v>99.08091666666667</v>
+      </c>
+      <c r="C857" t="n">
+        <v>99.72199999999999</v>
+      </c>
+      <c r="D857" t="n">
+        <v>98.425</v>
+      </c>
+      <c r="E857" t="n">
+        <v>99.617</v>
+      </c>
+      <c r="F857" t="n">
+        <v>98.532</v>
+      </c>
+    </row>
+    <row r="858" spans="1:7">
+      <c r="A858" t="s">
+        <v>863</v>
+      </c>
+      <c r="B858" t="n">
+        <v>99.01725</v>
+      </c>
+      <c r="C858" t="n">
+        <v>99.589</v>
+      </c>
+      <c r="D858" t="n">
+        <v>98.358</v>
+      </c>
+      <c r="E858" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="F858" t="n">
+        <v>98.48099999999999</v>
+      </c>
+    </row>
+    <row r="859" spans="1:7">
+      <c r="A859" t="s">
+        <v>864</v>
+      </c>
+      <c r="B859" t="n">
+        <v>99.62016666666666</v>
+      </c>
+      <c r="C859" t="n">
+        <v>99.735</v>
+      </c>
+      <c r="D859" t="n">
+        <v>99.47499999999999</v>
+      </c>
+      <c r="E859" t="n">
+        <v>99.67700000000001</v>
+      </c>
+      <c r="F859" t="n">
+        <v>99.54300000000001</v>
+      </c>
+    </row>
+    <row r="860" spans="1:7">
+      <c r="A860" t="s">
+        <v>865</v>
+      </c>
+      <c r="B860" t="n">
+        <v>99.62916666666666</v>
+      </c>
+      <c r="C860" t="n">
+        <v>99.751</v>
+      </c>
+      <c r="D860" t="n">
+        <v>99.474</v>
+      </c>
+      <c r="E860" t="n">
+        <v>99.672</v>
+      </c>
+      <c r="F860" t="n">
+        <v>99.586</v>
+      </c>
+    </row>
+    <row r="861" spans="1:7">
+      <c r="A861" t="s">
+        <v>866</v>
+      </c>
+      <c r="B861" t="n">
+        <v>99.00466666666667</v>
+      </c>
+      <c r="C861" t="n">
+        <v>99.723</v>
+      </c>
+      <c r="D861" t="n">
+        <v>96.61199999999999</v>
+      </c>
+      <c r="E861" t="n">
+        <v>99.55500000000001</v>
+      </c>
+      <c r="F861" t="n">
+        <v>97.053</v>
+      </c>
+    </row>
+    <row r="862" spans="1:7">
+      <c r="A862" t="s">
+        <v>867</v>
+      </c>
+      <c r="B862" t="n">
+        <v>90.37275</v>
+      </c>
+      <c r="C862" t="n">
+        <v>97.94799999999999</v>
+      </c>
+      <c r="D862" t="n">
+        <v>79.279</v>
+      </c>
+      <c r="E862" t="n">
+        <v>97.256</v>
+      </c>
+      <c r="F862" t="n">
+        <v>81.69799999999999</v>
+      </c>
+    </row>
+    <row r="863" spans="1:7">
+      <c r="A863" t="s">
+        <v>868</v>
+      </c>
+      <c r="B863" t="n">
+        <v>87.39633333333333</v>
+      </c>
+      <c r="C863" t="n">
+        <v>92.86799999999999</v>
+      </c>
+      <c r="D863" t="n">
+        <v>81.599</v>
+      </c>
+      <c r="E863" t="n">
+        <v>92.25700000000001</v>
+      </c>
+      <c r="F863" t="n">
+        <v>84.14400000000001</v>
+      </c>
+    </row>
+    <row r="864" spans="1:7">
+      <c r="A864" t="s">
+        <v>869</v>
+      </c>
+      <c r="B864" t="n">
+        <v>87.11508333333333</v>
+      </c>
+      <c r="C864" t="n">
+        <v>91.712</v>
+      </c>
+      <c r="D864" t="n">
+        <v>82.702</v>
+      </c>
+      <c r="E864" t="n">
+        <v>90.40600000000001</v>
+      </c>
+      <c r="F864" t="n">
+        <v>83.896</v>
+      </c>
+    </row>
+    <row r="865" spans="1:7">
+      <c r="A865" t="s">
+        <v>870</v>
+      </c>
+      <c r="B865" t="n">
+        <v>86.60808333333334</v>
+      </c>
+      <c r="C865" t="n">
+        <v>89.685</v>
+      </c>
+      <c r="D865" t="n">
+        <v>83.01300000000001</v>
+      </c>
+      <c r="E865" t="n">
+        <v>88.971</v>
+      </c>
+      <c r="F865" t="n">
+        <v>83.944</v>
+      </c>
+    </row>
+    <row r="866" spans="1:7">
+      <c r="A866" t="s">
+        <v>871</v>
+      </c>
+      <c r="B866" t="n">
+        <v>89.07774999999999</v>
+      </c>
+      <c r="C866" t="n">
+        <v>92.468</v>
+      </c>
+      <c r="D866" t="n">
+        <v>84.099</v>
+      </c>
+      <c r="E866" t="n">
+        <v>92.125</v>
+      </c>
+      <c r="F866" t="n">
+        <v>85.35299999999999</v>
+      </c>
+    </row>
+    <row r="867" spans="1:7">
+      <c r="A867" t="s">
+        <v>872</v>
+      </c>
+      <c r="B867" t="n">
+        <v>96.05575</v>
+      </c>
+      <c r="C867" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="D867" t="n">
+        <v>90.761</v>
+      </c>
+      <c r="E867" t="n">
+        <v>98.69499999999999</v>
+      </c>
+      <c r="F867" t="n">
+        <v>91.12</v>
+      </c>
+    </row>
+    <row r="868" spans="1:7">
+      <c r="A868" t="s">
+        <v>873</v>
+      </c>
+      <c r="B868" t="n">
+        <v>91.43441666666666</v>
+      </c>
+      <c r="C868" t="n">
+        <v>96.137</v>
+      </c>
+      <c r="D868" t="n">
+        <v>88.964</v>
+      </c>
+      <c r="E868" t="n">
+        <v>95.20999999999999</v>
+      </c>
+      <c r="F868" t="n">
+        <v>90.026</v>
+      </c>
+    </row>
+    <row r="869" spans="1:7">
+      <c r="A869" t="s">
+        <v>874</v>
+      </c>
+      <c r="B869" t="n">
+        <v>91.81116666666667</v>
+      </c>
+      <c r="C869" t="n">
+        <v>93.434</v>
+      </c>
+      <c r="D869" t="n">
+        <v>89.96899999999999</v>
+      </c>
+      <c r="E869" t="n">
+        <v>92.89700000000001</v>
+      </c>
+      <c r="F869" t="n">
+        <v>90.623</v>
+      </c>
+    </row>
+    <row r="870" spans="1:7">
+      <c r="A870" t="s">
+        <v>875</v>
+      </c>
+      <c r="B870" t="n">
+        <v>90.85566666666666</v>
+      </c>
+      <c r="C870" t="n">
+        <v>92.41800000000001</v>
+      </c>
+      <c r="D870" t="n">
+        <v>89.15900000000001</v>
+      </c>
+      <c r="E870" t="n">
+        <v>92.11799999999999</v>
+      </c>
+      <c r="F870" t="n">
+        <v>89.52500000000001</v>
+      </c>
+    </row>
+    <row r="871" spans="1:7">
+      <c r="A871" t="s">
+        <v>876</v>
+      </c>
+      <c r="B871" t="n">
+        <v>89.50075</v>
+      </c>
+      <c r="C871" t="n">
+        <v>92.31999999999999</v>
+      </c>
+      <c r="D871" t="n">
+        <v>88.273</v>
+      </c>
+      <c r="E871" t="n">
+        <v>91.673</v>
+      </c>
+      <c r="F871" t="n">
+        <v>88.673</v>
+      </c>
+    </row>
+    <row r="872" spans="1:7">
+      <c r="A872" t="s">
+        <v>877</v>
+      </c>
+      <c r="B872" t="n">
+        <v>91.57108333333333</v>
+      </c>
+      <c r="C872" t="n">
+        <v>92.767</v>
+      </c>
+      <c r="D872" t="n">
+        <v>89.739</v>
+      </c>
+      <c r="E872" t="n">
+        <v>92.431</v>
+      </c>
+      <c r="F872" t="n">
+        <v>90.61</v>
+      </c>
+    </row>
+    <row r="873" spans="1:7">
+      <c r="A873" t="s">
+        <v>878</v>
+      </c>
+      <c r="B873" t="n">
+        <v>90.53166666666667</v>
+      </c>
+      <c r="C873" t="n">
+        <v>91.83</v>
+      </c>
+      <c r="D873" t="n">
+        <v>88.62</v>
+      </c>
+      <c r="E873" t="n">
+        <v>91.626</v>
+      </c>
+      <c r="F873" t="n">
+        <v>88.98</v>
+      </c>
+    </row>
+    <row r="874" spans="1:7">
+      <c r="A874" t="s">
+        <v>879</v>
+      </c>
+      <c r="B874" t="n">
+        <v>90.62475000000001</v>
+      </c>
+      <c r="C874" t="n">
+        <v>91.348</v>
+      </c>
+      <c r="D874" t="n">
+        <v>88.836</v>
+      </c>
+      <c r="E874" t="n">
+        <v>91.246</v>
+      </c>
+      <c r="F874" t="n">
+        <v>89.93899999999999</v>
+      </c>
+    </row>
+    <row r="875" spans="1:7">
+      <c r="A875" t="s">
+        <v>880</v>
+      </c>
+      <c r="B875" t="n">
+        <v>90.86341666666667</v>
+      </c>
+      <c r="C875" t="n">
+        <v>92.41500000000001</v>
+      </c>
+      <c r="D875" t="n">
+        <v>89.461</v>
+      </c>
+      <c r="E875" t="n">
+        <v>91.742</v>
+      </c>
+      <c r="F875" t="n">
+        <v>90.03100000000001</v>
+      </c>
+    </row>
+    <row r="876" spans="1:7">
+      <c r="A876" t="s">
+        <v>881</v>
+      </c>
+      <c r="B876" t="n">
+        <v>90.41091666666667</v>
+      </c>
+      <c r="C876" t="n">
+        <v>92.074</v>
+      </c>
+      <c r="D876" t="n">
+        <v>88.241</v>
+      </c>
+      <c r="E876" t="n">
+        <v>91.721</v>
+      </c>
+      <c r="F876" t="n">
+        <v>88.907</v>
+      </c>
+    </row>
+    <row r="877" spans="1:7">
+      <c r="A877" t="s">
+        <v>882</v>
+      </c>
+      <c r="B877" t="n">
+        <v>90.6215</v>
+      </c>
+      <c r="C877" t="n">
+        <v>91.726</v>
+      </c>
+      <c r="D877" t="n">
+        <v>88.786</v>
+      </c>
+      <c r="E877" t="n">
+        <v>91.41200000000001</v>
+      </c>
+      <c r="F877" t="n">
+        <v>89.741</v>
+      </c>
+    </row>
+    <row r="878" spans="1:7">
+      <c r="A878" t="s">
+        <v>883</v>
+      </c>
+      <c r="B878" t="n">
+        <v>91.49525</v>
+      </c>
+      <c r="C878" t="n">
+        <v>93.22499999999999</v>
+      </c>
+      <c r="D878" t="n">
+        <v>89.67400000000001</v>
+      </c>
+      <c r="E878" t="n">
+        <v>92.965</v>
+      </c>
+      <c r="F878" t="n">
+        <v>90.143</v>
+      </c>
+    </row>
+    <row r="879" spans="1:7">
+      <c r="A879" t="s">
+        <v>884</v>
+      </c>
+      <c r="B879" t="n">
+        <v>92.91841666666667</v>
+      </c>
+      <c r="C879" t="n">
+        <v>94.705</v>
+      </c>
+      <c r="D879" t="n">
+        <v>89.345</v>
+      </c>
+      <c r="E879" t="n">
+        <v>94.134</v>
+      </c>
+      <c r="F879" t="n">
+        <v>90.084</v>
+      </c>
+    </row>
+    <row r="880" spans="1:7">
+      <c r="A880" t="s">
+        <v>885</v>
+      </c>
+      <c r="B880" t="n">
+        <v>92.66066666666667</v>
+      </c>
+      <c r="C880" t="n">
+        <v>95.31399999999999</v>
+      </c>
+      <c r="D880" t="n">
+        <v>89.852</v>
+      </c>
+      <c r="E880" t="n">
+        <v>94.94</v>
+      </c>
+      <c r="F880" t="n">
+        <v>90.83499999999999</v>
+      </c>
+    </row>
+    <row r="881" spans="1:7">
+      <c r="A881" t="s">
+        <v>886</v>
+      </c>
+      <c r="B881" t="n">
+        <v>91.20441666666666</v>
+      </c>
+      <c r="C881" t="n">
+        <v>94.322</v>
+      </c>
+      <c r="D881" t="n">
+        <v>88.39</v>
+      </c>
+      <c r="E881" t="n">
+        <v>93.66500000000001</v>
+      </c>
+      <c r="F881" t="n">
+        <v>89.16500000000001</v>
+      </c>
+    </row>
+    <row r="882" spans="1:7">
+      <c r="A882" t="s">
+        <v>887</v>
+      </c>
+      <c r="B882" t="n">
+        <v>92.40791666666667</v>
+      </c>
+      <c r="C882" t="n">
+        <v>95.39400000000001</v>
+      </c>
+      <c r="D882" t="n">
+        <v>89.133</v>
+      </c>
+      <c r="E882" t="n">
+        <v>94.988</v>
+      </c>
+      <c r="F882" t="n">
+        <v>89.84699999999999</v>
+      </c>
+    </row>
+    <row r="883" spans="1:7">
+      <c r="A883" t="s">
+        <v>888</v>
+      </c>
+      <c r="B883" t="n">
+        <v>87.00658333333334</v>
+      </c>
+      <c r="C883" t="n">
+        <v>90.16800000000001</v>
+      </c>
+      <c r="D883" t="n">
+        <v>85.086</v>
+      </c>
+      <c r="E883" t="n">
+        <v>89.589</v>
+      </c>
+      <c r="F883" t="n">
+        <v>85.938</v>
+      </c>
+    </row>
+    <row r="884" spans="1:7">
+      <c r="A884" t="s">
+        <v>889</v>
+      </c>
+      <c r="B884" t="n">
+        <v>85.43266666666666</v>
+      </c>
+      <c r="C884" t="n">
+        <v>87.55500000000001</v>
+      </c>
+      <c r="D884" t="n">
+        <v>81.83</v>
+      </c>
+      <c r="E884" t="n">
+        <v>86.94</v>
+      </c>
+      <c r="F884" t="n">
+        <v>82.59699999999999</v>
+      </c>
+    </row>
+    <row r="885" spans="1:7">
+      <c r="A885" t="s">
+        <v>890</v>
+      </c>
+      <c r="B885" t="n">
+        <v>86.12308333333333</v>
+      </c>
+      <c r="C885" t="n">
+        <v>88.965</v>
+      </c>
+      <c r="D885" t="n">
+        <v>83.248</v>
+      </c>
+      <c r="E885" t="n">
+        <v>87.96899999999999</v>
+      </c>
+      <c r="F885" t="n">
+        <v>84.614</v>
+      </c>
+    </row>
+    <row r="886" spans="1:7">
+      <c r="A886" t="s">
+        <v>891</v>
+      </c>
+      <c r="B886" t="n">
+        <v>82.07741666666666</v>
+      </c>
+      <c r="C886" t="n">
+        <v>85.774</v>
+      </c>
+      <c r="D886" t="n">
+        <v>77.34399999999999</v>
+      </c>
+      <c r="E886" t="n">
+        <v>83.95699999999999</v>
+      </c>
+      <c r="F886" t="n">
+        <v>79.861</v>
+      </c>
+    </row>
+    <row r="887" spans="1:7">
+      <c r="A887" t="s">
+        <v>892</v>
+      </c>
+      <c r="B887" t="n">
+        <v>87.8485</v>
+      </c>
+      <c r="C887" t="n">
+        <v>92.285</v>
+      </c>
+      <c r="D887" t="n">
+        <v>83.574</v>
+      </c>
+      <c r="E887" t="n">
+        <v>91.852</v>
+      </c>
+      <c r="F887" t="n">
+        <v>84.878</v>
+      </c>
+    </row>
+    <row r="888" spans="1:7">
+      <c r="A888" t="s">
+        <v>893</v>
+      </c>
+      <c r="B888" t="n">
+        <v>92.09583333333333</v>
+      </c>
+      <c r="C888" t="n">
+        <v>94.52500000000001</v>
+      </c>
+      <c r="D888" t="n">
+        <v>89.194</v>
+      </c>
+      <c r="E888" t="n">
+        <v>93.816</v>
+      </c>
+      <c r="F888" t="n">
+        <v>90.173</v>
+      </c>
+    </row>
+    <row r="889" spans="1:7">
+      <c r="A889" t="s">
+        <v>894</v>
+      </c>
+      <c r="B889" t="n">
+        <v>87.95583333333333</v>
+      </c>
+      <c r="C889" t="n">
+        <v>93.322</v>
+      </c>
+      <c r="D889" t="n">
+        <v>82.931</v>
+      </c>
+      <c r="E889" t="n">
+        <v>92.94499999999999</v>
+      </c>
+      <c r="F889" t="n">
+        <v>84.268</v>
+      </c>
+    </row>
+    <row r="890" spans="1:7">
+      <c r="A890" t="s">
+        <v>895</v>
+      </c>
+      <c r="B890" t="n">
+        <v>89.18675</v>
+      </c>
+      <c r="C890" t="n">
+        <v>92.68300000000001</v>
+      </c>
+      <c r="D890" t="n">
+        <v>86.59699999999999</v>
+      </c>
+      <c r="E890" t="n">
+        <v>92.178</v>
+      </c>
+      <c r="F890" t="n">
+        <v>87.526</v>
+      </c>
+    </row>
+    <row r="891" spans="1:7">
+      <c r="A891" t="s">
+        <v>896</v>
+      </c>
+      <c r="B891" t="n">
+        <v>88.45466666666667</v>
+      </c>
+      <c r="C891" t="n">
+        <v>90.376</v>
+      </c>
+      <c r="D891" t="n">
+        <v>84.791</v>
+      </c>
+      <c r="E891" t="n">
+        <v>89.967</v>
+      </c>
+      <c r="F891" t="n">
+        <v>86.136</v>
+      </c>
+    </row>
+    <row r="892" spans="1:7">
+      <c r="A892" t="s">
+        <v>897</v>
+      </c>
+      <c r="B892" t="n">
+        <v>90.80016666666667</v>
+      </c>
+      <c r="C892" t="n">
+        <v>93.523</v>
+      </c>
+      <c r="D892" t="n">
+        <v>88.33799999999999</v>
+      </c>
+      <c r="E892" t="n">
+        <v>92.637</v>
+      </c>
+      <c r="F892" t="n">
+        <v>89.247</v>
+      </c>
+    </row>
+    <row r="893" spans="1:7">
+      <c r="A893" t="s">
+        <v>898</v>
+      </c>
+      <c r="B893" t="n">
+        <v>87.48999999999999</v>
+      </c>
+      <c r="C893" t="n">
+        <v>91.34699999999999</v>
+      </c>
+      <c r="D893" t="n">
+        <v>83.785</v>
+      </c>
+      <c r="E893" t="n">
+        <v>89.68000000000001</v>
+      </c>
+      <c r="F893" t="n">
+        <v>84.593</v>
+      </c>
+    </row>
+    <row r="894" spans="1:7">
+      <c r="A894" t="s">
+        <v>899</v>
+      </c>
+      <c r="B894" t="n">
+        <v>88.85341666666666</v>
+      </c>
+      <c r="C894" t="n">
+        <v>91.726</v>
+      </c>
+      <c r="D894" t="n">
+        <v>86.054</v>
+      </c>
+      <c r="E894" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="F894" t="n">
+        <v>87.063</v>
+      </c>
+    </row>
+    <row r="895" spans="1:7">
+      <c r="A895" t="s">
+        <v>900</v>
+      </c>
+      <c r="B895" t="n">
+        <v>88.5985</v>
+      </c>
+      <c r="C895" t="n">
+        <v>91.041</v>
+      </c>
+      <c r="D895" t="n">
+        <v>86.009</v>
+      </c>
+      <c r="E895" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="F895" t="n">
+        <v>87.102</v>
+      </c>
+    </row>
+    <row r="896" spans="1:7">
+      <c r="A896" t="s">
+        <v>901</v>
+      </c>
+      <c r="B896" t="n">
+        <v>87.76741666666666</v>
+      </c>
+      <c r="C896" t="n">
+        <v>89.35899999999999</v>
+      </c>
+      <c r="D896" t="n">
+        <v>85.986</v>
+      </c>
+      <c r="E896" t="n">
+        <v>88.956</v>
+      </c>
+      <c r="F896" t="n">
+        <v>86.65600000000001</v>
+      </c>
+    </row>
+    <row r="897" spans="1:7">
+      <c r="A897" t="s">
+        <v>902</v>
+      </c>
+      <c r="B897" t="n">
+        <v>88.9515</v>
+      </c>
+      <c r="C897" t="n">
+        <v>90.313</v>
+      </c>
+      <c r="D897" t="n">
+        <v>87.435</v>
+      </c>
+      <c r="E897" t="n">
+        <v>89.733</v>
+      </c>
+      <c r="F897" t="n">
+        <v>87.83799999999999</v>
+      </c>
+    </row>
+    <row r="898" spans="1:7">
+      <c r="A898" t="s">
+        <v>903</v>
+      </c>
+      <c r="B898" t="n">
+        <v>89.89733333333334</v>
+      </c>
+      <c r="C898" t="n">
+        <v>91.759</v>
+      </c>
+      <c r="D898" t="n">
+        <v>87.30500000000001</v>
+      </c>
+      <c r="E898" t="n">
+        <v>91.51300000000001</v>
+      </c>
+      <c r="F898" t="n">
+        <v>87.657</v>
+      </c>
+    </row>
+    <row r="899" spans="1:7">
+      <c r="A899" t="s">
+        <v>904</v>
+      </c>
+      <c r="B899" t="n">
+        <v>89.66583333333334</v>
+      </c>
+      <c r="C899" t="n">
+        <v>92.782</v>
+      </c>
+      <c r="D899" t="n">
+        <v>86.879</v>
+      </c>
+      <c r="E899" t="n">
+        <v>91.67400000000001</v>
+      </c>
+      <c r="F899" t="n">
+        <v>87.684</v>
+      </c>
+    </row>
+    <row r="900" spans="1:7">
+      <c r="A900" t="s">
+        <v>905</v>
+      </c>
+      <c r="B900" t="n">
+        <v>88.93491666666667</v>
+      </c>
+      <c r="C900" t="n">
+        <v>91.184</v>
+      </c>
+      <c r="D900" t="n">
+        <v>86.02</v>
+      </c>
+      <c r="E900" t="n">
+        <v>90.47799999999999</v>
+      </c>
+      <c r="F900" t="n">
+        <v>86.717</v>
+      </c>
+    </row>
+    <row r="901" spans="1:7">
+      <c r="A901" t="s">
+        <v>906</v>
+      </c>
+      <c r="B901" t="n">
+        <v>87.04591666666667</v>
+      </c>
+      <c r="C901" t="n">
+        <v>88.342</v>
+      </c>
+      <c r="D901" t="n">
+        <v>85.657</v>
+      </c>
+      <c r="E901" t="n">
+        <v>87.961</v>
+      </c>
+      <c r="F901" t="n">
+        <v>86.246</v>
+      </c>
+    </row>
+    <row r="902" spans="1:7">
+      <c r="A902" t="s">
+        <v>907</v>
+      </c>
+      <c r="B902" t="n">
+        <v>87.03283333333333</v>
+      </c>
+      <c r="C902" t="n">
+        <v>88.503</v>
+      </c>
+      <c r="D902" t="n">
+        <v>85.265</v>
+      </c>
+      <c r="E902" t="n">
+        <v>88.292</v>
+      </c>
+      <c r="F902" t="n">
+        <v>85.944</v>
+      </c>
+    </row>
+    <row r="903" spans="1:7">
+      <c r="A903" t="s">
+        <v>908</v>
+      </c>
+      <c r="B903" t="n">
+        <v>88.64749999999999</v>
+      </c>
+      <c r="C903" t="n">
+        <v>91.248</v>
+      </c>
+      <c r="D903" t="n">
+        <v>85.497</v>
+      </c>
+      <c r="E903" t="n">
+        <v>90.864</v>
+      </c>
+      <c r="F903" t="n">
+        <v>86.55200000000001</v>
+      </c>
+    </row>
+    <row r="904" spans="1:7">
+      <c r="A904" t="s">
+        <v>909</v>
+      </c>
+      <c r="B904" t="n">
+        <v>90.50825</v>
+      </c>
+      <c r="C904" t="n">
+        <v>94.557</v>
+      </c>
+      <c r="D904" t="n">
+        <v>86.845</v>
+      </c>
+      <c r="E904" t="n">
+        <v>94.31</v>
+      </c>
+      <c r="F904" t="n">
+        <v>88.169</v>
+      </c>
+    </row>
+    <row r="905" spans="1:7">
+      <c r="A905" t="s">
+        <v>910</v>
+      </c>
+      <c r="B905" t="n">
+        <v>95.173</v>
+      </c>
+      <c r="C905" t="n">
+        <v>96.414</v>
+      </c>
+      <c r="D905" t="n">
+        <v>93.815</v>
+      </c>
+      <c r="E905" t="n">
+        <v>96.24299999999999</v>
+      </c>
+      <c r="F905" t="n">
+        <v>94.20999999999999</v>
+      </c>
+    </row>
+    <row r="906" spans="1:7">
+      <c r="A906" t="s">
+        <v>911</v>
+      </c>
+      <c r="B906" t="n">
+        <v>96.49625</v>
+      </c>
+      <c r="C906" t="n">
+        <v>98.586</v>
+      </c>
+      <c r="D906" t="n">
+        <v>94.376</v>
+      </c>
+      <c r="E906" t="n">
+        <v>98.38200000000001</v>
+      </c>
+      <c r="F906" t="n">
+        <v>94.79300000000001</v>
+      </c>
+    </row>
+    <row r="907" spans="1:7">
+      <c r="A907" t="s">
+        <v>912</v>
+      </c>
+      <c r="B907" t="n">
+        <v>98.72591666666666</v>
+      </c>
+      <c r="C907" t="n">
+        <v>99.057</v>
+      </c>
+      <c r="D907" t="n">
+        <v>98.126</v>
+      </c>
+      <c r="E907" t="n">
+        <v>98.983</v>
+      </c>
+      <c r="F907" t="n">
+        <v>98.465</v>
+      </c>
+    </row>
+    <row r="908" spans="1:7">
+      <c r="A908" t="s">
+        <v>913</v>
+      </c>
+      <c r="B908" t="n">
+        <v>97.63124999999999</v>
+      </c>
+      <c r="C908" t="n">
+        <v>98.374</v>
+      </c>
+      <c r="D908" t="n">
+        <v>96.515</v>
+      </c>
+      <c r="E908" t="n">
+        <v>98.175</v>
+      </c>
+      <c r="F908" t="n">
+        <v>96.80200000000001</v>
+      </c>
+    </row>
+    <row r="909" spans="1:7">
+      <c r="A909" t="s">
+        <v>914</v>
+      </c>
+      <c r="B909" t="n">
+        <v>97.21216666666666</v>
+      </c>
+      <c r="C909" t="n">
+        <v>98.34099999999999</v>
+      </c>
+      <c r="D909" t="n">
+        <v>96.167</v>
+      </c>
+      <c r="E909" t="n">
+        <v>98.22799999999999</v>
+      </c>
+      <c r="F909" t="n">
+        <v>96.443</v>
+      </c>
+    </row>
+    <row r="910" spans="1:7">
+      <c r="A910" t="s">
+        <v>915</v>
+      </c>
+      <c r="B910" t="n">
+        <v>93.71883333333334</v>
+      </c>
+      <c r="C910" t="n">
+        <v>96.89100000000001</v>
+      </c>
+      <c r="D910" t="n">
+        <v>90.562</v>
+      </c>
+      <c r="E910" t="n">
+        <v>96.556</v>
+      </c>
+      <c r="F910" t="n">
+        <v>91.423</v>
+      </c>
+    </row>
+    <row r="911" spans="1:7">
+      <c r="A911" t="s">
+        <v>916</v>
+      </c>
+      <c r="B911" t="n">
+        <v>89.52408333333334</v>
+      </c>
+      <c r="C911" t="n">
+        <v>95.575</v>
+      </c>
+      <c r="D911" t="n">
+        <v>85.694</v>
+      </c>
+      <c r="E911" t="n">
+        <v>95.083</v>
+      </c>
+      <c r="F911" t="n">
+        <v>87.33</v>
+      </c>
+    </row>
+    <row r="912" spans="1:7">
+      <c r="A912" t="s">
+        <v>917</v>
+      </c>
+      <c r="B912" t="n">
+        <v>92.19225</v>
+      </c>
+      <c r="C912" t="n">
+        <v>95.343</v>
+      </c>
+      <c r="D912" t="n">
+        <v>87.119</v>
+      </c>
+      <c r="E912" t="n">
+        <v>94.92700000000001</v>
+      </c>
+      <c r="F912" t="n">
+        <v>88.354</v>
+      </c>
+    </row>
+    <row r="913" spans="1:7">
+      <c r="A913" t="s">
+        <v>918</v>
+      </c>
+      <c r="B913" t="n">
+        <v>94.11175</v>
+      </c>
+      <c r="C913" t="n">
+        <v>96.006</v>
+      </c>
+      <c r="D913" t="n">
+        <v>92.63500000000001</v>
+      </c>
+      <c r="E913" t="n">
+        <v>95.66</v>
+      </c>
+      <c r="F913" t="n">
+        <v>93.13500000000001</v>
+      </c>
+    </row>
+    <row r="914" spans="1:7">
+      <c r="A914" t="s">
+        <v>919</v>
+      </c>
+      <c r="B914" t="n">
+        <v>95.66741666666667</v>
+      </c>
+      <c r="C914" t="n">
+        <v>98.505</v>
+      </c>
+      <c r="D914" t="n">
+        <v>92.55</v>
+      </c>
+      <c r="E914" t="n">
+        <v>98.282</v>
+      </c>
+      <c r="F914" t="n">
+        <v>92.96299999999999</v>
+      </c>
+    </row>
+    <row r="915" spans="1:7">
+      <c r="A915" t="s">
+        <v>920</v>
+      </c>
+      <c r="B915" t="n">
+        <v>98.20308333333334</v>
+      </c>
+      <c r="C915" t="n">
+        <v>99.09699999999999</v>
+      </c>
+      <c r="D915" t="n">
+        <v>96.874</v>
+      </c>
+      <c r="E915" t="n">
+        <v>99.044</v>
+      </c>
+      <c r="F915" t="n">
+        <v>97.154</v>
+      </c>
+    </row>
+    <row r="916" spans="1:7">
+      <c r="A916" t="s">
+        <v>921</v>
+      </c>
+      <c r="B916" t="n">
+        <v>99.22875000000001</v>
+      </c>
+      <c r="C916" t="n">
+        <v>99.393</v>
+      </c>
+      <c r="D916" t="n">
+        <v>98.998</v>
+      </c>
+      <c r="E916" t="n">
+        <v>99.342</v>
+      </c>
+      <c r="F916" t="n">
+        <v>99.041</v>
+      </c>
+    </row>
+    <row r="917" spans="1:7">
+      <c r="A917" t="s">
+        <v>922</v>
+      </c>
+      <c r="B917" t="n">
+        <v>99.04383333333334</v>
+      </c>
+      <c r="C917" t="n">
+        <v>99.327</v>
+      </c>
+      <c r="D917" t="n">
+        <v>98.622</v>
+      </c>
+      <c r="E917" t="n">
+        <v>99.303</v>
+      </c>
+      <c r="F917" t="n">
+        <v>98.786</v>
+      </c>
+    </row>
+    <row r="918" spans="1:7">
+      <c r="A918" t="s">
+        <v>923</v>
+      </c>
+      <c r="B918" t="n">
+        <v>97.61516666666667</v>
+      </c>
+      <c r="C918" t="n">
+        <v>98.994</v>
+      </c>
+      <c r="D918" t="n">
+        <v>96.086</v>
+      </c>
+      <c r="E918" t="n">
+        <v>98.925</v>
+      </c>
+      <c r="F918" t="n">
+        <v>96.39700000000001</v>
+      </c>
+    </row>
+    <row r="919" spans="1:7">
+      <c r="A919" t="s">
+        <v>924</v>
+      </c>
+      <c r="B919" t="n">
+        <v>96.07391666666666</v>
+      </c>
+      <c r="C919" t="n">
+        <v>97.545</v>
+      </c>
+      <c r="D919" t="n">
+        <v>94.95</v>
+      </c>
+      <c r="E919" t="n">
+        <v>97.289</v>
+      </c>
+      <c r="F919" t="n">
+        <v>95.256</v>
+      </c>
+    </row>
+    <row r="920" spans="1:7">
+      <c r="A920" t="s">
+        <v>925</v>
+      </c>
+      <c r="B920" t="n">
+        <v>96.15516666666667</v>
+      </c>
+      <c r="C920" t="n">
+        <v>97.548</v>
+      </c>
+      <c r="D920" t="n">
+        <v>95.06399999999999</v>
+      </c>
+      <c r="E920" t="n">
+        <v>97.05500000000001</v>
+      </c>
+      <c r="F920" t="n">
+        <v>95.613</v>
+      </c>
+    </row>
+    <row r="921" spans="1:7">
+      <c r="A921" t="s">
+        <v>926</v>
+      </c>
+      <c r="B921" t="n">
+        <v>96.47558333333333</v>
+      </c>
+      <c r="C921" t="n">
+        <v>98.209</v>
+      </c>
+      <c r="D921" t="n">
+        <v>94.065</v>
+      </c>
+      <c r="E921" t="n">
+        <v>98.09099999999999</v>
+      </c>
+      <c r="F921" t="n">
+        <v>94.59</v>
+      </c>
+    </row>
+    <row r="922" spans="1:7">
+      <c r="A922" t="s">
+        <v>927</v>
+      </c>
+      <c r="B922" t="n">
+        <v>94.449</v>
+      </c>
+      <c r="C922" t="n">
+        <v>97.23699999999999</v>
+      </c>
+      <c r="D922" t="n">
+        <v>89.758</v>
+      </c>
+      <c r="E922" t="n">
+        <v>96.685</v>
+      </c>
+      <c r="F922" t="n">
+        <v>90.83499999999999</v>
+      </c>
+    </row>
+    <row r="923" spans="1:7">
+      <c r="A923" t="s">
+        <v>928</v>
+      </c>
+      <c r="B923" t="n">
+        <v>97.37141666666666</v>
+      </c>
+      <c r="C923" t="n">
+        <v>98.306</v>
+      </c>
+      <c r="D923" t="n">
+        <v>96.124</v>
+      </c>
+      <c r="E923" t="n">
+        <v>98.10899999999999</v>
+      </c>
+      <c r="F923" t="n">
+        <v>96.488</v>
+      </c>
+    </row>
+    <row r="924" spans="1:7">
+      <c r="A924" t="s">
+        <v>929</v>
+      </c>
+      <c r="B924" t="n">
+        <v>98.13925</v>
+      </c>
+      <c r="C924" t="n">
+        <v>98.72</v>
+      </c>
+      <c r="D924" t="n">
+        <v>97.14100000000001</v>
+      </c>
+      <c r="E924" t="n">
+        <v>98.65600000000001</v>
+      </c>
+      <c r="F924" t="n">
+        <v>97.542</v>
+      </c>
+    </row>
+    <row r="925" spans="1:7">
+      <c r="A925" t="s">
+        <v>930</v>
+      </c>
+      <c r="B925" t="n">
+        <v>98.95508333333333</v>
+      </c>
+      <c r="C925" t="n">
+        <v>99.36</v>
+      </c>
+      <c r="D925" t="n">
+        <v>98.19</v>
+      </c>
+      <c r="E925" t="n">
+        <v>99.315</v>
+      </c>
+      <c r="F925" t="n">
+        <v>98.277</v>
+      </c>
+    </row>
+    <row r="926" spans="1:7">
+      <c r="A926" t="s">
+        <v>931</v>
+      </c>
+      <c r="B926" t="n">
+        <v>99.35550000000001</v>
+      </c>
+      <c r="C926" t="n">
+        <v>99.491</v>
+      </c>
+      <c r="D926" t="n">
+        <v>99.078</v>
+      </c>
+      <c r="E926" t="n">
+        <v>99.45</v>
+      </c>
+      <c r="F926" t="n">
+        <v>99.181</v>
+      </c>
+    </row>
+    <row r="927" spans="1:7">
+      <c r="A927" t="s">
+        <v>932</v>
+      </c>
+      <c r="B927" t="n">
+        <v>98.55908333333333</v>
+      </c>
+      <c r="C927" t="n">
+        <v>99.491</v>
+      </c>
+      <c r="D927" t="n">
+        <v>97.63200000000001</v>
+      </c>
+      <c r="E927" t="n">
+        <v>99.45</v>
+      </c>
+      <c r="F927" t="n">
+        <v>97.78700000000001</v>
+      </c>
+    </row>
+    <row r="928" spans="1:7">
+      <c r="A928" t="s">
+        <v>933</v>
+      </c>
+      <c r="B928" t="n">
+        <v>96.2595</v>
+      </c>
+      <c r="C928" t="n">
+        <v>98.011</v>
+      </c>
+      <c r="D928" t="n">
+        <v>93.848</v>
+      </c>
+      <c r="E928" t="n">
+        <v>97.855</v>
+      </c>
+      <c r="F928" t="n">
+        <v>94.88800000000001</v>
+      </c>
+    </row>
+    <row r="929" spans="1:7">
+      <c r="A929" t="s">
+        <v>934</v>
+      </c>
+      <c r="B929" t="n">
+        <v>94.25883333333333</v>
+      </c>
+      <c r="C929" t="n">
+        <v>96.58</v>
+      </c>
+      <c r="D929" t="n">
+        <v>92.533</v>
+      </c>
+      <c r="E929" t="n">
+        <v>96.432</v>
+      </c>
+      <c r="F929" t="n">
+        <v>93.194</v>
+      </c>
+    </row>
+    <row r="930" spans="1:7">
+      <c r="A930" t="s">
+        <v>935</v>
+      </c>
+      <c r="B930" t="n">
+        <v>93.69141666666667</v>
+      </c>
+      <c r="C930" t="n">
+        <v>96.631</v>
+      </c>
+      <c r="D930" t="n">
+        <v>88.538</v>
+      </c>
+      <c r="E930" t="n">
+        <v>96.063</v>
+      </c>
+      <c r="F930" t="n">
+        <v>90.98999999999999</v>
+      </c>
+    </row>
+    <row r="931" spans="1:7">
+      <c r="A931" t="s">
+        <v>936</v>
+      </c>
+      <c r="B931" t="n">
+        <v>93.02833333333334</v>
+      </c>
+      <c r="C931" t="n">
+        <v>96.169</v>
+      </c>
+      <c r="D931" t="n">
+        <v>89.512</v>
+      </c>
+      <c r="E931" t="n">
+        <v>95.256</v>
+      </c>
+      <c r="F931" t="n">
+        <v>90.889</v>
+      </c>
+    </row>
+    <row r="932" spans="1:7">
+      <c r="A932" t="s">
+        <v>937</v>
+      </c>
+      <c r="B932" t="n">
+        <v>91.23941666666667</v>
+      </c>
+      <c r="C932" t="n">
+        <v>94.684</v>
+      </c>
+      <c r="D932" t="n">
+        <v>85.681</v>
+      </c>
+      <c r="E932" t="n">
+        <v>94.175</v>
+      </c>
+      <c r="F932" t="n">
+        <v>86.173</v>
+      </c>
+    </row>
+    <row r="933" spans="1:7">
+      <c r="A933" t="s">
+        <v>938</v>
+      </c>
+      <c r="B933" t="n">
+        <v>88.77116666666667</v>
+      </c>
+      <c r="C933" t="n">
+        <v>91.747</v>
+      </c>
+      <c r="D933" t="n">
+        <v>85.71299999999999</v>
+      </c>
+      <c r="E933" t="n">
+        <v>91.28100000000001</v>
+      </c>
+      <c r="F933" t="n">
+        <v>87.208</v>
+      </c>
+    </row>
+    <row r="934" spans="1:7">
+      <c r="A934" t="s">
+        <v>939</v>
+      </c>
+      <c r="B934" t="n">
+        <v>85.18883333333333</v>
+      </c>
+      <c r="C934" t="n">
+        <v>90.578</v>
+      </c>
+      <c r="D934" t="n">
+        <v>80.288</v>
+      </c>
+      <c r="E934" t="n">
+        <v>89.88</v>
+      </c>
+      <c r="F934" t="n">
+        <v>82.117</v>
+      </c>
+    </row>
+    <row r="935" spans="1:7">
+      <c r="A935" t="s">
+        <v>940</v>
+      </c>
+      <c r="B935" t="n">
+        <v>88.54383333333334</v>
+      </c>
+      <c r="C935" t="n">
+        <v>93.224</v>
+      </c>
+      <c r="D935" t="n">
+        <v>83.767</v>
+      </c>
+      <c r="E935" t="n">
+        <v>92.197</v>
+      </c>
+      <c r="F935" t="n">
+        <v>84.81999999999999</v>
+      </c>
+    </row>
+    <row r="936" spans="1:7">
+      <c r="A936" t="s">
+        <v>941</v>
+      </c>
+      <c r="B936" t="n">
+        <v>90.07991666666666</v>
+      </c>
+      <c r="C936" t="n">
+        <v>94.22199999999999</v>
+      </c>
+      <c r="D936" t="n">
+        <v>83.423</v>
+      </c>
+      <c r="E936" t="n">
+        <v>93.48399999999999</v>
+      </c>
+      <c r="F936" t="n">
+        <v>85.575</v>
+      </c>
+    </row>
+    <row r="937" spans="1:7">
+      <c r="A937" t="s">
+        <v>942</v>
+      </c>
+      <c r="B937" t="n">
+        <v>92.63291666666667</v>
+      </c>
+      <c r="C937" t="n">
+        <v>95.607</v>
+      </c>
+      <c r="D937" t="n">
+        <v>89.113</v>
+      </c>
+      <c r="E937" t="n">
+        <v>94.69199999999999</v>
+      </c>
+      <c r="F937" t="n">
+        <v>89.81999999999999</v>
+      </c>
+    </row>
+    <row r="938" spans="1:7">
+      <c r="A938" t="s">
+        <v>943</v>
+      </c>
+      <c r="B938" t="n">
+        <v>94.35325</v>
+      </c>
+      <c r="C938" t="n">
+        <v>95.873</v>
+      </c>
+      <c r="D938" t="n">
+        <v>91.70999999999999</v>
+      </c>
+      <c r="E938" t="n">
+        <v>95.503</v>
+      </c>
+      <c r="F938" t="n">
+        <v>92.27</v>
+      </c>
+    </row>
+    <row r="939" spans="1:7">
+      <c r="A939" t="s">
+        <v>944</v>
+      </c>
+      <c r="B939" t="n">
+        <v>92.62725</v>
+      </c>
+      <c r="C939" t="n">
+        <v>94.724</v>
+      </c>
+      <c r="D939" t="n">
+        <v>89.85599999999999</v>
+      </c>
+      <c r="E939" t="n">
+        <v>93.896</v>
+      </c>
+      <c r="F939" t="n">
+        <v>90.274</v>
+      </c>
+    </row>
+    <row r="940" spans="1:7">
+      <c r="A940" t="s">
+        <v>945</v>
+      </c>
+      <c r="B940" t="n">
+        <v>92.99158333333334</v>
+      </c>
+      <c r="C940" t="n">
+        <v>93.996</v>
+      </c>
+      <c r="D940" t="n">
+        <v>90.759</v>
+      </c>
+      <c r="E940" t="n">
+        <v>93.57599999999999</v>
+      </c>
+      <c r="F940" t="n">
+        <v>92.011</v>
+      </c>
+    </row>
+    <row r="941" spans="1:7">
+      <c r="A941" t="s">
+        <v>946</v>
+      </c>
+      <c r="B941" t="n">
+        <v>93.78725</v>
+      </c>
+      <c r="C941" t="n">
+        <v>95.32899999999999</v>
+      </c>
+      <c r="D941" t="n">
+        <v>92.732</v>
+      </c>
+      <c r="E941" t="n">
+        <v>94.47499999999999</v>
+      </c>
+      <c r="F941" t="n">
+        <v>93.264</v>
+      </c>
+    </row>
+    <row r="942" spans="1:7">
+      <c r="A942" t="s">
+        <v>947</v>
+      </c>
+      <c r="B942" t="n">
+        <v>92.94466666666666</v>
+      </c>
+      <c r="C942" t="n">
+        <v>94.851</v>
+      </c>
+      <c r="D942" t="n">
+        <v>90.295</v>
+      </c>
+      <c r="E942" t="n">
+        <v>94.574</v>
+      </c>
+      <c r="F942" t="n">
+        <v>90.98099999999999</v>
+      </c>
+    </row>
+    <row r="943" spans="1:7">
+      <c r="A943" t="s">
+        <v>948</v>
+      </c>
+      <c r="B943" t="n">
+        <v>92.27441666666667</v>
+      </c>
+      <c r="C943" t="n">
+        <v>93.798</v>
+      </c>
+      <c r="D943" t="n">
+        <v>91.369</v>
+      </c>
+      <c r="E943" t="n">
+        <v>93.517</v>
+      </c>
+      <c r="F943" t="n">
+        <v>91.623</v>
+      </c>
+    </row>
+    <row r="944" spans="1:7">
+      <c r="A944" t="s">
+        <v>949</v>
+      </c>
+      <c r="B944" t="n">
+        <v>92.34491666666666</v>
+      </c>
+      <c r="C944" t="n">
+        <v>93.753</v>
+      </c>
+      <c r="D944" t="n">
+        <v>90.85899999999999</v>
+      </c>
+      <c r="E944" t="n">
+        <v>93.232</v>
+      </c>
+      <c r="F944" t="n">
+        <v>91.202</v>
+      </c>
+    </row>
+    <row r="945" spans="1:7">
+      <c r="A945" t="s">
+        <v>950</v>
+      </c>
+      <c r="B945" t="n">
+        <v>96.70491666666666</v>
+      </c>
+      <c r="C945" t="n">
+        <v>98.783</v>
+      </c>
+      <c r="D945" t="n">
+        <v>93.101</v>
+      </c>
+      <c r="E945" t="n">
+        <v>98.64100000000001</v>
+      </c>
+      <c r="F945" t="n">
+        <v>93.56699999999999</v>
+      </c>
+    </row>
+    <row r="946" spans="1:7">
+      <c r="A946" t="s">
+        <v>951</v>
+      </c>
+      <c r="B946" t="n">
+        <v>99.20183333333334</v>
+      </c>
+      <c r="C946" t="n">
+        <v>99.444</v>
+      </c>
+      <c r="D946" t="n">
+        <v>98.78100000000001</v>
+      </c>
+      <c r="E946" t="n">
+        <v>99.398</v>
+      </c>
+      <c r="F946" t="n">
+        <v>98.845</v>
+      </c>
+    </row>
+    <row r="947" spans="1:7">
+      <c r="A947" t="s">
+        <v>952</v>
+      </c>
+      <c r="B947" t="n">
+        <v>99.48666666666666</v>
+      </c>
+      <c r="C947" t="n">
+        <v>99.60299999999999</v>
+      </c>
+      <c r="D947" t="n">
+        <v>99.375</v>
+      </c>
+      <c r="E947" t="n">
+        <v>99.55500000000001</v>
+      </c>
+      <c r="F947" t="n">
+        <v>99.414</v>
+      </c>
+    </row>
+    <row r="948" spans="1:7">
+      <c r="A948" t="s">
+        <v>953</v>
+      </c>
+      <c r="B948" t="n">
+        <v>99.56391666666667</v>
+      </c>
+      <c r="C948" t="n">
+        <v>99.66800000000001</v>
+      </c>
+      <c r="D948" t="n">
+        <v>99.43899999999999</v>
+      </c>
+      <c r="E948" t="n">
+        <v>99.61199999999999</v>
+      </c>
+      <c r="F948" t="n">
+        <v>99.47199999999999</v>
+      </c>
+    </row>
+    <row r="949" spans="1:7">
+      <c r="A949" t="s">
+        <v>954</v>
+      </c>
+      <c r="B949" t="n">
+        <v>99.66183333333333</v>
+      </c>
+      <c r="C949" t="n">
+        <v>99.733</v>
+      </c>
+      <c r="D949" t="n">
+        <v>99.541</v>
+      </c>
+      <c r="E949" t="n">
+        <v>99.697</v>
+      </c>
+      <c r="F949" t="n">
+        <v>99.602</v>
+      </c>
+    </row>
+    <row r="950" spans="1:7">
+      <c r="A950" t="s">
+        <v>955</v>
+      </c>
+      <c r="B950" t="n">
+        <v>99.71341666666666</v>
+      </c>
+      <c r="C950" t="n">
+        <v>99.788</v>
+      </c>
+      <c r="D950" t="n">
+        <v>99.66800000000001</v>
+      </c>
+      <c r="E950" t="n">
+        <v>99.721</v>
+      </c>
+      <c r="F950" t="n">
+        <v>99.702</v>
+      </c>
+    </row>
+    <row r="951" spans="1:7">
+      <c r="A951" t="s">
+        <v>956</v>
+      </c>
+      <c r="B951" t="n">
+        <v>99.74116666666667</v>
+      </c>
+      <c r="C951" t="n">
+        <v>99.786</v>
+      </c>
+      <c r="D951" t="n">
+        <v>99.657</v>
+      </c>
+      <c r="E951" t="n">
+        <v>99.76600000000001</v>
+      </c>
+      <c r="F951" t="n">
+        <v>99.70999999999999</v>
+      </c>
+    </row>
+    <row r="952" spans="1:7">
+      <c r="A952" t="s">
+        <v>957</v>
+      </c>
+      <c r="B952" t="n">
+        <v>99.77316666666667</v>
+      </c>
+      <c r="C952" t="n">
+        <v>99.786</v>
+      </c>
+      <c r="D952" t="n">
+        <v>99.733</v>
+      </c>
+      <c r="E952" t="n">
+        <v>99.779</v>
+      </c>
+      <c r="F952" t="n">
+        <v>99.767</v>
+      </c>
+    </row>
+    <row r="953" spans="1:7">
+      <c r="A953" t="s">
+        <v>958</v>
+      </c>
+      <c r="B953" t="n">
+        <v>99.76758333333333</v>
+      </c>
+      <c r="C953" t="n">
+        <v>99.78700000000001</v>
+      </c>
+      <c r="D953" t="n">
+        <v>99.71299999999999</v>
+      </c>
+      <c r="E953" t="n">
+        <v>99.77800000000001</v>
+      </c>
+      <c r="F953" t="n">
+        <v>99.749</v>
+      </c>
+    </row>
+    <row r="954" spans="1:7">
+      <c r="A954" t="s">
+        <v>959</v>
+      </c>
+      <c r="B954" t="n">
+        <v>99.7435</v>
+      </c>
+      <c r="C954" t="n">
+        <v>99.789</v>
+      </c>
+      <c r="D954" t="n">
+        <v>99.639</v>
+      </c>
+      <c r="E954" t="n">
+        <v>99.774</v>
+      </c>
+      <c r="F954" t="n">
+        <v>99.714</v>
+      </c>
+    </row>
+    <row r="955" spans="1:7">
+      <c r="A955" t="s">
+        <v>960</v>
+      </c>
+      <c r="B955" t="n">
+        <v>99.67700000000001</v>
+      </c>
+      <c r="C955" t="n">
+        <v>99.789</v>
+      </c>
+      <c r="D955" t="n">
+        <v>99.538</v>
+      </c>
+      <c r="E955" t="n">
+        <v>99.738</v>
+      </c>
+      <c r="F955" t="n">
+        <v>99.625</v>
+      </c>
+    </row>
+    <row r="956" spans="1:7">
+      <c r="A956" t="s">
+        <v>961</v>
+      </c>
+      <c r="B956" t="n">
+        <v>99.56308333333334</v>
+      </c>
+      <c r="C956" t="n">
+        <v>99.752</v>
+      </c>
+      <c r="D956" t="n">
+        <v>99.41</v>
+      </c>
+      <c r="E956" t="n">
+        <v>99.652</v>
+      </c>
+      <c r="F956" t="n">
+        <v>99.47199999999999</v>
+      </c>
+    </row>
+    <row r="957" spans="1:7">
+      <c r="A957" t="s">
+        <v>962</v>
+      </c>
+      <c r="B957" t="n">
+        <v>99.57008333333333</v>
+      </c>
+      <c r="C957" t="n">
+        <v>99.723</v>
+      </c>
+      <c r="D957" t="n">
+        <v>99.377</v>
+      </c>
+      <c r="E957" t="n">
+        <v>99.655</v>
+      </c>
+      <c r="F957" t="n">
+        <v>99.505</v>
+      </c>
+    </row>
+    <row r="958" spans="1:7">
+      <c r="A958" t="s">
+        <v>963</v>
+      </c>
+      <c r="B958" t="n">
+        <v>99.584</v>
+      </c>
+      <c r="C958" t="n">
+        <v>99.723</v>
+      </c>
+      <c r="D958" t="n">
+        <v>99.41200000000001</v>
+      </c>
+      <c r="E958" t="n">
+        <v>99.663</v>
+      </c>
+      <c r="F958" t="n">
+        <v>99.47799999999999</v>
+      </c>
+    </row>
+    <row r="959" spans="1:7">
+      <c r="A959" t="s">
+        <v>964</v>
+      </c>
+      <c r="B959" t="n">
+        <v>99.63525</v>
+      </c>
+      <c r="C959" t="n">
+        <v>99.747</v>
+      </c>
+      <c r="D959" t="n">
+        <v>99.506</v>
+      </c>
+      <c r="E959" t="n">
+        <v>99.679</v>
+      </c>
+      <c r="F959" t="n">
+        <v>99.57599999999999</v>
+      </c>
+    </row>
+    <row r="960" spans="1:7">
+      <c r="A960" t="s">
+        <v>965</v>
+      </c>
+      <c r="B960" t="n">
+        <v>99.68583333333333</v>
+      </c>
+      <c r="C960" t="n">
+        <v>99.79000000000001</v>
+      </c>
+      <c r="D960" t="n">
+        <v>99.586</v>
+      </c>
+      <c r="E960" t="n">
+        <v>99.72799999999999</v>
+      </c>
+      <c r="F960" t="n">
+        <v>99.63</v>
+      </c>
+    </row>
+    <row r="961" spans="1:7">
+      <c r="A961" t="s">
+        <v>966</v>
+      </c>
+      <c r="B961" t="n">
+        <v>99.60208333333334</v>
+      </c>
+      <c r="C961" t="n">
+        <v>99.789</v>
+      </c>
+      <c r="D961" t="n">
+        <v>99.246</v>
+      </c>
+      <c r="E961" t="n">
+        <v>99.738</v>
+      </c>
+      <c r="F961" t="n">
+        <v>99.372</v>
+      </c>
+    </row>
+    <row r="962" spans="1:7">
+      <c r="A962" t="s">
+        <v>967</v>
+      </c>
+      <c r="B962" t="n">
+        <v>99.446</v>
+      </c>
+      <c r="C962" t="n">
+        <v>99.68600000000001</v>
+      </c>
+      <c r="D962" t="n">
+        <v>99.181</v>
+      </c>
+      <c r="E962" t="n">
+        <v>99.626</v>
+      </c>
+      <c r="F962" t="n">
+        <v>99.247</v>
+      </c>
+    </row>
+    <row r="963" spans="1:7">
+      <c r="A963" t="s">
+        <v>968</v>
+      </c>
+      <c r="B963" t="n">
+        <v>99.64341666666667</v>
+      </c>
+      <c r="C963" t="n">
+        <v>99.724</v>
+      </c>
+      <c r="D963" t="n">
+        <v>99.54000000000001</v>
+      </c>
+      <c r="E963" t="n">
+        <v>99.684</v>
+      </c>
+      <c r="F963" t="n">
+        <v>99.592</v>
+      </c>
+    </row>
+    <row r="964" spans="1:7">
+      <c r="A964" t="s">
+        <v>969</v>
+      </c>
+      <c r="B964" t="n">
+        <v>98.73975</v>
+      </c>
+      <c r="C964" t="n">
+        <v>99.723</v>
+      </c>
+      <c r="D964" t="n">
+        <v>97.42100000000001</v>
+      </c>
+      <c r="E964" t="n">
+        <v>99.672</v>
+      </c>
+      <c r="F964" t="n">
+        <v>97.72199999999999</v>
+      </c>
+    </row>
+    <row r="965" spans="1:7">
+      <c r="A965" t="s">
+        <v>970</v>
+      </c>
+      <c r="B965" t="n">
+        <v>95.24466666666666</v>
+      </c>
+      <c r="C965" t="n">
+        <v>97.958</v>
+      </c>
+      <c r="D965" t="n">
+        <v>91.54600000000001</v>
+      </c>
+      <c r="E965" t="n">
+        <v>97.184</v>
+      </c>
+      <c r="F965" t="n">
+        <v>92.259</v>
+      </c>
+    </row>
+    <row r="966" spans="1:7">
+      <c r="A966" t="s">
+        <v>971</v>
+      </c>
+      <c r="B966" t="n">
+        <v>95.94725</v>
+      </c>
+      <c r="C966" t="n">
+        <v>97.319</v>
+      </c>
+      <c r="D966" t="n">
+        <v>93.13</v>
+      </c>
+      <c r="E966" t="n">
+        <v>97.208</v>
+      </c>
+      <c r="F966" t="n">
+        <v>93.45399999999999</v>
+      </c>
+    </row>
+    <row r="967" spans="1:7">
+      <c r="A967" t="s">
+        <v>972</v>
+      </c>
+      <c r="B967" t="n">
+        <v>97.83341666666666</v>
+      </c>
+      <c r="C967" t="n">
+        <v>99.325</v>
+      </c>
+      <c r="D967" t="n">
+        <v>94.494</v>
+      </c>
+      <c r="E967" t="n">
+        <v>99.271</v>
+      </c>
+      <c r="F967" t="n">
+        <v>95.215</v>
+      </c>
+    </row>
+    <row r="968" spans="1:7">
+      <c r="A968" t="s">
+        <v>973</v>
+      </c>
+      <c r="B968" t="n">
+        <v>99.47141666666667</v>
+      </c>
+      <c r="C968" t="n">
+        <v>99.62</v>
+      </c>
+      <c r="D968" t="n">
+        <v>99.27200000000001</v>
+      </c>
+      <c r="E968" t="n">
+        <v>99.569</v>
+      </c>
+      <c r="F968" t="n">
+        <v>99.331</v>
+      </c>
+    </row>
+    <row r="969" spans="1:7">
+      <c r="A969" t="s">
+        <v>974</v>
+      </c>
+      <c r="B969" t="n">
+        <v>99.6455</v>
+      </c>
+      <c r="C969" t="n">
+        <v>99.739</v>
+      </c>
+      <c r="D969" t="n">
+        <v>99.542</v>
+      </c>
+      <c r="E969" t="n">
+        <v>99.69</v>
+      </c>
+      <c r="F969" t="n">
+        <v>99.58799999999999</v>
+      </c>
+    </row>
+    <row r="970" spans="1:7">
+      <c r="A970" t="s">
+        <v>975</v>
+      </c>
+      <c r="B970" t="n">
+        <v>99.72225</v>
+      </c>
+      <c r="C970" t="n">
+        <v>99.789</v>
+      </c>
+      <c r="D970" t="n">
+        <v>99.639</v>
+      </c>
+      <c r="E970" t="n">
+        <v>99.752</v>
+      </c>
+      <c r="F970" t="n">
+        <v>99.69199999999999</v>
+      </c>
+    </row>
+    <row r="971" spans="1:7">
+      <c r="A971" t="s">
+        <v>976</v>
+      </c>
+      <c r="B971" t="n">
+        <v>99.72833333333334</v>
+      </c>
+      <c r="C971" t="n">
+        <v>99.789</v>
+      </c>
+      <c r="D971" t="n">
+        <v>99.622</v>
+      </c>
+      <c r="E971" t="n">
+        <v>99.765</v>
+      </c>
+      <c r="F971" t="n">
+        <v>99.67400000000001</v>
+      </c>
+    </row>
+    <row r="972" spans="1:7">
+      <c r="A972" t="s">
+        <v>977</v>
+      </c>
+      <c r="B972" t="n">
+        <v>99.74791666666667</v>
+      </c>
+      <c r="C972" t="n">
+        <v>99.791</v>
+      </c>
+      <c r="D972" t="n">
+        <v>99.672</v>
+      </c>
+      <c r="E972" t="n">
+        <v>99.768</v>
+      </c>
+      <c r="F972" t="n">
+        <v>99.70699999999999</v>
+      </c>
+    </row>
+    <row r="973" spans="1:7">
+      <c r="A973" t="s">
+        <v>978</v>
+      </c>
+      <c r="B973" t="n">
+        <v>99.74641666666666</v>
+      </c>
+      <c r="C973" t="n">
+        <v>99.79000000000001</v>
+      </c>
+      <c r="D973" t="n">
+        <v>99.572</v>
+      </c>
+      <c r="E973" t="n">
+        <v>99.774</v>
+      </c>
+      <c r="F973" t="n">
+        <v>99.69499999999999</v>
+      </c>
+    </row>
+    <row r="974" spans="1:7">
+      <c r="A974" t="s">
+        <v>979</v>
+      </c>
+      <c r="B974" t="n">
+        <v>99.57541666666667</v>
+      </c>
+      <c r="C974" t="n">
+        <v>99.748</v>
+      </c>
+      <c r="D974" t="n">
+        <v>99.242</v>
+      </c>
+      <c r="E974" t="n">
+        <v>99.687</v>
+      </c>
+      <c r="F974" t="n">
+        <v>99.315</v>
+      </c>
+    </row>
+    <row r="975" spans="1:7">
+      <c r="A975" t="s">
+        <v>980</v>
+      </c>
+      <c r="B975" t="n">
+        <v>99.54108333333333</v>
+      </c>
+      <c r="C975" t="n">
+        <v>99.771</v>
+      </c>
+      <c r="D975" t="n">
+        <v>99.148</v>
+      </c>
+      <c r="E975" t="n">
+        <v>99.71599999999999</v>
+      </c>
+      <c r="F975" t="n">
+        <v>99.246</v>
+      </c>
+    </row>
+    <row r="976" spans="1:7">
+      <c r="A976" t="s">
+        <v>981</v>
+      </c>
+      <c r="B976" t="n">
+        <v>99.55208333333333</v>
+      </c>
+      <c r="C976" t="n">
+        <v>99.723</v>
+      </c>
+      <c r="D976" t="n">
+        <v>99.376</v>
+      </c>
+      <c r="E976" t="n">
+        <v>99.669</v>
+      </c>
+      <c r="F976" t="n">
+        <v>99.431</v>
+      </c>
+    </row>
+    <row r="977" spans="1:7">
+      <c r="A977" t="s">
+        <v>982</v>
+      </c>
+      <c r="B977" t="n">
+        <v>99.69133333333333</v>
+      </c>
+      <c r="C977" t="n">
+        <v>99.75700000000001</v>
+      </c>
+      <c r="D977" t="n">
+        <v>99.62</v>
+      </c>
+      <c r="E977" t="n">
+        <v>99.723</v>
+      </c>
+      <c r="F977" t="n">
+        <v>99.658</v>
+      </c>
+    </row>
+    <row r="978" spans="1:7">
+      <c r="A978" t="s">
+        <v>983</v>
+      </c>
+      <c r="B978" t="n">
+        <v>99.626</v>
+      </c>
+      <c r="C978" t="n">
+        <v>99.71899999999999</v>
+      </c>
+      <c r="D978" t="n">
+        <v>99.48699999999999</v>
+      </c>
+      <c r="E978" t="n">
+        <v>99.67</v>
+      </c>
+      <c r="F978" t="n">
+        <v>99.547</v>
+      </c>
+    </row>
+    <row r="979" spans="1:7">
+      <c r="A979" t="s">
+        <v>984</v>
+      </c>
+      <c r="B979" t="n">
+        <v>99.64166666666667</v>
+      </c>
+      <c r="C979" t="n">
+        <v>99.72499999999999</v>
+      </c>
+      <c r="D979" t="n">
+        <v>99.423</v>
+      </c>
+      <c r="E979" t="n">
+        <v>99.673</v>
+      </c>
+      <c r="F979" t="n">
+        <v>99.569</v>
+      </c>
+    </row>
+    <row r="980" spans="1:7">
+      <c r="A980" t="s">
+        <v>985</v>
+      </c>
+      <c r="B980" t="n">
+        <v>99.32725000000001</v>
+      </c>
+      <c r="C980" t="n">
+        <v>99.557</v>
+      </c>
+      <c r="D980" t="n">
+        <v>98.95</v>
+      </c>
+      <c r="E980" t="n">
+        <v>99.465</v>
+      </c>
+      <c r="F980" t="n">
+        <v>99.06100000000001</v>
+      </c>
+    </row>
+    <row r="981" spans="1:7">
+      <c r="A981" t="s">
+        <v>986</v>
+      </c>
+      <c r="B981" t="n">
+        <v>99.49424999999999</v>
+      </c>
+      <c r="C981" t="n">
+        <v>99.61799999999999</v>
+      </c>
+      <c r="D981" t="n">
+        <v>99.37</v>
+      </c>
+      <c r="E981" t="n">
+        <v>99.532</v>
+      </c>
+      <c r="F981" t="n">
+        <v>99.422</v>
+      </c>
+    </row>
+    <row r="982" spans="1:7">
+      <c r="A982" t="s">
+        <v>987</v>
+      </c>
+      <c r="B982" t="n">
+        <v>99.44766666666666</v>
+      </c>
+      <c r="C982" t="n">
+        <v>99.621</v>
+      </c>
+      <c r="D982" t="n">
+        <v>99.27800000000001</v>
+      </c>
+      <c r="E982" t="n">
+        <v>99.498</v>
+      </c>
+      <c r="F982" t="n">
+        <v>99.34</v>
+      </c>
+    </row>
+    <row r="983" spans="1:7">
+      <c r="A983" t="s">
+        <v>988</v>
+      </c>
+      <c r="B983" t="n">
+        <v>99.464</v>
+      </c>
+      <c r="C983" t="n">
+        <v>99.622</v>
+      </c>
+      <c r="D983" t="n">
+        <v>99.233</v>
+      </c>
+      <c r="E983" t="n">
+        <v>99.529</v>
+      </c>
+      <c r="F983" t="n">
+        <v>99.41500000000001</v>
+      </c>
+    </row>
+    <row r="984" spans="1:7">
+      <c r="A984" t="s">
+        <v>989</v>
+      </c>
+      <c r="B984" t="n">
+        <v>99.39366666666666</v>
+      </c>
+      <c r="C984" t="n">
+        <v>99.593</v>
+      </c>
+      <c r="D984" t="n">
+        <v>99.19799999999999</v>
+      </c>
+      <c r="E984" t="n">
+        <v>99.497</v>
+      </c>
+      <c r="F984" t="n">
+        <v>99.256</v>
+      </c>
+    </row>
+    <row r="985" spans="1:7">
+      <c r="A985" t="s">
+        <v>990</v>
+      </c>
+      <c r="B985" t="n">
+        <v>99.45516666666667</v>
+      </c>
+      <c r="C985" t="n">
+        <v>99.621</v>
+      </c>
+      <c r="D985" t="n">
+        <v>99.291</v>
+      </c>
+      <c r="E985" t="n">
+        <v>99.536</v>
+      </c>
+      <c r="F985" t="n">
+        <v>99.354</v>
+      </c>
+    </row>
+    <row r="986" spans="1:7">
+      <c r="A986" t="s">
+        <v>991</v>
+      </c>
+      <c r="B986" t="n">
+        <v>99.56191666666666</v>
+      </c>
+      <c r="C986" t="n">
+        <v>99.654</v>
+      </c>
+      <c r="D986" t="n">
+        <v>99.47199999999999</v>
+      </c>
+      <c r="E986" t="n">
+        <v>99.59</v>
+      </c>
+      <c r="F986" t="n">
+        <v>99.521</v>
+      </c>
+    </row>
+    <row r="987" spans="1:7">
+      <c r="A987" t="s">
+        <v>992</v>
+      </c>
+      <c r="B987" t="n">
+        <v>99.59266666666667</v>
+      </c>
+      <c r="C987" t="n">
+        <v>99.688</v>
+      </c>
+      <c r="D987" t="n">
+        <v>99.494</v>
+      </c>
+      <c r="E987" t="n">
+        <v>99.63800000000001</v>
+      </c>
+      <c r="F987" t="n">
+        <v>99.52800000000001</v>
+      </c>
+    </row>
+    <row r="988" spans="1:7">
+      <c r="A988" t="s">
+        <v>993</v>
+      </c>
+      <c r="B988" t="n">
+        <v>99.699</v>
+      </c>
+      <c r="C988" t="n">
+        <v>99.789</v>
+      </c>
+      <c r="D988" t="n">
+        <v>99.57599999999999</v>
+      </c>
+      <c r="E988" t="n">
+        <v>99.73399999999999</v>
+      </c>
+      <c r="F988" t="n">
+        <v>99.623</v>
+      </c>
+    </row>
+    <row r="989" spans="1:7">
+      <c r="A989" t="s">
+        <v>994</v>
+      </c>
+      <c r="B989" t="n">
+        <v>99.76566666666666</v>
+      </c>
+      <c r="C989" t="n">
+        <v>99.789</v>
+      </c>
+      <c r="D989" t="n">
+        <v>99.70099999999999</v>
+      </c>
+      <c r="E989" t="n">
+        <v>99.77500000000001</v>
+      </c>
+      <c r="F989" t="n">
+        <v>99.746</v>
+      </c>
+    </row>
+    <row r="990" spans="1:7">
+      <c r="A990" t="s">
+        <v>995</v>
+      </c>
+      <c r="B990" t="n">
+        <v>99.78008333333334</v>
+      </c>
+      <c r="C990" t="n">
+        <v>99.791</v>
+      </c>
+      <c r="D990" t="n">
+        <v>99.736</v>
+      </c>
+      <c r="E990" t="n">
+        <v>99.78400000000001</v>
+      </c>
+      <c r="F990" t="n">
+        <v>99.774</v>
+      </c>
+    </row>
+    <row r="991" spans="1:7">
+      <c r="A991" t="s">
+        <v>996</v>
+      </c>
+      <c r="B991" t="n">
+        <v>99.77975000000001</v>
+      </c>
+      <c r="C991" t="n">
+        <v>99.79000000000001</v>
+      </c>
+      <c r="D991" t="n">
+        <v>99.767</v>
+      </c>
+      <c r="E991" t="n">
+        <v>99.783</v>
+      </c>
+      <c r="F991" t="n">
+        <v>99.776</v>
+      </c>
+    </row>
+    <row r="992" spans="1:7">
+      <c r="A992" t="s">
+        <v>997</v>
+      </c>
+      <c r="B992" t="n">
+        <v>99.77991666666667</v>
+      </c>
+      <c r="C992" t="n">
+        <v>99.792</v>
+      </c>
+      <c r="D992" t="n">
+        <v>99.767</v>
+      </c>
+      <c r="E992" t="n">
+        <v>99.783</v>
+      </c>
+      <c r="F992" t="n">
+        <v>99.777</v>
+      </c>
+    </row>
+    <row r="993" spans="1:7">
+      <c r="A993" t="s">
+        <v>998</v>
+      </c>
+      <c r="B993" t="n">
+        <v>99.78100000000001</v>
+      </c>
+      <c r="C993" t="n">
+        <v>99.791</v>
+      </c>
+      <c r="D993" t="n">
+        <v>99.768</v>
+      </c>
+      <c r="E993" t="n">
+        <v>99.785</v>
+      </c>
+      <c r="F993" t="n">
+        <v>99.77800000000001</v>
+      </c>
+    </row>
+    <row r="994" spans="1:7">
+      <c r="A994" t="s">
+        <v>999</v>
+      </c>
+      <c r="B994" t="n">
+        <v>99.78066666666666</v>
+      </c>
+      <c r="C994" t="n">
+        <v>99.79000000000001</v>
+      </c>
+      <c r="D994" t="n">
+        <v>99.767</v>
+      </c>
+      <c r="E994" t="n">
+        <v>99.783</v>
+      </c>
+      <c r="F994" t="n">
+        <v>99.77800000000001</v>
+      </c>
+    </row>
+    <row r="995" spans="1:7">
+      <c r="A995" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B995" t="n">
+        <v>99.77991666666667</v>
+      </c>
+      <c r="C995" t="n">
+        <v>99.79000000000001</v>
+      </c>
+      <c r="D995" t="n">
+        <v>99.767</v>
+      </c>
+      <c r="E995" t="n">
+        <v>99.783</v>
+      </c>
+      <c r="F995" t="n">
+        <v>99.777</v>
+      </c>
+    </row>
+    <row r="996" spans="1:7">
+      <c r="A996" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B996" t="n">
+        <v>99.78016666666667</v>
+      </c>
+      <c r="C996" t="n">
+        <v>99.791</v>
+      </c>
+      <c r="D996" t="n">
+        <v>99.767</v>
+      </c>
+      <c r="E996" t="n">
+        <v>99.78400000000001</v>
+      </c>
+      <c r="F996" t="n">
+        <v>99.777</v>
+      </c>
+    </row>
+    <row r="997" spans="1:7">
+      <c r="A997" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B997" t="n">
+        <v>99.73733333333334</v>
+      </c>
+      <c r="C997" t="n">
+        <v>99.792</v>
+      </c>
+      <c r="D997" t="n">
+        <v>99.553</v>
+      </c>
+      <c r="E997" t="n">
+        <v>99.783</v>
+      </c>
+      <c r="F997" t="n">
+        <v>99.593</v>
+      </c>
+    </row>
+    <row r="998" spans="1:7">
+      <c r="A998" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B998" t="n">
+        <v>99.78025</v>
+      </c>
+      <c r="C998" t="n">
+        <v>99.79300000000001</v>
+      </c>
+      <c r="D998" t="n">
+        <v>99.758</v>
+      </c>
+      <c r="E998" t="n">
+        <v>99.783</v>
+      </c>
+      <c r="F998" t="n">
+        <v>99.77800000000001</v>
+      </c>
+    </row>
+    <row r="999" spans="1:7">
+      <c r="A999" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B999" t="n">
+        <v>99.78116666666666</v>
+      </c>
+      <c r="C999" t="n">
+        <v>99.791</v>
+      </c>
+      <c r="D999" t="n">
+        <v>99.768</v>
+      </c>
+      <c r="E999" t="n">
+        <v>99.783</v>
+      </c>
+      <c r="F999" t="n">
+        <v>99.777</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:7">
+      <c r="A1000" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B1000" t="n">
+        <v>99.76908333333333</v>
+      </c>
+      <c r="C1000" t="n">
+        <v>99.791</v>
+      </c>
+      <c r="D1000" t="n">
+        <v>99.67100000000001</v>
+      </c>
+      <c r="E1000" t="n">
+        <v>99.78100000000001</v>
+      </c>
+      <c r="F1000" t="n">
+        <v>99.70999999999999</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:7">
+      <c r="A1001" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B1001" t="n">
+        <v>99.77716666666667</v>
+      </c>
+      <c r="C1001" t="n">
+        <v>99.791</v>
+      </c>
+      <c r="D1001" t="n">
+        <v>99.709</v>
+      </c>
+      <c r="E1001" t="n">
+        <v>99.783</v>
+      </c>
+      <c r="F1001" t="n">
+        <v>99.754</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:7">
+      <c r="A1002" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B1002" t="n">
+        <v>99.78033333333333</v>
+      </c>
+      <c r="C1002" t="n">
+        <v>99.791</v>
+      </c>
+      <c r="D1002" t="n">
+        <v>99.767</v>
+      </c>
+      <c r="E1002" t="n">
+        <v>99.783</v>
+      </c>
+      <c r="F1002" t="n">
+        <v>99.777</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:7">
+      <c r="A1003" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B1003" t="n">
+        <v>99.76066666666667</v>
+      </c>
+      <c r="C1003" t="n">
+        <v>99.791</v>
+      </c>
+      <c r="D1003" t="n">
+        <v>99.642</v>
+      </c>
+      <c r="E1003" t="n">
+        <v>99.78400000000001</v>
+      </c>
+      <c r="F1003" t="n">
+        <v>99.697</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:7">
+      <c r="A1004" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B1004" t="n">
+        <v>99.75616666666667</v>
+      </c>
+      <c r="C1004" t="n">
+        <v>99.791</v>
+      </c>
+      <c r="D1004" t="n">
+        <v>99.589</v>
+      </c>
+      <c r="E1004" t="n">
+        <v>99.78100000000001</v>
+      </c>
+      <c r="F1004" t="n">
+        <v>99.712</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:7">
+      <c r="A1005" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B1005" t="n">
+        <v>99.75108333333333</v>
+      </c>
+      <c r="C1005" t="n">
+        <v>99.79300000000001</v>
+      </c>
+      <c r="D1005" t="n">
+        <v>99.642</v>
+      </c>
+      <c r="E1005" t="n">
+        <v>99.777</v>
+      </c>
+      <c r="F1005" t="n">
+        <v>99.721</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:7">
+      <c r="A1006" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B1006" t="n">
+        <v>99.76966666666667</v>
+      </c>
+      <c r="C1006" t="n">
+        <v>99.792</v>
+      </c>
+      <c r="D1006" t="n">
+        <v>99.67400000000001</v>
+      </c>
+      <c r="E1006" t="n">
+        <v>99.783</v>
+      </c>
+      <c r="F1006" t="n">
+        <v>99.756</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:7">
+      <c r="A1007" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B1007" t="n">
+        <v>99.77066666666667</v>
+      </c>
+      <c r="C1007" t="n">
+        <v>99.79300000000001</v>
+      </c>
+      <c r="D1007" t="n">
+        <v>99.70399999999999</v>
+      </c>
+      <c r="E1007" t="n">
+        <v>99.779</v>
+      </c>
+      <c r="F1007" t="n">
+        <v>99.765</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:7">
+      <c r="A1008" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B1008" t="n">
+        <v>99.29949999999999</v>
+      </c>
+      <c r="C1008" t="n">
+        <v>99.791</v>
+      </c>
+      <c r="D1008" t="n">
+        <v>97.818</v>
+      </c>
+      <c r="E1008" t="n">
+        <v>99.73999999999999</v>
+      </c>
+      <c r="F1008" t="n">
+        <v>98.395</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:7">
+      <c r="A1009" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B1009" t="n">
+        <v>96.958</v>
+      </c>
+      <c r="C1009" t="n">
+        <v>98.69799999999999</v>
+      </c>
+      <c r="D1009" t="n">
+        <v>93.72</v>
+      </c>
+      <c r="E1009" t="n">
+        <v>98.364</v>
+      </c>
+      <c r="F1009" t="n">
+        <v>94.57299999999999</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:7">
+      <c r="A1010" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B1010" t="n">
+        <v>97.8145</v>
+      </c>
+      <c r="C1010" t="n">
+        <v>98.43600000000001</v>
+      </c>
+      <c r="D1010" t="n">
+        <v>95.822</v>
+      </c>
+      <c r="E1010" t="n">
+        <v>98.306</v>
+      </c>
+      <c r="F1010" t="n">
+        <v>96.428</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:7">
+      <c r="A1011" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B1011" t="n">
+        <v>98.98991666666667</v>
+      </c>
+      <c r="C1011" t="n">
+        <v>99.258</v>
+      </c>
+      <c r="D1011" t="n">
+        <v>98.455</v>
+      </c>
+      <c r="E1011" t="n">
+        <v>99.16500000000001</v>
+      </c>
+      <c r="F1011" t="n">
+        <v>98.67</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:7">
+      <c r="A1012" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B1012" t="n">
+        <v>99.14308333333334</v>
+      </c>
+      <c r="C1012" t="n">
+        <v>99.377</v>
+      </c>
+      <c r="D1012" t="n">
+        <v>98.913</v>
+      </c>
+      <c r="E1012" t="n">
+        <v>99.31</v>
+      </c>
+      <c r="F1012" t="n">
+        <v>99.048</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:7">
+      <c r="A1013" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B1013" t="n">
+        <v>99.37224999999999</v>
+      </c>
+      <c r="C1013" t="n">
+        <v>99.58799999999999</v>
+      </c>
+      <c r="D1013" t="n">
+        <v>98.916</v>
+      </c>
+      <c r="E1013" t="n">
+        <v>99.538</v>
+      </c>
+      <c r="F1013" t="n">
+        <v>98.982</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:7">
+      <c r="A1014" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B1014" t="n">
+        <v>99.47641666666667</v>
+      </c>
+      <c r="C1014" t="n">
+        <v>99.624</v>
+      </c>
+      <c r="D1014" t="n">
+        <v>99.116</v>
+      </c>
+      <c r="E1014" t="n">
+        <v>99.595</v>
+      </c>
+      <c r="F1014" t="n">
+        <v>99.196</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:7">
+      <c r="A1015" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B1015" t="n">
+        <v>99.658</v>
+      </c>
+      <c r="C1015" t="n">
+        <v>99.752</v>
+      </c>
+      <c r="D1015" t="n">
+        <v>99.57599999999999</v>
+      </c>
+      <c r="E1015" t="n">
+        <v>99.678</v>
+      </c>
+      <c r="F1015" t="n">
+        <v>99.613</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:7">
+      <c r="A1016" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B1016" t="n">
+        <v>99.55691666666667</v>
+      </c>
+      <c r="C1016" t="n">
+        <v>99.79000000000001</v>
+      </c>
+      <c r="D1016" t="n">
+        <v>98.949</v>
+      </c>
+      <c r="E1016" t="n">
+        <v>99.726</v>
+      </c>
+      <c r="F1016" t="n">
+        <v>99.078</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:7">
+      <c r="A1017" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B1017" t="n">
+        <v>98.87766666666667</v>
+      </c>
+      <c r="C1017" t="n">
+        <v>99.39100000000001</v>
+      </c>
+      <c r="D1017" t="n">
+        <v>98.062</v>
+      </c>
+      <c r="E1017" t="n">
+        <v>99.26300000000001</v>
+      </c>
+      <c r="F1017" t="n">
+        <v>98.252</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:7">
+      <c r="A1018" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B1018" t="n">
+        <v>99.29291666666667</v>
+      </c>
+      <c r="C1018" t="n">
+        <v>99.593</v>
+      </c>
+      <c r="D1018" t="n">
+        <v>98.334</v>
+      </c>
+      <c r="E1018" t="n">
+        <v>99.53</v>
+      </c>
+      <c r="F1018" t="n">
+        <v>98.511</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:7">
+      <c r="A1019" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B1019" t="n">
+        <v>99.58074999999999</v>
+      </c>
+      <c r="C1019" t="n">
+        <v>99.67700000000001</v>
+      </c>
+      <c r="D1019" t="n">
+        <v>99.508</v>
+      </c>
+      <c r="E1019" t="n">
+        <v>99.63500000000001</v>
+      </c>
+      <c r="F1019" t="n">
+        <v>99.553</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:7">
+      <c r="A1020" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B1020" t="n">
+        <v>99.23833333333333</v>
+      </c>
+      <c r="C1020" t="n">
+        <v>99.56</v>
+      </c>
+      <c r="D1020" t="n">
+        <v>98.88500000000001</v>
+      </c>
+      <c r="E1020" t="n">
+        <v>99.53100000000001</v>
+      </c>
+      <c r="F1020" t="n">
+        <v>98.937</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:7">
+      <c r="A1021" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B1021" t="n">
+        <v>99.52341666666666</v>
+      </c>
+      <c r="C1021" t="n">
+        <v>99.626</v>
+      </c>
+      <c r="D1021" t="n">
+        <v>99.27800000000001</v>
+      </c>
+      <c r="E1021" t="n">
+        <v>99.586</v>
+      </c>
+      <c r="F1021" t="n">
+        <v>99.333</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:7">
+      <c r="A1022" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B1022" t="n">
+        <v>99.31033333333333</v>
+      </c>
+      <c r="C1022" t="n">
+        <v>99.60899999999999</v>
+      </c>
+      <c r="D1022" t="n">
+        <v>98.995</v>
+      </c>
+      <c r="E1022" t="n">
+        <v>99.578</v>
+      </c>
+      <c r="F1022" t="n">
+        <v>99.059</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:7">
+      <c r="A1023" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B1023" t="n">
+        <v>99.30816666666666</v>
+      </c>
+      <c r="C1023" t="n">
+        <v>99.592</v>
+      </c>
+      <c r="D1023" t="n">
+        <v>98.78700000000001</v>
+      </c>
+      <c r="E1023" t="n">
+        <v>99.538</v>
+      </c>
+      <c r="F1023" t="n">
+        <v>98.88800000000001</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:7">
+      <c r="A1024" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B1024" t="n">
+        <v>99.45266666666667</v>
+      </c>
+      <c r="C1024" t="n">
+        <v>99.68600000000001</v>
+      </c>
+      <c r="D1024" t="n">
+        <v>98.93300000000001</v>
+      </c>
+      <c r="E1024" t="n">
+        <v>99.616</v>
+      </c>
+      <c r="F1024" t="n">
+        <v>99.102</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:7">
+      <c r="A1025" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B1025" t="n">
+        <v>96.74941666666666</v>
+      </c>
+      <c r="C1025" t="n">
+        <v>98.916</v>
+      </c>
+      <c r="D1025" t="n">
+        <v>93.09699999999999</v>
+      </c>
+      <c r="E1025" t="n">
+        <v>98.64700000000001</v>
+      </c>
+      <c r="F1025" t="n">
+        <v>93.913</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:7">
+      <c r="A1026" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B1026" t="n">
+        <v>94.50966666666666</v>
+      </c>
+      <c r="C1026" t="n">
+        <v>95.839</v>
+      </c>
+      <c r="D1026" t="n">
+        <v>92.384</v>
+      </c>
+      <c r="E1026" t="n">
+        <v>95.379</v>
+      </c>
+      <c r="F1026" t="n">
+        <v>92.91800000000001</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:7">
+      <c r="A1027" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B1027" t="n">
+        <v>95.32375</v>
+      </c>
+      <c r="C1027" t="n">
+        <v>97.384</v>
+      </c>
+      <c r="D1027" t="n">
+        <v>93.31100000000001</v>
+      </c>
+      <c r="E1027" t="n">
+        <v>97.044</v>
+      </c>
+      <c r="F1027" t="n">
+        <v>93.672</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:7">
+      <c r="A1028" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B1028" t="n">
+        <v>96.33383333333333</v>
+      </c>
+      <c r="C1028" t="n">
+        <v>98.146</v>
+      </c>
+      <c r="D1028" t="n">
+        <v>92.10599999999999</v>
+      </c>
+      <c r="E1028" t="n">
+        <v>98.02500000000001</v>
+      </c>
+      <c r="F1028" t="n">
+        <v>92.629</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:7">
+      <c r="A1029" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B1029" t="n">
+        <v>97.95391666666667</v>
+      </c>
+      <c r="C1029" t="n">
+        <v>98.771</v>
+      </c>
+      <c r="D1029" t="n">
+        <v>95.499</v>
+      </c>
+      <c r="E1029" t="n">
+        <v>98.554</v>
+      </c>
+      <c r="F1029" t="n">
+        <v>95.746</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:7">
+      <c r="A1030" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B1030" t="n">
+        <v>90.57716666666667</v>
+      </c>
+      <c r="C1030" t="n">
+        <v>96.068</v>
+      </c>
+      <c r="D1030" t="n">
+        <v>83.194</v>
+      </c>
+      <c r="E1030" t="n">
+        <v>94.648</v>
+      </c>
+      <c r="F1030" t="n">
+        <v>85.252</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:7">
+      <c r="A1031" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B1031" t="n">
+        <v>86.62824999999999</v>
+      </c>
+      <c r="C1031" t="n">
+        <v>89.807</v>
+      </c>
+      <c r="D1031" t="n">
+        <v>81.76300000000001</v>
+      </c>
+      <c r="E1031" t="n">
+        <v>88.238</v>
+      </c>
+      <c r="F1031" t="n">
+        <v>84.03400000000001</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:7">
+      <c r="A1032" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B1032" t="n">
+        <v>90.40275</v>
+      </c>
+      <c r="C1032" t="n">
+        <v>94.968</v>
+      </c>
+      <c r="D1032" t="n">
+        <v>84.233</v>
+      </c>
+      <c r="E1032" t="n">
+        <v>93.98099999999999</v>
+      </c>
+      <c r="F1032" t="n">
+        <v>86.244</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:7">
+      <c r="A1033" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B1033" t="n">
+        <v>87.24991666666666</v>
+      </c>
+      <c r="C1033" t="n">
+        <v>90.703</v>
+      </c>
+      <c r="D1033" t="n">
+        <v>83.42700000000001</v>
+      </c>
+      <c r="E1033" t="n">
+        <v>90.163</v>
+      </c>
+      <c r="F1033" t="n">
+        <v>85.178</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:7">
+      <c r="A1034" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B1034" t="n">
+        <v>88.50791666666667</v>
+      </c>
+      <c r="C1034" t="n">
+        <v>90.739</v>
+      </c>
+      <c r="D1034" t="n">
+        <v>86.075</v>
+      </c>
+      <c r="E1034" t="n">
+        <v>89.69799999999999</v>
+      </c>
+      <c r="F1034" t="n">
+        <v>87.355</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:7">
+      <c r="A1035" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B1035" t="n">
+        <v>90.25558333333333</v>
+      </c>
+      <c r="C1035" t="n">
+        <v>95.217</v>
+      </c>
+      <c r="D1035" t="n">
+        <v>85.381</v>
+      </c>
+      <c r="E1035" t="n">
+        <v>95.017</v>
+      </c>
+      <c r="F1035" t="n">
+        <v>86.48</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:7">
+      <c r="A1036" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B1036" t="n">
+        <v>93.63633333333334</v>
+      </c>
+      <c r="C1036" t="n">
+        <v>95.465</v>
+      </c>
+      <c r="D1036" t="n">
+        <v>90.36199999999999</v>
+      </c>
+      <c r="E1036" t="n">
+        <v>95.18300000000001</v>
+      </c>
+      <c r="F1036" t="n">
+        <v>90.88800000000001</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:7">
+      <c r="A1037" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B1037" t="n">
+        <v>92.7915</v>
+      </c>
+      <c r="C1037" t="n">
+        <v>94.938</v>
+      </c>
+      <c r="D1037" t="n">
+        <v>90.199</v>
+      </c>
+      <c r="E1037" t="n">
+        <v>94.518</v>
+      </c>
+      <c r="F1037" t="n">
+        <v>91.235</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:7">
+      <c r="A1038" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B1038" t="n">
+        <v>94.10883333333334</v>
+      </c>
+      <c r="C1038" t="n">
+        <v>96.43000000000001</v>
+      </c>
+      <c r="D1038" t="n">
+        <v>92.205</v>
+      </c>
+      <c r="E1038" t="n">
+        <v>95.877</v>
+      </c>
+      <c r="F1038" t="n">
+        <v>92.553</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:7">
+      <c r="A1039" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B1039" t="n">
+        <v>96.43625</v>
+      </c>
+      <c r="C1039" t="n">
+        <v>98.89700000000001</v>
+      </c>
+      <c r="D1039" t="n">
+        <v>92.797</v>
+      </c>
+      <c r="E1039" t="n">
+        <v>98.729</v>
+      </c>
+      <c r="F1039" t="n">
+        <v>93.633</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:7">
+      <c r="A1040" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B1040" t="n">
+        <v>98.84766666666667</v>
+      </c>
+      <c r="C1040" t="n">
+        <v>99.081</v>
+      </c>
+      <c r="D1040" t="n">
+        <v>98.309</v>
+      </c>
+      <c r="E1040" t="n">
+        <v>99.02800000000001</v>
+      </c>
+      <c r="F1040" t="n">
+        <v>98.526</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:7">
+      <c r="A1041" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B1041" t="n">
+        <v>99.00783333333334</v>
+      </c>
+      <c r="C1041" t="n">
+        <v>99.42700000000001</v>
+      </c>
+      <c r="D1041" t="n">
+        <v>98.505</v>
+      </c>
+      <c r="E1041" t="n">
+        <v>99.377</v>
+      </c>
+      <c r="F1041" t="n">
+        <v>98.56699999999999</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:7">
+      <c r="A1042" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B1042" t="n">
+        <v>98.97041666666667</v>
+      </c>
+      <c r="C1042" t="n">
+        <v>99.422</v>
+      </c>
+      <c r="D1042" t="n">
+        <v>97.70999999999999</v>
+      </c>
+      <c r="E1042" t="n">
+        <v>99.38500000000001</v>
+      </c>
+      <c r="F1042" t="n">
+        <v>97.917</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:7">
+      <c r="A1043" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B1043" t="n">
+        <v>98.30883333333334</v>
+      </c>
+      <c r="C1043" t="n">
+        <v>99.19199999999999</v>
+      </c>
+      <c r="D1043" t="n">
+        <v>97.479</v>
+      </c>
+      <c r="E1043" t="n">
+        <v>99.128</v>
+      </c>
+      <c r="F1043" t="n">
+        <v>97.66200000000001</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:7">
+      <c r="A1044" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B1044" t="n">
+        <v>99.43975</v>
+      </c>
+      <c r="C1044" t="n">
+        <v>99.592</v>
+      </c>
+      <c r="D1044" t="n">
+        <v>99.14700000000001</v>
+      </c>
+      <c r="E1044" t="n">
+        <v>99.563</v>
+      </c>
+      <c r="F1044" t="n">
+        <v>99.233</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:7">
+      <c r="A1045" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B1045" t="n">
+        <v>99.62808333333334</v>
+      </c>
+      <c r="C1045" t="n">
+        <v>99.723</v>
+      </c>
+      <c r="D1045" t="n">
+        <v>99.506</v>
+      </c>
+      <c r="E1045" t="n">
+        <v>99.664</v>
+      </c>
+      <c r="F1045" t="n">
+        <v>99.571</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:7">
+      <c r="A1046" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B1046" t="n">
+        <v>99.71166666666667</v>
+      </c>
+      <c r="C1046" t="n">
+        <v>99.79000000000001</v>
+      </c>
+      <c r="D1046" t="n">
+        <v>99.637</v>
+      </c>
+      <c r="E1046" t="n">
+        <v>99.745</v>
+      </c>
+      <c r="F1046" t="n">
+        <v>99.673</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:7">
+      <c r="A1047" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B1047" t="n">
+        <v>99.761</v>
+      </c>
+      <c r="C1047" t="n">
+        <v>99.792</v>
+      </c>
+      <c r="D1047" t="n">
+        <v>99.69</v>
+      </c>
+      <c r="E1047" t="n">
+        <v>99.77800000000001</v>
+      </c>
+      <c r="F1047" t="n">
+        <v>99.742</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:7">
+      <c r="A1048" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B1048" t="n">
+        <v>99.77608333333333</v>
+      </c>
+      <c r="C1048" t="n">
+        <v>99.79000000000001</v>
+      </c>
+      <c r="D1048" t="n">
+        <v>99.733</v>
+      </c>
+      <c r="E1048" t="n">
+        <v>99.78100000000001</v>
+      </c>
+      <c r="F1048" t="n">
+        <v>99.77</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:7">
+      <c r="A1049" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B1049" t="n">
+        <v>99.77925</v>
+      </c>
+      <c r="C1049" t="n">
+        <v>99.79000000000001</v>
+      </c>
+      <c r="D1049" t="n">
+        <v>99.75</v>
+      </c>
+      <c r="E1049" t="n">
+        <v>99.783</v>
+      </c>
+      <c r="F1049" t="n">
+        <v>99.776</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:7">
+      <c r="A1050" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B1050" t="n">
+        <v>99.76758333333333</v>
+      </c>
+      <c r="C1050" t="n">
+        <v>99.79000000000001</v>
+      </c>
+      <c r="D1050" t="n">
+        <v>99.672</v>
+      </c>
+      <c r="E1050" t="n">
+        <v>99.78100000000001</v>
+      </c>
+      <c r="F1050" t="n">
+        <v>99.724</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:7">
+      <c r="A1051" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B1051" t="n">
+        <v>99.77691666666666</v>
+      </c>
+      <c r="C1051" t="n">
+        <v>99.79000000000001</v>
+      </c>
+      <c r="D1051" t="n">
+        <v>99.73999999999999</v>
+      </c>
+      <c r="E1051" t="n">
+        <v>99.779</v>
+      </c>
+      <c r="F1051" t="n">
+        <v>99.77500000000001</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:7">
+      <c r="A1052" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B1052" t="n">
+        <v>99.77608333333333</v>
+      </c>
+      <c r="C1052" t="n">
+        <v>99.789</v>
+      </c>
+      <c r="D1052" t="n">
+        <v>99.738</v>
+      </c>
+      <c r="E1052" t="n">
+        <v>99.78100000000001</v>
+      </c>
+      <c r="F1052" t="n">
+        <v>99.77</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:7">
+      <c r="A1053" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B1053" t="n">
+        <v>99.77549999999999</v>
+      </c>
+      <c r="C1053" t="n">
+        <v>99.788</v>
+      </c>
+      <c r="D1053" t="n">
+        <v>99.732</v>
+      </c>
+      <c r="E1053" t="n">
+        <v>99.78</v>
+      </c>
+      <c r="F1053" t="n">
+        <v>99.77200000000001</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:7">
+      <c r="A1054" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B1054" t="n">
+        <v>99.77433333333333</v>
+      </c>
+      <c r="C1054" t="n">
+        <v>99.788</v>
+      </c>
+      <c r="D1054" t="n">
+        <v>99.715</v>
+      </c>
+      <c r="E1054" t="n">
+        <v>99.78</v>
+      </c>
+      <c r="F1054" t="n">
+        <v>99.76000000000001</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:7">
+      <c r="A1055" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B1055" t="n">
+        <v>99.77716666666667</v>
+      </c>
+      <c r="C1055" t="n">
+        <v>99.788</v>
+      </c>
+      <c r="D1055" t="n">
+        <v>99.765</v>
+      </c>
+      <c r="E1055" t="n">
+        <v>99.78</v>
+      </c>
+      <c r="F1055" t="n">
+        <v>99.77500000000001</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:7">
+      <c r="A1056" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B1056" t="n">
+        <v>99.77875</v>
+      </c>
+      <c r="C1056" t="n">
+        <v>99.789</v>
+      </c>
+      <c r="D1056" t="n">
+        <v>99.765</v>
+      </c>
+      <c r="E1056" t="n">
+        <v>99.78100000000001</v>
+      </c>
+      <c r="F1056" t="n">
+        <v>99.776</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:7">
+      <c r="A1057" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B1057" t="n">
+        <v>99.78016666666667</v>
+      </c>
+      <c r="C1057" t="n">
+        <v>99.792</v>
+      </c>
+      <c r="D1057" t="n">
+        <v>99.767</v>
+      </c>
+      <c r="E1057" t="n">
+        <v>99.78400000000001</v>
+      </c>
+      <c r="F1057" t="n">
+        <v>99.77800000000001</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:7">
+      <c r="A1058" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B1058" t="n">
+        <v>99.77833333333334</v>
+      </c>
+      <c r="C1058" t="n">
+        <v>99.79000000000001</v>
+      </c>
+      <c r="D1058" t="n">
+        <v>99.738</v>
+      </c>
+      <c r="E1058" t="n">
+        <v>99.782</v>
+      </c>
+      <c r="F1058" t="n">
+        <v>99.77</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:7">
+      <c r="A1059" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B1059" t="n">
+        <v>99.01033333333334</v>
+      </c>
+      <c r="C1059" t="n">
+        <v>99.752</v>
+      </c>
+      <c r="D1059" t="n">
+        <v>98.42100000000001</v>
+      </c>
+      <c r="E1059" t="n">
+        <v>99.702</v>
+      </c>
+      <c r="F1059" t="n">
+        <v>98.54900000000001</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:7">
+      <c r="A1060" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B1060" t="n">
+        <v>99.41</v>
+      </c>
+      <c r="C1060" t="n">
+        <v>99.756</v>
+      </c>
+      <c r="D1060" t="n">
+        <v>98.571</v>
+      </c>
+      <c r="E1060" t="n">
+        <v>99.69199999999999</v>
+      </c>
+      <c r="F1060" t="n">
+        <v>98.697</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:7">
+      <c r="A1061" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B1061" t="n">
+        <v>99.64208333333333</v>
+      </c>
+      <c r="C1061" t="n">
+        <v>99.75700000000001</v>
+      </c>
+      <c r="D1061" t="n">
+        <v>99.27800000000001</v>
+      </c>
+      <c r="E1061" t="n">
+        <v>99.723</v>
+      </c>
+      <c r="F1061" t="n">
+        <v>99.379</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:7">
+      <c r="A1062" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B1062" t="n">
+        <v>98.7595</v>
+      </c>
+      <c r="C1062" t="n">
+        <v>99.309</v>
+      </c>
+      <c r="D1062" t="n">
+        <v>98.136</v>
+      </c>
+      <c r="E1062" t="n">
+        <v>99.137</v>
+      </c>
+      <c r="F1062" t="n">
+        <v>98.364</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:7">
+      <c r="A1063" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B1063" t="n">
+        <v>99.24416666666667</v>
+      </c>
+      <c r="C1063" t="n">
+        <v>99.39</v>
+      </c>
+      <c r="D1063" t="n">
+        <v>99.04900000000001</v>
+      </c>
+      <c r="E1063" t="n">
+        <v>99.345</v>
+      </c>
+      <c r="F1063" t="n">
+        <v>99.121</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:7">
+      <c r="A1064" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B1064" t="n">
+        <v>99.197</v>
+      </c>
+      <c r="C1064" t="n">
+        <v>99.39</v>
+      </c>
+      <c r="D1064" t="n">
+        <v>98.982</v>
+      </c>
+      <c r="E1064" t="n">
+        <v>99.322</v>
+      </c>
+      <c r="F1064" t="n">
+        <v>99.09099999999999</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:7">
+      <c r="A1065" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B1065" t="n">
+        <v>99.32299999999999</v>
+      </c>
+      <c r="C1065" t="n">
+        <v>99.557</v>
+      </c>
+      <c r="D1065" t="n">
+        <v>99.113</v>
+      </c>
+      <c r="E1065" t="n">
+        <v>99.464</v>
+      </c>
+      <c r="F1065" t="n">
+        <v>99.2</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:7">
+      <c r="A1066" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B1066" t="n">
+        <v>99.54933333333334</v>
+      </c>
+      <c r="C1066" t="n">
+        <v>99.642</v>
+      </c>
+      <c r="D1066" t="n">
+        <v>99.44199999999999</v>
+      </c>
+      <c r="E1066" t="n">
+        <v>99.60899999999999</v>
+      </c>
+      <c r="F1066" t="n">
+        <v>99.47799999999999</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:7">
+      <c r="A1067" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B1067" t="n">
+        <v>99.60275</v>
+      </c>
+      <c r="C1067" t="n">
+        <v>99.69</v>
+      </c>
+      <c r="D1067" t="n">
+        <v>99.52200000000001</v>
+      </c>
+      <c r="E1067" t="n">
+        <v>99.628</v>
+      </c>
+      <c r="F1067" t="n">
+        <v>99.569</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:7">
+      <c r="A1068" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B1068" t="n">
+        <v>99.55366666666667</v>
+      </c>
+      <c r="C1068" t="n">
+        <v>99.643</v>
+      </c>
+      <c r="D1068" t="n">
+        <v>99.443</v>
+      </c>
+      <c r="E1068" t="n">
+        <v>99.601</v>
+      </c>
+      <c r="F1068" t="n">
+        <v>99.508</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:7">
+      <c r="A1069" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B1069" t="n">
+        <v>99.55191666666667</v>
+      </c>
+      <c r="C1069" t="n">
+        <v>99.658</v>
+      </c>
+      <c r="D1069" t="n">
+        <v>99.444</v>
+      </c>
+      <c r="E1069" t="n">
+        <v>99.592</v>
+      </c>
+      <c r="F1069" t="n">
+        <v>99.502</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:7">
+      <c r="A1070" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B1070" t="n">
+        <v>99.65341666666667</v>
+      </c>
+      <c r="C1070" t="n">
+        <v>99.724</v>
+      </c>
+      <c r="D1070" t="n">
+        <v>99.57299999999999</v>
+      </c>
+      <c r="E1070" t="n">
+        <v>99.67400000000001</v>
+      </c>
+      <c r="F1070" t="n">
+        <v>99.636</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:7">
+      <c r="A1071" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1071" t="n">
+        <v>99.62375</v>
+      </c>
+      <c r="C1071" t="n">
+        <v>99.724</v>
+      </c>
+      <c r="D1071" t="n">
+        <v>99.49299999999999</v>
+      </c>
+      <c r="E1071" t="n">
+        <v>99.672</v>
+      </c>
+      <c r="F1071" t="n">
+        <v>99.56100000000001</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:7">
+      <c r="A1072" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B1072" t="n">
+        <v>99.68075</v>
+      </c>
+      <c r="C1072" t="n">
+        <v>99.791</v>
+      </c>
+      <c r="D1072" t="n">
+        <v>99.502</v>
+      </c>
+      <c r="E1072" t="n">
+        <v>99.76900000000001</v>
+      </c>
+      <c r="F1072" t="n">
+        <v>99.565</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:7">
+      <c r="A1073" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B1073" t="n">
+        <v>99.77283333333334</v>
+      </c>
+      <c r="C1073" t="n">
+        <v>99.798</v>
+      </c>
+      <c r="D1073" t="n">
+        <v>99.76000000000001</v>
+      </c>
+      <c r="E1073" t="n">
+        <v>99.776</v>
+      </c>
+      <c r="F1073" t="n">
+        <v>99.768</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:7">
+      <c r="A1074" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B1074" t="n">
+        <v>99.77416666666667</v>
+      </c>
+      <c r="C1074" t="n">
+        <v>99.786</v>
+      </c>
+      <c r="D1074" t="n">
+        <v>99.762</v>
+      </c>
+      <c r="E1074" t="n">
+        <v>99.78</v>
+      </c>
+      <c r="F1074" t="n">
+        <v>99.771</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:7">
+      <c r="A1075" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B1075" t="n">
+        <v>99.77333333333333</v>
+      </c>
+      <c r="C1075" t="n">
+        <v>99.785</v>
+      </c>
+      <c r="D1075" t="n">
+        <v>99.761</v>
+      </c>
+      <c r="E1075" t="n">
+        <v>99.77800000000001</v>
+      </c>
+      <c r="F1075" t="n">
+        <v>99.76900000000001</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:7">
+      <c r="A1076" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B1076" t="n">
+        <v>99.77</v>
+      </c>
+      <c r="C1076" t="n">
+        <v>99.783</v>
+      </c>
+      <c r="D1076" t="n">
+        <v>99.758</v>
+      </c>
+      <c r="E1076" t="n">
+        <v>99.77500000000001</v>
+      </c>
+      <c r="F1076" t="n">
+        <v>99.76600000000001</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:7">
+      <c r="A1077" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B1077" t="n">
+        <v>99.76824999999999</v>
+      </c>
+      <c r="C1077" t="n">
+        <v>99.779</v>
+      </c>
+      <c r="D1077" t="n">
+        <v>99.756</v>
+      </c>
+      <c r="E1077" t="n">
+        <v>99.77</v>
+      </c>
+      <c r="F1077" t="n">
+        <v>99.76600000000001</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:7">
+      <c r="A1078" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B1078" t="n">
+        <v>99.73783333333333</v>
+      </c>
+      <c r="C1078" t="n">
+        <v>99.77800000000001</v>
+      </c>
+      <c r="D1078" t="n">
+        <v>99.533</v>
+      </c>
+      <c r="E1078" t="n">
+        <v>99.768</v>
+      </c>
+      <c r="F1078" t="n">
+        <v>99.599</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:7">
+      <c r="A1079" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B1079" t="n">
+        <v>99.15966666666667</v>
+      </c>
+      <c r="C1079" t="n">
+        <v>99.699</v>
+      </c>
+      <c r="D1079" t="n">
+        <v>98.47499999999999</v>
+      </c>
+      <c r="E1079" t="n">
+        <v>99.637</v>
+      </c>
+      <c r="F1079" t="n">
+        <v>98.649</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:7">
+      <c r="A1080" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B1080" t="n">
+        <v>99.429</v>
+      </c>
+      <c r="C1080" t="n">
+        <v>99.64400000000001</v>
+      </c>
+      <c r="D1080" t="n">
+        <v>98.902</v>
+      </c>
+      <c r="E1080" t="n">
+        <v>99.60599999999999</v>
+      </c>
+      <c r="F1080" t="n">
+        <v>99.01000000000001</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:7">
+      <c r="A1081" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B1081" t="n">
+        <v>96.64683333333333</v>
+      </c>
+      <c r="C1081" t="n">
+        <v>98.86799999999999</v>
+      </c>
+      <c r="D1081" t="n">
+        <v>95.22499999999999</v>
+      </c>
+      <c r="E1081" t="n">
+        <v>98.586</v>
+      </c>
+      <c r="F1081" t="n">
+        <v>95.529</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:7">
+      <c r="A1082" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B1082" t="n">
+        <v>98.069</v>
+      </c>
+      <c r="C1082" t="n">
+        <v>98.792</v>
+      </c>
+      <c r="D1082" t="n">
+        <v>96.60599999999999</v>
+      </c>
+      <c r="E1082" t="n">
+        <v>98.672</v>
+      </c>
+      <c r="F1082" t="n">
+        <v>96.923</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:7">
+      <c r="A1083" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1083" t="n">
+        <v>99.03608333333334</v>
+      </c>
+      <c r="C1083" t="n">
+        <v>99.533</v>
+      </c>
+      <c r="D1083" t="n">
+        <v>97.43000000000001</v>
+      </c>
+      <c r="E1083" t="n">
+        <v>99.447</v>
+      </c>
+      <c r="F1083" t="n">
+        <v>97.626</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:7">
+      <c r="A1084" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B1084" t="n">
+        <v>97.95266666666667</v>
+      </c>
+      <c r="C1084" t="n">
+        <v>99.303</v>
+      </c>
+      <c r="D1084" t="n">
+        <v>93.22</v>
+      </c>
+      <c r="E1084" t="n">
+        <v>99.19499999999999</v>
+      </c>
+      <c r="F1084" t="n">
+        <v>94.254</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:7">
+      <c r="A1085" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B1085" t="n">
+        <v>92.22608333333334</v>
+      </c>
+      <c r="C1085" t="n">
+        <v>94.70099999999999</v>
+      </c>
+      <c r="D1085" t="n">
+        <v>86.852</v>
+      </c>
+      <c r="E1085" t="n">
+        <v>94.27</v>
+      </c>
+      <c r="F1085" t="n">
+        <v>88.64700000000001</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:7">
+      <c r="A1086" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B1086" t="n">
+        <v>98.56191666666666</v>
+      </c>
+      <c r="C1086" t="n">
+        <v>99.51600000000001</v>
+      </c>
+      <c r="D1086" t="n">
+        <v>93.94499999999999</v>
+      </c>
+      <c r="E1086" t="n">
+        <v>99.46899999999999</v>
+      </c>
+      <c r="F1086" t="n">
+        <v>94.86499999999999</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:7">
+      <c r="A1087" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B1087" t="n">
+        <v>99.25024999999999</v>
+      </c>
+      <c r="C1087" t="n">
+        <v>99.636</v>
+      </c>
+      <c r="D1087" t="n">
+        <v>98.318</v>
+      </c>
+      <c r="E1087" t="n">
+        <v>99.581</v>
+      </c>
+      <c r="F1087" t="n">
+        <v>98.55200000000001</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:7">
+      <c r="A1088" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B1088" t="n">
+        <v>99.11041666666667</v>
+      </c>
+      <c r="C1088" t="n">
+        <v>99.583</v>
+      </c>
+      <c r="D1088" t="n">
+        <v>98.414</v>
+      </c>
+      <c r="E1088" t="n">
+        <v>99.51900000000001</v>
+      </c>
+      <c r="F1088" t="n">
+        <v>98.59399999999999</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:7">
+      <c r="A1089" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B1089" t="n">
+        <v>99.60466666666667</v>
+      </c>
+      <c r="C1089" t="n">
+        <v>99.709</v>
+      </c>
+      <c r="D1089" t="n">
+        <v>99.50700000000001</v>
+      </c>
+      <c r="E1089" t="n">
+        <v>99.654</v>
+      </c>
+      <c r="F1089" t="n">
+        <v>99.55800000000001</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:7">
+      <c r="A1090" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B1090" t="n">
+        <v>99.73625</v>
+      </c>
+      <c r="C1090" t="n">
+        <v>99.78400000000001</v>
+      </c>
+      <c r="D1090" t="n">
+        <v>99.629</v>
+      </c>
+      <c r="E1090" t="n">
+        <v>99.771</v>
+      </c>
+      <c r="F1090" t="n">
+        <v>99.676</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:7">
+      <c r="A1091" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B1091" t="n">
+        <v>99.77200000000001</v>
+      </c>
+      <c r="C1091" t="n">
+        <v>99.785</v>
+      </c>
+      <c r="D1091" t="n">
+        <v>99.69799999999999</v>
+      </c>
+      <c r="E1091" t="n">
+        <v>99.776</v>
+      </c>
+      <c r="F1091" t="n">
+        <v>99.762</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:7">
+      <c r="A1092" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B1092" t="n">
+        <v>99.77291666666666</v>
+      </c>
+      <c r="C1092" t="n">
+        <v>99.785</v>
+      </c>
+      <c r="D1092" t="n">
+        <v>99.76000000000001</v>
+      </c>
+      <c r="E1092" t="n">
+        <v>99.77500000000001</v>
+      </c>
+      <c r="F1092" t="n">
+        <v>99.77</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:7">
+      <c r="A1093" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B1093" t="n">
+        <v>99.77249999999999</v>
+      </c>
+      <c r="C1093" t="n">
+        <v>99.785</v>
+      </c>
+      <c r="D1093" t="n">
+        <v>99.762</v>
+      </c>
+      <c r="E1093" t="n">
+        <v>99.777</v>
+      </c>
+      <c r="F1093" t="n">
+        <v>99.771</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:7">
+      <c r="A1094" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B1094" t="n">
+        <v>99.77249999999999</v>
+      </c>
+      <c r="C1094" t="n">
+        <v>99.785</v>
+      </c>
+      <c r="D1094" t="n">
+        <v>99.761</v>
+      </c>
+      <c r="E1094" t="n">
+        <v>99.776</v>
+      </c>
+      <c r="F1094" t="n">
+        <v>99.77</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:7">
+      <c r="A1095" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B1095" t="n">
+        <v>99.77225</v>
+      </c>
+      <c r="C1095" t="n">
+        <v>99.783</v>
+      </c>
+      <c r="D1095" t="n">
+        <v>99.759</v>
+      </c>
+      <c r="E1095" t="n">
+        <v>99.776</v>
+      </c>
+      <c r="F1095" t="n">
+        <v>99.768</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:7">
+      <c r="A1096" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B1096" t="n">
+        <v>99.65925</v>
+      </c>
+      <c r="C1096" t="n">
+        <v>99.782</v>
+      </c>
+      <c r="D1096" t="n">
+        <v>99.369</v>
+      </c>
+      <c r="E1096" t="n">
+        <v>99.76900000000001</v>
+      </c>
+      <c r="F1096" t="n">
+        <v>99.42700000000001</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:7">
+      <c r="A1097" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B1097" t="n">
+        <v>99.52325</v>
+      </c>
+      <c r="C1097" t="n">
+        <v>99.646</v>
+      </c>
+      <c r="D1097" t="n">
+        <v>99.17400000000001</v>
+      </c>
+      <c r="E1097" t="n">
+        <v>99.60299999999999</v>
+      </c>
+      <c r="F1097" t="n">
+        <v>99.29600000000001</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:7">
+      <c r="A1098" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B1098" t="n">
+        <v>98.76408333333333</v>
+      </c>
+      <c r="C1098" t="n">
+        <v>99.504</v>
+      </c>
+      <c r="D1098" t="n">
+        <v>97.956</v>
+      </c>
+      <c r="E1098" t="n">
+        <v>99.45399999999999</v>
+      </c>
+      <c r="F1098" t="n">
+        <v>98.193</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:7">
+      <c r="A1099" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B1099" t="n">
+        <v>96.48099999999999</v>
+      </c>
+      <c r="C1099" t="n">
+        <v>98.494</v>
+      </c>
+      <c r="D1099" t="n">
+        <v>93.875</v>
+      </c>
+      <c r="E1099" t="n">
+        <v>98.393</v>
+      </c>
+      <c r="F1099" t="n">
+        <v>94.343</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:7">
+      <c r="A1100" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1100" t="n">
+        <v>94.56683333333334</v>
+      </c>
+      <c r="C1100" t="n">
+        <v>96.328</v>
+      </c>
+      <c r="D1100" t="n">
+        <v>92.532</v>
+      </c>
+      <c r="E1100" t="n">
+        <v>95.801</v>
+      </c>
+      <c r="F1100" t="n">
+        <v>93.229</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:7">
+      <c r="A1101" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1101" t="n">
+        <v>93.45283333333333</v>
+      </c>
+      <c r="C1101" t="n">
+        <v>94.97799999999999</v>
+      </c>
+      <c r="D1101" t="n">
+        <v>90.164</v>
+      </c>
+      <c r="E1101" t="n">
+        <v>94.669</v>
+      </c>
+      <c r="F1101" t="n">
+        <v>90.661</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:7">
+      <c r="A1102" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B1102" t="n">
+        <v>91.27800000000001</v>
+      </c>
+      <c r="C1102" t="n">
+        <v>94.126</v>
+      </c>
+      <c r="D1102" t="n">
+        <v>86.447</v>
+      </c>
+      <c r="E1102" t="n">
+        <v>93.381</v>
+      </c>
+      <c r="F1102" t="n">
+        <v>88.03</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:7">
+      <c r="A1103" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B1103" t="n">
+        <v>83.74225</v>
+      </c>
+      <c r="C1103" t="n">
+        <v>91.286</v>
+      </c>
+      <c r="D1103" t="n">
+        <v>74.316</v>
+      </c>
+      <c r="E1103" t="n">
+        <v>90.26900000000001</v>
+      </c>
+      <c r="F1103" t="n">
+        <v>78.29900000000001</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:7">
+      <c r="A1104" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B1104" t="n">
+        <v>95.81825000000001</v>
+      </c>
+      <c r="C1104" t="n">
+        <v>98.78</v>
+      </c>
+      <c r="D1104" t="n">
+        <v>90.014</v>
+      </c>
+      <c r="E1104" t="n">
+        <v>98.682</v>
+      </c>
+      <c r="F1104" t="n">
+        <v>90.78</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:7">
+      <c r="A1105" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B1105" t="n">
+        <v>99.18566666666666</v>
+      </c>
+      <c r="C1105" t="n">
+        <v>99.417</v>
+      </c>
+      <c r="D1105" t="n">
+        <v>98.816</v>
+      </c>
+      <c r="E1105" t="n">
+        <v>99.351</v>
+      </c>
+      <c r="F1105" t="n">
+        <v>98.876</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:7">
+      <c r="A1106" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B1106" t="n">
+        <v>99.411</v>
+      </c>
+      <c r="C1106" t="n">
+        <v>99.52</v>
+      </c>
+      <c r="D1106" t="n">
+        <v>99.30500000000001</v>
+      </c>
+      <c r="E1106" t="n">
+        <v>99.45</v>
+      </c>
+      <c r="F1106" t="n">
+        <v>99.342</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:7">
+      <c r="A1107" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B1107" t="n">
+        <v>99.5305</v>
+      </c>
+      <c r="C1107" t="n">
+        <v>99.64700000000001</v>
+      </c>
+      <c r="D1107" t="n">
+        <v>99.404</v>
+      </c>
+      <c r="E1107" t="n">
+        <v>99.581</v>
+      </c>
+      <c r="F1107" t="n">
+        <v>99.446</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:7">
+      <c r="A1108" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B1108" t="n">
+        <v>99.51925</v>
+      </c>
+      <c r="C1108" t="n">
+        <v>99.651</v>
+      </c>
+      <c r="D1108" t="n">
+        <v>99.307</v>
+      </c>
+      <c r="E1108" t="n">
+        <v>99.58199999999999</v>
+      </c>
+      <c r="F1108" t="n">
+        <v>99.40300000000001</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:7">
+      <c r="A1109" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B1109" t="n">
+        <v>99.4905</v>
+      </c>
+      <c r="C1109" t="n">
+        <v>99.584</v>
+      </c>
+      <c r="D1109" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="E1109" t="n">
+        <v>99.51600000000001</v>
+      </c>
+      <c r="F1109" t="n">
+        <v>99.455</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:7">
+      <c r="A1110" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B1110" t="n">
+        <v>99.18216666666666</v>
+      </c>
+      <c r="C1110" t="n">
+        <v>99.504</v>
+      </c>
+      <c r="D1110" t="n">
+        <v>98.94199999999999</v>
+      </c>
+      <c r="E1110" t="n">
+        <v>99.46599999999999</v>
+      </c>
+      <c r="F1110" t="n">
+        <v>98.96899999999999</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:7">
+      <c r="A1111" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B1111" t="n">
+        <v>98.16833333333334</v>
+      </c>
+      <c r="C1111" t="n">
+        <v>99.05500000000001</v>
+      </c>
+      <c r="D1111" t="n">
+        <v>97.134</v>
+      </c>
+      <c r="E1111" t="n">
+        <v>98.895</v>
+      </c>
+      <c r="F1111" t="n">
+        <v>97.36499999999999</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:7">
+      <c r="A1112" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1112" t="n">
+        <v>95.85291666666667</v>
+      </c>
+      <c r="C1112" t="n">
+        <v>97.661</v>
+      </c>
+      <c r="D1112" t="n">
+        <v>93.517</v>
+      </c>
+      <c r="E1112" t="n">
+        <v>97.55800000000001</v>
+      </c>
+      <c r="F1112" t="n">
+        <v>93.90000000000001</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:7">
+      <c r="A1113" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B1113" t="n">
+        <v>94.06783333333334</v>
+      </c>
+      <c r="C1113" t="n">
+        <v>95.502</v>
+      </c>
+      <c r="D1113" t="n">
+        <v>92.28</v>
+      </c>
+      <c r="E1113" t="n">
+        <v>95.158</v>
+      </c>
+      <c r="F1113" t="n">
+        <v>92.49299999999999</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:7">
+      <c r="A1114" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B1114" t="n">
+        <v>90.78491666666666</v>
+      </c>
+      <c r="C1114" t="n">
+        <v>92.476</v>
+      </c>
+      <c r="D1114" t="n">
+        <v>88.38800000000001</v>
+      </c>
+      <c r="E1114" t="n">
+        <v>91.94199999999999</v>
+      </c>
+      <c r="F1114" t="n">
+        <v>89.04900000000001</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:7">
+      <c r="A1115" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B1115" t="n">
+        <v>93.92166666666667</v>
+      </c>
+      <c r="C1115" t="n">
+        <v>95.36199999999999</v>
+      </c>
+      <c r="D1115" t="n">
+        <v>92.18000000000001</v>
+      </c>
+      <c r="E1115" t="n">
+        <v>95.139</v>
+      </c>
+      <c r="F1115" t="n">
+        <v>92.452</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:7">
+      <c r="A1116" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B1116" t="n">
+        <v>86.91841666666667</v>
+      </c>
+      <c r="C1116" t="n">
+        <v>94.78100000000001</v>
+      </c>
+      <c r="D1116" t="n">
+        <v>78.53700000000001</v>
+      </c>
+      <c r="E1116" t="n">
+        <v>94.642</v>
+      </c>
+      <c r="F1116" t="n">
+        <v>79.247</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:7">
+      <c r="A1117" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B1117" t="n">
+        <v>82.01858333333334</v>
+      </c>
+      <c r="C1117" t="n">
+        <v>85.279</v>
+      </c>
+      <c r="D1117" t="n">
+        <v>78.884</v>
+      </c>
+      <c r="E1117" t="n">
+        <v>84.458</v>
+      </c>
+      <c r="F1117" t="n">
+        <v>79.55200000000001</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:7">
+      <c r="A1118" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B1118" t="n">
+        <v>83.02083333333333</v>
+      </c>
+      <c r="C1118" t="n">
+        <v>86.346</v>
+      </c>
+      <c r="D1118" t="n">
+        <v>79.56999999999999</v>
+      </c>
+      <c r="E1118" t="n">
+        <v>85.61799999999999</v>
+      </c>
+      <c r="F1118" t="n">
+        <v>80.16500000000001</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:7">
+      <c r="A1119" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B1119" t="n">
+        <v>87.02124999999999</v>
+      </c>
+      <c r="C1119" t="n">
+        <v>88.61499999999999</v>
+      </c>
+      <c r="D1119" t="n">
+        <v>84.422</v>
+      </c>
+      <c r="E1119" t="n">
+        <v>88.355</v>
+      </c>
+      <c r="F1119" t="n">
+        <v>85.045</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:7">
+      <c r="A1120" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B1120" t="n">
+        <v>83.61558333333333</v>
+      </c>
+      <c r="C1120" t="n">
+        <v>85.60599999999999</v>
+      </c>
+      <c r="D1120" t="n">
+        <v>81.01900000000001</v>
+      </c>
+      <c r="E1120" t="n">
+        <v>85.00700000000001</v>
+      </c>
+      <c r="F1120" t="n">
+        <v>81.739</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:7">
+      <c r="A1121" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B1121" t="n">
+        <v>78.74916666666667</v>
+      </c>
+      <c r="C1121" t="n">
+        <v>83.325</v>
+      </c>
+      <c r="D1121" t="n">
+        <v>73.033</v>
+      </c>
+      <c r="E1121" t="n">
+        <v>82.648</v>
+      </c>
+      <c r="F1121" t="n">
+        <v>75.303</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:7">
+      <c r="A1122" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B1122" t="n">
+        <v>71.53358333333334</v>
+      </c>
+      <c r="C1122" t="n">
+        <v>77.06</v>
+      </c>
+      <c r="D1122" t="n">
+        <v>66.126</v>
+      </c>
+      <c r="E1122" t="n">
+        <v>74.51000000000001</v>
+      </c>
+      <c r="F1122" t="n">
+        <v>68.854</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:7">
+      <c r="A1123" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B1123" t="n">
+        <v>69.12475000000001</v>
+      </c>
+      <c r="C1123" t="n">
+        <v>74.021</v>
+      </c>
+      <c r="D1123" t="n">
+        <v>64.34999999999999</v>
+      </c>
+      <c r="E1123" t="n">
+        <v>72.178</v>
+      </c>
+      <c r="F1123" t="n">
+        <v>66.15600000000001</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:7">
+      <c r="A1124" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B1124" t="n">
+        <v>67.27141666666667</v>
+      </c>
+      <c r="C1124" t="n">
+        <v>71.95999999999999</v>
+      </c>
+      <c r="D1124" t="n">
+        <v>62.706</v>
+      </c>
+      <c r="E1124" t="n">
+        <v>70.54900000000001</v>
+      </c>
+      <c r="F1124" t="n">
+        <v>65.371</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:7">
+      <c r="A1125" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B1125" t="n">
+        <v>63.95591666666667</v>
+      </c>
+      <c r="C1125" t="n">
+        <v>68.36</v>
+      </c>
+      <c r="D1125" t="n">
+        <v>58.251</v>
+      </c>
+      <c r="E1125" t="n">
+        <v>66.69799999999999</v>
+      </c>
+      <c r="F1125" t="n">
+        <v>61.602</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:7">
+      <c r="A1126" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B1126" t="n">
+        <v>65.32516666666666</v>
+      </c>
+      <c r="C1126" t="n">
+        <v>71.94799999999999</v>
+      </c>
+      <c r="D1126" t="n">
+        <v>58.658</v>
+      </c>
+      <c r="E1126" t="n">
+        <v>67.95399999999999</v>
+      </c>
+      <c r="F1126" t="n">
+        <v>62.663</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:7">
+      <c r="A1127" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B1127" t="n">
+        <v>70.16916666666667</v>
+      </c>
+      <c r="C1127" t="n">
+        <v>75.76600000000001</v>
+      </c>
+      <c r="D1127" t="n">
+        <v>64.92700000000001</v>
+      </c>
+      <c r="E1127" t="n">
+        <v>73.22</v>
+      </c>
+      <c r="F1127" t="n">
+        <v>67.34099999999999</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:7">
+      <c r="A1128" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B1128" t="n">
+        <v>78.11341666666667</v>
+      </c>
+      <c r="C1128" t="n">
+        <v>85.51000000000001</v>
+      </c>
+      <c r="D1128" t="n">
+        <v>72.196</v>
+      </c>
+      <c r="E1128" t="n">
+        <v>83.547</v>
+      </c>
+      <c r="F1128" t="n">
+        <v>74.36</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:7">
+      <c r="A1129" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B1129" t="n">
+        <v>82.87983333333334</v>
+      </c>
+      <c r="C1129" t="n">
+        <v>85.712</v>
+      </c>
+      <c r="D1129" t="n">
+        <v>78.92</v>
+      </c>
+      <c r="E1129" t="n">
+        <v>84.27800000000001</v>
+      </c>
+      <c r="F1129" t="n">
+        <v>80.988</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:7">
+      <c r="A1130" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B1130" t="n">
+        <v>88.26375</v>
+      </c>
+      <c r="C1130" t="n">
+        <v>92.879</v>
+      </c>
+      <c r="D1130" t="n">
+        <v>82.977</v>
+      </c>
+      <c r="E1130" t="n">
+        <v>92.321</v>
+      </c>
+      <c r="F1130" t="n">
+        <v>83.614</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:7">
+      <c r="A1131" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B1131" t="n">
+        <v>91.85491666666667</v>
+      </c>
+      <c r="C1131" t="n">
+        <v>93.846</v>
+      </c>
+      <c r="D1131" t="n">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="E1131" t="n">
+        <v>93.236</v>
+      </c>
+      <c r="F1131" t="n">
+        <v>90.137</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:7">
+      <c r="A1132" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B1132" t="n">
+        <v>94.73608333333334</v>
+      </c>
+      <c r="C1132" t="n">
+        <v>96.029</v>
+      </c>
+      <c r="D1132" t="n">
+        <v>92.926</v>
+      </c>
+      <c r="E1132" t="n">
+        <v>95.643</v>
+      </c>
+      <c r="F1132" t="n">
+        <v>93.196</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:7">
+      <c r="A1133" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B1133" t="n">
+        <v>96.59708333333333</v>
+      </c>
+      <c r="C1133" t="n">
+        <v>97.41</v>
+      </c>
+      <c r="D1133" t="n">
+        <v>95.84999999999999</v>
+      </c>
+      <c r="E1133" t="n">
+        <v>97.21599999999999</v>
+      </c>
+      <c r="F1133" t="n">
+        <v>95.95099999999999</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:7">
+      <c r="A1134" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B1134" t="n">
+        <v>98.72016666666667</v>
+      </c>
+      <c r="C1134" t="n">
+        <v>99.19199999999999</v>
+      </c>
+      <c r="D1134" t="n">
+        <v>97.369</v>
+      </c>
+      <c r="E1134" t="n">
+        <v>99.161</v>
+      </c>
+      <c r="F1134" t="n">
+        <v>97.551</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:7">
+      <c r="A1135" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B1135" t="n">
+        <v>99.32308333333333</v>
+      </c>
+      <c r="C1135" t="n">
+        <v>99.474</v>
+      </c>
+      <c r="D1135" t="n">
+        <v>99.169</v>
+      </c>
+      <c r="E1135" t="n">
+        <v>99.42</v>
+      </c>
+      <c r="F1135" t="n">
+        <v>99.20699999999999</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:7">
+      <c r="A1136" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B1136" t="n">
+        <v>99.47533333333334</v>
+      </c>
+      <c r="C1136" t="n">
+        <v>99.586</v>
+      </c>
+      <c r="D1136" t="n">
+        <v>99.402</v>
+      </c>
+      <c r="E1136" t="n">
+        <v>99.51900000000001</v>
+      </c>
+      <c r="F1136" t="n">
+        <v>99.425</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:7">
+      <c r="A1137" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B1137" t="n">
+        <v>99.58216666666667</v>
+      </c>
+      <c r="C1137" t="n">
+        <v>99.68000000000001</v>
+      </c>
+      <c r="D1137" t="n">
+        <v>99.465</v>
+      </c>
+      <c r="E1137" t="n">
+        <v>99.62</v>
+      </c>
+      <c r="F1137" t="n">
+        <v>99.518</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/Gas Transfer Velocity/M5025_Humedad del aire.xlsx
+++ b/Outputs/Gas Transfer Velocity/M5025_Humedad del aire.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="723">
   <si>
     <t>Reporte de Datos Hidrometerológicos</t>
   </si>
@@ -2184,1266 +2184,6 @@
   </si>
   <si>
     <t>2019-07-30 11:00:00</t>
-  </si>
-  <si>
-    <t>2019-07-30 12:00:00</t>
-  </si>
-  <si>
-    <t>2019-07-30 13:00:00</t>
-  </si>
-  <si>
-    <t>2019-07-30 14:00:00</t>
-  </si>
-  <si>
-    <t>2019-07-30 15:00:00</t>
-  </si>
-  <si>
-    <t>2019-07-30 16:00:00</t>
-  </si>
-  <si>
-    <t>2019-07-30 17:00:00</t>
-  </si>
-  <si>
-    <t>2019-07-30 18:00:00</t>
-  </si>
-  <si>
-    <t>2019-07-30 19:00:00</t>
-  </si>
-  <si>
-    <t>2019-07-30 20:00:00</t>
-  </si>
-  <si>
-    <t>2019-07-30 21:00:00</t>
-  </si>
-  <si>
-    <t>2019-07-30 22:00:00</t>
-  </si>
-  <si>
-    <t>2019-07-30 23:00:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 00:00:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 01:00:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 02:00:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 03:00:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 04:00:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 05:00:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 06:00:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 07:00:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 08:00:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 09:00:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:00:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 11:00:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 12:00:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:00:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:00:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 15:00:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 16:00:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 17:00:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 18:00:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 19:00:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 20:00:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 21:00:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 22:00:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 23:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-01 00:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-01 01:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-01 02:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-01 03:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-01 04:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-01 05:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-01 06:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-01 07:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-01 08:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-01 09:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-01 10:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-01 11:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-01 12:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-01 13:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-01 14:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-01 15:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-01 16:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-01 17:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-01 18:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-01 19:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-01 20:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-01 21:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-01 22:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-01 23:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 00:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 01:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 02:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 03:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 04:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 05:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 06:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 07:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 08:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 09:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 11:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 12:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 15:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 16:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 17:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 18:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 19:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 20:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 21:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 22:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 23:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-03 00:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-03 01:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-03 02:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-03 03:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-03 04:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-03 05:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-03 06:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-03 07:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-03 08:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-03 09:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-03 10:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-03 11:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-03 12:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-03 13:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-03 14:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-03 15:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-03 16:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-03 17:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-03 18:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-03 19:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-03 20:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-03 21:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-03 22:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-03 23:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-04 00:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-04 01:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-04 02:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-04 03:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-04 04:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-04 05:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-04 06:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-04 07:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-04 08:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-04 09:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-04 10:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-04 11:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-04 12:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-04 13:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-04 14:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-04 15:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-04 16:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-04 17:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-04 18:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-04 19:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-04 20:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-04 21:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-04 22:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-04 23:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-05 00:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-05 01:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-05 02:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-05 03:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-05 04:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-05 05:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-05 06:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-05 07:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-05 08:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-05 09:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-05 10:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-05 11:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-05 12:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-05 13:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-05 14:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-05 15:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-05 16:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-05 17:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-05 18:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-05 19:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-05 20:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-05 21:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-05 22:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-05 23:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-06 00:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-06 01:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-06 02:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-06 03:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-06 04:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-06 05:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-06 06:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-06 07:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-06 08:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-06 09:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-06 10:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-06 11:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-06 12:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-06 13:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-06 14:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-06 15:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-06 16:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-06 17:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-06 18:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-06 19:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-06 20:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-06 21:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-06 22:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-06 23:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-07 00:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-07 01:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-07 02:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-07 03:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-07 04:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-07 05:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-07 06:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-07 07:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-07 08:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-07 09:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-07 10:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-07 11:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-07 12:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-07 13:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-07 14:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-07 15:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-07 16:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-07 17:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-07 18:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-07 19:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-07 20:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-07 21:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-07 22:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-07 23:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-08 00:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-08 01:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-08 02:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-08 03:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-08 04:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-08 05:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-08 06:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-08 07:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-08 08:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-08 09:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-08 10:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-08 11:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-08 12:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-08 13:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-08 14:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-08 15:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-08 16:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-08 17:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-08 18:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-08 19:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-08 20:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-08 21:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-08 22:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-08 23:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-09 00:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-09 01:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-09 02:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-09 03:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-09 04:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-09 05:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-09 06:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-09 07:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-09 08:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-09 09:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-09 10:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-09 11:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-09 12:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-09 13:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-09 14:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-09 15:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-09 16:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-09 17:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-09 18:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-09 19:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-09 20:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-09 21:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-09 22:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-09 23:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-10 00:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-10 01:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-10 02:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-10 03:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-10 04:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-10 05:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-10 06:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-10 07:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-10 08:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-10 09:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-10 10:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-10 11:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-10 12:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-10 13:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-10 14:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-10 15:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-10 16:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-10 17:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-10 18:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-10 19:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-10 20:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-10 21:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-10 22:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-10 23:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-11 00:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-11 01:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-11 02:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-11 03:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-11 04:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-11 05:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-11 06:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-11 07:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-11 08:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-11 09:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-11 10:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-11 11:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-11 12:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-11 13:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-11 14:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-11 15:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-11 16:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-11 17:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-11 18:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-11 19:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-11 20:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-11 21:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-11 22:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-11 23:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-12 00:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-12 01:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-12 02:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-12 03:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-12 04:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-12 05:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-12 06:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-12 07:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-12 08:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-12 09:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-12 10:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-12 11:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-12 12:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-12 13:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-12 14:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-12 15:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-12 16:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-12 17:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-12 18:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-12 19:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-12 20:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-12 21:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-12 22:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-12 23:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-13 00:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-13 01:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-13 02:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-13 03:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-13 04:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-13 05:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-13 06:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-13 07:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-13 08:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-13 09:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-13 10:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-13 11:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-13 12:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-13 13:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-13 14:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-13 15:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-13 16:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-13 17:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-13 18:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-13 19:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-13 20:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-13 21:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-13 22:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-13 23:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-14 00:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-14 01:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-14 02:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-14 03:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-14 04:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-14 05:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-14 06:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-14 07:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-14 08:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-14 09:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-14 10:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-14 11:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-14 12:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-14 13:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-14 14:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-14 15:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-14 16:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-14 17:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-14 18:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-14 19:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-14 20:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-14 21:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-14 22:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-14 23:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-15 00:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-15 01:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-15 02:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-15 03:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-15 04:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-15 05:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-15 06:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-15 07:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-15 08:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-15 09:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-15 10:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-15 11:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-15 12:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-15 13:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-15 14:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-15 15:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-15 16:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-15 17:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-15 18:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-15 19:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-15 20:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-15 21:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-15 22:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-15 23:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-16 00:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-16 01:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-16 02:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-16 03:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-16 04:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-16 05:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-16 06:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-16 07:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-16 08:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-16 09:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-16 10:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-16 11:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-16 12:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-16 13:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-16 14:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-16 15:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-16 16:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-16 17:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-16 18:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-16 19:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-16 20:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-16 21:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-16 22:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-16 23:00:00</t>
   </si>
 </sst>
 </file>
@@ -3539,12 +2279,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>Sheet!$A$10:$A$1138</f>
+              <f>Sheet!$A$10:$A$718</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>Sheet!$B$10:$B$1137</f>
+              <f>Sheet!$B$10:$B$717</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -3575,12 +2315,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>Sheet!$A$10:$A$1138</f>
+              <f>Sheet!$A$10:$A$718</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>Sheet!$C$10:$C$1137</f>
+              <f>Sheet!$C$10:$C$717</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -3611,12 +2351,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>Sheet!$A$10:$A$1138</f>
+              <f>Sheet!$A$10:$A$718</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>Sheet!$D$10:$D$1137</f>
+              <f>Sheet!$D$10:$D$717</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -4022,7 +2762,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1137"/>
+  <dimension ref="A1:G717"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18236,7 +16976,7 @@
         <v>722</v>
       </c>
       <c r="B717" t="n">
-        <v>77.54241666666667</v>
+        <v>77.25511111111111</v>
       </c>
       <c r="C717" t="n">
         <v>80.627</v>
@@ -18249,8406 +16989,6 @@
       </c>
       <c r="F717" t="n">
         <v>74.90600000000001</v>
-      </c>
-    </row>
-    <row r="718" spans="1:7">
-      <c r="A718" t="s">
-        <v>723</v>
-      </c>
-      <c r="B718" t="n">
-        <v>73.38116666666667</v>
-      </c>
-      <c r="C718" t="n">
-        <v>79.41200000000001</v>
-      </c>
-      <c r="D718" t="n">
-        <v>66.602</v>
-      </c>
-      <c r="E718" t="n">
-        <v>76.301</v>
-      </c>
-      <c r="F718" t="n">
-        <v>69.733</v>
-      </c>
-    </row>
-    <row r="719" spans="1:7">
-      <c r="A719" t="s">
-        <v>724</v>
-      </c>
-      <c r="B719" t="n">
-        <v>78.65808333333334</v>
-      </c>
-      <c r="C719" t="n">
-        <v>86.187</v>
-      </c>
-      <c r="D719" t="n">
-        <v>72.057</v>
-      </c>
-      <c r="E719" t="n">
-        <v>85.292</v>
-      </c>
-      <c r="F719" t="n">
-        <v>74.965</v>
-      </c>
-    </row>
-    <row r="720" spans="1:7">
-      <c r="A720" t="s">
-        <v>725</v>
-      </c>
-      <c r="B720" t="n">
-        <v>93.65191666666666</v>
-      </c>
-      <c r="C720" t="n">
-        <v>98.435</v>
-      </c>
-      <c r="D720" t="n">
-        <v>86.501</v>
-      </c>
-      <c r="E720" t="n">
-        <v>98.22</v>
-      </c>
-      <c r="F720" t="n">
-        <v>87.34699999999999</v>
-      </c>
-    </row>
-    <row r="721" spans="1:7">
-      <c r="A721" t="s">
-        <v>726</v>
-      </c>
-      <c r="B721" t="n">
-        <v>98.49525</v>
-      </c>
-      <c r="C721" t="n">
-        <v>98.816</v>
-      </c>
-      <c r="D721" t="n">
-        <v>97.946</v>
-      </c>
-      <c r="E721" t="n">
-        <v>98.66500000000001</v>
-      </c>
-      <c r="F721" t="n">
-        <v>98.15300000000001</v>
-      </c>
-    </row>
-    <row r="722" spans="1:7">
-      <c r="A722" t="s">
-        <v>727</v>
-      </c>
-      <c r="B722" t="n">
-        <v>99.06058333333333</v>
-      </c>
-      <c r="C722" t="n">
-        <v>99.324</v>
-      </c>
-      <c r="D722" t="n">
-        <v>98.747</v>
-      </c>
-      <c r="E722" t="n">
-        <v>99.265</v>
-      </c>
-      <c r="F722" t="n">
-        <v>98.81399999999999</v>
-      </c>
-    </row>
-    <row r="723" spans="1:7">
-      <c r="A723" t="s">
-        <v>728</v>
-      </c>
-      <c r="B723" t="n">
-        <v>99.37991666666667</v>
-      </c>
-      <c r="C723" t="n">
-        <v>99.51000000000001</v>
-      </c>
-      <c r="D723" t="n">
-        <v>99.242</v>
-      </c>
-      <c r="E723" t="n">
-        <v>99.45099999999999</v>
-      </c>
-      <c r="F723" t="n">
-        <v>99.28100000000001</v>
-      </c>
-    </row>
-    <row r="724" spans="1:7">
-      <c r="A724" t="s">
-        <v>729</v>
-      </c>
-      <c r="B724" t="n">
-        <v>99.39216666666667</v>
-      </c>
-      <c r="C724" t="n">
-        <v>99.54600000000001</v>
-      </c>
-      <c r="D724" t="n">
-        <v>99.18899999999999</v>
-      </c>
-      <c r="E724" t="n">
-        <v>99.483</v>
-      </c>
-      <c r="F724" t="n">
-        <v>99.259</v>
-      </c>
-    </row>
-    <row r="725" spans="1:7">
-      <c r="A725" t="s">
-        <v>730</v>
-      </c>
-      <c r="B725" t="n">
-        <v>98.72450000000001</v>
-      </c>
-      <c r="C725" t="n">
-        <v>99.321</v>
-      </c>
-      <c r="D725" t="n">
-        <v>98.226</v>
-      </c>
-      <c r="E725" t="n">
-        <v>99.214</v>
-      </c>
-      <c r="F725" t="n">
-        <v>98.289</v>
-      </c>
-    </row>
-    <row r="726" spans="1:7">
-      <c r="A726" t="s">
-        <v>731</v>
-      </c>
-      <c r="B726" t="n">
-        <v>98.23408333333333</v>
-      </c>
-      <c r="C726" t="n">
-        <v>98.598</v>
-      </c>
-      <c r="D726" t="n">
-        <v>97.565</v>
-      </c>
-      <c r="E726" t="n">
-        <v>98.503</v>
-      </c>
-      <c r="F726" t="n">
-        <v>97.753</v>
-      </c>
-    </row>
-    <row r="727" spans="1:7">
-      <c r="A727" t="s">
-        <v>732</v>
-      </c>
-      <c r="B727" t="n">
-        <v>96.17891666666667</v>
-      </c>
-      <c r="C727" t="n">
-        <v>97.76300000000001</v>
-      </c>
-      <c r="D727" t="n">
-        <v>95.199</v>
-      </c>
-      <c r="E727" t="n">
-        <v>97.46899999999999</v>
-      </c>
-      <c r="F727" t="n">
-        <v>95.526</v>
-      </c>
-    </row>
-    <row r="728" spans="1:7">
-      <c r="A728" t="s">
-        <v>733</v>
-      </c>
-      <c r="B728" t="n">
-        <v>94.65891666666667</v>
-      </c>
-      <c r="C728" t="n">
-        <v>96.72499999999999</v>
-      </c>
-      <c r="D728" t="n">
-        <v>92.73</v>
-      </c>
-      <c r="E728" t="n">
-        <v>96.47</v>
-      </c>
-      <c r="F728" t="n">
-        <v>92.90300000000001</v>
-      </c>
-    </row>
-    <row r="729" spans="1:7">
-      <c r="A729" t="s">
-        <v>734</v>
-      </c>
-      <c r="B729" t="n">
-        <v>92.26900000000001</v>
-      </c>
-      <c r="C729" t="n">
-        <v>94.58799999999999</v>
-      </c>
-      <c r="D729" t="n">
-        <v>90.854</v>
-      </c>
-      <c r="E729" t="n">
-        <v>94.19</v>
-      </c>
-      <c r="F729" t="n">
-        <v>91.173</v>
-      </c>
-    </row>
-    <row r="730" spans="1:7">
-      <c r="A730" t="s">
-        <v>735</v>
-      </c>
-      <c r="B730" t="n">
-        <v>96.05233333333334</v>
-      </c>
-      <c r="C730" t="n">
-        <v>98.194</v>
-      </c>
-      <c r="D730" t="n">
-        <v>92.712</v>
-      </c>
-      <c r="E730" t="n">
-        <v>98.081</v>
-      </c>
-      <c r="F730" t="n">
-        <v>92.842</v>
-      </c>
-    </row>
-    <row r="731" spans="1:7">
-      <c r="A731" t="s">
-        <v>736</v>
-      </c>
-      <c r="B731" t="n">
-        <v>98.5065</v>
-      </c>
-      <c r="C731" t="n">
-        <v>98.98399999999999</v>
-      </c>
-      <c r="D731" t="n">
-        <v>97.501</v>
-      </c>
-      <c r="E731" t="n">
-        <v>98.935</v>
-      </c>
-      <c r="F731" t="n">
-        <v>97.973</v>
-      </c>
-    </row>
-    <row r="732" spans="1:7">
-      <c r="A732" t="s">
-        <v>737</v>
-      </c>
-      <c r="B732" t="n">
-        <v>95.68075</v>
-      </c>
-      <c r="C732" t="n">
-        <v>97.943</v>
-      </c>
-      <c r="D732" t="n">
-        <v>93.125</v>
-      </c>
-      <c r="E732" t="n">
-        <v>97.751</v>
-      </c>
-      <c r="F732" t="n">
-        <v>93.852</v>
-      </c>
-    </row>
-    <row r="733" spans="1:7">
-      <c r="A733" t="s">
-        <v>738</v>
-      </c>
-      <c r="B733" t="n">
-        <v>97.91366666666667</v>
-      </c>
-      <c r="C733" t="n">
-        <v>98.49299999999999</v>
-      </c>
-      <c r="D733" t="n">
-        <v>96.97499999999999</v>
-      </c>
-      <c r="E733" t="n">
-        <v>98.407</v>
-      </c>
-      <c r="F733" t="n">
-        <v>97.18000000000001</v>
-      </c>
-    </row>
-    <row r="734" spans="1:7">
-      <c r="A734" t="s">
-        <v>739</v>
-      </c>
-      <c r="B734" t="n">
-        <v>97.83466666666666</v>
-      </c>
-      <c r="C734" t="n">
-        <v>98.404</v>
-      </c>
-      <c r="D734" t="n">
-        <v>97.072</v>
-      </c>
-      <c r="E734" t="n">
-        <v>98.09699999999999</v>
-      </c>
-      <c r="F734" t="n">
-        <v>97.544</v>
-      </c>
-    </row>
-    <row r="735" spans="1:7">
-      <c r="A735" t="s">
-        <v>740</v>
-      </c>
-      <c r="B735" t="n">
-        <v>96.75266666666667</v>
-      </c>
-      <c r="C735" t="n">
-        <v>98.503</v>
-      </c>
-      <c r="D735" t="n">
-        <v>93.583</v>
-      </c>
-      <c r="E735" t="n">
-        <v>98.429</v>
-      </c>
-      <c r="F735" t="n">
-        <v>94.253</v>
-      </c>
-    </row>
-    <row r="736" spans="1:7">
-      <c r="A736" t="s">
-        <v>741</v>
-      </c>
-      <c r="B736" t="n">
-        <v>98.03616666666667</v>
-      </c>
-      <c r="C736" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="D736" t="n">
-        <v>95.018</v>
-      </c>
-      <c r="E736" t="n">
-        <v>99.139</v>
-      </c>
-      <c r="F736" t="n">
-        <v>95.63500000000001</v>
-      </c>
-    </row>
-    <row r="737" spans="1:7">
-      <c r="A737" t="s">
-        <v>742</v>
-      </c>
-      <c r="B737" t="n">
-        <v>98.86041666666667</v>
-      </c>
-      <c r="C737" t="n">
-        <v>99.29000000000001</v>
-      </c>
-      <c r="D737" t="n">
-        <v>97.392</v>
-      </c>
-      <c r="E737" t="n">
-        <v>99.25</v>
-      </c>
-      <c r="F737" t="n">
-        <v>97.693</v>
-      </c>
-    </row>
-    <row r="738" spans="1:7">
-      <c r="A738" t="s">
-        <v>743</v>
-      </c>
-      <c r="B738" t="n">
-        <v>98.5265</v>
-      </c>
-      <c r="C738" t="n">
-        <v>99.17400000000001</v>
-      </c>
-      <c r="D738" t="n">
-        <v>97.321</v>
-      </c>
-      <c r="E738" t="n">
-        <v>99.123</v>
-      </c>
-      <c r="F738" t="n">
-        <v>97.452</v>
-      </c>
-    </row>
-    <row r="739" spans="1:7">
-      <c r="A739" t="s">
-        <v>744</v>
-      </c>
-      <c r="B739" t="n">
-        <v>99.25291666666666</v>
-      </c>
-      <c r="C739" t="n">
-        <v>99.45399999999999</v>
-      </c>
-      <c r="D739" t="n">
-        <v>99.081</v>
-      </c>
-      <c r="E739" t="n">
-        <v>99.374</v>
-      </c>
-      <c r="F739" t="n">
-        <v>99.116</v>
-      </c>
-    </row>
-    <row r="740" spans="1:7">
-      <c r="A740" t="s">
-        <v>745</v>
-      </c>
-      <c r="B740" t="n">
-        <v>99.37824999999999</v>
-      </c>
-      <c r="C740" t="n">
-        <v>99.52500000000001</v>
-      </c>
-      <c r="D740" t="n">
-        <v>99.208</v>
-      </c>
-      <c r="E740" t="n">
-        <v>99.48099999999999</v>
-      </c>
-      <c r="F740" t="n">
-        <v>99.27200000000001</v>
-      </c>
-    </row>
-    <row r="741" spans="1:7">
-      <c r="A741" t="s">
-        <v>746</v>
-      </c>
-      <c r="B741" t="n">
-        <v>99.39166666666667</v>
-      </c>
-      <c r="C741" t="n">
-        <v>99.592</v>
-      </c>
-      <c r="D741" t="n">
-        <v>99.21299999999999</v>
-      </c>
-      <c r="E741" t="n">
-        <v>99.462</v>
-      </c>
-      <c r="F741" t="n">
-        <v>99.313</v>
-      </c>
-    </row>
-    <row r="742" spans="1:7">
-      <c r="A742" t="s">
-        <v>747</v>
-      </c>
-      <c r="B742" t="n">
-        <v>99.49166666666666</v>
-      </c>
-      <c r="C742" t="n">
-        <v>99.625</v>
-      </c>
-      <c r="D742" t="n">
-        <v>99.34099999999999</v>
-      </c>
-      <c r="E742" t="n">
-        <v>99.568</v>
-      </c>
-      <c r="F742" t="n">
-        <v>99.419</v>
-      </c>
-    </row>
-    <row r="743" spans="1:7">
-      <c r="A743" t="s">
-        <v>748</v>
-      </c>
-      <c r="B743" t="n">
-        <v>99.58683333333333</v>
-      </c>
-      <c r="C743" t="n">
-        <v>99.684</v>
-      </c>
-      <c r="D743" t="n">
-        <v>99.474</v>
-      </c>
-      <c r="E743" t="n">
-        <v>99.614</v>
-      </c>
-      <c r="F743" t="n">
-        <v>99.55500000000001</v>
-      </c>
-    </row>
-    <row r="744" spans="1:7">
-      <c r="A744" t="s">
-        <v>749</v>
-      </c>
-      <c r="B744" t="n">
-        <v>96.44566666666667</v>
-      </c>
-      <c r="C744" t="n">
-        <v>99.711</v>
-      </c>
-      <c r="D744" t="n">
-        <v>88.80500000000001</v>
-      </c>
-      <c r="E744" t="n">
-        <v>99.60599999999999</v>
-      </c>
-      <c r="F744" t="n">
-        <v>90.68300000000001</v>
-      </c>
-    </row>
-    <row r="745" spans="1:7">
-      <c r="A745" t="s">
-        <v>750</v>
-      </c>
-      <c r="B745" t="n">
-        <v>88.47791666666667</v>
-      </c>
-      <c r="C745" t="n">
-        <v>92.634</v>
-      </c>
-      <c r="D745" t="n">
-        <v>84.791</v>
-      </c>
-      <c r="E745" t="n">
-        <v>91.399</v>
-      </c>
-      <c r="F745" t="n">
-        <v>86.226</v>
-      </c>
-    </row>
-    <row r="746" spans="1:7">
-      <c r="A746" t="s">
-        <v>751</v>
-      </c>
-      <c r="B746" t="n">
-        <v>89.2495</v>
-      </c>
-      <c r="C746" t="n">
-        <v>91.61199999999999</v>
-      </c>
-      <c r="D746" t="n">
-        <v>85.23399999999999</v>
-      </c>
-      <c r="E746" t="n">
-        <v>91.036</v>
-      </c>
-      <c r="F746" t="n">
-        <v>87.157</v>
-      </c>
-    </row>
-    <row r="747" spans="1:7">
-      <c r="A747" t="s">
-        <v>752</v>
-      </c>
-      <c r="B747" t="n">
-        <v>91.12633333333333</v>
-      </c>
-      <c r="C747" t="n">
-        <v>93.14400000000001</v>
-      </c>
-      <c r="D747" t="n">
-        <v>88.946</v>
-      </c>
-      <c r="E747" t="n">
-        <v>92.738</v>
-      </c>
-      <c r="F747" t="n">
-        <v>89.973</v>
-      </c>
-    </row>
-    <row r="748" spans="1:7">
-      <c r="A748" t="s">
-        <v>753</v>
-      </c>
-      <c r="B748" t="n">
-        <v>94.37441666666666</v>
-      </c>
-      <c r="C748" t="n">
-        <v>95.73999999999999</v>
-      </c>
-      <c r="D748" t="n">
-        <v>92.256</v>
-      </c>
-      <c r="E748" t="n">
-        <v>95.377</v>
-      </c>
-      <c r="F748" t="n">
-        <v>93.07299999999999</v>
-      </c>
-    </row>
-    <row r="749" spans="1:7">
-      <c r="A749" t="s">
-        <v>754</v>
-      </c>
-      <c r="B749" t="n">
-        <v>93.67341666666667</v>
-      </c>
-      <c r="C749" t="n">
-        <v>95.995</v>
-      </c>
-      <c r="D749" t="n">
-        <v>91.348</v>
-      </c>
-      <c r="E749" t="n">
-        <v>95.467</v>
-      </c>
-      <c r="F749" t="n">
-        <v>91.614</v>
-      </c>
-    </row>
-    <row r="750" spans="1:7">
-      <c r="A750" t="s">
-        <v>755</v>
-      </c>
-      <c r="B750" t="n">
-        <v>92.58341666666666</v>
-      </c>
-      <c r="C750" t="n">
-        <v>93.47199999999999</v>
-      </c>
-      <c r="D750" t="n">
-        <v>91.301</v>
-      </c>
-      <c r="E750" t="n">
-        <v>93.194</v>
-      </c>
-      <c r="F750" t="n">
-        <v>91.51900000000001</v>
-      </c>
-    </row>
-    <row r="751" spans="1:7">
-      <c r="A751" t="s">
-        <v>756</v>
-      </c>
-      <c r="B751" t="n">
-        <v>92.17874999999999</v>
-      </c>
-      <c r="C751" t="n">
-        <v>93.916</v>
-      </c>
-      <c r="D751" t="n">
-        <v>90.331</v>
-      </c>
-      <c r="E751" t="n">
-        <v>93.607</v>
-      </c>
-      <c r="F751" t="n">
-        <v>90.667</v>
-      </c>
-    </row>
-    <row r="752" spans="1:7">
-      <c r="A752" t="s">
-        <v>757</v>
-      </c>
-      <c r="B752" t="n">
-        <v>92.55391666666667</v>
-      </c>
-      <c r="C752" t="n">
-        <v>93.91500000000001</v>
-      </c>
-      <c r="D752" t="n">
-        <v>90.974</v>
-      </c>
-      <c r="E752" t="n">
-        <v>93.48999999999999</v>
-      </c>
-      <c r="F752" t="n">
-        <v>91.387</v>
-      </c>
-    </row>
-    <row r="753" spans="1:7">
-      <c r="A753" t="s">
-        <v>758</v>
-      </c>
-      <c r="B753" t="n">
-        <v>93.20325</v>
-      </c>
-      <c r="C753" t="n">
-        <v>94.81699999999999</v>
-      </c>
-      <c r="D753" t="n">
-        <v>91.217</v>
-      </c>
-      <c r="E753" t="n">
-        <v>94.095</v>
-      </c>
-      <c r="F753" t="n">
-        <v>92.381</v>
-      </c>
-    </row>
-    <row r="754" spans="1:7">
-      <c r="A754" t="s">
-        <v>759</v>
-      </c>
-      <c r="B754" t="n">
-        <v>95.63641666666666</v>
-      </c>
-      <c r="C754" t="n">
-        <v>96.723</v>
-      </c>
-      <c r="D754" t="n">
-        <v>93.43600000000001</v>
-      </c>
-      <c r="E754" t="n">
-        <v>96.36499999999999</v>
-      </c>
-      <c r="F754" t="n">
-        <v>93.812</v>
-      </c>
-    </row>
-    <row r="755" spans="1:7">
-      <c r="A755" t="s">
-        <v>760</v>
-      </c>
-      <c r="B755" t="n">
-        <v>94.99341666666666</v>
-      </c>
-      <c r="C755" t="n">
-        <v>97.084</v>
-      </c>
-      <c r="D755" t="n">
-        <v>92.3</v>
-      </c>
-      <c r="E755" t="n">
-        <v>96.627</v>
-      </c>
-      <c r="F755" t="n">
-        <v>92.614</v>
-      </c>
-    </row>
-    <row r="756" spans="1:7">
-      <c r="A756" t="s">
-        <v>761</v>
-      </c>
-      <c r="B756" t="n">
-        <v>91.46708333333333</v>
-      </c>
-      <c r="C756" t="n">
-        <v>93.499</v>
-      </c>
-      <c r="D756" t="n">
-        <v>90.02</v>
-      </c>
-      <c r="E756" t="n">
-        <v>93.258</v>
-      </c>
-      <c r="F756" t="n">
-        <v>90.19199999999999</v>
-      </c>
-    </row>
-    <row r="757" spans="1:7">
-      <c r="A757" t="s">
-        <v>762</v>
-      </c>
-      <c r="B757" t="n">
-        <v>92.13225</v>
-      </c>
-      <c r="C757" t="n">
-        <v>93.357</v>
-      </c>
-      <c r="D757" t="n">
-        <v>90.864</v>
-      </c>
-      <c r="E757" t="n">
-        <v>93.26300000000001</v>
-      </c>
-      <c r="F757" t="n">
-        <v>91.167</v>
-      </c>
-    </row>
-    <row r="758" spans="1:7">
-      <c r="A758" t="s">
-        <v>763</v>
-      </c>
-      <c r="B758" t="n">
-        <v>91.46174999999999</v>
-      </c>
-      <c r="C758" t="n">
-        <v>93.402</v>
-      </c>
-      <c r="D758" t="n">
-        <v>87.187</v>
-      </c>
-      <c r="E758" t="n">
-        <v>93.261</v>
-      </c>
-      <c r="F758" t="n">
-        <v>88.271</v>
-      </c>
-    </row>
-    <row r="759" spans="1:7">
-      <c r="A759" t="s">
-        <v>764</v>
-      </c>
-      <c r="B759" t="n">
-        <v>85.04658333333333</v>
-      </c>
-      <c r="C759" t="n">
-        <v>89.88200000000001</v>
-      </c>
-      <c r="D759" t="n">
-        <v>76.187</v>
-      </c>
-      <c r="E759" t="n">
-        <v>89.209</v>
-      </c>
-      <c r="F759" t="n">
-        <v>78.396</v>
-      </c>
-    </row>
-    <row r="760" spans="1:7">
-      <c r="A760" t="s">
-        <v>765</v>
-      </c>
-      <c r="B760" t="n">
-        <v>79.77808333333333</v>
-      </c>
-      <c r="C760" t="n">
-        <v>88.623</v>
-      </c>
-      <c r="D760" t="n">
-        <v>73.462</v>
-      </c>
-      <c r="E760" t="n">
-        <v>87.55500000000001</v>
-      </c>
-      <c r="F760" t="n">
-        <v>74.79000000000001</v>
-      </c>
-    </row>
-    <row r="761" spans="1:7">
-      <c r="A761" t="s">
-        <v>766</v>
-      </c>
-      <c r="B761" t="n">
-        <v>86.149</v>
-      </c>
-      <c r="C761" t="n">
-        <v>89.65600000000001</v>
-      </c>
-      <c r="D761" t="n">
-        <v>82.806</v>
-      </c>
-      <c r="E761" t="n">
-        <v>88.598</v>
-      </c>
-      <c r="F761" t="n">
-        <v>84.036</v>
-      </c>
-    </row>
-    <row r="762" spans="1:7">
-      <c r="A762" t="s">
-        <v>767</v>
-      </c>
-      <c r="B762" t="n">
-        <v>83.07875</v>
-      </c>
-      <c r="C762" t="n">
-        <v>86.45</v>
-      </c>
-      <c r="D762" t="n">
-        <v>79.202</v>
-      </c>
-      <c r="E762" t="n">
-        <v>84.81100000000001</v>
-      </c>
-      <c r="F762" t="n">
-        <v>80.65900000000001</v>
-      </c>
-    </row>
-    <row r="763" spans="1:7">
-      <c r="A763" t="s">
-        <v>768</v>
-      </c>
-      <c r="B763" t="n">
-        <v>80.402</v>
-      </c>
-      <c r="C763" t="n">
-        <v>83.063</v>
-      </c>
-      <c r="D763" t="n">
-        <v>77.229</v>
-      </c>
-      <c r="E763" t="n">
-        <v>81.816</v>
-      </c>
-      <c r="F763" t="n">
-        <v>78.497</v>
-      </c>
-    </row>
-    <row r="764" spans="1:7">
-      <c r="A764" t="s">
-        <v>769</v>
-      </c>
-      <c r="B764" t="n">
-        <v>77.38391666666666</v>
-      </c>
-      <c r="C764" t="n">
-        <v>80.71299999999999</v>
-      </c>
-      <c r="D764" t="n">
-        <v>73.887</v>
-      </c>
-      <c r="E764" t="n">
-        <v>79.194</v>
-      </c>
-      <c r="F764" t="n">
-        <v>75.56399999999999</v>
-      </c>
-    </row>
-    <row r="765" spans="1:7">
-      <c r="A765" t="s">
-        <v>770</v>
-      </c>
-      <c r="B765" t="n">
-        <v>81.24066666666667</v>
-      </c>
-      <c r="C765" t="n">
-        <v>86.318</v>
-      </c>
-      <c r="D765" t="n">
-        <v>74.792</v>
-      </c>
-      <c r="E765" t="n">
-        <v>85.42</v>
-      </c>
-      <c r="F765" t="n">
-        <v>76.523</v>
-      </c>
-    </row>
-    <row r="766" spans="1:7">
-      <c r="A766" t="s">
-        <v>771</v>
-      </c>
-      <c r="B766" t="n">
-        <v>86.21575</v>
-      </c>
-      <c r="C766" t="n">
-        <v>89.081</v>
-      </c>
-      <c r="D766" t="n">
-        <v>81.83199999999999</v>
-      </c>
-      <c r="E766" t="n">
-        <v>87.786</v>
-      </c>
-      <c r="F766" t="n">
-        <v>83.414</v>
-      </c>
-    </row>
-    <row r="767" spans="1:7">
-      <c r="A767" t="s">
-        <v>772</v>
-      </c>
-      <c r="B767" t="n">
-        <v>83.68141666666666</v>
-      </c>
-      <c r="C767" t="n">
-        <v>88.672</v>
-      </c>
-      <c r="D767" t="n">
-        <v>77.211</v>
-      </c>
-      <c r="E767" t="n">
-        <v>87.32599999999999</v>
-      </c>
-      <c r="F767" t="n">
-        <v>79.551</v>
-      </c>
-    </row>
-    <row r="768" spans="1:7">
-      <c r="A768" t="s">
-        <v>773</v>
-      </c>
-      <c r="B768" t="n">
-        <v>90.03666666666666</v>
-      </c>
-      <c r="C768" t="n">
-        <v>95.23999999999999</v>
-      </c>
-      <c r="D768" t="n">
-        <v>81.05500000000001</v>
-      </c>
-      <c r="E768" t="n">
-        <v>94.66800000000001</v>
-      </c>
-      <c r="F768" t="n">
-        <v>82.699</v>
-      </c>
-    </row>
-    <row r="769" spans="1:7">
-      <c r="A769" t="s">
-        <v>774</v>
-      </c>
-      <c r="B769" t="n">
-        <v>89.70008333333334</v>
-      </c>
-      <c r="C769" t="n">
-        <v>93.637</v>
-      </c>
-      <c r="D769" t="n">
-        <v>82.964</v>
-      </c>
-      <c r="E769" t="n">
-        <v>91.813</v>
-      </c>
-      <c r="F769" t="n">
-        <v>87.657</v>
-      </c>
-    </row>
-    <row r="770" spans="1:7">
-      <c r="A770" t="s">
-        <v>775</v>
-      </c>
-      <c r="B770" t="n">
-        <v>85.1305</v>
-      </c>
-      <c r="C770" t="n">
-        <v>88.86499999999999</v>
-      </c>
-      <c r="D770" t="n">
-        <v>78.44499999999999</v>
-      </c>
-      <c r="E770" t="n">
-        <v>88.17400000000001</v>
-      </c>
-      <c r="F770" t="n">
-        <v>81.79000000000001</v>
-      </c>
-    </row>
-    <row r="771" spans="1:7">
-      <c r="A771" t="s">
-        <v>776</v>
-      </c>
-      <c r="B771" t="n">
-        <v>94.58225</v>
-      </c>
-      <c r="C771" t="n">
-        <v>97.696</v>
-      </c>
-      <c r="D771" t="n">
-        <v>85.432</v>
-      </c>
-      <c r="E771" t="n">
-        <v>97.533</v>
-      </c>
-      <c r="F771" t="n">
-        <v>87.554</v>
-      </c>
-    </row>
-    <row r="772" spans="1:7">
-      <c r="A772" t="s">
-        <v>777</v>
-      </c>
-      <c r="B772" t="n">
-        <v>97.27175</v>
-      </c>
-      <c r="C772" t="n">
-        <v>97.92700000000001</v>
-      </c>
-      <c r="D772" t="n">
-        <v>96.492</v>
-      </c>
-      <c r="E772" t="n">
-        <v>97.79000000000001</v>
-      </c>
-      <c r="F772" t="n">
-        <v>96.639</v>
-      </c>
-    </row>
-    <row r="773" spans="1:7">
-      <c r="A773" t="s">
-        <v>778</v>
-      </c>
-      <c r="B773" t="n">
-        <v>98.32675</v>
-      </c>
-      <c r="C773" t="n">
-        <v>99.131</v>
-      </c>
-      <c r="D773" t="n">
-        <v>96.709</v>
-      </c>
-      <c r="E773" t="n">
-        <v>99.07299999999999</v>
-      </c>
-      <c r="F773" t="n">
-        <v>96.86499999999999</v>
-      </c>
-    </row>
-    <row r="774" spans="1:7">
-      <c r="A774" t="s">
-        <v>779</v>
-      </c>
-      <c r="B774" t="n">
-        <v>95.90091666666666</v>
-      </c>
-      <c r="C774" t="n">
-        <v>99.02800000000001</v>
-      </c>
-      <c r="D774" t="n">
-        <v>93.075</v>
-      </c>
-      <c r="E774" t="n">
-        <v>98.874</v>
-      </c>
-      <c r="F774" t="n">
-        <v>93.48999999999999</v>
-      </c>
-    </row>
-    <row r="775" spans="1:7">
-      <c r="A775" t="s">
-        <v>780</v>
-      </c>
-      <c r="B775" t="n">
-        <v>95.04416666666667</v>
-      </c>
-      <c r="C775" t="n">
-        <v>96.428</v>
-      </c>
-      <c r="D775" t="n">
-        <v>93.521</v>
-      </c>
-      <c r="E775" t="n">
-        <v>96.25</v>
-      </c>
-      <c r="F775" t="n">
-        <v>93.80800000000001</v>
-      </c>
-    </row>
-    <row r="776" spans="1:7">
-      <c r="A776" t="s">
-        <v>781</v>
-      </c>
-      <c r="B776" t="n">
-        <v>94.46433333333333</v>
-      </c>
-      <c r="C776" t="n">
-        <v>96.166</v>
-      </c>
-      <c r="D776" t="n">
-        <v>91.995</v>
-      </c>
-      <c r="E776" t="n">
-        <v>96.014</v>
-      </c>
-      <c r="F776" t="n">
-        <v>92.818</v>
-      </c>
-    </row>
-    <row r="777" spans="1:7">
-      <c r="A777" t="s">
-        <v>782</v>
-      </c>
-      <c r="B777" t="n">
-        <v>94.874</v>
-      </c>
-      <c r="C777" t="n">
-        <v>95.58</v>
-      </c>
-      <c r="D777" t="n">
-        <v>93.95</v>
-      </c>
-      <c r="E777" t="n">
-        <v>95.44199999999999</v>
-      </c>
-      <c r="F777" t="n">
-        <v>94.157</v>
-      </c>
-    </row>
-    <row r="778" spans="1:7">
-      <c r="A778" t="s">
-        <v>783</v>
-      </c>
-      <c r="B778" t="n">
-        <v>95.848</v>
-      </c>
-      <c r="C778" t="n">
-        <v>96.694</v>
-      </c>
-      <c r="D778" t="n">
-        <v>94.429</v>
-      </c>
-      <c r="E778" t="n">
-        <v>96.511</v>
-      </c>
-      <c r="F778" t="n">
-        <v>94.598</v>
-      </c>
-    </row>
-    <row r="779" spans="1:7">
-      <c r="A779" t="s">
-        <v>784</v>
-      </c>
-      <c r="B779" t="n">
-        <v>96.88175</v>
-      </c>
-      <c r="C779" t="n">
-        <v>97.422</v>
-      </c>
-      <c r="D779" t="n">
-        <v>96.38800000000001</v>
-      </c>
-      <c r="E779" t="n">
-        <v>97.33499999999999</v>
-      </c>
-      <c r="F779" t="n">
-        <v>96.504</v>
-      </c>
-    </row>
-    <row r="780" spans="1:7">
-      <c r="A780" t="s">
-        <v>785</v>
-      </c>
-      <c r="B780" t="n">
-        <v>96.53491666666666</v>
-      </c>
-      <c r="C780" t="n">
-        <v>98.105</v>
-      </c>
-      <c r="D780" t="n">
-        <v>95.081</v>
-      </c>
-      <c r="E780" t="n">
-        <v>98.02200000000001</v>
-      </c>
-      <c r="F780" t="n">
-        <v>95.40900000000001</v>
-      </c>
-    </row>
-    <row r="781" spans="1:7">
-      <c r="A781" t="s">
-        <v>786</v>
-      </c>
-      <c r="B781" t="n">
-        <v>98.90308333333333</v>
-      </c>
-      <c r="C781" t="n">
-        <v>99.32599999999999</v>
-      </c>
-      <c r="D781" t="n">
-        <v>98.039</v>
-      </c>
-      <c r="E781" t="n">
-        <v>99.26900000000001</v>
-      </c>
-      <c r="F781" t="n">
-        <v>98.20699999999999</v>
-      </c>
-    </row>
-    <row r="782" spans="1:7">
-      <c r="A782" t="s">
-        <v>787</v>
-      </c>
-      <c r="B782" t="n">
-        <v>99.28941666666667</v>
-      </c>
-      <c r="C782" t="n">
-        <v>99.44499999999999</v>
-      </c>
-      <c r="D782" t="n">
-        <v>98.959</v>
-      </c>
-      <c r="E782" t="n">
-        <v>99.392</v>
-      </c>
-      <c r="F782" t="n">
-        <v>99.05800000000001</v>
-      </c>
-    </row>
-    <row r="783" spans="1:7">
-      <c r="A783" t="s">
-        <v>788</v>
-      </c>
-      <c r="B783" t="n">
-        <v>98.81591666666667</v>
-      </c>
-      <c r="C783" t="n">
-        <v>99.15900000000001</v>
-      </c>
-      <c r="D783" t="n">
-        <v>98.259</v>
-      </c>
-      <c r="E783" t="n">
-        <v>99.086</v>
-      </c>
-      <c r="F783" t="n">
-        <v>98.511</v>
-      </c>
-    </row>
-    <row r="784" spans="1:7">
-      <c r="A784" t="s">
-        <v>789</v>
-      </c>
-      <c r="B784" t="n">
-        <v>95.64283333333333</v>
-      </c>
-      <c r="C784" t="n">
-        <v>98.404</v>
-      </c>
-      <c r="D784" t="n">
-        <v>93.556</v>
-      </c>
-      <c r="E784" t="n">
-        <v>98.273</v>
-      </c>
-      <c r="F784" t="n">
-        <v>93.84099999999999</v>
-      </c>
-    </row>
-    <row r="785" spans="1:7">
-      <c r="A785" t="s">
-        <v>790</v>
-      </c>
-      <c r="B785" t="n">
-        <v>96.22841666666666</v>
-      </c>
-      <c r="C785" t="n">
-        <v>97.929</v>
-      </c>
-      <c r="D785" t="n">
-        <v>94.42700000000001</v>
-      </c>
-      <c r="E785" t="n">
-        <v>97.682</v>
-      </c>
-      <c r="F785" t="n">
-        <v>94.79000000000001</v>
-      </c>
-    </row>
-    <row r="786" spans="1:7">
-      <c r="A786" t="s">
-        <v>791</v>
-      </c>
-      <c r="B786" t="n">
-        <v>95.15725</v>
-      </c>
-      <c r="C786" t="n">
-        <v>96.398</v>
-      </c>
-      <c r="D786" t="n">
-        <v>92.587</v>
-      </c>
-      <c r="E786" t="n">
-        <v>95.96599999999999</v>
-      </c>
-      <c r="F786" t="n">
-        <v>93.739</v>
-      </c>
-    </row>
-    <row r="787" spans="1:7">
-      <c r="A787" t="s">
-        <v>792</v>
-      </c>
-      <c r="B787" t="n">
-        <v>92.4165</v>
-      </c>
-      <c r="C787" t="n">
-        <v>96.267</v>
-      </c>
-      <c r="D787" t="n">
-        <v>87.188</v>
-      </c>
-      <c r="E787" t="n">
-        <v>95.438</v>
-      </c>
-      <c r="F787" t="n">
-        <v>88.095</v>
-      </c>
-    </row>
-    <row r="788" spans="1:7">
-      <c r="A788" t="s">
-        <v>793</v>
-      </c>
-      <c r="B788" t="n">
-        <v>89.17141666666667</v>
-      </c>
-      <c r="C788" t="n">
-        <v>91.139</v>
-      </c>
-      <c r="D788" t="n">
-        <v>86.833</v>
-      </c>
-      <c r="E788" t="n">
-        <v>90.36</v>
-      </c>
-      <c r="F788" t="n">
-        <v>87.16</v>
-      </c>
-    </row>
-    <row r="789" spans="1:7">
-      <c r="A789" t="s">
-        <v>794</v>
-      </c>
-      <c r="B789" t="n">
-        <v>84.99025</v>
-      </c>
-      <c r="C789" t="n">
-        <v>90.22</v>
-      </c>
-      <c r="D789" t="n">
-        <v>78.574</v>
-      </c>
-      <c r="E789" t="n">
-        <v>88.10599999999999</v>
-      </c>
-      <c r="F789" t="n">
-        <v>81.121</v>
-      </c>
-    </row>
-    <row r="790" spans="1:7">
-      <c r="A790" t="s">
-        <v>795</v>
-      </c>
-      <c r="B790" t="n">
-        <v>89.15166666666667</v>
-      </c>
-      <c r="C790" t="n">
-        <v>94.06399999999999</v>
-      </c>
-      <c r="D790" t="n">
-        <v>83.77</v>
-      </c>
-      <c r="E790" t="n">
-        <v>93.506</v>
-      </c>
-      <c r="F790" t="n">
-        <v>85.09</v>
-      </c>
-    </row>
-    <row r="791" spans="1:7">
-      <c r="A791" t="s">
-        <v>796</v>
-      </c>
-      <c r="B791" t="n">
-        <v>84.68608333333333</v>
-      </c>
-      <c r="C791" t="n">
-        <v>89.78400000000001</v>
-      </c>
-      <c r="D791" t="n">
-        <v>80.711</v>
-      </c>
-      <c r="E791" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="F791" t="n">
-        <v>82.66500000000001</v>
-      </c>
-    </row>
-    <row r="792" spans="1:7">
-      <c r="A792" t="s">
-        <v>797</v>
-      </c>
-      <c r="B792" t="n">
-        <v>94.77500000000001</v>
-      </c>
-      <c r="C792" t="n">
-        <v>97.93000000000001</v>
-      </c>
-      <c r="D792" t="n">
-        <v>90.36799999999999</v>
-      </c>
-      <c r="E792" t="n">
-        <v>97.361</v>
-      </c>
-      <c r="F792" t="n">
-        <v>91.128</v>
-      </c>
-    </row>
-    <row r="793" spans="1:7">
-      <c r="A793" t="s">
-        <v>798</v>
-      </c>
-      <c r="B793" t="n">
-        <v>94.53116666666666</v>
-      </c>
-      <c r="C793" t="n">
-        <v>96.53100000000001</v>
-      </c>
-      <c r="D793" t="n">
-        <v>92.64700000000001</v>
-      </c>
-      <c r="E793" t="n">
-        <v>95.706</v>
-      </c>
-      <c r="F793" t="n">
-        <v>93.479</v>
-      </c>
-    </row>
-    <row r="794" spans="1:7">
-      <c r="A794" t="s">
-        <v>799</v>
-      </c>
-      <c r="B794" t="n">
-        <v>94.62591666666667</v>
-      </c>
-      <c r="C794" t="n">
-        <v>96.152</v>
-      </c>
-      <c r="D794" t="n">
-        <v>92.354</v>
-      </c>
-      <c r="E794" t="n">
-        <v>95.812</v>
-      </c>
-      <c r="F794" t="n">
-        <v>93.048</v>
-      </c>
-    </row>
-    <row r="795" spans="1:7">
-      <c r="A795" t="s">
-        <v>800</v>
-      </c>
-      <c r="B795" t="n">
-        <v>98.07358333333333</v>
-      </c>
-      <c r="C795" t="n">
-        <v>99.08499999999999</v>
-      </c>
-      <c r="D795" t="n">
-        <v>96.15300000000001</v>
-      </c>
-      <c r="E795" t="n">
-        <v>99.02500000000001</v>
-      </c>
-      <c r="F795" t="n">
-        <v>96.42</v>
-      </c>
-    </row>
-    <row r="796" spans="1:7">
-      <c r="A796" t="s">
-        <v>801</v>
-      </c>
-      <c r="B796" t="n">
-        <v>99.14566666666667</v>
-      </c>
-      <c r="C796" t="n">
-        <v>99.327</v>
-      </c>
-      <c r="D796" t="n">
-        <v>98.96899999999999</v>
-      </c>
-      <c r="E796" t="n">
-        <v>99.25700000000001</v>
-      </c>
-      <c r="F796" t="n">
-        <v>99.033</v>
-      </c>
-    </row>
-    <row r="797" spans="1:7">
-      <c r="A797" t="s">
-        <v>802</v>
-      </c>
-      <c r="B797" t="n">
-        <v>99.01933333333334</v>
-      </c>
-      <c r="C797" t="n">
-        <v>99.232</v>
-      </c>
-      <c r="D797" t="n">
-        <v>98.736</v>
-      </c>
-      <c r="E797" t="n">
-        <v>99.206</v>
-      </c>
-      <c r="F797" t="n">
-        <v>98.79000000000001</v>
-      </c>
-    </row>
-    <row r="798" spans="1:7">
-      <c r="A798" t="s">
-        <v>803</v>
-      </c>
-      <c r="B798" t="n">
-        <v>99.28858333333334</v>
-      </c>
-      <c r="C798" t="n">
-        <v>99.42400000000001</v>
-      </c>
-      <c r="D798" t="n">
-        <v>99.11799999999999</v>
-      </c>
-      <c r="E798" t="n">
-        <v>99.36499999999999</v>
-      </c>
-      <c r="F798" t="n">
-        <v>99.178</v>
-      </c>
-    </row>
-    <row r="799" spans="1:7">
-      <c r="A799" t="s">
-        <v>804</v>
-      </c>
-      <c r="B799" t="n">
-        <v>99.49075000000001</v>
-      </c>
-      <c r="C799" t="n">
-        <v>99.575</v>
-      </c>
-      <c r="D799" t="n">
-        <v>99.355</v>
-      </c>
-      <c r="E799" t="n">
-        <v>99.54000000000001</v>
-      </c>
-      <c r="F799" t="n">
-        <v>99.40900000000001</v>
-      </c>
-    </row>
-    <row r="800" spans="1:7">
-      <c r="A800" t="s">
-        <v>805</v>
-      </c>
-      <c r="B800" t="n">
-        <v>99.58183333333334</v>
-      </c>
-      <c r="C800" t="n">
-        <v>99.691</v>
-      </c>
-      <c r="D800" t="n">
-        <v>99.51000000000001</v>
-      </c>
-      <c r="E800" t="n">
-        <v>99.628</v>
-      </c>
-      <c r="F800" t="n">
-        <v>99.54000000000001</v>
-      </c>
-    </row>
-    <row r="801" spans="1:7">
-      <c r="A801" t="s">
-        <v>806</v>
-      </c>
-      <c r="B801" t="n">
-        <v>99.64258333333333</v>
-      </c>
-      <c r="C801" t="n">
-        <v>99.739</v>
-      </c>
-      <c r="D801" t="n">
-        <v>99.539</v>
-      </c>
-      <c r="E801" t="n">
-        <v>99.684</v>
-      </c>
-      <c r="F801" t="n">
-        <v>99.595</v>
-      </c>
-    </row>
-    <row r="802" spans="1:7">
-      <c r="A802" t="s">
-        <v>807</v>
-      </c>
-      <c r="B802" t="n">
-        <v>99.70066666666666</v>
-      </c>
-      <c r="C802" t="n">
-        <v>99.776</v>
-      </c>
-      <c r="D802" t="n">
-        <v>99.605</v>
-      </c>
-      <c r="E802" t="n">
-        <v>99.71899999999999</v>
-      </c>
-      <c r="F802" t="n">
-        <v>99.68300000000001</v>
-      </c>
-    </row>
-    <row r="803" spans="1:7">
-      <c r="A803" t="s">
-        <v>808</v>
-      </c>
-      <c r="B803" t="n">
-        <v>99.59266666666667</v>
-      </c>
-      <c r="C803" t="n">
-        <v>99.74299999999999</v>
-      </c>
-      <c r="D803" t="n">
-        <v>99.325</v>
-      </c>
-      <c r="E803" t="n">
-        <v>99.69499999999999</v>
-      </c>
-      <c r="F803" t="n">
-        <v>99.408</v>
-      </c>
-    </row>
-    <row r="804" spans="1:7">
-      <c r="A804" t="s">
-        <v>809</v>
-      </c>
-      <c r="B804" t="n">
-        <v>99.05183333333333</v>
-      </c>
-      <c r="C804" t="n">
-        <v>99.56100000000001</v>
-      </c>
-      <c r="D804" t="n">
-        <v>98.07899999999999</v>
-      </c>
-      <c r="E804" t="n">
-        <v>99.498</v>
-      </c>
-      <c r="F804" t="n">
-        <v>98.422</v>
-      </c>
-    </row>
-    <row r="805" spans="1:7">
-      <c r="A805" t="s">
-        <v>810</v>
-      </c>
-      <c r="B805" t="n">
-        <v>99.128</v>
-      </c>
-      <c r="C805" t="n">
-        <v>99.49299999999999</v>
-      </c>
-      <c r="D805" t="n">
-        <v>98.458</v>
-      </c>
-      <c r="E805" t="n">
-        <v>99.461</v>
-      </c>
-      <c r="F805" t="n">
-        <v>98.556</v>
-      </c>
-    </row>
-    <row r="806" spans="1:7">
-      <c r="A806" t="s">
-        <v>811</v>
-      </c>
-      <c r="B806" t="n">
-        <v>99.22266666666667</v>
-      </c>
-      <c r="C806" t="n">
-        <v>99.542</v>
-      </c>
-      <c r="D806" t="n">
-        <v>98.867</v>
-      </c>
-      <c r="E806" t="n">
-        <v>99.48999999999999</v>
-      </c>
-      <c r="F806" t="n">
-        <v>98.92100000000001</v>
-      </c>
-    </row>
-    <row r="807" spans="1:7">
-      <c r="A807" t="s">
-        <v>812</v>
-      </c>
-      <c r="B807" t="n">
-        <v>99.45225000000001</v>
-      </c>
-      <c r="C807" t="n">
-        <v>99.59099999999999</v>
-      </c>
-      <c r="D807" t="n">
-        <v>99.22499999999999</v>
-      </c>
-      <c r="E807" t="n">
-        <v>99.554</v>
-      </c>
-      <c r="F807" t="n">
-        <v>99.29300000000001</v>
-      </c>
-    </row>
-    <row r="808" spans="1:7">
-      <c r="A808" t="s">
-        <v>813</v>
-      </c>
-      <c r="B808" t="n">
-        <v>99.64125</v>
-      </c>
-      <c r="C808" t="n">
-        <v>99.752</v>
-      </c>
-      <c r="D808" t="n">
-        <v>99.508</v>
-      </c>
-      <c r="E808" t="n">
-        <v>99.702</v>
-      </c>
-      <c r="F808" t="n">
-        <v>99.56399999999999</v>
-      </c>
-    </row>
-    <row r="809" spans="1:7">
-      <c r="A809" t="s">
-        <v>814</v>
-      </c>
-      <c r="B809" t="n">
-        <v>99.71916666666667</v>
-      </c>
-      <c r="C809" t="n">
-        <v>99.79000000000001</v>
-      </c>
-      <c r="D809" t="n">
-        <v>99.64</v>
-      </c>
-      <c r="E809" t="n">
-        <v>99.738</v>
-      </c>
-      <c r="F809" t="n">
-        <v>99.68600000000001</v>
-      </c>
-    </row>
-    <row r="810" spans="1:7">
-      <c r="A810" t="s">
-        <v>815</v>
-      </c>
-      <c r="B810" t="n">
-        <v>99.66833333333334</v>
-      </c>
-      <c r="C810" t="n">
-        <v>99.77200000000001</v>
-      </c>
-      <c r="D810" t="n">
-        <v>99.54600000000001</v>
-      </c>
-      <c r="E810" t="n">
-        <v>99.72</v>
-      </c>
-      <c r="F810" t="n">
-        <v>99.61199999999999</v>
-      </c>
-    </row>
-    <row r="811" spans="1:7">
-      <c r="A811" t="s">
-        <v>816</v>
-      </c>
-      <c r="B811" t="n">
-        <v>99.48258333333334</v>
-      </c>
-      <c r="C811" t="n">
-        <v>99.752</v>
-      </c>
-      <c r="D811" t="n">
-        <v>98.967</v>
-      </c>
-      <c r="E811" t="n">
-        <v>99.687</v>
-      </c>
-      <c r="F811" t="n">
-        <v>99.15000000000001</v>
-      </c>
-    </row>
-    <row r="812" spans="1:7">
-      <c r="A812" t="s">
-        <v>817</v>
-      </c>
-      <c r="B812" t="n">
-        <v>99.01566666666666</v>
-      </c>
-      <c r="C812" t="n">
-        <v>99.396</v>
-      </c>
-      <c r="D812" t="n">
-        <v>98.46899999999999</v>
-      </c>
-      <c r="E812" t="n">
-        <v>99.26600000000001</v>
-      </c>
-      <c r="F812" t="n">
-        <v>98.684</v>
-      </c>
-    </row>
-    <row r="813" spans="1:7">
-      <c r="A813" t="s">
-        <v>818</v>
-      </c>
-      <c r="B813" t="n">
-        <v>99.44974999999999</v>
-      </c>
-      <c r="C813" t="n">
-        <v>99.593</v>
-      </c>
-      <c r="D813" t="n">
-        <v>99.22499999999999</v>
-      </c>
-      <c r="E813" t="n">
-        <v>99.532</v>
-      </c>
-      <c r="F813" t="n">
-        <v>99.294</v>
-      </c>
-    </row>
-    <row r="814" spans="1:7">
-      <c r="A814" t="s">
-        <v>819</v>
-      </c>
-      <c r="B814" t="n">
-        <v>99.48858333333334</v>
-      </c>
-      <c r="C814" t="n">
-        <v>99.68600000000001</v>
-      </c>
-      <c r="D814" t="n">
-        <v>99.13</v>
-      </c>
-      <c r="E814" t="n">
-        <v>99.565</v>
-      </c>
-      <c r="F814" t="n">
-        <v>99.215</v>
-      </c>
-    </row>
-    <row r="815" spans="1:7">
-      <c r="A815" t="s">
-        <v>820</v>
-      </c>
-      <c r="B815" t="n">
-        <v>99.26958333333333</v>
-      </c>
-      <c r="C815" t="n">
-        <v>99.428</v>
-      </c>
-      <c r="D815" t="n">
-        <v>99.117</v>
-      </c>
-      <c r="E815" t="n">
-        <v>99.345</v>
-      </c>
-      <c r="F815" t="n">
-        <v>99.197</v>
-      </c>
-    </row>
-    <row r="816" spans="1:7">
-      <c r="A816" t="s">
-        <v>821</v>
-      </c>
-      <c r="B816" t="n">
-        <v>99.05158333333333</v>
-      </c>
-      <c r="C816" t="n">
-        <v>99.527</v>
-      </c>
-      <c r="D816" t="n">
-        <v>96.66</v>
-      </c>
-      <c r="E816" t="n">
-        <v>99.437</v>
-      </c>
-      <c r="F816" t="n">
-        <v>97.167</v>
-      </c>
-    </row>
-    <row r="817" spans="1:7">
-      <c r="A817" t="s">
-        <v>822</v>
-      </c>
-      <c r="B817" t="n">
-        <v>89.43983333333334</v>
-      </c>
-      <c r="C817" t="n">
-        <v>96.72799999999999</v>
-      </c>
-      <c r="D817" t="n">
-        <v>80.679</v>
-      </c>
-      <c r="E817" t="n">
-        <v>95.33</v>
-      </c>
-      <c r="F817" t="n">
-        <v>83.488</v>
-      </c>
-    </row>
-    <row r="818" spans="1:7">
-      <c r="A818" t="s">
-        <v>823</v>
-      </c>
-      <c r="B818" t="n">
-        <v>86.61858333333333</v>
-      </c>
-      <c r="C818" t="n">
-        <v>90.279</v>
-      </c>
-      <c r="D818" t="n">
-        <v>80.419</v>
-      </c>
-      <c r="E818" t="n">
-        <v>89.008</v>
-      </c>
-      <c r="F818" t="n">
-        <v>82.848</v>
-      </c>
-    </row>
-    <row r="819" spans="1:7">
-      <c r="A819" t="s">
-        <v>824</v>
-      </c>
-      <c r="B819" t="n">
-        <v>89.31333333333333</v>
-      </c>
-      <c r="C819" t="n">
-        <v>92.22199999999999</v>
-      </c>
-      <c r="D819" t="n">
-        <v>85.511</v>
-      </c>
-      <c r="E819" t="n">
-        <v>91.30500000000001</v>
-      </c>
-      <c r="F819" t="n">
-        <v>86.858</v>
-      </c>
-    </row>
-    <row r="820" spans="1:7">
-      <c r="A820" t="s">
-        <v>825</v>
-      </c>
-      <c r="B820" t="n">
-        <v>96.188</v>
-      </c>
-      <c r="C820" t="n">
-        <v>98.93000000000001</v>
-      </c>
-      <c r="D820" t="n">
-        <v>92.33499999999999</v>
-      </c>
-      <c r="E820" t="n">
-        <v>98.901</v>
-      </c>
-      <c r="F820" t="n">
-        <v>93.017</v>
-      </c>
-    </row>
-    <row r="821" spans="1:7">
-      <c r="A821" t="s">
-        <v>826</v>
-      </c>
-      <c r="B821" t="n">
-        <v>99.15600000000001</v>
-      </c>
-      <c r="C821" t="n">
-        <v>99.345</v>
-      </c>
-      <c r="D821" t="n">
-        <v>98.944</v>
-      </c>
-      <c r="E821" t="n">
-        <v>99.282</v>
-      </c>
-      <c r="F821" t="n">
-        <v>98.996</v>
-      </c>
-    </row>
-    <row r="822" spans="1:7">
-      <c r="A822" t="s">
-        <v>827</v>
-      </c>
-      <c r="B822" t="n">
-        <v>99.45025</v>
-      </c>
-      <c r="C822" t="n">
-        <v>99.616</v>
-      </c>
-      <c r="D822" t="n">
-        <v>99.28</v>
-      </c>
-      <c r="E822" t="n">
-        <v>99.54600000000001</v>
-      </c>
-      <c r="F822" t="n">
-        <v>99.32899999999999</v>
-      </c>
-    </row>
-    <row r="823" spans="1:7">
-      <c r="A823" t="s">
-        <v>828</v>
-      </c>
-      <c r="B823" t="n">
-        <v>99.602</v>
-      </c>
-      <c r="C823" t="n">
-        <v>99.68899999999999</v>
-      </c>
-      <c r="D823" t="n">
-        <v>99.50700000000001</v>
-      </c>
-      <c r="E823" t="n">
-        <v>99.636</v>
-      </c>
-      <c r="F823" t="n">
-        <v>99.53700000000001</v>
-      </c>
-    </row>
-    <row r="824" spans="1:7">
-      <c r="A824" t="s">
-        <v>829</v>
-      </c>
-      <c r="B824" t="n">
-        <v>99.66425</v>
-      </c>
-      <c r="C824" t="n">
-        <v>99.751</v>
-      </c>
-      <c r="D824" t="n">
-        <v>99.575</v>
-      </c>
-      <c r="E824" t="n">
-        <v>99.691</v>
-      </c>
-      <c r="F824" t="n">
-        <v>99.63</v>
-      </c>
-    </row>
-    <row r="825" spans="1:7">
-      <c r="A825" t="s">
-        <v>830</v>
-      </c>
-      <c r="B825" t="n">
-        <v>99.69008333333333</v>
-      </c>
-      <c r="C825" t="n">
-        <v>99.783</v>
-      </c>
-      <c r="D825" t="n">
-        <v>99.57299999999999</v>
-      </c>
-      <c r="E825" t="n">
-        <v>99.73099999999999</v>
-      </c>
-      <c r="F825" t="n">
-        <v>99.66</v>
-      </c>
-    </row>
-    <row r="826" spans="1:7">
-      <c r="A826" t="s">
-        <v>831</v>
-      </c>
-      <c r="B826" t="n">
-        <v>99.72208333333333</v>
-      </c>
-      <c r="C826" t="n">
-        <v>99.789</v>
-      </c>
-      <c r="D826" t="n">
-        <v>99.64</v>
-      </c>
-      <c r="E826" t="n">
-        <v>99.741</v>
-      </c>
-      <c r="F826" t="n">
-        <v>99.69799999999999</v>
-      </c>
-    </row>
-    <row r="827" spans="1:7">
-      <c r="A827" t="s">
-        <v>832</v>
-      </c>
-      <c r="B827" t="n">
-        <v>99.70008333333334</v>
-      </c>
-      <c r="C827" t="n">
-        <v>99.789</v>
-      </c>
-      <c r="D827" t="n">
-        <v>99.60599999999999</v>
-      </c>
-      <c r="E827" t="n">
-        <v>99.736</v>
-      </c>
-      <c r="F827" t="n">
-        <v>99.68300000000001</v>
-      </c>
-    </row>
-    <row r="828" spans="1:7">
-      <c r="A828" t="s">
-        <v>833</v>
-      </c>
-      <c r="B828" t="n">
-        <v>99.73208333333334</v>
-      </c>
-      <c r="C828" t="n">
-        <v>99.791</v>
-      </c>
-      <c r="D828" t="n">
-        <v>99.65300000000001</v>
-      </c>
-      <c r="E828" t="n">
-        <v>99.76600000000001</v>
-      </c>
-      <c r="F828" t="n">
-        <v>99.703</v>
-      </c>
-    </row>
-    <row r="829" spans="1:7">
-      <c r="A829" t="s">
-        <v>834</v>
-      </c>
-      <c r="B829" t="n">
-        <v>99.76808333333334</v>
-      </c>
-      <c r="C829" t="n">
-        <v>99.79000000000001</v>
-      </c>
-      <c r="D829" t="n">
-        <v>99.706</v>
-      </c>
-      <c r="E829" t="n">
-        <v>99.782</v>
-      </c>
-      <c r="F829" t="n">
-        <v>99.735</v>
-      </c>
-    </row>
-    <row r="830" spans="1:7">
-      <c r="A830" t="s">
-        <v>835</v>
-      </c>
-      <c r="B830" t="n">
-        <v>99.77441666666667</v>
-      </c>
-      <c r="C830" t="n">
-        <v>99.791</v>
-      </c>
-      <c r="D830" t="n">
-        <v>99.708</v>
-      </c>
-      <c r="E830" t="n">
-        <v>99.78100000000001</v>
-      </c>
-      <c r="F830" t="n">
-        <v>99.764</v>
-      </c>
-    </row>
-    <row r="831" spans="1:7">
-      <c r="A831" t="s">
-        <v>836</v>
-      </c>
-      <c r="B831" t="n">
-        <v>99.76000000000001</v>
-      </c>
-      <c r="C831" t="n">
-        <v>99.79000000000001</v>
-      </c>
-      <c r="D831" t="n">
-        <v>99.652</v>
-      </c>
-      <c r="E831" t="n">
-        <v>99.782</v>
-      </c>
-      <c r="F831" t="n">
-        <v>99.715</v>
-      </c>
-    </row>
-    <row r="832" spans="1:7">
-      <c r="A832" t="s">
-        <v>837</v>
-      </c>
-      <c r="B832" t="n">
-        <v>99.77866666666667</v>
-      </c>
-      <c r="C832" t="n">
-        <v>99.791</v>
-      </c>
-      <c r="D832" t="n">
-        <v>99.73399999999999</v>
-      </c>
-      <c r="E832" t="n">
-        <v>99.783</v>
-      </c>
-      <c r="F832" t="n">
-        <v>99.771</v>
-      </c>
-    </row>
-    <row r="833" spans="1:7">
-      <c r="A833" t="s">
-        <v>838</v>
-      </c>
-      <c r="B833" t="n">
-        <v>99.73958333333333</v>
-      </c>
-      <c r="C833" t="n">
-        <v>99.791</v>
-      </c>
-      <c r="D833" t="n">
-        <v>99.60299999999999</v>
-      </c>
-      <c r="E833" t="n">
-        <v>99.779</v>
-      </c>
-      <c r="F833" t="n">
-        <v>99.643</v>
-      </c>
-    </row>
-    <row r="834" spans="1:7">
-      <c r="A834" t="s">
-        <v>839</v>
-      </c>
-      <c r="B834" t="n">
-        <v>99.62791666666666</v>
-      </c>
-      <c r="C834" t="n">
-        <v>99.78700000000001</v>
-      </c>
-      <c r="D834" t="n">
-        <v>99.50700000000001</v>
-      </c>
-      <c r="E834" t="n">
-        <v>99.747</v>
-      </c>
-      <c r="F834" t="n">
-        <v>99.562</v>
-      </c>
-    </row>
-    <row r="835" spans="1:7">
-      <c r="A835" t="s">
-        <v>840</v>
-      </c>
-      <c r="B835" t="n">
-        <v>99.62908333333333</v>
-      </c>
-      <c r="C835" t="n">
-        <v>99.724</v>
-      </c>
-      <c r="D835" t="n">
-        <v>99.47799999999999</v>
-      </c>
-      <c r="E835" t="n">
-        <v>99.67700000000001</v>
-      </c>
-      <c r="F835" t="n">
-        <v>99.55200000000001</v>
-      </c>
-    </row>
-    <row r="836" spans="1:7">
-      <c r="A836" t="s">
-        <v>841</v>
-      </c>
-      <c r="B836" t="n">
-        <v>99.73283333333333</v>
-      </c>
-      <c r="C836" t="n">
-        <v>99.791</v>
-      </c>
-      <c r="D836" t="n">
-        <v>99.611</v>
-      </c>
-      <c r="E836" t="n">
-        <v>99.764</v>
-      </c>
-      <c r="F836" t="n">
-        <v>99.658</v>
-      </c>
-    </row>
-    <row r="837" spans="1:7">
-      <c r="A837" t="s">
-        <v>842</v>
-      </c>
-      <c r="B837" t="n">
-        <v>99.49666666666667</v>
-      </c>
-      <c r="C837" t="n">
-        <v>99.789</v>
-      </c>
-      <c r="D837" t="n">
-        <v>99.03</v>
-      </c>
-      <c r="E837" t="n">
-        <v>99.755</v>
-      </c>
-      <c r="F837" t="n">
-        <v>99.151</v>
-      </c>
-    </row>
-    <row r="838" spans="1:7">
-      <c r="A838" t="s">
-        <v>843</v>
-      </c>
-      <c r="B838" t="n">
-        <v>99.17633333333333</v>
-      </c>
-      <c r="C838" t="n">
-        <v>99.527</v>
-      </c>
-      <c r="D838" t="n">
-        <v>98.72</v>
-      </c>
-      <c r="E838" t="n">
-        <v>99.339</v>
-      </c>
-      <c r="F838" t="n">
-        <v>98.913</v>
-      </c>
-    </row>
-    <row r="839" spans="1:7">
-      <c r="A839" t="s">
-        <v>844</v>
-      </c>
-      <c r="B839" t="n">
-        <v>98.30791666666667</v>
-      </c>
-      <c r="C839" t="n">
-        <v>99.324</v>
-      </c>
-      <c r="D839" t="n">
-        <v>97.274</v>
-      </c>
-      <c r="E839" t="n">
-        <v>99.09699999999999</v>
-      </c>
-      <c r="F839" t="n">
-        <v>97.51000000000001</v>
-      </c>
-    </row>
-    <row r="840" spans="1:7">
-      <c r="A840" t="s">
-        <v>845</v>
-      </c>
-      <c r="B840" t="n">
-        <v>96.99566666666666</v>
-      </c>
-      <c r="C840" t="n">
-        <v>98.241</v>
-      </c>
-      <c r="D840" t="n">
-        <v>95.428</v>
-      </c>
-      <c r="E840" t="n">
-        <v>98.047</v>
-      </c>
-      <c r="F840" t="n">
-        <v>95.884</v>
-      </c>
-    </row>
-    <row r="841" spans="1:7">
-      <c r="A841" t="s">
-        <v>846</v>
-      </c>
-      <c r="B841" t="n">
-        <v>99.07058333333333</v>
-      </c>
-      <c r="C841" t="n">
-        <v>99.458</v>
-      </c>
-      <c r="D841" t="n">
-        <v>98.297</v>
-      </c>
-      <c r="E841" t="n">
-        <v>99.38500000000001</v>
-      </c>
-      <c r="F841" t="n">
-        <v>98.465</v>
-      </c>
-    </row>
-    <row r="842" spans="1:7">
-      <c r="A842" t="s">
-        <v>847</v>
-      </c>
-      <c r="B842" t="n">
-        <v>99.52516666666666</v>
-      </c>
-      <c r="C842" t="n">
-        <v>99.688</v>
-      </c>
-      <c r="D842" t="n">
-        <v>99.392</v>
-      </c>
-      <c r="E842" t="n">
-        <v>99.60299999999999</v>
-      </c>
-      <c r="F842" t="n">
-        <v>99.429</v>
-      </c>
-    </row>
-    <row r="843" spans="1:7">
-      <c r="A843" t="s">
-        <v>848</v>
-      </c>
-      <c r="B843" t="n">
-        <v>99.65225</v>
-      </c>
-      <c r="C843" t="n">
-        <v>99.73699999999999</v>
-      </c>
-      <c r="D843" t="n">
-        <v>99.553</v>
-      </c>
-      <c r="E843" t="n">
-        <v>99.69499999999999</v>
-      </c>
-      <c r="F843" t="n">
-        <v>99.60899999999999</v>
-      </c>
-    </row>
-    <row r="844" spans="1:7">
-      <c r="A844" t="s">
-        <v>849</v>
-      </c>
-      <c r="B844" t="n">
-        <v>99.74316666666667</v>
-      </c>
-      <c r="C844" t="n">
-        <v>99.79300000000001</v>
-      </c>
-      <c r="D844" t="n">
-        <v>99.67</v>
-      </c>
-      <c r="E844" t="n">
-        <v>99.771</v>
-      </c>
-      <c r="F844" t="n">
-        <v>99.708</v>
-      </c>
-    </row>
-    <row r="845" spans="1:7">
-      <c r="A845" t="s">
-        <v>850</v>
-      </c>
-      <c r="B845" t="n">
-        <v>99.77733333333333</v>
-      </c>
-      <c r="C845" t="n">
-        <v>99.803</v>
-      </c>
-      <c r="D845" t="n">
-        <v>99.732</v>
-      </c>
-      <c r="E845" t="n">
-        <v>99.783</v>
-      </c>
-      <c r="F845" t="n">
-        <v>99.774</v>
-      </c>
-    </row>
-    <row r="846" spans="1:7">
-      <c r="A846" t="s">
-        <v>851</v>
-      </c>
-      <c r="B846" t="n">
-        <v>99.77683333333333</v>
-      </c>
-      <c r="C846" t="n">
-        <v>99.788</v>
-      </c>
-      <c r="D846" t="n">
-        <v>99.765</v>
-      </c>
-      <c r="E846" t="n">
-        <v>99.78100000000001</v>
-      </c>
-      <c r="F846" t="n">
-        <v>99.773</v>
-      </c>
-    </row>
-    <row r="847" spans="1:7">
-      <c r="A847" t="s">
-        <v>852</v>
-      </c>
-      <c r="B847" t="n">
-        <v>99.77733333333333</v>
-      </c>
-      <c r="C847" t="n">
-        <v>99.804</v>
-      </c>
-      <c r="D847" t="n">
-        <v>99.764</v>
-      </c>
-      <c r="E847" t="n">
-        <v>99.78</v>
-      </c>
-      <c r="F847" t="n">
-        <v>99.773</v>
-      </c>
-    </row>
-    <row r="848" spans="1:7">
-      <c r="A848" t="s">
-        <v>853</v>
-      </c>
-      <c r="B848" t="n">
-        <v>99.77733333333333</v>
-      </c>
-      <c r="C848" t="n">
-        <v>99.788</v>
-      </c>
-      <c r="D848" t="n">
-        <v>99.764</v>
-      </c>
-      <c r="E848" t="n">
-        <v>99.78</v>
-      </c>
-      <c r="F848" t="n">
-        <v>99.774</v>
-      </c>
-    </row>
-    <row r="849" spans="1:7">
-      <c r="A849" t="s">
-        <v>854</v>
-      </c>
-      <c r="B849" t="n">
-        <v>99.77758333333334</v>
-      </c>
-      <c r="C849" t="n">
-        <v>99.788</v>
-      </c>
-      <c r="D849" t="n">
-        <v>99.764</v>
-      </c>
-      <c r="E849" t="n">
-        <v>99.779</v>
-      </c>
-      <c r="F849" t="n">
-        <v>99.77500000000001</v>
-      </c>
-    </row>
-    <row r="850" spans="1:7">
-      <c r="A850" t="s">
-        <v>855</v>
-      </c>
-      <c r="B850" t="n">
-        <v>99.77675000000001</v>
-      </c>
-      <c r="C850" t="n">
-        <v>99.788</v>
-      </c>
-      <c r="D850" t="n">
-        <v>99.764</v>
-      </c>
-      <c r="E850" t="n">
-        <v>99.779</v>
-      </c>
-      <c r="F850" t="n">
-        <v>99.774</v>
-      </c>
-    </row>
-    <row r="851" spans="1:7">
-      <c r="A851" t="s">
-        <v>856</v>
-      </c>
-      <c r="B851" t="n">
-        <v>99.77691666666666</v>
-      </c>
-      <c r="C851" t="n">
-        <v>99.788</v>
-      </c>
-      <c r="D851" t="n">
-        <v>99.764</v>
-      </c>
-      <c r="E851" t="n">
-        <v>99.779</v>
-      </c>
-      <c r="F851" t="n">
-        <v>99.774</v>
-      </c>
-    </row>
-    <row r="852" spans="1:7">
-      <c r="A852" t="s">
-        <v>857</v>
-      </c>
-      <c r="B852" t="n">
-        <v>99.77641666666666</v>
-      </c>
-      <c r="C852" t="n">
-        <v>99.788</v>
-      </c>
-      <c r="D852" t="n">
-        <v>99.764</v>
-      </c>
-      <c r="E852" t="n">
-        <v>99.779</v>
-      </c>
-      <c r="F852" t="n">
-        <v>99.773</v>
-      </c>
-    </row>
-    <row r="853" spans="1:7">
-      <c r="A853" t="s">
-        <v>858</v>
-      </c>
-      <c r="B853" t="n">
-        <v>99.77725</v>
-      </c>
-      <c r="C853" t="n">
-        <v>99.788</v>
-      </c>
-      <c r="D853" t="n">
-        <v>99.764</v>
-      </c>
-      <c r="E853" t="n">
-        <v>99.78100000000001</v>
-      </c>
-      <c r="F853" t="n">
-        <v>99.774</v>
-      </c>
-    </row>
-    <row r="854" spans="1:7">
-      <c r="A854" t="s">
-        <v>859</v>
-      </c>
-      <c r="B854" t="n">
-        <v>99.7765</v>
-      </c>
-      <c r="C854" t="n">
-        <v>99.78700000000001</v>
-      </c>
-      <c r="D854" t="n">
-        <v>99.764</v>
-      </c>
-      <c r="E854" t="n">
-        <v>99.78</v>
-      </c>
-      <c r="F854" t="n">
-        <v>99.774</v>
-      </c>
-    </row>
-    <row r="855" spans="1:7">
-      <c r="A855" t="s">
-        <v>860</v>
-      </c>
-      <c r="B855" t="n">
-        <v>99.77633333333333</v>
-      </c>
-      <c r="C855" t="n">
-        <v>99.78700000000001</v>
-      </c>
-      <c r="D855" t="n">
-        <v>99.764</v>
-      </c>
-      <c r="E855" t="n">
-        <v>99.78</v>
-      </c>
-      <c r="F855" t="n">
-        <v>99.774</v>
-      </c>
-    </row>
-    <row r="856" spans="1:7">
-      <c r="A856" t="s">
-        <v>861</v>
-      </c>
-      <c r="B856" t="n">
-        <v>99.77341666666666</v>
-      </c>
-      <c r="C856" t="n">
-        <v>99.79000000000001</v>
-      </c>
-      <c r="D856" t="n">
-        <v>99.673</v>
-      </c>
-      <c r="E856" t="n">
-        <v>99.78100000000001</v>
-      </c>
-      <c r="F856" t="n">
-        <v>99.735</v>
-      </c>
-    </row>
-    <row r="857" spans="1:7">
-      <c r="A857" t="s">
-        <v>862</v>
-      </c>
-      <c r="B857" t="n">
-        <v>99.08091666666667</v>
-      </c>
-      <c r="C857" t="n">
-        <v>99.72199999999999</v>
-      </c>
-      <c r="D857" t="n">
-        <v>98.425</v>
-      </c>
-      <c r="E857" t="n">
-        <v>99.617</v>
-      </c>
-      <c r="F857" t="n">
-        <v>98.532</v>
-      </c>
-    </row>
-    <row r="858" spans="1:7">
-      <c r="A858" t="s">
-        <v>863</v>
-      </c>
-      <c r="B858" t="n">
-        <v>99.01725</v>
-      </c>
-      <c r="C858" t="n">
-        <v>99.589</v>
-      </c>
-      <c r="D858" t="n">
-        <v>98.358</v>
-      </c>
-      <c r="E858" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="F858" t="n">
-        <v>98.48099999999999</v>
-      </c>
-    </row>
-    <row r="859" spans="1:7">
-      <c r="A859" t="s">
-        <v>864</v>
-      </c>
-      <c r="B859" t="n">
-        <v>99.62016666666666</v>
-      </c>
-      <c r="C859" t="n">
-        <v>99.735</v>
-      </c>
-      <c r="D859" t="n">
-        <v>99.47499999999999</v>
-      </c>
-      <c r="E859" t="n">
-        <v>99.67700000000001</v>
-      </c>
-      <c r="F859" t="n">
-        <v>99.54300000000001</v>
-      </c>
-    </row>
-    <row r="860" spans="1:7">
-      <c r="A860" t="s">
-        <v>865</v>
-      </c>
-      <c r="B860" t="n">
-        <v>99.62916666666666</v>
-      </c>
-      <c r="C860" t="n">
-        <v>99.751</v>
-      </c>
-      <c r="D860" t="n">
-        <v>99.474</v>
-      </c>
-      <c r="E860" t="n">
-        <v>99.672</v>
-      </c>
-      <c r="F860" t="n">
-        <v>99.586</v>
-      </c>
-    </row>
-    <row r="861" spans="1:7">
-      <c r="A861" t="s">
-        <v>866</v>
-      </c>
-      <c r="B861" t="n">
-        <v>99.00466666666667</v>
-      </c>
-      <c r="C861" t="n">
-        <v>99.723</v>
-      </c>
-      <c r="D861" t="n">
-        <v>96.61199999999999</v>
-      </c>
-      <c r="E861" t="n">
-        <v>99.55500000000001</v>
-      </c>
-      <c r="F861" t="n">
-        <v>97.053</v>
-      </c>
-    </row>
-    <row r="862" spans="1:7">
-      <c r="A862" t="s">
-        <v>867</v>
-      </c>
-      <c r="B862" t="n">
-        <v>90.37275</v>
-      </c>
-      <c r="C862" t="n">
-        <v>97.94799999999999</v>
-      </c>
-      <c r="D862" t="n">
-        <v>79.279</v>
-      </c>
-      <c r="E862" t="n">
-        <v>97.256</v>
-      </c>
-      <c r="F862" t="n">
-        <v>81.69799999999999</v>
-      </c>
-    </row>
-    <row r="863" spans="1:7">
-      <c r="A863" t="s">
-        <v>868</v>
-      </c>
-      <c r="B863" t="n">
-        <v>87.39633333333333</v>
-      </c>
-      <c r="C863" t="n">
-        <v>92.86799999999999</v>
-      </c>
-      <c r="D863" t="n">
-        <v>81.599</v>
-      </c>
-      <c r="E863" t="n">
-        <v>92.25700000000001</v>
-      </c>
-      <c r="F863" t="n">
-        <v>84.14400000000001</v>
-      </c>
-    </row>
-    <row r="864" spans="1:7">
-      <c r="A864" t="s">
-        <v>869</v>
-      </c>
-      <c r="B864" t="n">
-        <v>87.11508333333333</v>
-      </c>
-      <c r="C864" t="n">
-        <v>91.712</v>
-      </c>
-      <c r="D864" t="n">
-        <v>82.702</v>
-      </c>
-      <c r="E864" t="n">
-        <v>90.40600000000001</v>
-      </c>
-      <c r="F864" t="n">
-        <v>83.896</v>
-      </c>
-    </row>
-    <row r="865" spans="1:7">
-      <c r="A865" t="s">
-        <v>870</v>
-      </c>
-      <c r="B865" t="n">
-        <v>86.60808333333334</v>
-      </c>
-      <c r="C865" t="n">
-        <v>89.685</v>
-      </c>
-      <c r="D865" t="n">
-        <v>83.01300000000001</v>
-      </c>
-      <c r="E865" t="n">
-        <v>88.971</v>
-      </c>
-      <c r="F865" t="n">
-        <v>83.944</v>
-      </c>
-    </row>
-    <row r="866" spans="1:7">
-      <c r="A866" t="s">
-        <v>871</v>
-      </c>
-      <c r="B866" t="n">
-        <v>89.07774999999999</v>
-      </c>
-      <c r="C866" t="n">
-        <v>92.468</v>
-      </c>
-      <c r="D866" t="n">
-        <v>84.099</v>
-      </c>
-      <c r="E866" t="n">
-        <v>92.125</v>
-      </c>
-      <c r="F866" t="n">
-        <v>85.35299999999999</v>
-      </c>
-    </row>
-    <row r="867" spans="1:7">
-      <c r="A867" t="s">
-        <v>872</v>
-      </c>
-      <c r="B867" t="n">
-        <v>96.05575</v>
-      </c>
-      <c r="C867" t="n">
-        <v>98.8</v>
-      </c>
-      <c r="D867" t="n">
-        <v>90.761</v>
-      </c>
-      <c r="E867" t="n">
-        <v>98.69499999999999</v>
-      </c>
-      <c r="F867" t="n">
-        <v>91.12</v>
-      </c>
-    </row>
-    <row r="868" spans="1:7">
-      <c r="A868" t="s">
-        <v>873</v>
-      </c>
-      <c r="B868" t="n">
-        <v>91.43441666666666</v>
-      </c>
-      <c r="C868" t="n">
-        <v>96.137</v>
-      </c>
-      <c r="D868" t="n">
-        <v>88.964</v>
-      </c>
-      <c r="E868" t="n">
-        <v>95.20999999999999</v>
-      </c>
-      <c r="F868" t="n">
-        <v>90.026</v>
-      </c>
-    </row>
-    <row r="869" spans="1:7">
-      <c r="A869" t="s">
-        <v>874</v>
-      </c>
-      <c r="B869" t="n">
-        <v>91.81116666666667</v>
-      </c>
-      <c r="C869" t="n">
-        <v>93.434</v>
-      </c>
-      <c r="D869" t="n">
-        <v>89.96899999999999</v>
-      </c>
-      <c r="E869" t="n">
-        <v>92.89700000000001</v>
-      </c>
-      <c r="F869" t="n">
-        <v>90.623</v>
-      </c>
-    </row>
-    <row r="870" spans="1:7">
-      <c r="A870" t="s">
-        <v>875</v>
-      </c>
-      <c r="B870" t="n">
-        <v>90.85566666666666</v>
-      </c>
-      <c r="C870" t="n">
-        <v>92.41800000000001</v>
-      </c>
-      <c r="D870" t="n">
-        <v>89.15900000000001</v>
-      </c>
-      <c r="E870" t="n">
-        <v>92.11799999999999</v>
-      </c>
-      <c r="F870" t="n">
-        <v>89.52500000000001</v>
-      </c>
-    </row>
-    <row r="871" spans="1:7">
-      <c r="A871" t="s">
-        <v>876</v>
-      </c>
-      <c r="B871" t="n">
-        <v>89.50075</v>
-      </c>
-      <c r="C871" t="n">
-        <v>92.31999999999999</v>
-      </c>
-      <c r="D871" t="n">
-        <v>88.273</v>
-      </c>
-      <c r="E871" t="n">
-        <v>91.673</v>
-      </c>
-      <c r="F871" t="n">
-        <v>88.673</v>
-      </c>
-    </row>
-    <row r="872" spans="1:7">
-      <c r="A872" t="s">
-        <v>877</v>
-      </c>
-      <c r="B872" t="n">
-        <v>91.57108333333333</v>
-      </c>
-      <c r="C872" t="n">
-        <v>92.767</v>
-      </c>
-      <c r="D872" t="n">
-        <v>89.739</v>
-      </c>
-      <c r="E872" t="n">
-        <v>92.431</v>
-      </c>
-      <c r="F872" t="n">
-        <v>90.61</v>
-      </c>
-    </row>
-    <row r="873" spans="1:7">
-      <c r="A873" t="s">
-        <v>878</v>
-      </c>
-      <c r="B873" t="n">
-        <v>90.53166666666667</v>
-      </c>
-      <c r="C873" t="n">
-        <v>91.83</v>
-      </c>
-      <c r="D873" t="n">
-        <v>88.62</v>
-      </c>
-      <c r="E873" t="n">
-        <v>91.626</v>
-      </c>
-      <c r="F873" t="n">
-        <v>88.98</v>
-      </c>
-    </row>
-    <row r="874" spans="1:7">
-      <c r="A874" t="s">
-        <v>879</v>
-      </c>
-      <c r="B874" t="n">
-        <v>90.62475000000001</v>
-      </c>
-      <c r="C874" t="n">
-        <v>91.348</v>
-      </c>
-      <c r="D874" t="n">
-        <v>88.836</v>
-      </c>
-      <c r="E874" t="n">
-        <v>91.246</v>
-      </c>
-      <c r="F874" t="n">
-        <v>89.93899999999999</v>
-      </c>
-    </row>
-    <row r="875" spans="1:7">
-      <c r="A875" t="s">
-        <v>880</v>
-      </c>
-      <c r="B875" t="n">
-        <v>90.86341666666667</v>
-      </c>
-      <c r="C875" t="n">
-        <v>92.41500000000001</v>
-      </c>
-      <c r="D875" t="n">
-        <v>89.461</v>
-      </c>
-      <c r="E875" t="n">
-        <v>91.742</v>
-      </c>
-      <c r="F875" t="n">
-        <v>90.03100000000001</v>
-      </c>
-    </row>
-    <row r="876" spans="1:7">
-      <c r="A876" t="s">
-        <v>881</v>
-      </c>
-      <c r="B876" t="n">
-        <v>90.41091666666667</v>
-      </c>
-      <c r="C876" t="n">
-        <v>92.074</v>
-      </c>
-      <c r="D876" t="n">
-        <v>88.241</v>
-      </c>
-      <c r="E876" t="n">
-        <v>91.721</v>
-      </c>
-      <c r="F876" t="n">
-        <v>88.907</v>
-      </c>
-    </row>
-    <row r="877" spans="1:7">
-      <c r="A877" t="s">
-        <v>882</v>
-      </c>
-      <c r="B877" t="n">
-        <v>90.6215</v>
-      </c>
-      <c r="C877" t="n">
-        <v>91.726</v>
-      </c>
-      <c r="D877" t="n">
-        <v>88.786</v>
-      </c>
-      <c r="E877" t="n">
-        <v>91.41200000000001</v>
-      </c>
-      <c r="F877" t="n">
-        <v>89.741</v>
-      </c>
-    </row>
-    <row r="878" spans="1:7">
-      <c r="A878" t="s">
-        <v>883</v>
-      </c>
-      <c r="B878" t="n">
-        <v>91.49525</v>
-      </c>
-      <c r="C878" t="n">
-        <v>93.22499999999999</v>
-      </c>
-      <c r="D878" t="n">
-        <v>89.67400000000001</v>
-      </c>
-      <c r="E878" t="n">
-        <v>92.965</v>
-      </c>
-      <c r="F878" t="n">
-        <v>90.143</v>
-      </c>
-    </row>
-    <row r="879" spans="1:7">
-      <c r="A879" t="s">
-        <v>884</v>
-      </c>
-      <c r="B879" t="n">
-        <v>92.91841666666667</v>
-      </c>
-      <c r="C879" t="n">
-        <v>94.705</v>
-      </c>
-      <c r="D879" t="n">
-        <v>89.345</v>
-      </c>
-      <c r="E879" t="n">
-        <v>94.134</v>
-      </c>
-      <c r="F879" t="n">
-        <v>90.084</v>
-      </c>
-    </row>
-    <row r="880" spans="1:7">
-      <c r="A880" t="s">
-        <v>885</v>
-      </c>
-      <c r="B880" t="n">
-        <v>92.66066666666667</v>
-      </c>
-      <c r="C880" t="n">
-        <v>95.31399999999999</v>
-      </c>
-      <c r="D880" t="n">
-        <v>89.852</v>
-      </c>
-      <c r="E880" t="n">
-        <v>94.94</v>
-      </c>
-      <c r="F880" t="n">
-        <v>90.83499999999999</v>
-      </c>
-    </row>
-    <row r="881" spans="1:7">
-      <c r="A881" t="s">
-        <v>886</v>
-      </c>
-      <c r="B881" t="n">
-        <v>91.20441666666666</v>
-      </c>
-      <c r="C881" t="n">
-        <v>94.322</v>
-      </c>
-      <c r="D881" t="n">
-        <v>88.39</v>
-      </c>
-      <c r="E881" t="n">
-        <v>93.66500000000001</v>
-      </c>
-      <c r="F881" t="n">
-        <v>89.16500000000001</v>
-      </c>
-    </row>
-    <row r="882" spans="1:7">
-      <c r="A882" t="s">
-        <v>887</v>
-      </c>
-      <c r="B882" t="n">
-        <v>92.40791666666667</v>
-      </c>
-      <c r="C882" t="n">
-        <v>95.39400000000001</v>
-      </c>
-      <c r="D882" t="n">
-        <v>89.133</v>
-      </c>
-      <c r="E882" t="n">
-        <v>94.988</v>
-      </c>
-      <c r="F882" t="n">
-        <v>89.84699999999999</v>
-      </c>
-    </row>
-    <row r="883" spans="1:7">
-      <c r="A883" t="s">
-        <v>888</v>
-      </c>
-      <c r="B883" t="n">
-        <v>87.00658333333334</v>
-      </c>
-      <c r="C883" t="n">
-        <v>90.16800000000001</v>
-      </c>
-      <c r="D883" t="n">
-        <v>85.086</v>
-      </c>
-      <c r="E883" t="n">
-        <v>89.589</v>
-      </c>
-      <c r="F883" t="n">
-        <v>85.938</v>
-      </c>
-    </row>
-    <row r="884" spans="1:7">
-      <c r="A884" t="s">
-        <v>889</v>
-      </c>
-      <c r="B884" t="n">
-        <v>85.43266666666666</v>
-      </c>
-      <c r="C884" t="n">
-        <v>87.55500000000001</v>
-      </c>
-      <c r="D884" t="n">
-        <v>81.83</v>
-      </c>
-      <c r="E884" t="n">
-        <v>86.94</v>
-      </c>
-      <c r="F884" t="n">
-        <v>82.59699999999999</v>
-      </c>
-    </row>
-    <row r="885" spans="1:7">
-      <c r="A885" t="s">
-        <v>890</v>
-      </c>
-      <c r="B885" t="n">
-        <v>86.12308333333333</v>
-      </c>
-      <c r="C885" t="n">
-        <v>88.965</v>
-      </c>
-      <c r="D885" t="n">
-        <v>83.248</v>
-      </c>
-      <c r="E885" t="n">
-        <v>87.96899999999999</v>
-      </c>
-      <c r="F885" t="n">
-        <v>84.614</v>
-      </c>
-    </row>
-    <row r="886" spans="1:7">
-      <c r="A886" t="s">
-        <v>891</v>
-      </c>
-      <c r="B886" t="n">
-        <v>82.07741666666666</v>
-      </c>
-      <c r="C886" t="n">
-        <v>85.774</v>
-      </c>
-      <c r="D886" t="n">
-        <v>77.34399999999999</v>
-      </c>
-      <c r="E886" t="n">
-        <v>83.95699999999999</v>
-      </c>
-      <c r="F886" t="n">
-        <v>79.861</v>
-      </c>
-    </row>
-    <row r="887" spans="1:7">
-      <c r="A887" t="s">
-        <v>892</v>
-      </c>
-      <c r="B887" t="n">
-        <v>87.8485</v>
-      </c>
-      <c r="C887" t="n">
-        <v>92.285</v>
-      </c>
-      <c r="D887" t="n">
-        <v>83.574</v>
-      </c>
-      <c r="E887" t="n">
-        <v>91.852</v>
-      </c>
-      <c r="F887" t="n">
-        <v>84.878</v>
-      </c>
-    </row>
-    <row r="888" spans="1:7">
-      <c r="A888" t="s">
-        <v>893</v>
-      </c>
-      <c r="B888" t="n">
-        <v>92.09583333333333</v>
-      </c>
-      <c r="C888" t="n">
-        <v>94.52500000000001</v>
-      </c>
-      <c r="D888" t="n">
-        <v>89.194</v>
-      </c>
-      <c r="E888" t="n">
-        <v>93.816</v>
-      </c>
-      <c r="F888" t="n">
-        <v>90.173</v>
-      </c>
-    </row>
-    <row r="889" spans="1:7">
-      <c r="A889" t="s">
-        <v>894</v>
-      </c>
-      <c r="B889" t="n">
-        <v>87.95583333333333</v>
-      </c>
-      <c r="C889" t="n">
-        <v>93.322</v>
-      </c>
-      <c r="D889" t="n">
-        <v>82.931</v>
-      </c>
-      <c r="E889" t="n">
-        <v>92.94499999999999</v>
-      </c>
-      <c r="F889" t="n">
-        <v>84.268</v>
-      </c>
-    </row>
-    <row r="890" spans="1:7">
-      <c r="A890" t="s">
-        <v>895</v>
-      </c>
-      <c r="B890" t="n">
-        <v>89.18675</v>
-      </c>
-      <c r="C890" t="n">
-        <v>92.68300000000001</v>
-      </c>
-      <c r="D890" t="n">
-        <v>86.59699999999999</v>
-      </c>
-      <c r="E890" t="n">
-        <v>92.178</v>
-      </c>
-      <c r="F890" t="n">
-        <v>87.526</v>
-      </c>
-    </row>
-    <row r="891" spans="1:7">
-      <c r="A891" t="s">
-        <v>896</v>
-      </c>
-      <c r="B891" t="n">
-        <v>88.45466666666667</v>
-      </c>
-      <c r="C891" t="n">
-        <v>90.376</v>
-      </c>
-      <c r="D891" t="n">
-        <v>84.791</v>
-      </c>
-      <c r="E891" t="n">
-        <v>89.967</v>
-      </c>
-      <c r="F891" t="n">
-        <v>86.136</v>
-      </c>
-    </row>
-    <row r="892" spans="1:7">
-      <c r="A892" t="s">
-        <v>897</v>
-      </c>
-      <c r="B892" t="n">
-        <v>90.80016666666667</v>
-      </c>
-      <c r="C892" t="n">
-        <v>93.523</v>
-      </c>
-      <c r="D892" t="n">
-        <v>88.33799999999999</v>
-      </c>
-      <c r="E892" t="n">
-        <v>92.637</v>
-      </c>
-      <c r="F892" t="n">
-        <v>89.247</v>
-      </c>
-    </row>
-    <row r="893" spans="1:7">
-      <c r="A893" t="s">
-        <v>898</v>
-      </c>
-      <c r="B893" t="n">
-        <v>87.48999999999999</v>
-      </c>
-      <c r="C893" t="n">
-        <v>91.34699999999999</v>
-      </c>
-      <c r="D893" t="n">
-        <v>83.785</v>
-      </c>
-      <c r="E893" t="n">
-        <v>89.68000000000001</v>
-      </c>
-      <c r="F893" t="n">
-        <v>84.593</v>
-      </c>
-    </row>
-    <row r="894" spans="1:7">
-      <c r="A894" t="s">
-        <v>899</v>
-      </c>
-      <c r="B894" t="n">
-        <v>88.85341666666666</v>
-      </c>
-      <c r="C894" t="n">
-        <v>91.726</v>
-      </c>
-      <c r="D894" t="n">
-        <v>86.054</v>
-      </c>
-      <c r="E894" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="F894" t="n">
-        <v>87.063</v>
-      </c>
-    </row>
-    <row r="895" spans="1:7">
-      <c r="A895" t="s">
-        <v>900</v>
-      </c>
-      <c r="B895" t="n">
-        <v>88.5985</v>
-      </c>
-      <c r="C895" t="n">
-        <v>91.041</v>
-      </c>
-      <c r="D895" t="n">
-        <v>86.009</v>
-      </c>
-      <c r="E895" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="F895" t="n">
-        <v>87.102</v>
-      </c>
-    </row>
-    <row r="896" spans="1:7">
-      <c r="A896" t="s">
-        <v>901</v>
-      </c>
-      <c r="B896" t="n">
-        <v>87.76741666666666</v>
-      </c>
-      <c r="C896" t="n">
-        <v>89.35899999999999</v>
-      </c>
-      <c r="D896" t="n">
-        <v>85.986</v>
-      </c>
-      <c r="E896" t="n">
-        <v>88.956</v>
-      </c>
-      <c r="F896" t="n">
-        <v>86.65600000000001</v>
-      </c>
-    </row>
-    <row r="897" spans="1:7">
-      <c r="A897" t="s">
-        <v>902</v>
-      </c>
-      <c r="B897" t="n">
-        <v>88.9515</v>
-      </c>
-      <c r="C897" t="n">
-        <v>90.313</v>
-      </c>
-      <c r="D897" t="n">
-        <v>87.435</v>
-      </c>
-      <c r="E897" t="n">
-        <v>89.733</v>
-      </c>
-      <c r="F897" t="n">
-        <v>87.83799999999999</v>
-      </c>
-    </row>
-    <row r="898" spans="1:7">
-      <c r="A898" t="s">
-        <v>903</v>
-      </c>
-      <c r="B898" t="n">
-        <v>89.89733333333334</v>
-      </c>
-      <c r="C898" t="n">
-        <v>91.759</v>
-      </c>
-      <c r="D898" t="n">
-        <v>87.30500000000001</v>
-      </c>
-      <c r="E898" t="n">
-        <v>91.51300000000001</v>
-      </c>
-      <c r="F898" t="n">
-        <v>87.657</v>
-      </c>
-    </row>
-    <row r="899" spans="1:7">
-      <c r="A899" t="s">
-        <v>904</v>
-      </c>
-      <c r="B899" t="n">
-        <v>89.66583333333334</v>
-      </c>
-      <c r="C899" t="n">
-        <v>92.782</v>
-      </c>
-      <c r="D899" t="n">
-        <v>86.879</v>
-      </c>
-      <c r="E899" t="n">
-        <v>91.67400000000001</v>
-      </c>
-      <c r="F899" t="n">
-        <v>87.684</v>
-      </c>
-    </row>
-    <row r="900" spans="1:7">
-      <c r="A900" t="s">
-        <v>905</v>
-      </c>
-      <c r="B900" t="n">
-        <v>88.93491666666667</v>
-      </c>
-      <c r="C900" t="n">
-        <v>91.184</v>
-      </c>
-      <c r="D900" t="n">
-        <v>86.02</v>
-      </c>
-      <c r="E900" t="n">
-        <v>90.47799999999999</v>
-      </c>
-      <c r="F900" t="n">
-        <v>86.717</v>
-      </c>
-    </row>
-    <row r="901" spans="1:7">
-      <c r="A901" t="s">
-        <v>906</v>
-      </c>
-      <c r="B901" t="n">
-        <v>87.04591666666667</v>
-      </c>
-      <c r="C901" t="n">
-        <v>88.342</v>
-      </c>
-      <c r="D901" t="n">
-        <v>85.657</v>
-      </c>
-      <c r="E901" t="n">
-        <v>87.961</v>
-      </c>
-      <c r="F901" t="n">
-        <v>86.246</v>
-      </c>
-    </row>
-    <row r="902" spans="1:7">
-      <c r="A902" t="s">
-        <v>907</v>
-      </c>
-      <c r="B902" t="n">
-        <v>87.03283333333333</v>
-      </c>
-      <c r="C902" t="n">
-        <v>88.503</v>
-      </c>
-      <c r="D902" t="n">
-        <v>85.265</v>
-      </c>
-      <c r="E902" t="n">
-        <v>88.292</v>
-      </c>
-      <c r="F902" t="n">
-        <v>85.944</v>
-      </c>
-    </row>
-    <row r="903" spans="1:7">
-      <c r="A903" t="s">
-        <v>908</v>
-      </c>
-      <c r="B903" t="n">
-        <v>88.64749999999999</v>
-      </c>
-      <c r="C903" t="n">
-        <v>91.248</v>
-      </c>
-      <c r="D903" t="n">
-        <v>85.497</v>
-      </c>
-      <c r="E903" t="n">
-        <v>90.864</v>
-      </c>
-      <c r="F903" t="n">
-        <v>86.55200000000001</v>
-      </c>
-    </row>
-    <row r="904" spans="1:7">
-      <c r="A904" t="s">
-        <v>909</v>
-      </c>
-      <c r="B904" t="n">
-        <v>90.50825</v>
-      </c>
-      <c r="C904" t="n">
-        <v>94.557</v>
-      </c>
-      <c r="D904" t="n">
-        <v>86.845</v>
-      </c>
-      <c r="E904" t="n">
-        <v>94.31</v>
-      </c>
-      <c r="F904" t="n">
-        <v>88.169</v>
-      </c>
-    </row>
-    <row r="905" spans="1:7">
-      <c r="A905" t="s">
-        <v>910</v>
-      </c>
-      <c r="B905" t="n">
-        <v>95.173</v>
-      </c>
-      <c r="C905" t="n">
-        <v>96.414</v>
-      </c>
-      <c r="D905" t="n">
-        <v>93.815</v>
-      </c>
-      <c r="E905" t="n">
-        <v>96.24299999999999</v>
-      </c>
-      <c r="F905" t="n">
-        <v>94.20999999999999</v>
-      </c>
-    </row>
-    <row r="906" spans="1:7">
-      <c r="A906" t="s">
-        <v>911</v>
-      </c>
-      <c r="B906" t="n">
-        <v>96.49625</v>
-      </c>
-      <c r="C906" t="n">
-        <v>98.586</v>
-      </c>
-      <c r="D906" t="n">
-        <v>94.376</v>
-      </c>
-      <c r="E906" t="n">
-        <v>98.38200000000001</v>
-      </c>
-      <c r="F906" t="n">
-        <v>94.79300000000001</v>
-      </c>
-    </row>
-    <row r="907" spans="1:7">
-      <c r="A907" t="s">
-        <v>912</v>
-      </c>
-      <c r="B907" t="n">
-        <v>98.72591666666666</v>
-      </c>
-      <c r="C907" t="n">
-        <v>99.057</v>
-      </c>
-      <c r="D907" t="n">
-        <v>98.126</v>
-      </c>
-      <c r="E907" t="n">
-        <v>98.983</v>
-      </c>
-      <c r="F907" t="n">
-        <v>98.465</v>
-      </c>
-    </row>
-    <row r="908" spans="1:7">
-      <c r="A908" t="s">
-        <v>913</v>
-      </c>
-      <c r="B908" t="n">
-        <v>97.63124999999999</v>
-      </c>
-      <c r="C908" t="n">
-        <v>98.374</v>
-      </c>
-      <c r="D908" t="n">
-        <v>96.515</v>
-      </c>
-      <c r="E908" t="n">
-        <v>98.175</v>
-      </c>
-      <c r="F908" t="n">
-        <v>96.80200000000001</v>
-      </c>
-    </row>
-    <row r="909" spans="1:7">
-      <c r="A909" t="s">
-        <v>914</v>
-      </c>
-      <c r="B909" t="n">
-        <v>97.21216666666666</v>
-      </c>
-      <c r="C909" t="n">
-        <v>98.34099999999999</v>
-      </c>
-      <c r="D909" t="n">
-        <v>96.167</v>
-      </c>
-      <c r="E909" t="n">
-        <v>98.22799999999999</v>
-      </c>
-      <c r="F909" t="n">
-        <v>96.443</v>
-      </c>
-    </row>
-    <row r="910" spans="1:7">
-      <c r="A910" t="s">
-        <v>915</v>
-      </c>
-      <c r="B910" t="n">
-        <v>93.71883333333334</v>
-      </c>
-      <c r="C910" t="n">
-        <v>96.89100000000001</v>
-      </c>
-      <c r="D910" t="n">
-        <v>90.562</v>
-      </c>
-      <c r="E910" t="n">
-        <v>96.556</v>
-      </c>
-      <c r="F910" t="n">
-        <v>91.423</v>
-      </c>
-    </row>
-    <row r="911" spans="1:7">
-      <c r="A911" t="s">
-        <v>916</v>
-      </c>
-      <c r="B911" t="n">
-        <v>89.52408333333334</v>
-      </c>
-      <c r="C911" t="n">
-        <v>95.575</v>
-      </c>
-      <c r="D911" t="n">
-        <v>85.694</v>
-      </c>
-      <c r="E911" t="n">
-        <v>95.083</v>
-      </c>
-      <c r="F911" t="n">
-        <v>87.33</v>
-      </c>
-    </row>
-    <row r="912" spans="1:7">
-      <c r="A912" t="s">
-        <v>917</v>
-      </c>
-      <c r="B912" t="n">
-        <v>92.19225</v>
-      </c>
-      <c r="C912" t="n">
-        <v>95.343</v>
-      </c>
-      <c r="D912" t="n">
-        <v>87.119</v>
-      </c>
-      <c r="E912" t="n">
-        <v>94.92700000000001</v>
-      </c>
-      <c r="F912" t="n">
-        <v>88.354</v>
-      </c>
-    </row>
-    <row r="913" spans="1:7">
-      <c r="A913" t="s">
-        <v>918</v>
-      </c>
-      <c r="B913" t="n">
-        <v>94.11175</v>
-      </c>
-      <c r="C913" t="n">
-        <v>96.006</v>
-      </c>
-      <c r="D913" t="n">
-        <v>92.63500000000001</v>
-      </c>
-      <c r="E913" t="n">
-        <v>95.66</v>
-      </c>
-      <c r="F913" t="n">
-        <v>93.13500000000001</v>
-      </c>
-    </row>
-    <row r="914" spans="1:7">
-      <c r="A914" t="s">
-        <v>919</v>
-      </c>
-      <c r="B914" t="n">
-        <v>95.66741666666667</v>
-      </c>
-      <c r="C914" t="n">
-        <v>98.505</v>
-      </c>
-      <c r="D914" t="n">
-        <v>92.55</v>
-      </c>
-      <c r="E914" t="n">
-        <v>98.282</v>
-      </c>
-      <c r="F914" t="n">
-        <v>92.96299999999999</v>
-      </c>
-    </row>
-    <row r="915" spans="1:7">
-      <c r="A915" t="s">
-        <v>920</v>
-      </c>
-      <c r="B915" t="n">
-        <v>98.20308333333334</v>
-      </c>
-      <c r="C915" t="n">
-        <v>99.09699999999999</v>
-      </c>
-      <c r="D915" t="n">
-        <v>96.874</v>
-      </c>
-      <c r="E915" t="n">
-        <v>99.044</v>
-      </c>
-      <c r="F915" t="n">
-        <v>97.154</v>
-      </c>
-    </row>
-    <row r="916" spans="1:7">
-      <c r="A916" t="s">
-        <v>921</v>
-      </c>
-      <c r="B916" t="n">
-        <v>99.22875000000001</v>
-      </c>
-      <c r="C916" t="n">
-        <v>99.393</v>
-      </c>
-      <c r="D916" t="n">
-        <v>98.998</v>
-      </c>
-      <c r="E916" t="n">
-        <v>99.342</v>
-      </c>
-      <c r="F916" t="n">
-        <v>99.041</v>
-      </c>
-    </row>
-    <row r="917" spans="1:7">
-      <c r="A917" t="s">
-        <v>922</v>
-      </c>
-      <c r="B917" t="n">
-        <v>99.04383333333334</v>
-      </c>
-      <c r="C917" t="n">
-        <v>99.327</v>
-      </c>
-      <c r="D917" t="n">
-        <v>98.622</v>
-      </c>
-      <c r="E917" t="n">
-        <v>99.303</v>
-      </c>
-      <c r="F917" t="n">
-        <v>98.786</v>
-      </c>
-    </row>
-    <row r="918" spans="1:7">
-      <c r="A918" t="s">
-        <v>923</v>
-      </c>
-      <c r="B918" t="n">
-        <v>97.61516666666667</v>
-      </c>
-      <c r="C918" t="n">
-        <v>98.994</v>
-      </c>
-      <c r="D918" t="n">
-        <v>96.086</v>
-      </c>
-      <c r="E918" t="n">
-        <v>98.925</v>
-      </c>
-      <c r="F918" t="n">
-        <v>96.39700000000001</v>
-      </c>
-    </row>
-    <row r="919" spans="1:7">
-      <c r="A919" t="s">
-        <v>924</v>
-      </c>
-      <c r="B919" t="n">
-        <v>96.07391666666666</v>
-      </c>
-      <c r="C919" t="n">
-        <v>97.545</v>
-      </c>
-      <c r="D919" t="n">
-        <v>94.95</v>
-      </c>
-      <c r="E919" t="n">
-        <v>97.289</v>
-      </c>
-      <c r="F919" t="n">
-        <v>95.256</v>
-      </c>
-    </row>
-    <row r="920" spans="1:7">
-      <c r="A920" t="s">
-        <v>925</v>
-      </c>
-      <c r="B920" t="n">
-        <v>96.15516666666667</v>
-      </c>
-      <c r="C920" t="n">
-        <v>97.548</v>
-      </c>
-      <c r="D920" t="n">
-        <v>95.06399999999999</v>
-      </c>
-      <c r="E920" t="n">
-        <v>97.05500000000001</v>
-      </c>
-      <c r="F920" t="n">
-        <v>95.613</v>
-      </c>
-    </row>
-    <row r="921" spans="1:7">
-      <c r="A921" t="s">
-        <v>926</v>
-      </c>
-      <c r="B921" t="n">
-        <v>96.47558333333333</v>
-      </c>
-      <c r="C921" t="n">
-        <v>98.209</v>
-      </c>
-      <c r="D921" t="n">
-        <v>94.065</v>
-      </c>
-      <c r="E921" t="n">
-        <v>98.09099999999999</v>
-      </c>
-      <c r="F921" t="n">
-        <v>94.59</v>
-      </c>
-    </row>
-    <row r="922" spans="1:7">
-      <c r="A922" t="s">
-        <v>927</v>
-      </c>
-      <c r="B922" t="n">
-        <v>94.449</v>
-      </c>
-      <c r="C922" t="n">
-        <v>97.23699999999999</v>
-      </c>
-      <c r="D922" t="n">
-        <v>89.758</v>
-      </c>
-      <c r="E922" t="n">
-        <v>96.685</v>
-      </c>
-      <c r="F922" t="n">
-        <v>90.83499999999999</v>
-      </c>
-    </row>
-    <row r="923" spans="1:7">
-      <c r="A923" t="s">
-        <v>928</v>
-      </c>
-      <c r="B923" t="n">
-        <v>97.37141666666666</v>
-      </c>
-      <c r="C923" t="n">
-        <v>98.306</v>
-      </c>
-      <c r="D923" t="n">
-        <v>96.124</v>
-      </c>
-      <c r="E923" t="n">
-        <v>98.10899999999999</v>
-      </c>
-      <c r="F923" t="n">
-        <v>96.488</v>
-      </c>
-    </row>
-    <row r="924" spans="1:7">
-      <c r="A924" t="s">
-        <v>929</v>
-      </c>
-      <c r="B924" t="n">
-        <v>98.13925</v>
-      </c>
-      <c r="C924" t="n">
-        <v>98.72</v>
-      </c>
-      <c r="D924" t="n">
-        <v>97.14100000000001</v>
-      </c>
-      <c r="E924" t="n">
-        <v>98.65600000000001</v>
-      </c>
-      <c r="F924" t="n">
-        <v>97.542</v>
-      </c>
-    </row>
-    <row r="925" spans="1:7">
-      <c r="A925" t="s">
-        <v>930</v>
-      </c>
-      <c r="B925" t="n">
-        <v>98.95508333333333</v>
-      </c>
-      <c r="C925" t="n">
-        <v>99.36</v>
-      </c>
-      <c r="D925" t="n">
-        <v>98.19</v>
-      </c>
-      <c r="E925" t="n">
-        <v>99.315</v>
-      </c>
-      <c r="F925" t="n">
-        <v>98.277</v>
-      </c>
-    </row>
-    <row r="926" spans="1:7">
-      <c r="A926" t="s">
-        <v>931</v>
-      </c>
-      <c r="B926" t="n">
-        <v>99.35550000000001</v>
-      </c>
-      <c r="C926" t="n">
-        <v>99.491</v>
-      </c>
-      <c r="D926" t="n">
-        <v>99.078</v>
-      </c>
-      <c r="E926" t="n">
-        <v>99.45</v>
-      </c>
-      <c r="F926" t="n">
-        <v>99.181</v>
-      </c>
-    </row>
-    <row r="927" spans="1:7">
-      <c r="A927" t="s">
-        <v>932</v>
-      </c>
-      <c r="B927" t="n">
-        <v>98.55908333333333</v>
-      </c>
-      <c r="C927" t="n">
-        <v>99.491</v>
-      </c>
-      <c r="D927" t="n">
-        <v>97.63200000000001</v>
-      </c>
-      <c r="E927" t="n">
-        <v>99.45</v>
-      </c>
-      <c r="F927" t="n">
-        <v>97.78700000000001</v>
-      </c>
-    </row>
-    <row r="928" spans="1:7">
-      <c r="A928" t="s">
-        <v>933</v>
-      </c>
-      <c r="B928" t="n">
-        <v>96.2595</v>
-      </c>
-      <c r="C928" t="n">
-        <v>98.011</v>
-      </c>
-      <c r="D928" t="n">
-        <v>93.848</v>
-      </c>
-      <c r="E928" t="n">
-        <v>97.855</v>
-      </c>
-      <c r="F928" t="n">
-        <v>94.88800000000001</v>
-      </c>
-    </row>
-    <row r="929" spans="1:7">
-      <c r="A929" t="s">
-        <v>934</v>
-      </c>
-      <c r="B929" t="n">
-        <v>94.25883333333333</v>
-      </c>
-      <c r="C929" t="n">
-        <v>96.58</v>
-      </c>
-      <c r="D929" t="n">
-        <v>92.533</v>
-      </c>
-      <c r="E929" t="n">
-        <v>96.432</v>
-      </c>
-      <c r="F929" t="n">
-        <v>93.194</v>
-      </c>
-    </row>
-    <row r="930" spans="1:7">
-      <c r="A930" t="s">
-        <v>935</v>
-      </c>
-      <c r="B930" t="n">
-        <v>93.69141666666667</v>
-      </c>
-      <c r="C930" t="n">
-        <v>96.631</v>
-      </c>
-      <c r="D930" t="n">
-        <v>88.538</v>
-      </c>
-      <c r="E930" t="n">
-        <v>96.063</v>
-      </c>
-      <c r="F930" t="n">
-        <v>90.98999999999999</v>
-      </c>
-    </row>
-    <row r="931" spans="1:7">
-      <c r="A931" t="s">
-        <v>936</v>
-      </c>
-      <c r="B931" t="n">
-        <v>93.02833333333334</v>
-      </c>
-      <c r="C931" t="n">
-        <v>96.169</v>
-      </c>
-      <c r="D931" t="n">
-        <v>89.512</v>
-      </c>
-      <c r="E931" t="n">
-        <v>95.256</v>
-      </c>
-      <c r="F931" t="n">
-        <v>90.889</v>
-      </c>
-    </row>
-    <row r="932" spans="1:7">
-      <c r="A932" t="s">
-        <v>937</v>
-      </c>
-      <c r="B932" t="n">
-        <v>91.23941666666667</v>
-      </c>
-      <c r="C932" t="n">
-        <v>94.684</v>
-      </c>
-      <c r="D932" t="n">
-        <v>85.681</v>
-      </c>
-      <c r="E932" t="n">
-        <v>94.175</v>
-      </c>
-      <c r="F932" t="n">
-        <v>86.173</v>
-      </c>
-    </row>
-    <row r="933" spans="1:7">
-      <c r="A933" t="s">
-        <v>938</v>
-      </c>
-      <c r="B933" t="n">
-        <v>88.77116666666667</v>
-      </c>
-      <c r="C933" t="n">
-        <v>91.747</v>
-      </c>
-      <c r="D933" t="n">
-        <v>85.71299999999999</v>
-      </c>
-      <c r="E933" t="n">
-        <v>91.28100000000001</v>
-      </c>
-      <c r="F933" t="n">
-        <v>87.208</v>
-      </c>
-    </row>
-    <row r="934" spans="1:7">
-      <c r="A934" t="s">
-        <v>939</v>
-      </c>
-      <c r="B934" t="n">
-        <v>85.18883333333333</v>
-      </c>
-      <c r="C934" t="n">
-        <v>90.578</v>
-      </c>
-      <c r="D934" t="n">
-        <v>80.288</v>
-      </c>
-      <c r="E934" t="n">
-        <v>89.88</v>
-      </c>
-      <c r="F934" t="n">
-        <v>82.117</v>
-      </c>
-    </row>
-    <row r="935" spans="1:7">
-      <c r="A935" t="s">
-        <v>940</v>
-      </c>
-      <c r="B935" t="n">
-        <v>88.54383333333334</v>
-      </c>
-      <c r="C935" t="n">
-        <v>93.224</v>
-      </c>
-      <c r="D935" t="n">
-        <v>83.767</v>
-      </c>
-      <c r="E935" t="n">
-        <v>92.197</v>
-      </c>
-      <c r="F935" t="n">
-        <v>84.81999999999999</v>
-      </c>
-    </row>
-    <row r="936" spans="1:7">
-      <c r="A936" t="s">
-        <v>941</v>
-      </c>
-      <c r="B936" t="n">
-        <v>90.07991666666666</v>
-      </c>
-      <c r="C936" t="n">
-        <v>94.22199999999999</v>
-      </c>
-      <c r="D936" t="n">
-        <v>83.423</v>
-      </c>
-      <c r="E936" t="n">
-        <v>93.48399999999999</v>
-      </c>
-      <c r="F936" t="n">
-        <v>85.575</v>
-      </c>
-    </row>
-    <row r="937" spans="1:7">
-      <c r="A937" t="s">
-        <v>942</v>
-      </c>
-      <c r="B937" t="n">
-        <v>92.63291666666667</v>
-      </c>
-      <c r="C937" t="n">
-        <v>95.607</v>
-      </c>
-      <c r="D937" t="n">
-        <v>89.113</v>
-      </c>
-      <c r="E937" t="n">
-        <v>94.69199999999999</v>
-      </c>
-      <c r="F937" t="n">
-        <v>89.81999999999999</v>
-      </c>
-    </row>
-    <row r="938" spans="1:7">
-      <c r="A938" t="s">
-        <v>943</v>
-      </c>
-      <c r="B938" t="n">
-        <v>94.35325</v>
-      </c>
-      <c r="C938" t="n">
-        <v>95.873</v>
-      </c>
-      <c r="D938" t="n">
-        <v>91.70999999999999</v>
-      </c>
-      <c r="E938" t="n">
-        <v>95.503</v>
-      </c>
-      <c r="F938" t="n">
-        <v>92.27</v>
-      </c>
-    </row>
-    <row r="939" spans="1:7">
-      <c r="A939" t="s">
-        <v>944</v>
-      </c>
-      <c r="B939" t="n">
-        <v>92.62725</v>
-      </c>
-      <c r="C939" t="n">
-        <v>94.724</v>
-      </c>
-      <c r="D939" t="n">
-        <v>89.85599999999999</v>
-      </c>
-      <c r="E939" t="n">
-        <v>93.896</v>
-      </c>
-      <c r="F939" t="n">
-        <v>90.274</v>
-      </c>
-    </row>
-    <row r="940" spans="1:7">
-      <c r="A940" t="s">
-        <v>945</v>
-      </c>
-      <c r="B940" t="n">
-        <v>92.99158333333334</v>
-      </c>
-      <c r="C940" t="n">
-        <v>93.996</v>
-      </c>
-      <c r="D940" t="n">
-        <v>90.759</v>
-      </c>
-      <c r="E940" t="n">
-        <v>93.57599999999999</v>
-      </c>
-      <c r="F940" t="n">
-        <v>92.011</v>
-      </c>
-    </row>
-    <row r="941" spans="1:7">
-      <c r="A941" t="s">
-        <v>946</v>
-      </c>
-      <c r="B941" t="n">
-        <v>93.78725</v>
-      </c>
-      <c r="C941" t="n">
-        <v>95.32899999999999</v>
-      </c>
-      <c r="D941" t="n">
-        <v>92.732</v>
-      </c>
-      <c r="E941" t="n">
-        <v>94.47499999999999</v>
-      </c>
-      <c r="F941" t="n">
-        <v>93.264</v>
-      </c>
-    </row>
-    <row r="942" spans="1:7">
-      <c r="A942" t="s">
-        <v>947</v>
-      </c>
-      <c r="B942" t="n">
-        <v>92.94466666666666</v>
-      </c>
-      <c r="C942" t="n">
-        <v>94.851</v>
-      </c>
-      <c r="D942" t="n">
-        <v>90.295</v>
-      </c>
-      <c r="E942" t="n">
-        <v>94.574</v>
-      </c>
-      <c r="F942" t="n">
-        <v>90.98099999999999</v>
-      </c>
-    </row>
-    <row r="943" spans="1:7">
-      <c r="A943" t="s">
-        <v>948</v>
-      </c>
-      <c r="B943" t="n">
-        <v>92.27441666666667</v>
-      </c>
-      <c r="C943" t="n">
-        <v>93.798</v>
-      </c>
-      <c r="D943" t="n">
-        <v>91.369</v>
-      </c>
-      <c r="E943" t="n">
-        <v>93.517</v>
-      </c>
-      <c r="F943" t="n">
-        <v>91.623</v>
-      </c>
-    </row>
-    <row r="944" spans="1:7">
-      <c r="A944" t="s">
-        <v>949</v>
-      </c>
-      <c r="B944" t="n">
-        <v>92.34491666666666</v>
-      </c>
-      <c r="C944" t="n">
-        <v>93.753</v>
-      </c>
-      <c r="D944" t="n">
-        <v>90.85899999999999</v>
-      </c>
-      <c r="E944" t="n">
-        <v>93.232</v>
-      </c>
-      <c r="F944" t="n">
-        <v>91.202</v>
-      </c>
-    </row>
-    <row r="945" spans="1:7">
-      <c r="A945" t="s">
-        <v>950</v>
-      </c>
-      <c r="B945" t="n">
-        <v>96.70491666666666</v>
-      </c>
-      <c r="C945" t="n">
-        <v>98.783</v>
-      </c>
-      <c r="D945" t="n">
-        <v>93.101</v>
-      </c>
-      <c r="E945" t="n">
-        <v>98.64100000000001</v>
-      </c>
-      <c r="F945" t="n">
-        <v>93.56699999999999</v>
-      </c>
-    </row>
-    <row r="946" spans="1:7">
-      <c r="A946" t="s">
-        <v>951</v>
-      </c>
-      <c r="B946" t="n">
-        <v>99.20183333333334</v>
-      </c>
-      <c r="C946" t="n">
-        <v>99.444</v>
-      </c>
-      <c r="D946" t="n">
-        <v>98.78100000000001</v>
-      </c>
-      <c r="E946" t="n">
-        <v>99.398</v>
-      </c>
-      <c r="F946" t="n">
-        <v>98.845</v>
-      </c>
-    </row>
-    <row r="947" spans="1:7">
-      <c r="A947" t="s">
-        <v>952</v>
-      </c>
-      <c r="B947" t="n">
-        <v>99.48666666666666</v>
-      </c>
-      <c r="C947" t="n">
-        <v>99.60299999999999</v>
-      </c>
-      <c r="D947" t="n">
-        <v>99.375</v>
-      </c>
-      <c r="E947" t="n">
-        <v>99.55500000000001</v>
-      </c>
-      <c r="F947" t="n">
-        <v>99.414</v>
-      </c>
-    </row>
-    <row r="948" spans="1:7">
-      <c r="A948" t="s">
-        <v>953</v>
-      </c>
-      <c r="B948" t="n">
-        <v>99.56391666666667</v>
-      </c>
-      <c r="C948" t="n">
-        <v>99.66800000000001</v>
-      </c>
-      <c r="D948" t="n">
-        <v>99.43899999999999</v>
-      </c>
-      <c r="E948" t="n">
-        <v>99.61199999999999</v>
-      </c>
-      <c r="F948" t="n">
-        <v>99.47199999999999</v>
-      </c>
-    </row>
-    <row r="949" spans="1:7">
-      <c r="A949" t="s">
-        <v>954</v>
-      </c>
-      <c r="B949" t="n">
-        <v>99.66183333333333</v>
-      </c>
-      <c r="C949" t="n">
-        <v>99.733</v>
-      </c>
-      <c r="D949" t="n">
-        <v>99.541</v>
-      </c>
-      <c r="E949" t="n">
-        <v>99.697</v>
-      </c>
-      <c r="F949" t="n">
-        <v>99.602</v>
-      </c>
-    </row>
-    <row r="950" spans="1:7">
-      <c r="A950" t="s">
-        <v>955</v>
-      </c>
-      <c r="B950" t="n">
-        <v>99.71341666666666</v>
-      </c>
-      <c r="C950" t="n">
-        <v>99.788</v>
-      </c>
-      <c r="D950" t="n">
-        <v>99.66800000000001</v>
-      </c>
-      <c r="E950" t="n">
-        <v>99.721</v>
-      </c>
-      <c r="F950" t="n">
-        <v>99.702</v>
-      </c>
-    </row>
-    <row r="951" spans="1:7">
-      <c r="A951" t="s">
-        <v>956</v>
-      </c>
-      <c r="B951" t="n">
-        <v>99.74116666666667</v>
-      </c>
-      <c r="C951" t="n">
-        <v>99.786</v>
-      </c>
-      <c r="D951" t="n">
-        <v>99.657</v>
-      </c>
-      <c r="E951" t="n">
-        <v>99.76600000000001</v>
-      </c>
-      <c r="F951" t="n">
-        <v>99.70999999999999</v>
-      </c>
-    </row>
-    <row r="952" spans="1:7">
-      <c r="A952" t="s">
-        <v>957</v>
-      </c>
-      <c r="B952" t="n">
-        <v>99.77316666666667</v>
-      </c>
-      <c r="C952" t="n">
-        <v>99.786</v>
-      </c>
-      <c r="D952" t="n">
-        <v>99.733</v>
-      </c>
-      <c r="E952" t="n">
-        <v>99.779</v>
-      </c>
-      <c r="F952" t="n">
-        <v>99.767</v>
-      </c>
-    </row>
-    <row r="953" spans="1:7">
-      <c r="A953" t="s">
-        <v>958</v>
-      </c>
-      <c r="B953" t="n">
-        <v>99.76758333333333</v>
-      </c>
-      <c r="C953" t="n">
-        <v>99.78700000000001</v>
-      </c>
-      <c r="D953" t="n">
-        <v>99.71299999999999</v>
-      </c>
-      <c r="E953" t="n">
-        <v>99.77800000000001</v>
-      </c>
-      <c r="F953" t="n">
-        <v>99.749</v>
-      </c>
-    </row>
-    <row r="954" spans="1:7">
-      <c r="A954" t="s">
-        <v>959</v>
-      </c>
-      <c r="B954" t="n">
-        <v>99.7435</v>
-      </c>
-      <c r="C954" t="n">
-        <v>99.789</v>
-      </c>
-      <c r="D954" t="n">
-        <v>99.639</v>
-      </c>
-      <c r="E954" t="n">
-        <v>99.774</v>
-      </c>
-      <c r="F954" t="n">
-        <v>99.714</v>
-      </c>
-    </row>
-    <row r="955" spans="1:7">
-      <c r="A955" t="s">
-        <v>960</v>
-      </c>
-      <c r="B955" t="n">
-        <v>99.67700000000001</v>
-      </c>
-      <c r="C955" t="n">
-        <v>99.789</v>
-      </c>
-      <c r="D955" t="n">
-        <v>99.538</v>
-      </c>
-      <c r="E955" t="n">
-        <v>99.738</v>
-      </c>
-      <c r="F955" t="n">
-        <v>99.625</v>
-      </c>
-    </row>
-    <row r="956" spans="1:7">
-      <c r="A956" t="s">
-        <v>961</v>
-      </c>
-      <c r="B956" t="n">
-        <v>99.56308333333334</v>
-      </c>
-      <c r="C956" t="n">
-        <v>99.752</v>
-      </c>
-      <c r="D956" t="n">
-        <v>99.41</v>
-      </c>
-      <c r="E956" t="n">
-        <v>99.652</v>
-      </c>
-      <c r="F956" t="n">
-        <v>99.47199999999999</v>
-      </c>
-    </row>
-    <row r="957" spans="1:7">
-      <c r="A957" t="s">
-        <v>962</v>
-      </c>
-      <c r="B957" t="n">
-        <v>99.57008333333333</v>
-      </c>
-      <c r="C957" t="n">
-        <v>99.723</v>
-      </c>
-      <c r="D957" t="n">
-        <v>99.377</v>
-      </c>
-      <c r="E957" t="n">
-        <v>99.655</v>
-      </c>
-      <c r="F957" t="n">
-        <v>99.505</v>
-      </c>
-    </row>
-    <row r="958" spans="1:7">
-      <c r="A958" t="s">
-        <v>963</v>
-      </c>
-      <c r="B958" t="n">
-        <v>99.584</v>
-      </c>
-      <c r="C958" t="n">
-        <v>99.723</v>
-      </c>
-      <c r="D958" t="n">
-        <v>99.41200000000001</v>
-      </c>
-      <c r="E958" t="n">
-        <v>99.663</v>
-      </c>
-      <c r="F958" t="n">
-        <v>99.47799999999999</v>
-      </c>
-    </row>
-    <row r="959" spans="1:7">
-      <c r="A959" t="s">
-        <v>964</v>
-      </c>
-      <c r="B959" t="n">
-        <v>99.63525</v>
-      </c>
-      <c r="C959" t="n">
-        <v>99.747</v>
-      </c>
-      <c r="D959" t="n">
-        <v>99.506</v>
-      </c>
-      <c r="E959" t="n">
-        <v>99.679</v>
-      </c>
-      <c r="F959" t="n">
-        <v>99.57599999999999</v>
-      </c>
-    </row>
-    <row r="960" spans="1:7">
-      <c r="A960" t="s">
-        <v>965</v>
-      </c>
-      <c r="B960" t="n">
-        <v>99.68583333333333</v>
-      </c>
-      <c r="C960" t="n">
-        <v>99.79000000000001</v>
-      </c>
-      <c r="D960" t="n">
-        <v>99.586</v>
-      </c>
-      <c r="E960" t="n">
-        <v>99.72799999999999</v>
-      </c>
-      <c r="F960" t="n">
-        <v>99.63</v>
-      </c>
-    </row>
-    <row r="961" spans="1:7">
-      <c r="A961" t="s">
-        <v>966</v>
-      </c>
-      <c r="B961" t="n">
-        <v>99.60208333333334</v>
-      </c>
-      <c r="C961" t="n">
-        <v>99.789</v>
-      </c>
-      <c r="D961" t="n">
-        <v>99.246</v>
-      </c>
-      <c r="E961" t="n">
-        <v>99.738</v>
-      </c>
-      <c r="F961" t="n">
-        <v>99.372</v>
-      </c>
-    </row>
-    <row r="962" spans="1:7">
-      <c r="A962" t="s">
-        <v>967</v>
-      </c>
-      <c r="B962" t="n">
-        <v>99.446</v>
-      </c>
-      <c r="C962" t="n">
-        <v>99.68600000000001</v>
-      </c>
-      <c r="D962" t="n">
-        <v>99.181</v>
-      </c>
-      <c r="E962" t="n">
-        <v>99.626</v>
-      </c>
-      <c r="F962" t="n">
-        <v>99.247</v>
-      </c>
-    </row>
-    <row r="963" spans="1:7">
-      <c r="A963" t="s">
-        <v>968</v>
-      </c>
-      <c r="B963" t="n">
-        <v>99.64341666666667</v>
-      </c>
-      <c r="C963" t="n">
-        <v>99.724</v>
-      </c>
-      <c r="D963" t="n">
-        <v>99.54000000000001</v>
-      </c>
-      <c r="E963" t="n">
-        <v>99.684</v>
-      </c>
-      <c r="F963" t="n">
-        <v>99.592</v>
-      </c>
-    </row>
-    <row r="964" spans="1:7">
-      <c r="A964" t="s">
-        <v>969</v>
-      </c>
-      <c r="B964" t="n">
-        <v>98.73975</v>
-      </c>
-      <c r="C964" t="n">
-        <v>99.723</v>
-      </c>
-      <c r="D964" t="n">
-        <v>97.42100000000001</v>
-      </c>
-      <c r="E964" t="n">
-        <v>99.672</v>
-      </c>
-      <c r="F964" t="n">
-        <v>97.72199999999999</v>
-      </c>
-    </row>
-    <row r="965" spans="1:7">
-      <c r="A965" t="s">
-        <v>970</v>
-      </c>
-      <c r="B965" t="n">
-        <v>95.24466666666666</v>
-      </c>
-      <c r="C965" t="n">
-        <v>97.958</v>
-      </c>
-      <c r="D965" t="n">
-        <v>91.54600000000001</v>
-      </c>
-      <c r="E965" t="n">
-        <v>97.184</v>
-      </c>
-      <c r="F965" t="n">
-        <v>92.259</v>
-      </c>
-    </row>
-    <row r="966" spans="1:7">
-      <c r="A966" t="s">
-        <v>971</v>
-      </c>
-      <c r="B966" t="n">
-        <v>95.94725</v>
-      </c>
-      <c r="C966" t="n">
-        <v>97.319</v>
-      </c>
-      <c r="D966" t="n">
-        <v>93.13</v>
-      </c>
-      <c r="E966" t="n">
-        <v>97.208</v>
-      </c>
-      <c r="F966" t="n">
-        <v>93.45399999999999</v>
-      </c>
-    </row>
-    <row r="967" spans="1:7">
-      <c r="A967" t="s">
-        <v>972</v>
-      </c>
-      <c r="B967" t="n">
-        <v>97.83341666666666</v>
-      </c>
-      <c r="C967" t="n">
-        <v>99.325</v>
-      </c>
-      <c r="D967" t="n">
-        <v>94.494</v>
-      </c>
-      <c r="E967" t="n">
-        <v>99.271</v>
-      </c>
-      <c r="F967" t="n">
-        <v>95.215</v>
-      </c>
-    </row>
-    <row r="968" spans="1:7">
-      <c r="A968" t="s">
-        <v>973</v>
-      </c>
-      <c r="B968" t="n">
-        <v>99.47141666666667</v>
-      </c>
-      <c r="C968" t="n">
-        <v>99.62</v>
-      </c>
-      <c r="D968" t="n">
-        <v>99.27200000000001</v>
-      </c>
-      <c r="E968" t="n">
-        <v>99.569</v>
-      </c>
-      <c r="F968" t="n">
-        <v>99.331</v>
-      </c>
-    </row>
-    <row r="969" spans="1:7">
-      <c r="A969" t="s">
-        <v>974</v>
-      </c>
-      <c r="B969" t="n">
-        <v>99.6455</v>
-      </c>
-      <c r="C969" t="n">
-        <v>99.739</v>
-      </c>
-      <c r="D969" t="n">
-        <v>99.542</v>
-      </c>
-      <c r="E969" t="n">
-        <v>99.69</v>
-      </c>
-      <c r="F969" t="n">
-        <v>99.58799999999999</v>
-      </c>
-    </row>
-    <row r="970" spans="1:7">
-      <c r="A970" t="s">
-        <v>975</v>
-      </c>
-      <c r="B970" t="n">
-        <v>99.72225</v>
-      </c>
-      <c r="C970" t="n">
-        <v>99.789</v>
-      </c>
-      <c r="D970" t="n">
-        <v>99.639</v>
-      </c>
-      <c r="E970" t="n">
-        <v>99.752</v>
-      </c>
-      <c r="F970" t="n">
-        <v>99.69199999999999</v>
-      </c>
-    </row>
-    <row r="971" spans="1:7">
-      <c r="A971" t="s">
-        <v>976</v>
-      </c>
-      <c r="B971" t="n">
-        <v>99.72833333333334</v>
-      </c>
-      <c r="C971" t="n">
-        <v>99.789</v>
-      </c>
-      <c r="D971" t="n">
-        <v>99.622</v>
-      </c>
-      <c r="E971" t="n">
-        <v>99.765</v>
-      </c>
-      <c r="F971" t="n">
-        <v>99.67400000000001</v>
-      </c>
-    </row>
-    <row r="972" spans="1:7">
-      <c r="A972" t="s">
-        <v>977</v>
-      </c>
-      <c r="B972" t="n">
-        <v>99.74791666666667</v>
-      </c>
-      <c r="C972" t="n">
-        <v>99.791</v>
-      </c>
-      <c r="D972" t="n">
-        <v>99.672</v>
-      </c>
-      <c r="E972" t="n">
-        <v>99.768</v>
-      </c>
-      <c r="F972" t="n">
-        <v>99.70699999999999</v>
-      </c>
-    </row>
-    <row r="973" spans="1:7">
-      <c r="A973" t="s">
-        <v>978</v>
-      </c>
-      <c r="B973" t="n">
-        <v>99.74641666666666</v>
-      </c>
-      <c r="C973" t="n">
-        <v>99.79000000000001</v>
-      </c>
-      <c r="D973" t="n">
-        <v>99.572</v>
-      </c>
-      <c r="E973" t="n">
-        <v>99.774</v>
-      </c>
-      <c r="F973" t="n">
-        <v>99.69499999999999</v>
-      </c>
-    </row>
-    <row r="974" spans="1:7">
-      <c r="A974" t="s">
-        <v>979</v>
-      </c>
-      <c r="B974" t="n">
-        <v>99.57541666666667</v>
-      </c>
-      <c r="C974" t="n">
-        <v>99.748</v>
-      </c>
-      <c r="D974" t="n">
-        <v>99.242</v>
-      </c>
-      <c r="E974" t="n">
-        <v>99.687</v>
-      </c>
-      <c r="F974" t="n">
-        <v>99.315</v>
-      </c>
-    </row>
-    <row r="975" spans="1:7">
-      <c r="A975" t="s">
-        <v>980</v>
-      </c>
-      <c r="B975" t="n">
-        <v>99.54108333333333</v>
-      </c>
-      <c r="C975" t="n">
-        <v>99.771</v>
-      </c>
-      <c r="D975" t="n">
-        <v>99.148</v>
-      </c>
-      <c r="E975" t="n">
-        <v>99.71599999999999</v>
-      </c>
-      <c r="F975" t="n">
-        <v>99.246</v>
-      </c>
-    </row>
-    <row r="976" spans="1:7">
-      <c r="A976" t="s">
-        <v>981</v>
-      </c>
-      <c r="B976" t="n">
-        <v>99.55208333333333</v>
-      </c>
-      <c r="C976" t="n">
-        <v>99.723</v>
-      </c>
-      <c r="D976" t="n">
-        <v>99.376</v>
-      </c>
-      <c r="E976" t="n">
-        <v>99.669</v>
-      </c>
-      <c r="F976" t="n">
-        <v>99.431</v>
-      </c>
-    </row>
-    <row r="977" spans="1:7">
-      <c r="A977" t="s">
-        <v>982</v>
-      </c>
-      <c r="B977" t="n">
-        <v>99.69133333333333</v>
-      </c>
-      <c r="C977" t="n">
-        <v>99.75700000000001</v>
-      </c>
-      <c r="D977" t="n">
-        <v>99.62</v>
-      </c>
-      <c r="E977" t="n">
-        <v>99.723</v>
-      </c>
-      <c r="F977" t="n">
-        <v>99.658</v>
-      </c>
-    </row>
-    <row r="978" spans="1:7">
-      <c r="A978" t="s">
-        <v>983</v>
-      </c>
-      <c r="B978" t="n">
-        <v>99.626</v>
-      </c>
-      <c r="C978" t="n">
-        <v>99.71899999999999</v>
-      </c>
-      <c r="D978" t="n">
-        <v>99.48699999999999</v>
-      </c>
-      <c r="E978" t="n">
-        <v>99.67</v>
-      </c>
-      <c r="F978" t="n">
-        <v>99.547</v>
-      </c>
-    </row>
-    <row r="979" spans="1:7">
-      <c r="A979" t="s">
-        <v>984</v>
-      </c>
-      <c r="B979" t="n">
-        <v>99.64166666666667</v>
-      </c>
-      <c r="C979" t="n">
-        <v>99.72499999999999</v>
-      </c>
-      <c r="D979" t="n">
-        <v>99.423</v>
-      </c>
-      <c r="E979" t="n">
-        <v>99.673</v>
-      </c>
-      <c r="F979" t="n">
-        <v>99.569</v>
-      </c>
-    </row>
-    <row r="980" spans="1:7">
-      <c r="A980" t="s">
-        <v>985</v>
-      </c>
-      <c r="B980" t="n">
-        <v>99.32725000000001</v>
-      </c>
-      <c r="C980" t="n">
-        <v>99.557</v>
-      </c>
-      <c r="D980" t="n">
-        <v>98.95</v>
-      </c>
-      <c r="E980" t="n">
-        <v>99.465</v>
-      </c>
-      <c r="F980" t="n">
-        <v>99.06100000000001</v>
-      </c>
-    </row>
-    <row r="981" spans="1:7">
-      <c r="A981" t="s">
-        <v>986</v>
-      </c>
-      <c r="B981" t="n">
-        <v>99.49424999999999</v>
-      </c>
-      <c r="C981" t="n">
-        <v>99.61799999999999</v>
-      </c>
-      <c r="D981" t="n">
-        <v>99.37</v>
-      </c>
-      <c r="E981" t="n">
-        <v>99.532</v>
-      </c>
-      <c r="F981" t="n">
-        <v>99.422</v>
-      </c>
-    </row>
-    <row r="982" spans="1:7">
-      <c r="A982" t="s">
-        <v>987</v>
-      </c>
-      <c r="B982" t="n">
-        <v>99.44766666666666</v>
-      </c>
-      <c r="C982" t="n">
-        <v>99.621</v>
-      </c>
-      <c r="D982" t="n">
-        <v>99.27800000000001</v>
-      </c>
-      <c r="E982" t="n">
-        <v>99.498</v>
-      </c>
-      <c r="F982" t="n">
-        <v>99.34</v>
-      </c>
-    </row>
-    <row r="983" spans="1:7">
-      <c r="A983" t="s">
-        <v>988</v>
-      </c>
-      <c r="B983" t="n">
-        <v>99.464</v>
-      </c>
-      <c r="C983" t="n">
-        <v>99.622</v>
-      </c>
-      <c r="D983" t="n">
-        <v>99.233</v>
-      </c>
-      <c r="E983" t="n">
-        <v>99.529</v>
-      </c>
-      <c r="F983" t="n">
-        <v>99.41500000000001</v>
-      </c>
-    </row>
-    <row r="984" spans="1:7">
-      <c r="A984" t="s">
-        <v>989</v>
-      </c>
-      <c r="B984" t="n">
-        <v>99.39366666666666</v>
-      </c>
-      <c r="C984" t="n">
-        <v>99.593</v>
-      </c>
-      <c r="D984" t="n">
-        <v>99.19799999999999</v>
-      </c>
-      <c r="E984" t="n">
-        <v>99.497</v>
-      </c>
-      <c r="F984" t="n">
-        <v>99.256</v>
-      </c>
-    </row>
-    <row r="985" spans="1:7">
-      <c r="A985" t="s">
-        <v>990</v>
-      </c>
-      <c r="B985" t="n">
-        <v>99.45516666666667</v>
-      </c>
-      <c r="C985" t="n">
-        <v>99.621</v>
-      </c>
-      <c r="D985" t="n">
-        <v>99.291</v>
-      </c>
-      <c r="E985" t="n">
-        <v>99.536</v>
-      </c>
-      <c r="F985" t="n">
-        <v>99.354</v>
-      </c>
-    </row>
-    <row r="986" spans="1:7">
-      <c r="A986" t="s">
-        <v>991</v>
-      </c>
-      <c r="B986" t="n">
-        <v>99.56191666666666</v>
-      </c>
-      <c r="C986" t="n">
-        <v>99.654</v>
-      </c>
-      <c r="D986" t="n">
-        <v>99.47199999999999</v>
-      </c>
-      <c r="E986" t="n">
-        <v>99.59</v>
-      </c>
-      <c r="F986" t="n">
-        <v>99.521</v>
-      </c>
-    </row>
-    <row r="987" spans="1:7">
-      <c r="A987" t="s">
-        <v>992</v>
-      </c>
-      <c r="B987" t="n">
-        <v>99.59266666666667</v>
-      </c>
-      <c r="C987" t="n">
-        <v>99.688</v>
-      </c>
-      <c r="D987" t="n">
-        <v>99.494</v>
-      </c>
-      <c r="E987" t="n">
-        <v>99.63800000000001</v>
-      </c>
-      <c r="F987" t="n">
-        <v>99.52800000000001</v>
-      </c>
-    </row>
-    <row r="988" spans="1:7">
-      <c r="A988" t="s">
-        <v>993</v>
-      </c>
-      <c r="B988" t="n">
-        <v>99.699</v>
-      </c>
-      <c r="C988" t="n">
-        <v>99.789</v>
-      </c>
-      <c r="D988" t="n">
-        <v>99.57599999999999</v>
-      </c>
-      <c r="E988" t="n">
-        <v>99.73399999999999</v>
-      </c>
-      <c r="F988" t="n">
-        <v>99.623</v>
-      </c>
-    </row>
-    <row r="989" spans="1:7">
-      <c r="A989" t="s">
-        <v>994</v>
-      </c>
-      <c r="B989" t="n">
-        <v>99.76566666666666</v>
-      </c>
-      <c r="C989" t="n">
-        <v>99.789</v>
-      </c>
-      <c r="D989" t="n">
-        <v>99.70099999999999</v>
-      </c>
-      <c r="E989" t="n">
-        <v>99.77500000000001</v>
-      </c>
-      <c r="F989" t="n">
-        <v>99.746</v>
-      </c>
-    </row>
-    <row r="990" spans="1:7">
-      <c r="A990" t="s">
-        <v>995</v>
-      </c>
-      <c r="B990" t="n">
-        <v>99.78008333333334</v>
-      </c>
-      <c r="C990" t="n">
-        <v>99.791</v>
-      </c>
-      <c r="D990" t="n">
-        <v>99.736</v>
-      </c>
-      <c r="E990" t="n">
-        <v>99.78400000000001</v>
-      </c>
-      <c r="F990" t="n">
-        <v>99.774</v>
-      </c>
-    </row>
-    <row r="991" spans="1:7">
-      <c r="A991" t="s">
-        <v>996</v>
-      </c>
-      <c r="B991" t="n">
-        <v>99.77975000000001</v>
-      </c>
-      <c r="C991" t="n">
-        <v>99.79000000000001</v>
-      </c>
-      <c r="D991" t="n">
-        <v>99.767</v>
-      </c>
-      <c r="E991" t="n">
-        <v>99.783</v>
-      </c>
-      <c r="F991" t="n">
-        <v>99.776</v>
-      </c>
-    </row>
-    <row r="992" spans="1:7">
-      <c r="A992" t="s">
-        <v>997</v>
-      </c>
-      <c r="B992" t="n">
-        <v>99.77991666666667</v>
-      </c>
-      <c r="C992" t="n">
-        <v>99.792</v>
-      </c>
-      <c r="D992" t="n">
-        <v>99.767</v>
-      </c>
-      <c r="E992" t="n">
-        <v>99.783</v>
-      </c>
-      <c r="F992" t="n">
-        <v>99.777</v>
-      </c>
-    </row>
-    <row r="993" spans="1:7">
-      <c r="A993" t="s">
-        <v>998</v>
-      </c>
-      <c r="B993" t="n">
-        <v>99.78100000000001</v>
-      </c>
-      <c r="C993" t="n">
-        <v>99.791</v>
-      </c>
-      <c r="D993" t="n">
-        <v>99.768</v>
-      </c>
-      <c r="E993" t="n">
-        <v>99.785</v>
-      </c>
-      <c r="F993" t="n">
-        <v>99.77800000000001</v>
-      </c>
-    </row>
-    <row r="994" spans="1:7">
-      <c r="A994" t="s">
-        <v>999</v>
-      </c>
-      <c r="B994" t="n">
-        <v>99.78066666666666</v>
-      </c>
-      <c r="C994" t="n">
-        <v>99.79000000000001</v>
-      </c>
-      <c r="D994" t="n">
-        <v>99.767</v>
-      </c>
-      <c r="E994" t="n">
-        <v>99.783</v>
-      </c>
-      <c r="F994" t="n">
-        <v>99.77800000000001</v>
-      </c>
-    </row>
-    <row r="995" spans="1:7">
-      <c r="A995" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B995" t="n">
-        <v>99.77991666666667</v>
-      </c>
-      <c r="C995" t="n">
-        <v>99.79000000000001</v>
-      </c>
-      <c r="D995" t="n">
-        <v>99.767</v>
-      </c>
-      <c r="E995" t="n">
-        <v>99.783</v>
-      </c>
-      <c r="F995" t="n">
-        <v>99.777</v>
-      </c>
-    </row>
-    <row r="996" spans="1:7">
-      <c r="A996" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B996" t="n">
-        <v>99.78016666666667</v>
-      </c>
-      <c r="C996" t="n">
-        <v>99.791</v>
-      </c>
-      <c r="D996" t="n">
-        <v>99.767</v>
-      </c>
-      <c r="E996" t="n">
-        <v>99.78400000000001</v>
-      </c>
-      <c r="F996" t="n">
-        <v>99.777</v>
-      </c>
-    </row>
-    <row r="997" spans="1:7">
-      <c r="A997" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B997" t="n">
-        <v>99.73733333333334</v>
-      </c>
-      <c r="C997" t="n">
-        <v>99.792</v>
-      </c>
-      <c r="D997" t="n">
-        <v>99.553</v>
-      </c>
-      <c r="E997" t="n">
-        <v>99.783</v>
-      </c>
-      <c r="F997" t="n">
-        <v>99.593</v>
-      </c>
-    </row>
-    <row r="998" spans="1:7">
-      <c r="A998" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B998" t="n">
-        <v>99.78025</v>
-      </c>
-      <c r="C998" t="n">
-        <v>99.79300000000001</v>
-      </c>
-      <c r="D998" t="n">
-        <v>99.758</v>
-      </c>
-      <c r="E998" t="n">
-        <v>99.783</v>
-      </c>
-      <c r="F998" t="n">
-        <v>99.77800000000001</v>
-      </c>
-    </row>
-    <row r="999" spans="1:7">
-      <c r="A999" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B999" t="n">
-        <v>99.78116666666666</v>
-      </c>
-      <c r="C999" t="n">
-        <v>99.791</v>
-      </c>
-      <c r="D999" t="n">
-        <v>99.768</v>
-      </c>
-      <c r="E999" t="n">
-        <v>99.783</v>
-      </c>
-      <c r="F999" t="n">
-        <v>99.777</v>
-      </c>
-    </row>
-    <row r="1000" spans="1:7">
-      <c r="A1000" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B1000" t="n">
-        <v>99.76908333333333</v>
-      </c>
-      <c r="C1000" t="n">
-        <v>99.791</v>
-      </c>
-      <c r="D1000" t="n">
-        <v>99.67100000000001</v>
-      </c>
-      <c r="E1000" t="n">
-        <v>99.78100000000001</v>
-      </c>
-      <c r="F1000" t="n">
-        <v>99.70999999999999</v>
-      </c>
-    </row>
-    <row r="1001" spans="1:7">
-      <c r="A1001" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B1001" t="n">
-        <v>99.77716666666667</v>
-      </c>
-      <c r="C1001" t="n">
-        <v>99.791</v>
-      </c>
-      <c r="D1001" t="n">
-        <v>99.709</v>
-      </c>
-      <c r="E1001" t="n">
-        <v>99.783</v>
-      </c>
-      <c r="F1001" t="n">
-        <v>99.754</v>
-      </c>
-    </row>
-    <row r="1002" spans="1:7">
-      <c r="A1002" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B1002" t="n">
-        <v>99.78033333333333</v>
-      </c>
-      <c r="C1002" t="n">
-        <v>99.791</v>
-      </c>
-      <c r="D1002" t="n">
-        <v>99.767</v>
-      </c>
-      <c r="E1002" t="n">
-        <v>99.783</v>
-      </c>
-      <c r="F1002" t="n">
-        <v>99.777</v>
-      </c>
-    </row>
-    <row r="1003" spans="1:7">
-      <c r="A1003" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B1003" t="n">
-        <v>99.76066666666667</v>
-      </c>
-      <c r="C1003" t="n">
-        <v>99.791</v>
-      </c>
-      <c r="D1003" t="n">
-        <v>99.642</v>
-      </c>
-      <c r="E1003" t="n">
-        <v>99.78400000000001</v>
-      </c>
-      <c r="F1003" t="n">
-        <v>99.697</v>
-      </c>
-    </row>
-    <row r="1004" spans="1:7">
-      <c r="A1004" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B1004" t="n">
-        <v>99.75616666666667</v>
-      </c>
-      <c r="C1004" t="n">
-        <v>99.791</v>
-      </c>
-      <c r="D1004" t="n">
-        <v>99.589</v>
-      </c>
-      <c r="E1004" t="n">
-        <v>99.78100000000001</v>
-      </c>
-      <c r="F1004" t="n">
-        <v>99.712</v>
-      </c>
-    </row>
-    <row r="1005" spans="1:7">
-      <c r="A1005" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B1005" t="n">
-        <v>99.75108333333333</v>
-      </c>
-      <c r="C1005" t="n">
-        <v>99.79300000000001</v>
-      </c>
-      <c r="D1005" t="n">
-        <v>99.642</v>
-      </c>
-      <c r="E1005" t="n">
-        <v>99.777</v>
-      </c>
-      <c r="F1005" t="n">
-        <v>99.721</v>
-      </c>
-    </row>
-    <row r="1006" spans="1:7">
-      <c r="A1006" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B1006" t="n">
-        <v>99.76966666666667</v>
-      </c>
-      <c r="C1006" t="n">
-        <v>99.792</v>
-      </c>
-      <c r="D1006" t="n">
-        <v>99.67400000000001</v>
-      </c>
-      <c r="E1006" t="n">
-        <v>99.783</v>
-      </c>
-      <c r="F1006" t="n">
-        <v>99.756</v>
-      </c>
-    </row>
-    <row r="1007" spans="1:7">
-      <c r="A1007" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B1007" t="n">
-        <v>99.77066666666667</v>
-      </c>
-      <c r="C1007" t="n">
-        <v>99.79300000000001</v>
-      </c>
-      <c r="D1007" t="n">
-        <v>99.70399999999999</v>
-      </c>
-      <c r="E1007" t="n">
-        <v>99.779</v>
-      </c>
-      <c r="F1007" t="n">
-        <v>99.765</v>
-      </c>
-    </row>
-    <row r="1008" spans="1:7">
-      <c r="A1008" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B1008" t="n">
-        <v>99.29949999999999</v>
-      </c>
-      <c r="C1008" t="n">
-        <v>99.791</v>
-      </c>
-      <c r="D1008" t="n">
-        <v>97.818</v>
-      </c>
-      <c r="E1008" t="n">
-        <v>99.73999999999999</v>
-      </c>
-      <c r="F1008" t="n">
-        <v>98.395</v>
-      </c>
-    </row>
-    <row r="1009" spans="1:7">
-      <c r="A1009" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B1009" t="n">
-        <v>96.958</v>
-      </c>
-      <c r="C1009" t="n">
-        <v>98.69799999999999</v>
-      </c>
-      <c r="D1009" t="n">
-        <v>93.72</v>
-      </c>
-      <c r="E1009" t="n">
-        <v>98.364</v>
-      </c>
-      <c r="F1009" t="n">
-        <v>94.57299999999999</v>
-      </c>
-    </row>
-    <row r="1010" spans="1:7">
-      <c r="A1010" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B1010" t="n">
-        <v>97.8145</v>
-      </c>
-      <c r="C1010" t="n">
-        <v>98.43600000000001</v>
-      </c>
-      <c r="D1010" t="n">
-        <v>95.822</v>
-      </c>
-      <c r="E1010" t="n">
-        <v>98.306</v>
-      </c>
-      <c r="F1010" t="n">
-        <v>96.428</v>
-      </c>
-    </row>
-    <row r="1011" spans="1:7">
-      <c r="A1011" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B1011" t="n">
-        <v>98.98991666666667</v>
-      </c>
-      <c r="C1011" t="n">
-        <v>99.258</v>
-      </c>
-      <c r="D1011" t="n">
-        <v>98.455</v>
-      </c>
-      <c r="E1011" t="n">
-        <v>99.16500000000001</v>
-      </c>
-      <c r="F1011" t="n">
-        <v>98.67</v>
-      </c>
-    </row>
-    <row r="1012" spans="1:7">
-      <c r="A1012" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B1012" t="n">
-        <v>99.14308333333334</v>
-      </c>
-      <c r="C1012" t="n">
-        <v>99.377</v>
-      </c>
-      <c r="D1012" t="n">
-        <v>98.913</v>
-      </c>
-      <c r="E1012" t="n">
-        <v>99.31</v>
-      </c>
-      <c r="F1012" t="n">
-        <v>99.048</v>
-      </c>
-    </row>
-    <row r="1013" spans="1:7">
-      <c r="A1013" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B1013" t="n">
-        <v>99.37224999999999</v>
-      </c>
-      <c r="C1013" t="n">
-        <v>99.58799999999999</v>
-      </c>
-      <c r="D1013" t="n">
-        <v>98.916</v>
-      </c>
-      <c r="E1013" t="n">
-        <v>99.538</v>
-      </c>
-      <c r="F1013" t="n">
-        <v>98.982</v>
-      </c>
-    </row>
-    <row r="1014" spans="1:7">
-      <c r="A1014" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B1014" t="n">
-        <v>99.47641666666667</v>
-      </c>
-      <c r="C1014" t="n">
-        <v>99.624</v>
-      </c>
-      <c r="D1014" t="n">
-        <v>99.116</v>
-      </c>
-      <c r="E1014" t="n">
-        <v>99.595</v>
-      </c>
-      <c r="F1014" t="n">
-        <v>99.196</v>
-      </c>
-    </row>
-    <row r="1015" spans="1:7">
-      <c r="A1015" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B1015" t="n">
-        <v>99.658</v>
-      </c>
-      <c r="C1015" t="n">
-        <v>99.752</v>
-      </c>
-      <c r="D1015" t="n">
-        <v>99.57599999999999</v>
-      </c>
-      <c r="E1015" t="n">
-        <v>99.678</v>
-      </c>
-      <c r="F1015" t="n">
-        <v>99.613</v>
-      </c>
-    </row>
-    <row r="1016" spans="1:7">
-      <c r="A1016" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B1016" t="n">
-        <v>99.55691666666667</v>
-      </c>
-      <c r="C1016" t="n">
-        <v>99.79000000000001</v>
-      </c>
-      <c r="D1016" t="n">
-        <v>98.949</v>
-      </c>
-      <c r="E1016" t="n">
-        <v>99.726</v>
-      </c>
-      <c r="F1016" t="n">
-        <v>99.078</v>
-      </c>
-    </row>
-    <row r="1017" spans="1:7">
-      <c r="A1017" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B1017" t="n">
-        <v>98.87766666666667</v>
-      </c>
-      <c r="C1017" t="n">
-        <v>99.39100000000001</v>
-      </c>
-      <c r="D1017" t="n">
-        <v>98.062</v>
-      </c>
-      <c r="E1017" t="n">
-        <v>99.26300000000001</v>
-      </c>
-      <c r="F1017" t="n">
-        <v>98.252</v>
-      </c>
-    </row>
-    <row r="1018" spans="1:7">
-      <c r="A1018" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B1018" t="n">
-        <v>99.29291666666667</v>
-      </c>
-      <c r="C1018" t="n">
-        <v>99.593</v>
-      </c>
-      <c r="D1018" t="n">
-        <v>98.334</v>
-      </c>
-      <c r="E1018" t="n">
-        <v>99.53</v>
-      </c>
-      <c r="F1018" t="n">
-        <v>98.511</v>
-      </c>
-    </row>
-    <row r="1019" spans="1:7">
-      <c r="A1019" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B1019" t="n">
-        <v>99.58074999999999</v>
-      </c>
-      <c r="C1019" t="n">
-        <v>99.67700000000001</v>
-      </c>
-      <c r="D1019" t="n">
-        <v>99.508</v>
-      </c>
-      <c r="E1019" t="n">
-        <v>99.63500000000001</v>
-      </c>
-      <c r="F1019" t="n">
-        <v>99.553</v>
-      </c>
-    </row>
-    <row r="1020" spans="1:7">
-      <c r="A1020" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B1020" t="n">
-        <v>99.23833333333333</v>
-      </c>
-      <c r="C1020" t="n">
-        <v>99.56</v>
-      </c>
-      <c r="D1020" t="n">
-        <v>98.88500000000001</v>
-      </c>
-      <c r="E1020" t="n">
-        <v>99.53100000000001</v>
-      </c>
-      <c r="F1020" t="n">
-        <v>98.937</v>
-      </c>
-    </row>
-    <row r="1021" spans="1:7">
-      <c r="A1021" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B1021" t="n">
-        <v>99.52341666666666</v>
-      </c>
-      <c r="C1021" t="n">
-        <v>99.626</v>
-      </c>
-      <c r="D1021" t="n">
-        <v>99.27800000000001</v>
-      </c>
-      <c r="E1021" t="n">
-        <v>99.586</v>
-      </c>
-      <c r="F1021" t="n">
-        <v>99.333</v>
-      </c>
-    </row>
-    <row r="1022" spans="1:7">
-      <c r="A1022" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B1022" t="n">
-        <v>99.31033333333333</v>
-      </c>
-      <c r="C1022" t="n">
-        <v>99.60899999999999</v>
-      </c>
-      <c r="D1022" t="n">
-        <v>98.995</v>
-      </c>
-      <c r="E1022" t="n">
-        <v>99.578</v>
-      </c>
-      <c r="F1022" t="n">
-        <v>99.059</v>
-      </c>
-    </row>
-    <row r="1023" spans="1:7">
-      <c r="A1023" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B1023" t="n">
-        <v>99.30816666666666</v>
-      </c>
-      <c r="C1023" t="n">
-        <v>99.592</v>
-      </c>
-      <c r="D1023" t="n">
-        <v>98.78700000000001</v>
-      </c>
-      <c r="E1023" t="n">
-        <v>99.538</v>
-      </c>
-      <c r="F1023" t="n">
-        <v>98.88800000000001</v>
-      </c>
-    </row>
-    <row r="1024" spans="1:7">
-      <c r="A1024" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B1024" t="n">
-        <v>99.45266666666667</v>
-      </c>
-      <c r="C1024" t="n">
-        <v>99.68600000000001</v>
-      </c>
-      <c r="D1024" t="n">
-        <v>98.93300000000001</v>
-      </c>
-      <c r="E1024" t="n">
-        <v>99.616</v>
-      </c>
-      <c r="F1024" t="n">
-        <v>99.102</v>
-      </c>
-    </row>
-    <row r="1025" spans="1:7">
-      <c r="A1025" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B1025" t="n">
-        <v>96.74941666666666</v>
-      </c>
-      <c r="C1025" t="n">
-        <v>98.916</v>
-      </c>
-      <c r="D1025" t="n">
-        <v>93.09699999999999</v>
-      </c>
-      <c r="E1025" t="n">
-        <v>98.64700000000001</v>
-      </c>
-      <c r="F1025" t="n">
-        <v>93.913</v>
-      </c>
-    </row>
-    <row r="1026" spans="1:7">
-      <c r="A1026" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B1026" t="n">
-        <v>94.50966666666666</v>
-      </c>
-      <c r="C1026" t="n">
-        <v>95.839</v>
-      </c>
-      <c r="D1026" t="n">
-        <v>92.384</v>
-      </c>
-      <c r="E1026" t="n">
-        <v>95.379</v>
-      </c>
-      <c r="F1026" t="n">
-        <v>92.91800000000001</v>
-      </c>
-    </row>
-    <row r="1027" spans="1:7">
-      <c r="A1027" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B1027" t="n">
-        <v>95.32375</v>
-      </c>
-      <c r="C1027" t="n">
-        <v>97.384</v>
-      </c>
-      <c r="D1027" t="n">
-        <v>93.31100000000001</v>
-      </c>
-      <c r="E1027" t="n">
-        <v>97.044</v>
-      </c>
-      <c r="F1027" t="n">
-        <v>93.672</v>
-      </c>
-    </row>
-    <row r="1028" spans="1:7">
-      <c r="A1028" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B1028" t="n">
-        <v>96.33383333333333</v>
-      </c>
-      <c r="C1028" t="n">
-        <v>98.146</v>
-      </c>
-      <c r="D1028" t="n">
-        <v>92.10599999999999</v>
-      </c>
-      <c r="E1028" t="n">
-        <v>98.02500000000001</v>
-      </c>
-      <c r="F1028" t="n">
-        <v>92.629</v>
-      </c>
-    </row>
-    <row r="1029" spans="1:7">
-      <c r="A1029" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B1029" t="n">
-        <v>97.95391666666667</v>
-      </c>
-      <c r="C1029" t="n">
-        <v>98.771</v>
-      </c>
-      <c r="D1029" t="n">
-        <v>95.499</v>
-      </c>
-      <c r="E1029" t="n">
-        <v>98.554</v>
-      </c>
-      <c r="F1029" t="n">
-        <v>95.746</v>
-      </c>
-    </row>
-    <row r="1030" spans="1:7">
-      <c r="A1030" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B1030" t="n">
-        <v>90.57716666666667</v>
-      </c>
-      <c r="C1030" t="n">
-        <v>96.068</v>
-      </c>
-      <c r="D1030" t="n">
-        <v>83.194</v>
-      </c>
-      <c r="E1030" t="n">
-        <v>94.648</v>
-      </c>
-      <c r="F1030" t="n">
-        <v>85.252</v>
-      </c>
-    </row>
-    <row r="1031" spans="1:7">
-      <c r="A1031" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B1031" t="n">
-        <v>86.62824999999999</v>
-      </c>
-      <c r="C1031" t="n">
-        <v>89.807</v>
-      </c>
-      <c r="D1031" t="n">
-        <v>81.76300000000001</v>
-      </c>
-      <c r="E1031" t="n">
-        <v>88.238</v>
-      </c>
-      <c r="F1031" t="n">
-        <v>84.03400000000001</v>
-      </c>
-    </row>
-    <row r="1032" spans="1:7">
-      <c r="A1032" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B1032" t="n">
-        <v>90.40275</v>
-      </c>
-      <c r="C1032" t="n">
-        <v>94.968</v>
-      </c>
-      <c r="D1032" t="n">
-        <v>84.233</v>
-      </c>
-      <c r="E1032" t="n">
-        <v>93.98099999999999</v>
-      </c>
-      <c r="F1032" t="n">
-        <v>86.244</v>
-      </c>
-    </row>
-    <row r="1033" spans="1:7">
-      <c r="A1033" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B1033" t="n">
-        <v>87.24991666666666</v>
-      </c>
-      <c r="C1033" t="n">
-        <v>90.703</v>
-      </c>
-      <c r="D1033" t="n">
-        <v>83.42700000000001</v>
-      </c>
-      <c r="E1033" t="n">
-        <v>90.163</v>
-      </c>
-      <c r="F1033" t="n">
-        <v>85.178</v>
-      </c>
-    </row>
-    <row r="1034" spans="1:7">
-      <c r="A1034" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B1034" t="n">
-        <v>88.50791666666667</v>
-      </c>
-      <c r="C1034" t="n">
-        <v>90.739</v>
-      </c>
-      <c r="D1034" t="n">
-        <v>86.075</v>
-      </c>
-      <c r="E1034" t="n">
-        <v>89.69799999999999</v>
-      </c>
-      <c r="F1034" t="n">
-        <v>87.355</v>
-      </c>
-    </row>
-    <row r="1035" spans="1:7">
-      <c r="A1035" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B1035" t="n">
-        <v>90.25558333333333</v>
-      </c>
-      <c r="C1035" t="n">
-        <v>95.217</v>
-      </c>
-      <c r="D1035" t="n">
-        <v>85.381</v>
-      </c>
-      <c r="E1035" t="n">
-        <v>95.017</v>
-      </c>
-      <c r="F1035" t="n">
-        <v>86.48</v>
-      </c>
-    </row>
-    <row r="1036" spans="1:7">
-      <c r="A1036" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B1036" t="n">
-        <v>93.63633333333334</v>
-      </c>
-      <c r="C1036" t="n">
-        <v>95.465</v>
-      </c>
-      <c r="D1036" t="n">
-        <v>90.36199999999999</v>
-      </c>
-      <c r="E1036" t="n">
-        <v>95.18300000000001</v>
-      </c>
-      <c r="F1036" t="n">
-        <v>90.88800000000001</v>
-      </c>
-    </row>
-    <row r="1037" spans="1:7">
-      <c r="A1037" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B1037" t="n">
-        <v>92.7915</v>
-      </c>
-      <c r="C1037" t="n">
-        <v>94.938</v>
-      </c>
-      <c r="D1037" t="n">
-        <v>90.199</v>
-      </c>
-      <c r="E1037" t="n">
-        <v>94.518</v>
-      </c>
-      <c r="F1037" t="n">
-        <v>91.235</v>
-      </c>
-    </row>
-    <row r="1038" spans="1:7">
-      <c r="A1038" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B1038" t="n">
-        <v>94.10883333333334</v>
-      </c>
-      <c r="C1038" t="n">
-        <v>96.43000000000001</v>
-      </c>
-      <c r="D1038" t="n">
-        <v>92.205</v>
-      </c>
-      <c r="E1038" t="n">
-        <v>95.877</v>
-      </c>
-      <c r="F1038" t="n">
-        <v>92.553</v>
-      </c>
-    </row>
-    <row r="1039" spans="1:7">
-      <c r="A1039" t="s">
-        <v>1044</v>
-      </c>
-      <c r="B1039" t="n">
-        <v>96.43625</v>
-      </c>
-      <c r="C1039" t="n">
-        <v>98.89700000000001</v>
-      </c>
-      <c r="D1039" t="n">
-        <v>92.797</v>
-      </c>
-      <c r="E1039" t="n">
-        <v>98.729</v>
-      </c>
-      <c r="F1039" t="n">
-        <v>93.633</v>
-      </c>
-    </row>
-    <row r="1040" spans="1:7">
-      <c r="A1040" t="s">
-        <v>1045</v>
-      </c>
-      <c r="B1040" t="n">
-        <v>98.84766666666667</v>
-      </c>
-      <c r="C1040" t="n">
-        <v>99.081</v>
-      </c>
-      <c r="D1040" t="n">
-        <v>98.309</v>
-      </c>
-      <c r="E1040" t="n">
-        <v>99.02800000000001</v>
-      </c>
-      <c r="F1040" t="n">
-        <v>98.526</v>
-      </c>
-    </row>
-    <row r="1041" spans="1:7">
-      <c r="A1041" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B1041" t="n">
-        <v>99.00783333333334</v>
-      </c>
-      <c r="C1041" t="n">
-        <v>99.42700000000001</v>
-      </c>
-      <c r="D1041" t="n">
-        <v>98.505</v>
-      </c>
-      <c r="E1041" t="n">
-        <v>99.377</v>
-      </c>
-      <c r="F1041" t="n">
-        <v>98.56699999999999</v>
-      </c>
-    </row>
-    <row r="1042" spans="1:7">
-      <c r="A1042" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B1042" t="n">
-        <v>98.97041666666667</v>
-      </c>
-      <c r="C1042" t="n">
-        <v>99.422</v>
-      </c>
-      <c r="D1042" t="n">
-        <v>97.70999999999999</v>
-      </c>
-      <c r="E1042" t="n">
-        <v>99.38500000000001</v>
-      </c>
-      <c r="F1042" t="n">
-        <v>97.917</v>
-      </c>
-    </row>
-    <row r="1043" spans="1:7">
-      <c r="A1043" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B1043" t="n">
-        <v>98.30883333333334</v>
-      </c>
-      <c r="C1043" t="n">
-        <v>99.19199999999999</v>
-      </c>
-      <c r="D1043" t="n">
-        <v>97.479</v>
-      </c>
-      <c r="E1043" t="n">
-        <v>99.128</v>
-      </c>
-      <c r="F1043" t="n">
-        <v>97.66200000000001</v>
-      </c>
-    </row>
-    <row r="1044" spans="1:7">
-      <c r="A1044" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B1044" t="n">
-        <v>99.43975</v>
-      </c>
-      <c r="C1044" t="n">
-        <v>99.592</v>
-      </c>
-      <c r="D1044" t="n">
-        <v>99.14700000000001</v>
-      </c>
-      <c r="E1044" t="n">
-        <v>99.563</v>
-      </c>
-      <c r="F1044" t="n">
-        <v>99.233</v>
-      </c>
-    </row>
-    <row r="1045" spans="1:7">
-      <c r="A1045" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B1045" t="n">
-        <v>99.62808333333334</v>
-      </c>
-      <c r="C1045" t="n">
-        <v>99.723</v>
-      </c>
-      <c r="D1045" t="n">
-        <v>99.506</v>
-      </c>
-      <c r="E1045" t="n">
-        <v>99.664</v>
-      </c>
-      <c r="F1045" t="n">
-        <v>99.571</v>
-      </c>
-    </row>
-    <row r="1046" spans="1:7">
-      <c r="A1046" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B1046" t="n">
-        <v>99.71166666666667</v>
-      </c>
-      <c r="C1046" t="n">
-        <v>99.79000000000001</v>
-      </c>
-      <c r="D1046" t="n">
-        <v>99.637</v>
-      </c>
-      <c r="E1046" t="n">
-        <v>99.745</v>
-      </c>
-      <c r="F1046" t="n">
-        <v>99.673</v>
-      </c>
-    </row>
-    <row r="1047" spans="1:7">
-      <c r="A1047" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B1047" t="n">
-        <v>99.761</v>
-      </c>
-      <c r="C1047" t="n">
-        <v>99.792</v>
-      </c>
-      <c r="D1047" t="n">
-        <v>99.69</v>
-      </c>
-      <c r="E1047" t="n">
-        <v>99.77800000000001</v>
-      </c>
-      <c r="F1047" t="n">
-        <v>99.742</v>
-      </c>
-    </row>
-    <row r="1048" spans="1:7">
-      <c r="A1048" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B1048" t="n">
-        <v>99.77608333333333</v>
-      </c>
-      <c r="C1048" t="n">
-        <v>99.79000000000001</v>
-      </c>
-      <c r="D1048" t="n">
-        <v>99.733</v>
-      </c>
-      <c r="E1048" t="n">
-        <v>99.78100000000001</v>
-      </c>
-      <c r="F1048" t="n">
-        <v>99.77</v>
-      </c>
-    </row>
-    <row r="1049" spans="1:7">
-      <c r="A1049" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B1049" t="n">
-        <v>99.77925</v>
-      </c>
-      <c r="C1049" t="n">
-        <v>99.79000000000001</v>
-      </c>
-      <c r="D1049" t="n">
-        <v>99.75</v>
-      </c>
-      <c r="E1049" t="n">
-        <v>99.783</v>
-      </c>
-      <c r="F1049" t="n">
-        <v>99.776</v>
-      </c>
-    </row>
-    <row r="1050" spans="1:7">
-      <c r="A1050" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B1050" t="n">
-        <v>99.76758333333333</v>
-      </c>
-      <c r="C1050" t="n">
-        <v>99.79000000000001</v>
-      </c>
-      <c r="D1050" t="n">
-        <v>99.672</v>
-      </c>
-      <c r="E1050" t="n">
-        <v>99.78100000000001</v>
-      </c>
-      <c r="F1050" t="n">
-        <v>99.724</v>
-      </c>
-    </row>
-    <row r="1051" spans="1:7">
-      <c r="A1051" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B1051" t="n">
-        <v>99.77691666666666</v>
-      </c>
-      <c r="C1051" t="n">
-        <v>99.79000000000001</v>
-      </c>
-      <c r="D1051" t="n">
-        <v>99.73999999999999</v>
-      </c>
-      <c r="E1051" t="n">
-        <v>99.779</v>
-      </c>
-      <c r="F1051" t="n">
-        <v>99.77500000000001</v>
-      </c>
-    </row>
-    <row r="1052" spans="1:7">
-      <c r="A1052" t="s">
-        <v>1057</v>
-      </c>
-      <c r="B1052" t="n">
-        <v>99.77608333333333</v>
-      </c>
-      <c r="C1052" t="n">
-        <v>99.789</v>
-      </c>
-      <c r="D1052" t="n">
-        <v>99.738</v>
-      </c>
-      <c r="E1052" t="n">
-        <v>99.78100000000001</v>
-      </c>
-      <c r="F1052" t="n">
-        <v>99.77</v>
-      </c>
-    </row>
-    <row r="1053" spans="1:7">
-      <c r="A1053" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B1053" t="n">
-        <v>99.77549999999999</v>
-      </c>
-      <c r="C1053" t="n">
-        <v>99.788</v>
-      </c>
-      <c r="D1053" t="n">
-        <v>99.732</v>
-      </c>
-      <c r="E1053" t="n">
-        <v>99.78</v>
-      </c>
-      <c r="F1053" t="n">
-        <v>99.77200000000001</v>
-      </c>
-    </row>
-    <row r="1054" spans="1:7">
-      <c r="A1054" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B1054" t="n">
-        <v>99.77433333333333</v>
-      </c>
-      <c r="C1054" t="n">
-        <v>99.788</v>
-      </c>
-      <c r="D1054" t="n">
-        <v>99.715</v>
-      </c>
-      <c r="E1054" t="n">
-        <v>99.78</v>
-      </c>
-      <c r="F1054" t="n">
-        <v>99.76000000000001</v>
-      </c>
-    </row>
-    <row r="1055" spans="1:7">
-      <c r="A1055" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B1055" t="n">
-        <v>99.77716666666667</v>
-      </c>
-      <c r="C1055" t="n">
-        <v>99.788</v>
-      </c>
-      <c r="D1055" t="n">
-        <v>99.765</v>
-      </c>
-      <c r="E1055" t="n">
-        <v>99.78</v>
-      </c>
-      <c r="F1055" t="n">
-        <v>99.77500000000001</v>
-      </c>
-    </row>
-    <row r="1056" spans="1:7">
-      <c r="A1056" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B1056" t="n">
-        <v>99.77875</v>
-      </c>
-      <c r="C1056" t="n">
-        <v>99.789</v>
-      </c>
-      <c r="D1056" t="n">
-        <v>99.765</v>
-      </c>
-      <c r="E1056" t="n">
-        <v>99.78100000000001</v>
-      </c>
-      <c r="F1056" t="n">
-        <v>99.776</v>
-      </c>
-    </row>
-    <row r="1057" spans="1:7">
-      <c r="A1057" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B1057" t="n">
-        <v>99.78016666666667</v>
-      </c>
-      <c r="C1057" t="n">
-        <v>99.792</v>
-      </c>
-      <c r="D1057" t="n">
-        <v>99.767</v>
-      </c>
-      <c r="E1057" t="n">
-        <v>99.78400000000001</v>
-      </c>
-      <c r="F1057" t="n">
-        <v>99.77800000000001</v>
-      </c>
-    </row>
-    <row r="1058" spans="1:7">
-      <c r="A1058" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B1058" t="n">
-        <v>99.77833333333334</v>
-      </c>
-      <c r="C1058" t="n">
-        <v>99.79000000000001</v>
-      </c>
-      <c r="D1058" t="n">
-        <v>99.738</v>
-      </c>
-      <c r="E1058" t="n">
-        <v>99.782</v>
-      </c>
-      <c r="F1058" t="n">
-        <v>99.77</v>
-      </c>
-    </row>
-    <row r="1059" spans="1:7">
-      <c r="A1059" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B1059" t="n">
-        <v>99.01033333333334</v>
-      </c>
-      <c r="C1059" t="n">
-        <v>99.752</v>
-      </c>
-      <c r="D1059" t="n">
-        <v>98.42100000000001</v>
-      </c>
-      <c r="E1059" t="n">
-        <v>99.702</v>
-      </c>
-      <c r="F1059" t="n">
-        <v>98.54900000000001</v>
-      </c>
-    </row>
-    <row r="1060" spans="1:7">
-      <c r="A1060" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B1060" t="n">
-        <v>99.41</v>
-      </c>
-      <c r="C1060" t="n">
-        <v>99.756</v>
-      </c>
-      <c r="D1060" t="n">
-        <v>98.571</v>
-      </c>
-      <c r="E1060" t="n">
-        <v>99.69199999999999</v>
-      </c>
-      <c r="F1060" t="n">
-        <v>98.697</v>
-      </c>
-    </row>
-    <row r="1061" spans="1:7">
-      <c r="A1061" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B1061" t="n">
-        <v>99.64208333333333</v>
-      </c>
-      <c r="C1061" t="n">
-        <v>99.75700000000001</v>
-      </c>
-      <c r="D1061" t="n">
-        <v>99.27800000000001</v>
-      </c>
-      <c r="E1061" t="n">
-        <v>99.723</v>
-      </c>
-      <c r="F1061" t="n">
-        <v>99.379</v>
-      </c>
-    </row>
-    <row r="1062" spans="1:7">
-      <c r="A1062" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B1062" t="n">
-        <v>98.7595</v>
-      </c>
-      <c r="C1062" t="n">
-        <v>99.309</v>
-      </c>
-      <c r="D1062" t="n">
-        <v>98.136</v>
-      </c>
-      <c r="E1062" t="n">
-        <v>99.137</v>
-      </c>
-      <c r="F1062" t="n">
-        <v>98.364</v>
-      </c>
-    </row>
-    <row r="1063" spans="1:7">
-      <c r="A1063" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B1063" t="n">
-        <v>99.24416666666667</v>
-      </c>
-      <c r="C1063" t="n">
-        <v>99.39</v>
-      </c>
-      <c r="D1063" t="n">
-        <v>99.04900000000001</v>
-      </c>
-      <c r="E1063" t="n">
-        <v>99.345</v>
-      </c>
-      <c r="F1063" t="n">
-        <v>99.121</v>
-      </c>
-    </row>
-    <row r="1064" spans="1:7">
-      <c r="A1064" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B1064" t="n">
-        <v>99.197</v>
-      </c>
-      <c r="C1064" t="n">
-        <v>99.39</v>
-      </c>
-      <c r="D1064" t="n">
-        <v>98.982</v>
-      </c>
-      <c r="E1064" t="n">
-        <v>99.322</v>
-      </c>
-      <c r="F1064" t="n">
-        <v>99.09099999999999</v>
-      </c>
-    </row>
-    <row r="1065" spans="1:7">
-      <c r="A1065" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B1065" t="n">
-        <v>99.32299999999999</v>
-      </c>
-      <c r="C1065" t="n">
-        <v>99.557</v>
-      </c>
-      <c r="D1065" t="n">
-        <v>99.113</v>
-      </c>
-      <c r="E1065" t="n">
-        <v>99.464</v>
-      </c>
-      <c r="F1065" t="n">
-        <v>99.2</v>
-      </c>
-    </row>
-    <row r="1066" spans="1:7">
-      <c r="A1066" t="s">
-        <v>1071</v>
-      </c>
-      <c r="B1066" t="n">
-        <v>99.54933333333334</v>
-      </c>
-      <c r="C1066" t="n">
-        <v>99.642</v>
-      </c>
-      <c r="D1066" t="n">
-        <v>99.44199999999999</v>
-      </c>
-      <c r="E1066" t="n">
-        <v>99.60899999999999</v>
-      </c>
-      <c r="F1066" t="n">
-        <v>99.47799999999999</v>
-      </c>
-    </row>
-    <row r="1067" spans="1:7">
-      <c r="A1067" t="s">
-        <v>1072</v>
-      </c>
-      <c r="B1067" t="n">
-        <v>99.60275</v>
-      </c>
-      <c r="C1067" t="n">
-        <v>99.69</v>
-      </c>
-      <c r="D1067" t="n">
-        <v>99.52200000000001</v>
-      </c>
-      <c r="E1067" t="n">
-        <v>99.628</v>
-      </c>
-      <c r="F1067" t="n">
-        <v>99.569</v>
-      </c>
-    </row>
-    <row r="1068" spans="1:7">
-      <c r="A1068" t="s">
-        <v>1073</v>
-      </c>
-      <c r="B1068" t="n">
-        <v>99.55366666666667</v>
-      </c>
-      <c r="C1068" t="n">
-        <v>99.643</v>
-      </c>
-      <c r="D1068" t="n">
-        <v>99.443</v>
-      </c>
-      <c r="E1068" t="n">
-        <v>99.601</v>
-      </c>
-      <c r="F1068" t="n">
-        <v>99.508</v>
-      </c>
-    </row>
-    <row r="1069" spans="1:7">
-      <c r="A1069" t="s">
-        <v>1074</v>
-      </c>
-      <c r="B1069" t="n">
-        <v>99.55191666666667</v>
-      </c>
-      <c r="C1069" t="n">
-        <v>99.658</v>
-      </c>
-      <c r="D1069" t="n">
-        <v>99.444</v>
-      </c>
-      <c r="E1069" t="n">
-        <v>99.592</v>
-      </c>
-      <c r="F1069" t="n">
-        <v>99.502</v>
-      </c>
-    </row>
-    <row r="1070" spans="1:7">
-      <c r="A1070" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B1070" t="n">
-        <v>99.65341666666667</v>
-      </c>
-      <c r="C1070" t="n">
-        <v>99.724</v>
-      </c>
-      <c r="D1070" t="n">
-        <v>99.57299999999999</v>
-      </c>
-      <c r="E1070" t="n">
-        <v>99.67400000000001</v>
-      </c>
-      <c r="F1070" t="n">
-        <v>99.636</v>
-      </c>
-    </row>
-    <row r="1071" spans="1:7">
-      <c r="A1071" t="s">
-        <v>1076</v>
-      </c>
-      <c r="B1071" t="n">
-        <v>99.62375</v>
-      </c>
-      <c r="C1071" t="n">
-        <v>99.724</v>
-      </c>
-      <c r="D1071" t="n">
-        <v>99.49299999999999</v>
-      </c>
-      <c r="E1071" t="n">
-        <v>99.672</v>
-      </c>
-      <c r="F1071" t="n">
-        <v>99.56100000000001</v>
-      </c>
-    </row>
-    <row r="1072" spans="1:7">
-      <c r="A1072" t="s">
-        <v>1077</v>
-      </c>
-      <c r="B1072" t="n">
-        <v>99.68075</v>
-      </c>
-      <c r="C1072" t="n">
-        <v>99.791</v>
-      </c>
-      <c r="D1072" t="n">
-        <v>99.502</v>
-      </c>
-      <c r="E1072" t="n">
-        <v>99.76900000000001</v>
-      </c>
-      <c r="F1072" t="n">
-        <v>99.565</v>
-      </c>
-    </row>
-    <row r="1073" spans="1:7">
-      <c r="A1073" t="s">
-        <v>1078</v>
-      </c>
-      <c r="B1073" t="n">
-        <v>99.77283333333334</v>
-      </c>
-      <c r="C1073" t="n">
-        <v>99.798</v>
-      </c>
-      <c r="D1073" t="n">
-        <v>99.76000000000001</v>
-      </c>
-      <c r="E1073" t="n">
-        <v>99.776</v>
-      </c>
-      <c r="F1073" t="n">
-        <v>99.768</v>
-      </c>
-    </row>
-    <row r="1074" spans="1:7">
-      <c r="A1074" t="s">
-        <v>1079</v>
-      </c>
-      <c r="B1074" t="n">
-        <v>99.77416666666667</v>
-      </c>
-      <c r="C1074" t="n">
-        <v>99.786</v>
-      </c>
-      <c r="D1074" t="n">
-        <v>99.762</v>
-      </c>
-      <c r="E1074" t="n">
-        <v>99.78</v>
-      </c>
-      <c r="F1074" t="n">
-        <v>99.771</v>
-      </c>
-    </row>
-    <row r="1075" spans="1:7">
-      <c r="A1075" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B1075" t="n">
-        <v>99.77333333333333</v>
-      </c>
-      <c r="C1075" t="n">
-        <v>99.785</v>
-      </c>
-      <c r="D1075" t="n">
-        <v>99.761</v>
-      </c>
-      <c r="E1075" t="n">
-        <v>99.77800000000001</v>
-      </c>
-      <c r="F1075" t="n">
-        <v>99.76900000000001</v>
-      </c>
-    </row>
-    <row r="1076" spans="1:7">
-      <c r="A1076" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B1076" t="n">
-        <v>99.77</v>
-      </c>
-      <c r="C1076" t="n">
-        <v>99.783</v>
-      </c>
-      <c r="D1076" t="n">
-        <v>99.758</v>
-      </c>
-      <c r="E1076" t="n">
-        <v>99.77500000000001</v>
-      </c>
-      <c r="F1076" t="n">
-        <v>99.76600000000001</v>
-      </c>
-    </row>
-    <row r="1077" spans="1:7">
-      <c r="A1077" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B1077" t="n">
-        <v>99.76824999999999</v>
-      </c>
-      <c r="C1077" t="n">
-        <v>99.779</v>
-      </c>
-      <c r="D1077" t="n">
-        <v>99.756</v>
-      </c>
-      <c r="E1077" t="n">
-        <v>99.77</v>
-      </c>
-      <c r="F1077" t="n">
-        <v>99.76600000000001</v>
-      </c>
-    </row>
-    <row r="1078" spans="1:7">
-      <c r="A1078" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B1078" t="n">
-        <v>99.73783333333333</v>
-      </c>
-      <c r="C1078" t="n">
-        <v>99.77800000000001</v>
-      </c>
-      <c r="D1078" t="n">
-        <v>99.533</v>
-      </c>
-      <c r="E1078" t="n">
-        <v>99.768</v>
-      </c>
-      <c r="F1078" t="n">
-        <v>99.599</v>
-      </c>
-    </row>
-    <row r="1079" spans="1:7">
-      <c r="A1079" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B1079" t="n">
-        <v>99.15966666666667</v>
-      </c>
-      <c r="C1079" t="n">
-        <v>99.699</v>
-      </c>
-      <c r="D1079" t="n">
-        <v>98.47499999999999</v>
-      </c>
-      <c r="E1079" t="n">
-        <v>99.637</v>
-      </c>
-      <c r="F1079" t="n">
-        <v>98.649</v>
-      </c>
-    </row>
-    <row r="1080" spans="1:7">
-      <c r="A1080" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B1080" t="n">
-        <v>99.429</v>
-      </c>
-      <c r="C1080" t="n">
-        <v>99.64400000000001</v>
-      </c>
-      <c r="D1080" t="n">
-        <v>98.902</v>
-      </c>
-      <c r="E1080" t="n">
-        <v>99.60599999999999</v>
-      </c>
-      <c r="F1080" t="n">
-        <v>99.01000000000001</v>
-      </c>
-    </row>
-    <row r="1081" spans="1:7">
-      <c r="A1081" t="s">
-        <v>1086</v>
-      </c>
-      <c r="B1081" t="n">
-        <v>96.64683333333333</v>
-      </c>
-      <c r="C1081" t="n">
-        <v>98.86799999999999</v>
-      </c>
-      <c r="D1081" t="n">
-        <v>95.22499999999999</v>
-      </c>
-      <c r="E1081" t="n">
-        <v>98.586</v>
-      </c>
-      <c r="F1081" t="n">
-        <v>95.529</v>
-      </c>
-    </row>
-    <row r="1082" spans="1:7">
-      <c r="A1082" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B1082" t="n">
-        <v>98.069</v>
-      </c>
-      <c r="C1082" t="n">
-        <v>98.792</v>
-      </c>
-      <c r="D1082" t="n">
-        <v>96.60599999999999</v>
-      </c>
-      <c r="E1082" t="n">
-        <v>98.672</v>
-      </c>
-      <c r="F1082" t="n">
-        <v>96.923</v>
-      </c>
-    </row>
-    <row r="1083" spans="1:7">
-      <c r="A1083" t="s">
-        <v>1088</v>
-      </c>
-      <c r="B1083" t="n">
-        <v>99.03608333333334</v>
-      </c>
-      <c r="C1083" t="n">
-        <v>99.533</v>
-      </c>
-      <c r="D1083" t="n">
-        <v>97.43000000000001</v>
-      </c>
-      <c r="E1083" t="n">
-        <v>99.447</v>
-      </c>
-      <c r="F1083" t="n">
-        <v>97.626</v>
-      </c>
-    </row>
-    <row r="1084" spans="1:7">
-      <c r="A1084" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B1084" t="n">
-        <v>97.95266666666667</v>
-      </c>
-      <c r="C1084" t="n">
-        <v>99.303</v>
-      </c>
-      <c r="D1084" t="n">
-        <v>93.22</v>
-      </c>
-      <c r="E1084" t="n">
-        <v>99.19499999999999</v>
-      </c>
-      <c r="F1084" t="n">
-        <v>94.254</v>
-      </c>
-    </row>
-    <row r="1085" spans="1:7">
-      <c r="A1085" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B1085" t="n">
-        <v>92.22608333333334</v>
-      </c>
-      <c r="C1085" t="n">
-        <v>94.70099999999999</v>
-      </c>
-      <c r="D1085" t="n">
-        <v>86.852</v>
-      </c>
-      <c r="E1085" t="n">
-        <v>94.27</v>
-      </c>
-      <c r="F1085" t="n">
-        <v>88.64700000000001</v>
-      </c>
-    </row>
-    <row r="1086" spans="1:7">
-      <c r="A1086" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B1086" t="n">
-        <v>98.56191666666666</v>
-      </c>
-      <c r="C1086" t="n">
-        <v>99.51600000000001</v>
-      </c>
-      <c r="D1086" t="n">
-        <v>93.94499999999999</v>
-      </c>
-      <c r="E1086" t="n">
-        <v>99.46899999999999</v>
-      </c>
-      <c r="F1086" t="n">
-        <v>94.86499999999999</v>
-      </c>
-    </row>
-    <row r="1087" spans="1:7">
-      <c r="A1087" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B1087" t="n">
-        <v>99.25024999999999</v>
-      </c>
-      <c r="C1087" t="n">
-        <v>99.636</v>
-      </c>
-      <c r="D1087" t="n">
-        <v>98.318</v>
-      </c>
-      <c r="E1087" t="n">
-        <v>99.581</v>
-      </c>
-      <c r="F1087" t="n">
-        <v>98.55200000000001</v>
-      </c>
-    </row>
-    <row r="1088" spans="1:7">
-      <c r="A1088" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B1088" t="n">
-        <v>99.11041666666667</v>
-      </c>
-      <c r="C1088" t="n">
-        <v>99.583</v>
-      </c>
-      <c r="D1088" t="n">
-        <v>98.414</v>
-      </c>
-      <c r="E1088" t="n">
-        <v>99.51900000000001</v>
-      </c>
-      <c r="F1088" t="n">
-        <v>98.59399999999999</v>
-      </c>
-    </row>
-    <row r="1089" spans="1:7">
-      <c r="A1089" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B1089" t="n">
-        <v>99.60466666666667</v>
-      </c>
-      <c r="C1089" t="n">
-        <v>99.709</v>
-      </c>
-      <c r="D1089" t="n">
-        <v>99.50700000000001</v>
-      </c>
-      <c r="E1089" t="n">
-        <v>99.654</v>
-      </c>
-      <c r="F1089" t="n">
-        <v>99.55800000000001</v>
-      </c>
-    </row>
-    <row r="1090" spans="1:7">
-      <c r="A1090" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B1090" t="n">
-        <v>99.73625</v>
-      </c>
-      <c r="C1090" t="n">
-        <v>99.78400000000001</v>
-      </c>
-      <c r="D1090" t="n">
-        <v>99.629</v>
-      </c>
-      <c r="E1090" t="n">
-        <v>99.771</v>
-      </c>
-      <c r="F1090" t="n">
-        <v>99.676</v>
-      </c>
-    </row>
-    <row r="1091" spans="1:7">
-      <c r="A1091" t="s">
-        <v>1096</v>
-      </c>
-      <c r="B1091" t="n">
-        <v>99.77200000000001</v>
-      </c>
-      <c r="C1091" t="n">
-        <v>99.785</v>
-      </c>
-      <c r="D1091" t="n">
-        <v>99.69799999999999</v>
-      </c>
-      <c r="E1091" t="n">
-        <v>99.776</v>
-      </c>
-      <c r="F1091" t="n">
-        <v>99.762</v>
-      </c>
-    </row>
-    <row r="1092" spans="1:7">
-      <c r="A1092" t="s">
-        <v>1097</v>
-      </c>
-      <c r="B1092" t="n">
-        <v>99.77291666666666</v>
-      </c>
-      <c r="C1092" t="n">
-        <v>99.785</v>
-      </c>
-      <c r="D1092" t="n">
-        <v>99.76000000000001</v>
-      </c>
-      <c r="E1092" t="n">
-        <v>99.77500000000001</v>
-      </c>
-      <c r="F1092" t="n">
-        <v>99.77</v>
-      </c>
-    </row>
-    <row r="1093" spans="1:7">
-      <c r="A1093" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B1093" t="n">
-        <v>99.77249999999999</v>
-      </c>
-      <c r="C1093" t="n">
-        <v>99.785</v>
-      </c>
-      <c r="D1093" t="n">
-        <v>99.762</v>
-      </c>
-      <c r="E1093" t="n">
-        <v>99.777</v>
-      </c>
-      <c r="F1093" t="n">
-        <v>99.771</v>
-      </c>
-    </row>
-    <row r="1094" spans="1:7">
-      <c r="A1094" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B1094" t="n">
-        <v>99.77249999999999</v>
-      </c>
-      <c r="C1094" t="n">
-        <v>99.785</v>
-      </c>
-      <c r="D1094" t="n">
-        <v>99.761</v>
-      </c>
-      <c r="E1094" t="n">
-        <v>99.776</v>
-      </c>
-      <c r="F1094" t="n">
-        <v>99.77</v>
-      </c>
-    </row>
-    <row r="1095" spans="1:7">
-      <c r="A1095" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B1095" t="n">
-        <v>99.77225</v>
-      </c>
-      <c r="C1095" t="n">
-        <v>99.783</v>
-      </c>
-      <c r="D1095" t="n">
-        <v>99.759</v>
-      </c>
-      <c r="E1095" t="n">
-        <v>99.776</v>
-      </c>
-      <c r="F1095" t="n">
-        <v>99.768</v>
-      </c>
-    </row>
-    <row r="1096" spans="1:7">
-      <c r="A1096" t="s">
-        <v>1101</v>
-      </c>
-      <c r="B1096" t="n">
-        <v>99.65925</v>
-      </c>
-      <c r="C1096" t="n">
-        <v>99.782</v>
-      </c>
-      <c r="D1096" t="n">
-        <v>99.369</v>
-      </c>
-      <c r="E1096" t="n">
-        <v>99.76900000000001</v>
-      </c>
-      <c r="F1096" t="n">
-        <v>99.42700000000001</v>
-      </c>
-    </row>
-    <row r="1097" spans="1:7">
-      <c r="A1097" t="s">
-        <v>1102</v>
-      </c>
-      <c r="B1097" t="n">
-        <v>99.52325</v>
-      </c>
-      <c r="C1097" t="n">
-        <v>99.646</v>
-      </c>
-      <c r="D1097" t="n">
-        <v>99.17400000000001</v>
-      </c>
-      <c r="E1097" t="n">
-        <v>99.60299999999999</v>
-      </c>
-      <c r="F1097" t="n">
-        <v>99.29600000000001</v>
-      </c>
-    </row>
-    <row r="1098" spans="1:7">
-      <c r="A1098" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B1098" t="n">
-        <v>98.76408333333333</v>
-      </c>
-      <c r="C1098" t="n">
-        <v>99.504</v>
-      </c>
-      <c r="D1098" t="n">
-        <v>97.956</v>
-      </c>
-      <c r="E1098" t="n">
-        <v>99.45399999999999</v>
-      </c>
-      <c r="F1098" t="n">
-        <v>98.193</v>
-      </c>
-    </row>
-    <row r="1099" spans="1:7">
-      <c r="A1099" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B1099" t="n">
-        <v>96.48099999999999</v>
-      </c>
-      <c r="C1099" t="n">
-        <v>98.494</v>
-      </c>
-      <c r="D1099" t="n">
-        <v>93.875</v>
-      </c>
-      <c r="E1099" t="n">
-        <v>98.393</v>
-      </c>
-      <c r="F1099" t="n">
-        <v>94.343</v>
-      </c>
-    </row>
-    <row r="1100" spans="1:7">
-      <c r="A1100" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B1100" t="n">
-        <v>94.56683333333334</v>
-      </c>
-      <c r="C1100" t="n">
-        <v>96.328</v>
-      </c>
-      <c r="D1100" t="n">
-        <v>92.532</v>
-      </c>
-      <c r="E1100" t="n">
-        <v>95.801</v>
-      </c>
-      <c r="F1100" t="n">
-        <v>93.229</v>
-      </c>
-    </row>
-    <row r="1101" spans="1:7">
-      <c r="A1101" t="s">
-        <v>1106</v>
-      </c>
-      <c r="B1101" t="n">
-        <v>93.45283333333333</v>
-      </c>
-      <c r="C1101" t="n">
-        <v>94.97799999999999</v>
-      </c>
-      <c r="D1101" t="n">
-        <v>90.164</v>
-      </c>
-      <c r="E1101" t="n">
-        <v>94.669</v>
-      </c>
-      <c r="F1101" t="n">
-        <v>90.661</v>
-      </c>
-    </row>
-    <row r="1102" spans="1:7">
-      <c r="A1102" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B1102" t="n">
-        <v>91.27800000000001</v>
-      </c>
-      <c r="C1102" t="n">
-        <v>94.126</v>
-      </c>
-      <c r="D1102" t="n">
-        <v>86.447</v>
-      </c>
-      <c r="E1102" t="n">
-        <v>93.381</v>
-      </c>
-      <c r="F1102" t="n">
-        <v>88.03</v>
-      </c>
-    </row>
-    <row r="1103" spans="1:7">
-      <c r="A1103" t="s">
-        <v>1108</v>
-      </c>
-      <c r="B1103" t="n">
-        <v>83.74225</v>
-      </c>
-      <c r="C1103" t="n">
-        <v>91.286</v>
-      </c>
-      <c r="D1103" t="n">
-        <v>74.316</v>
-      </c>
-      <c r="E1103" t="n">
-        <v>90.26900000000001</v>
-      </c>
-      <c r="F1103" t="n">
-        <v>78.29900000000001</v>
-      </c>
-    </row>
-    <row r="1104" spans="1:7">
-      <c r="A1104" t="s">
-        <v>1109</v>
-      </c>
-      <c r="B1104" t="n">
-        <v>95.81825000000001</v>
-      </c>
-      <c r="C1104" t="n">
-        <v>98.78</v>
-      </c>
-      <c r="D1104" t="n">
-        <v>90.014</v>
-      </c>
-      <c r="E1104" t="n">
-        <v>98.682</v>
-      </c>
-      <c r="F1104" t="n">
-        <v>90.78</v>
-      </c>
-    </row>
-    <row r="1105" spans="1:7">
-      <c r="A1105" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B1105" t="n">
-        <v>99.18566666666666</v>
-      </c>
-      <c r="C1105" t="n">
-        <v>99.417</v>
-      </c>
-      <c r="D1105" t="n">
-        <v>98.816</v>
-      </c>
-      <c r="E1105" t="n">
-        <v>99.351</v>
-      </c>
-      <c r="F1105" t="n">
-        <v>98.876</v>
-      </c>
-    </row>
-    <row r="1106" spans="1:7">
-      <c r="A1106" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B1106" t="n">
-        <v>99.411</v>
-      </c>
-      <c r="C1106" t="n">
-        <v>99.52</v>
-      </c>
-      <c r="D1106" t="n">
-        <v>99.30500000000001</v>
-      </c>
-      <c r="E1106" t="n">
-        <v>99.45</v>
-      </c>
-      <c r="F1106" t="n">
-        <v>99.342</v>
-      </c>
-    </row>
-    <row r="1107" spans="1:7">
-      <c r="A1107" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B1107" t="n">
-        <v>99.5305</v>
-      </c>
-      <c r="C1107" t="n">
-        <v>99.64700000000001</v>
-      </c>
-      <c r="D1107" t="n">
-        <v>99.404</v>
-      </c>
-      <c r="E1107" t="n">
-        <v>99.581</v>
-      </c>
-      <c r="F1107" t="n">
-        <v>99.446</v>
-      </c>
-    </row>
-    <row r="1108" spans="1:7">
-      <c r="A1108" t="s">
-        <v>1113</v>
-      </c>
-      <c r="B1108" t="n">
-        <v>99.51925</v>
-      </c>
-      <c r="C1108" t="n">
-        <v>99.651</v>
-      </c>
-      <c r="D1108" t="n">
-        <v>99.307</v>
-      </c>
-      <c r="E1108" t="n">
-        <v>99.58199999999999</v>
-      </c>
-      <c r="F1108" t="n">
-        <v>99.40300000000001</v>
-      </c>
-    </row>
-    <row r="1109" spans="1:7">
-      <c r="A1109" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B1109" t="n">
-        <v>99.4905</v>
-      </c>
-      <c r="C1109" t="n">
-        <v>99.584</v>
-      </c>
-      <c r="D1109" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="E1109" t="n">
-        <v>99.51600000000001</v>
-      </c>
-      <c r="F1109" t="n">
-        <v>99.455</v>
-      </c>
-    </row>
-    <row r="1110" spans="1:7">
-      <c r="A1110" t="s">
-        <v>1115</v>
-      </c>
-      <c r="B1110" t="n">
-        <v>99.18216666666666</v>
-      </c>
-      <c r="C1110" t="n">
-        <v>99.504</v>
-      </c>
-      <c r="D1110" t="n">
-        <v>98.94199999999999</v>
-      </c>
-      <c r="E1110" t="n">
-        <v>99.46599999999999</v>
-      </c>
-      <c r="F1110" t="n">
-        <v>98.96899999999999</v>
-      </c>
-    </row>
-    <row r="1111" spans="1:7">
-      <c r="A1111" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B1111" t="n">
-        <v>98.16833333333334</v>
-      </c>
-      <c r="C1111" t="n">
-        <v>99.05500000000001</v>
-      </c>
-      <c r="D1111" t="n">
-        <v>97.134</v>
-      </c>
-      <c r="E1111" t="n">
-        <v>98.895</v>
-      </c>
-      <c r="F1111" t="n">
-        <v>97.36499999999999</v>
-      </c>
-    </row>
-    <row r="1112" spans="1:7">
-      <c r="A1112" t="s">
-        <v>1117</v>
-      </c>
-      <c r="B1112" t="n">
-        <v>95.85291666666667</v>
-      </c>
-      <c r="C1112" t="n">
-        <v>97.661</v>
-      </c>
-      <c r="D1112" t="n">
-        <v>93.517</v>
-      </c>
-      <c r="E1112" t="n">
-        <v>97.55800000000001</v>
-      </c>
-      <c r="F1112" t="n">
-        <v>93.90000000000001</v>
-      </c>
-    </row>
-    <row r="1113" spans="1:7">
-      <c r="A1113" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B1113" t="n">
-        <v>94.06783333333334</v>
-      </c>
-      <c r="C1113" t="n">
-        <v>95.502</v>
-      </c>
-      <c r="D1113" t="n">
-        <v>92.28</v>
-      </c>
-      <c r="E1113" t="n">
-        <v>95.158</v>
-      </c>
-      <c r="F1113" t="n">
-        <v>92.49299999999999</v>
-      </c>
-    </row>
-    <row r="1114" spans="1:7">
-      <c r="A1114" t="s">
-        <v>1119</v>
-      </c>
-      <c r="B1114" t="n">
-        <v>90.78491666666666</v>
-      </c>
-      <c r="C1114" t="n">
-        <v>92.476</v>
-      </c>
-      <c r="D1114" t="n">
-        <v>88.38800000000001</v>
-      </c>
-      <c r="E1114" t="n">
-        <v>91.94199999999999</v>
-      </c>
-      <c r="F1114" t="n">
-        <v>89.04900000000001</v>
-      </c>
-    </row>
-    <row r="1115" spans="1:7">
-      <c r="A1115" t="s">
-        <v>1120</v>
-      </c>
-      <c r="B1115" t="n">
-        <v>93.92166666666667</v>
-      </c>
-      <c r="C1115" t="n">
-        <v>95.36199999999999</v>
-      </c>
-      <c r="D1115" t="n">
-        <v>92.18000000000001</v>
-      </c>
-      <c r="E1115" t="n">
-        <v>95.139</v>
-      </c>
-      <c r="F1115" t="n">
-        <v>92.452</v>
-      </c>
-    </row>
-    <row r="1116" spans="1:7">
-      <c r="A1116" t="s">
-        <v>1121</v>
-      </c>
-      <c r="B1116" t="n">
-        <v>86.91841666666667</v>
-      </c>
-      <c r="C1116" t="n">
-        <v>94.78100000000001</v>
-      </c>
-      <c r="D1116" t="n">
-        <v>78.53700000000001</v>
-      </c>
-      <c r="E1116" t="n">
-        <v>94.642</v>
-      </c>
-      <c r="F1116" t="n">
-        <v>79.247</v>
-      </c>
-    </row>
-    <row r="1117" spans="1:7">
-      <c r="A1117" t="s">
-        <v>1122</v>
-      </c>
-      <c r="B1117" t="n">
-        <v>82.01858333333334</v>
-      </c>
-      <c r="C1117" t="n">
-        <v>85.279</v>
-      </c>
-      <c r="D1117" t="n">
-        <v>78.884</v>
-      </c>
-      <c r="E1117" t="n">
-        <v>84.458</v>
-      </c>
-      <c r="F1117" t="n">
-        <v>79.55200000000001</v>
-      </c>
-    </row>
-    <row r="1118" spans="1:7">
-      <c r="A1118" t="s">
-        <v>1123</v>
-      </c>
-      <c r="B1118" t="n">
-        <v>83.02083333333333</v>
-      </c>
-      <c r="C1118" t="n">
-        <v>86.346</v>
-      </c>
-      <c r="D1118" t="n">
-        <v>79.56999999999999</v>
-      </c>
-      <c r="E1118" t="n">
-        <v>85.61799999999999</v>
-      </c>
-      <c r="F1118" t="n">
-        <v>80.16500000000001</v>
-      </c>
-    </row>
-    <row r="1119" spans="1:7">
-      <c r="A1119" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B1119" t="n">
-        <v>87.02124999999999</v>
-      </c>
-      <c r="C1119" t="n">
-        <v>88.61499999999999</v>
-      </c>
-      <c r="D1119" t="n">
-        <v>84.422</v>
-      </c>
-      <c r="E1119" t="n">
-        <v>88.355</v>
-      </c>
-      <c r="F1119" t="n">
-        <v>85.045</v>
-      </c>
-    </row>
-    <row r="1120" spans="1:7">
-      <c r="A1120" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B1120" t="n">
-        <v>83.61558333333333</v>
-      </c>
-      <c r="C1120" t="n">
-        <v>85.60599999999999</v>
-      </c>
-      <c r="D1120" t="n">
-        <v>81.01900000000001</v>
-      </c>
-      <c r="E1120" t="n">
-        <v>85.00700000000001</v>
-      </c>
-      <c r="F1120" t="n">
-        <v>81.739</v>
-      </c>
-    </row>
-    <row r="1121" spans="1:7">
-      <c r="A1121" t="s">
-        <v>1126</v>
-      </c>
-      <c r="B1121" t="n">
-        <v>78.74916666666667</v>
-      </c>
-      <c r="C1121" t="n">
-        <v>83.325</v>
-      </c>
-      <c r="D1121" t="n">
-        <v>73.033</v>
-      </c>
-      <c r="E1121" t="n">
-        <v>82.648</v>
-      </c>
-      <c r="F1121" t="n">
-        <v>75.303</v>
-      </c>
-    </row>
-    <row r="1122" spans="1:7">
-      <c r="A1122" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B1122" t="n">
-        <v>71.53358333333334</v>
-      </c>
-      <c r="C1122" t="n">
-        <v>77.06</v>
-      </c>
-      <c r="D1122" t="n">
-        <v>66.126</v>
-      </c>
-      <c r="E1122" t="n">
-        <v>74.51000000000001</v>
-      </c>
-      <c r="F1122" t="n">
-        <v>68.854</v>
-      </c>
-    </row>
-    <row r="1123" spans="1:7">
-      <c r="A1123" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B1123" t="n">
-        <v>69.12475000000001</v>
-      </c>
-      <c r="C1123" t="n">
-        <v>74.021</v>
-      </c>
-      <c r="D1123" t="n">
-        <v>64.34999999999999</v>
-      </c>
-      <c r="E1123" t="n">
-        <v>72.178</v>
-      </c>
-      <c r="F1123" t="n">
-        <v>66.15600000000001</v>
-      </c>
-    </row>
-    <row r="1124" spans="1:7">
-      <c r="A1124" t="s">
-        <v>1129</v>
-      </c>
-      <c r="B1124" t="n">
-        <v>67.27141666666667</v>
-      </c>
-      <c r="C1124" t="n">
-        <v>71.95999999999999</v>
-      </c>
-      <c r="D1124" t="n">
-        <v>62.706</v>
-      </c>
-      <c r="E1124" t="n">
-        <v>70.54900000000001</v>
-      </c>
-      <c r="F1124" t="n">
-        <v>65.371</v>
-      </c>
-    </row>
-    <row r="1125" spans="1:7">
-      <c r="A1125" t="s">
-        <v>1130</v>
-      </c>
-      <c r="B1125" t="n">
-        <v>63.95591666666667</v>
-      </c>
-      <c r="C1125" t="n">
-        <v>68.36</v>
-      </c>
-      <c r="D1125" t="n">
-        <v>58.251</v>
-      </c>
-      <c r="E1125" t="n">
-        <v>66.69799999999999</v>
-      </c>
-      <c r="F1125" t="n">
-        <v>61.602</v>
-      </c>
-    </row>
-    <row r="1126" spans="1:7">
-      <c r="A1126" t="s">
-        <v>1131</v>
-      </c>
-      <c r="B1126" t="n">
-        <v>65.32516666666666</v>
-      </c>
-      <c r="C1126" t="n">
-        <v>71.94799999999999</v>
-      </c>
-      <c r="D1126" t="n">
-        <v>58.658</v>
-      </c>
-      <c r="E1126" t="n">
-        <v>67.95399999999999</v>
-      </c>
-      <c r="F1126" t="n">
-        <v>62.663</v>
-      </c>
-    </row>
-    <row r="1127" spans="1:7">
-      <c r="A1127" t="s">
-        <v>1132</v>
-      </c>
-      <c r="B1127" t="n">
-        <v>70.16916666666667</v>
-      </c>
-      <c r="C1127" t="n">
-        <v>75.76600000000001</v>
-      </c>
-      <c r="D1127" t="n">
-        <v>64.92700000000001</v>
-      </c>
-      <c r="E1127" t="n">
-        <v>73.22</v>
-      </c>
-      <c r="F1127" t="n">
-        <v>67.34099999999999</v>
-      </c>
-    </row>
-    <row r="1128" spans="1:7">
-      <c r="A1128" t="s">
-        <v>1133</v>
-      </c>
-      <c r="B1128" t="n">
-        <v>78.11341666666667</v>
-      </c>
-      <c r="C1128" t="n">
-        <v>85.51000000000001</v>
-      </c>
-      <c r="D1128" t="n">
-        <v>72.196</v>
-      </c>
-      <c r="E1128" t="n">
-        <v>83.547</v>
-      </c>
-      <c r="F1128" t="n">
-        <v>74.36</v>
-      </c>
-    </row>
-    <row r="1129" spans="1:7">
-      <c r="A1129" t="s">
-        <v>1134</v>
-      </c>
-      <c r="B1129" t="n">
-        <v>82.87983333333334</v>
-      </c>
-      <c r="C1129" t="n">
-        <v>85.712</v>
-      </c>
-      <c r="D1129" t="n">
-        <v>78.92</v>
-      </c>
-      <c r="E1129" t="n">
-        <v>84.27800000000001</v>
-      </c>
-      <c r="F1129" t="n">
-        <v>80.988</v>
-      </c>
-    </row>
-    <row r="1130" spans="1:7">
-      <c r="A1130" t="s">
-        <v>1135</v>
-      </c>
-      <c r="B1130" t="n">
-        <v>88.26375</v>
-      </c>
-      <c r="C1130" t="n">
-        <v>92.879</v>
-      </c>
-      <c r="D1130" t="n">
-        <v>82.977</v>
-      </c>
-      <c r="E1130" t="n">
-        <v>92.321</v>
-      </c>
-      <c r="F1130" t="n">
-        <v>83.614</v>
-      </c>
-    </row>
-    <row r="1131" spans="1:7">
-      <c r="A1131" t="s">
-        <v>1136</v>
-      </c>
-      <c r="B1131" t="n">
-        <v>91.85491666666667</v>
-      </c>
-      <c r="C1131" t="n">
-        <v>93.846</v>
-      </c>
-      <c r="D1131" t="n">
-        <v>89.90000000000001</v>
-      </c>
-      <c r="E1131" t="n">
-        <v>93.236</v>
-      </c>
-      <c r="F1131" t="n">
-        <v>90.137</v>
-      </c>
-    </row>
-    <row r="1132" spans="1:7">
-      <c r="A1132" t="s">
-        <v>1137</v>
-      </c>
-      <c r="B1132" t="n">
-        <v>94.73608333333334</v>
-      </c>
-      <c r="C1132" t="n">
-        <v>96.029</v>
-      </c>
-      <c r="D1132" t="n">
-        <v>92.926</v>
-      </c>
-      <c r="E1132" t="n">
-        <v>95.643</v>
-      </c>
-      <c r="F1132" t="n">
-        <v>93.196</v>
-      </c>
-    </row>
-    <row r="1133" spans="1:7">
-      <c r="A1133" t="s">
-        <v>1138</v>
-      </c>
-      <c r="B1133" t="n">
-        <v>96.59708333333333</v>
-      </c>
-      <c r="C1133" t="n">
-        <v>97.41</v>
-      </c>
-      <c r="D1133" t="n">
-        <v>95.84999999999999</v>
-      </c>
-      <c r="E1133" t="n">
-        <v>97.21599999999999</v>
-      </c>
-      <c r="F1133" t="n">
-        <v>95.95099999999999</v>
-      </c>
-    </row>
-    <row r="1134" spans="1:7">
-      <c r="A1134" t="s">
-        <v>1139</v>
-      </c>
-      <c r="B1134" t="n">
-        <v>98.72016666666667</v>
-      </c>
-      <c r="C1134" t="n">
-        <v>99.19199999999999</v>
-      </c>
-      <c r="D1134" t="n">
-        <v>97.369</v>
-      </c>
-      <c r="E1134" t="n">
-        <v>99.161</v>
-      </c>
-      <c r="F1134" t="n">
-        <v>97.551</v>
-      </c>
-    </row>
-    <row r="1135" spans="1:7">
-      <c r="A1135" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B1135" t="n">
-        <v>99.32308333333333</v>
-      </c>
-      <c r="C1135" t="n">
-        <v>99.474</v>
-      </c>
-      <c r="D1135" t="n">
-        <v>99.169</v>
-      </c>
-      <c r="E1135" t="n">
-        <v>99.42</v>
-      </c>
-      <c r="F1135" t="n">
-        <v>99.20699999999999</v>
-      </c>
-    </row>
-    <row r="1136" spans="1:7">
-      <c r="A1136" t="s">
-        <v>1141</v>
-      </c>
-      <c r="B1136" t="n">
-        <v>99.47533333333334</v>
-      </c>
-      <c r="C1136" t="n">
-        <v>99.586</v>
-      </c>
-      <c r="D1136" t="n">
-        <v>99.402</v>
-      </c>
-      <c r="E1136" t="n">
-        <v>99.51900000000001</v>
-      </c>
-      <c r="F1136" t="n">
-        <v>99.425</v>
-      </c>
-    </row>
-    <row r="1137" spans="1:7">
-      <c r="A1137" t="s">
-        <v>1142</v>
-      </c>
-      <c r="B1137" t="n">
-        <v>99.58216666666667</v>
-      </c>
-      <c r="C1137" t="n">
-        <v>99.68000000000001</v>
-      </c>
-      <c r="D1137" t="n">
-        <v>99.465</v>
-      </c>
-      <c r="E1137" t="n">
-        <v>99.62</v>
-      </c>
-      <c r="F1137" t="n">
-        <v>99.518</v>
       </c>
     </row>
   </sheetData>
